--- a/Head_Data.xlsx
+++ b/Head_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BZ4"/>
+  <dimension ref="A1:BO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,274 +637,208 @@
       <c r="BO1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>338.6288146972656</v>
+        <v>349.9359130859375</v>
       </c>
       <c r="C2" t="n">
-        <v>339.8459167480469</v>
+        <v>346.232421875</v>
       </c>
       <c r="D2" t="n">
-        <v>339.7988586425781</v>
+        <v>339.705810546875</v>
       </c>
       <c r="E2" t="n">
-        <v>339.0797729492188</v>
+        <v>336.4443664550781</v>
       </c>
       <c r="F2" t="n">
-        <v>338.1416015625</v>
+        <v>332.963623046875</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5691528320312</v>
+        <v>328.6864624023438</v>
       </c>
       <c r="H2" t="n">
-        <v>344.7539978027344</v>
+        <v>326.9609069824219</v>
       </c>
       <c r="I2" t="n">
-        <v>344.5301513671875</v>
+        <v>325.2894287109375</v>
       </c>
       <c r="J2" t="n">
-        <v>343.6327514648438</v>
+        <v>322.7388916015625</v>
       </c>
       <c r="K2" t="n">
-        <v>343.2502746582031</v>
+        <v>321.8898315429688</v>
       </c>
       <c r="L2" t="n">
-        <v>342.6052551269531</v>
+        <v>321.7923583984375</v>
       </c>
       <c r="M2" t="n">
-        <v>342.0940856933594</v>
+        <v>321.9842834472656</v>
       </c>
       <c r="N2" t="n">
-        <v>341.7907104492188</v>
+        <v>322.3665771484375</v>
       </c>
       <c r="O2" t="n">
-        <v>342.0784912109375</v>
+        <v>323.4943237304688</v>
       </c>
       <c r="P2" t="n">
-        <v>342.22705078125</v>
+        <v>329.2122802734375</v>
       </c>
       <c r="Q2" t="n">
-        <v>342.4022827148438</v>
+        <v>331.7688598632812</v>
       </c>
       <c r="R2" t="n">
-        <v>342.8328857421875</v>
+        <v>333.8516845703125</v>
       </c>
       <c r="S2" t="n">
-        <v>343.2898559570312</v>
+        <v>334.25439453125</v>
       </c>
       <c r="T2" t="n">
-        <v>343.5330200195312</v>
+        <v>335.7257080078125</v>
       </c>
       <c r="U2" t="n">
-        <v>344.1027221679688</v>
+        <v>336.92041015625</v>
       </c>
       <c r="V2" t="n">
-        <v>344.7577514648438</v>
+        <v>339.9247436523438</v>
       </c>
       <c r="W2" t="n">
-        <v>345.7145690917969</v>
+        <v>341.671630859375</v>
       </c>
       <c r="X2" t="n">
-        <v>346.8116760253906</v>
+        <v>345.1946716308594</v>
       </c>
       <c r="Y2" t="n">
-        <v>349.646240234375</v>
+        <v>347.3147888183594</v>
       </c>
       <c r="Z2" t="n">
-        <v>351.13232421875</v>
+        <v>349.74267578125</v>
       </c>
       <c r="AA2" t="n">
-        <v>351.5960388183594</v>
+        <v>353.8862609863281</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.2149963378906</v>
+        <v>362.5930786132812</v>
       </c>
       <c r="AC2" t="n">
-        <v>352.4930419921875</v>
+        <v>367.8137512207031</v>
       </c>
       <c r="AD2" t="n">
-        <v>352.971435546875</v>
+        <v>373.8351135253906</v>
       </c>
       <c r="AE2" t="n">
-        <v>353.0681762695312</v>
+        <v>385.6817016601562</v>
       </c>
       <c r="AF2" t="n">
-        <v>353.2111206054688</v>
+        <v>400.1415710449219</v>
       </c>
       <c r="AG2" t="n">
-        <v>353.3013916015625</v>
+        <v>407.6916198730469</v>
       </c>
       <c r="AH2" t="n">
-        <v>353.1829833984375</v>
+        <v>416.5787353515625</v>
       </c>
       <c r="AI2" t="n">
-        <v>353.024658203125</v>
+        <v>432.1832885742188</v>
       </c>
       <c r="AJ2" t="n">
-        <v>352.8339233398438</v>
+        <v>437.512939453125</v>
       </c>
       <c r="AK2" t="n">
-        <v>352.7958679199219</v>
+        <v>447.7384033203125</v>
       </c>
       <c r="AL2" t="n">
-        <v>353.1564331054688</v>
+        <v>452.6666870117188</v>
       </c>
       <c r="AM2" t="n">
-        <v>353.4943237304688</v>
+        <v>462.3902893066406</v>
       </c>
       <c r="AN2" t="n">
-        <v>353.7940979003906</v>
+        <v>471.8139038085938</v>
       </c>
       <c r="AO2" t="n">
-        <v>354.1621398925781</v>
+        <v>474.7677001953125</v>
       </c>
       <c r="AP2" t="n">
-        <v>354.0198364257812</v>
+        <v>478.9625854492188</v>
       </c>
       <c r="AQ2" t="n">
-        <v>353.2365417480469</v>
+        <v>480.16748046875</v>
       </c>
       <c r="AR2" t="n">
-        <v>352.7880249023438</v>
+        <v>476.9152526855469</v>
       </c>
       <c r="AS2" t="n">
-        <v>351.7904052734375</v>
+        <v>473.6962890625</v>
       </c>
       <c r="AT2" t="n">
-        <v>349.3884887695312</v>
+        <v>471.867431640625</v>
       </c>
       <c r="AU2" t="n">
-        <v>346.5513916015625</v>
+        <v>469.3963012695312</v>
       </c>
       <c r="AV2" t="n">
-        <v>345.2387084960938</v>
+        <v>465.2503662109375</v>
       </c>
       <c r="AW2" t="n">
-        <v>343.6631774902344</v>
+        <v>455.7044067382812</v>
       </c>
       <c r="AX2" t="n">
-        <v>343.5351257324219</v>
+        <v>450.2481689453125</v>
       </c>
       <c r="AY2" t="n">
-        <v>343.4507751464844</v>
+        <v>444.1419067382812</v>
       </c>
       <c r="AZ2" t="n">
-        <v>343.2618408203125</v>
+        <v>430.9307250976562</v>
       </c>
       <c r="BA2" t="n">
-        <v>343.2275390625</v>
+        <v>418.9575805664062</v>
       </c>
       <c r="BB2" t="n">
-        <v>343.2484741210938</v>
+        <v>411.8933410644531</v>
       </c>
       <c r="BC2" t="n">
-        <v>343.27490234375</v>
+        <v>399.7188110351562</v>
       </c>
       <c r="BD2" t="n">
-        <v>343.2964782714844</v>
+        <v>393.4186096191406</v>
       </c>
       <c r="BE2" t="n">
-        <v>344.1922607421875</v>
+        <v>387.6712646484375</v>
       </c>
       <c r="BF2" t="n">
-        <v>346.1511535644531</v>
+        <v>376.8500366210938</v>
       </c>
       <c r="BG2" t="n">
-        <v>347.2710571289062</v>
+        <v>371.0740966796875</v>
       </c>
       <c r="BH2" t="n">
-        <v>349.1461791992188</v>
+        <v>367.901123046875</v>
       </c>
       <c r="BI2" t="n">
-        <v>350.1352233886719</v>
+        <v>365.7327880859375</v>
       </c>
       <c r="BJ2" t="n">
-        <v>350.9070129394531</v>
+        <v>356.962158203125</v>
       </c>
       <c r="BK2" t="n">
-        <v>351.2648010253906</v>
+        <v>355.76513671875</v>
       </c>
       <c r="BL2" t="n">
-        <v>351.3318481445312</v>
+        <v>353.7723083496094</v>
       </c>
       <c r="BM2" t="n">
-        <v>351.3314208984375</v>
+        <v>350.1501770019531</v>
       </c>
       <c r="BN2" t="n">
-        <v>351.242919921875</v>
+        <v>349.4550170898438</v>
       </c>
       <c r="BO2" t="n">
-        <v>350.4712524414062</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>349.9615783691406</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>349.0240783691406</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>348.6866760253906</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>348.1148986816406</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>347.9715576171875</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>348.078125</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>348.2647399902344</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>348.3898620605469</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>348.6510620117188</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>348.7828979492188</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>348.9191284179688</v>
+        <v>349.3488159179688</v>
       </c>
     </row>
     <row r="3">
@@ -912,235 +846,202 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>221.1435089111328</v>
+        <v>289.9893493652344</v>
       </c>
       <c r="C3" t="n">
-        <v>218.5074920654297</v>
+        <v>282.1758117675781</v>
       </c>
       <c r="D3" t="n">
-        <v>218.3691864013672</v>
+        <v>269.6838073730469</v>
       </c>
       <c r="E3" t="n">
-        <v>218.5264892578125</v>
+        <v>266.6370849609375</v>
       </c>
       <c r="F3" t="n">
-        <v>219.0959777832031</v>
+        <v>261.1134948730469</v>
       </c>
       <c r="G3" t="n">
-        <v>224.2520294189453</v>
+        <v>244.5804443359375</v>
       </c>
       <c r="H3" t="n">
-        <v>222.0411834716797</v>
+        <v>237.16357421875</v>
       </c>
       <c r="I3" t="n">
-        <v>220.2746734619141</v>
+        <v>231.4504852294922</v>
       </c>
       <c r="J3" t="n">
-        <v>220.1469421386719</v>
+        <v>226.2912902832031</v>
       </c>
       <c r="K3" t="n">
-        <v>220.2115325927734</v>
+        <v>222.8640594482422</v>
       </c>
       <c r="L3" t="n">
-        <v>220.2884674072266</v>
+        <v>220.1520233154297</v>
       </c>
       <c r="M3" t="n">
-        <v>219.0207214355469</v>
+        <v>216.3371429443359</v>
       </c>
       <c r="N3" t="n">
-        <v>218.2387847900391</v>
+        <v>215.1602325439453</v>
       </c>
       <c r="O3" t="n">
-        <v>217.9269866943359</v>
+        <v>214.3900756835938</v>
       </c>
       <c r="P3" t="n">
-        <v>217.8544006347656</v>
+        <v>213.7145233154297</v>
       </c>
       <c r="Q3" t="n">
-        <v>217.771240234375</v>
+        <v>213.7487640380859</v>
       </c>
       <c r="R3" t="n">
-        <v>217.7545776367188</v>
+        <v>213.8449249267578</v>
       </c>
       <c r="S3" t="n">
-        <v>217.7377319335938</v>
+        <v>213.9925079345703</v>
       </c>
       <c r="T3" t="n">
-        <v>217.6933135986328</v>
+        <v>214.4017333984375</v>
       </c>
       <c r="U3" t="n">
-        <v>217.6300506591797</v>
+        <v>214.6914520263672</v>
       </c>
       <c r="V3" t="n">
-        <v>217.385009765625</v>
+        <v>215.3309326171875</v>
       </c>
       <c r="W3" t="n">
-        <v>217.1377410888672</v>
+        <v>215.5539855957031</v>
       </c>
       <c r="X3" t="n">
-        <v>216.7156524658203</v>
+        <v>215.3355102539062</v>
       </c>
       <c r="Y3" t="n">
-        <v>215.813232421875</v>
+        <v>215.1234588623047</v>
       </c>
       <c r="Z3" t="n">
-        <v>215.2021179199219</v>
+        <v>214.9266510009766</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.0911712646484</v>
+        <v>214.4805755615234</v>
       </c>
       <c r="AB3" t="n">
-        <v>215.1324920654297</v>
+        <v>214.1716156005859</v>
       </c>
       <c r="AC3" t="n">
-        <v>215.1675872802734</v>
+        <v>213.3469696044922</v>
       </c>
       <c r="AD3" t="n">
-        <v>215.2253265380859</v>
+        <v>212.7580718994141</v>
       </c>
       <c r="AE3" t="n">
-        <v>215.3585662841797</v>
+        <v>212.878173828125</v>
       </c>
       <c r="AF3" t="n">
-        <v>215.5619964599609</v>
+        <v>215.5016174316406</v>
       </c>
       <c r="AG3" t="n">
-        <v>215.0844879150391</v>
+        <v>218.2945098876953</v>
       </c>
       <c r="AH3" t="n">
-        <v>213.6692504882812</v>
+        <v>219.1808166503906</v>
       </c>
       <c r="AI3" t="n">
-        <v>211.7606353759766</v>
+        <v>222.3301239013672</v>
       </c>
       <c r="AJ3" t="n">
-        <v>208.2240447998047</v>
+        <v>223.7434234619141</v>
       </c>
       <c r="AK3" t="n">
-        <v>206.5865325927734</v>
+        <v>224.9641723632812</v>
       </c>
       <c r="AL3" t="n">
-        <v>204.0011138916016</v>
+        <v>225.4199371337891</v>
       </c>
       <c r="AM3" t="n">
-        <v>203.14111328125</v>
+        <v>224.4814453125</v>
       </c>
       <c r="AN3" t="n">
-        <v>202.1322479248047</v>
+        <v>223.0615081787109</v>
       </c>
       <c r="AO3" t="n">
-        <v>200.7268829345703</v>
+        <v>222.2539520263672</v>
       </c>
       <c r="AP3" t="n">
-        <v>200.2352142333984</v>
+        <v>219.5621948242188</v>
       </c>
       <c r="AQ3" t="n">
-        <v>199.7541046142578</v>
+        <v>216.7922668457031</v>
       </c>
       <c r="AR3" t="n">
-        <v>199.5430450439453</v>
+        <v>206.7958679199219</v>
       </c>
       <c r="AS3" t="n">
-        <v>199.2534332275391</v>
+        <v>201.8563842773438</v>
       </c>
       <c r="AT3" t="n">
-        <v>198.4937591552734</v>
+        <v>198.9972381591797</v>
       </c>
       <c r="AU3" t="n">
-        <v>196.6114501953125</v>
+        <v>194.7483825683594</v>
       </c>
       <c r="AV3" t="n">
-        <v>196.7930297851562</v>
+        <v>192.3114624023438</v>
       </c>
       <c r="AW3" t="n">
-        <v>194.7835388183594</v>
+        <v>183.2294158935547</v>
       </c>
       <c r="AX3" t="n">
-        <v>193.9687042236328</v>
+        <v>178.2147674560547</v>
       </c>
       <c r="AY3" t="n">
-        <v>193.3032073974609</v>
+        <v>172.8098602294922</v>
       </c>
       <c r="AZ3" t="n">
-        <v>192.2977752685547</v>
+        <v>159.4216461181641</v>
       </c>
       <c r="BA3" t="n">
-        <v>192.1843566894531</v>
+        <v>142.7698669433594</v>
       </c>
       <c r="BB3" t="n">
-        <v>192.2502899169922</v>
+        <v>135.0664978027344</v>
       </c>
       <c r="BC3" t="n">
-        <v>192.3087005615234</v>
+        <v>120.4734115600586</v>
       </c>
       <c r="BD3" t="n">
-        <v>192.3245849609375</v>
+        <v>112.5545654296875</v>
       </c>
       <c r="BE3" t="n">
-        <v>192.1285095214844</v>
+        <v>104.5854721069336</v>
       </c>
       <c r="BF3" t="n">
-        <v>191.6584625244141</v>
+        <v>88.80262756347656</v>
       </c>
       <c r="BG3" t="n">
-        <v>191.4237518310547</v>
+        <v>82.20206451416016</v>
       </c>
       <c r="BH3" t="n">
-        <v>191.0865631103516</v>
+        <v>70.20340728759766</v>
       </c>
       <c r="BI3" t="n">
-        <v>190.9621734619141</v>
+        <v>63.70748519897461</v>
       </c>
       <c r="BJ3" t="n">
-        <v>192.7742156982422</v>
+        <v>51.71982955932617</v>
       </c>
       <c r="BK3" t="n">
-        <v>193.6372680664062</v>
+        <v>46.77377700805664</v>
       </c>
       <c r="BL3" t="n">
-        <v>193.9267120361328</v>
+        <v>41.45388031005859</v>
       </c>
       <c r="BM3" t="n">
-        <v>194.2054290771484</v>
+        <v>28.01528358459473</v>
       </c>
       <c r="BN3" t="n">
-        <v>194.6303100585938</v>
+        <v>21.54020690917969</v>
       </c>
       <c r="BO3" t="n">
-        <v>195.2269744873047</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>195.8553161621094</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>196.7609710693359</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>196.9125671386719</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>196.9712677001953</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>196.9954071044922</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>197.0439910888672</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>197.0800018310547</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>197.0323486328125</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>196.9369506835938</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>196.8966979980469</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>196.8565216064453</v>
+        <v>17.50668144226074</v>
       </c>
     </row>
     <row r="4">
@@ -1148,235 +1049,202 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1033.013793945312</v>
+        <v>1562.8310546875</v>
       </c>
       <c r="C4" t="n">
-        <v>1036.167358398438</v>
+        <v>1560.1923828125</v>
       </c>
       <c r="D4" t="n">
-        <v>1041.289794921875</v>
+        <v>1562.356201171875</v>
       </c>
       <c r="E4" t="n">
-        <v>1045.109130859375</v>
+        <v>1577.325073242188</v>
       </c>
       <c r="F4" t="n">
-        <v>1047.600830078125</v>
+        <v>1597.874267578125</v>
       </c>
       <c r="G4" t="n">
-        <v>1041.209838867188</v>
+        <v>1634.205444335938</v>
       </c>
       <c r="H4" t="n">
-        <v>1042.95068359375</v>
+        <v>1648.9462890625</v>
       </c>
       <c r="I4" t="n">
-        <v>1046.47509765625</v>
+        <v>1667.928588867188</v>
       </c>
       <c r="J4" t="n">
-        <v>1046.433227539062</v>
+        <v>1709.318481445312</v>
       </c>
       <c r="K4" t="n">
-        <v>1046.35595703125</v>
+        <v>1745.81103515625</v>
       </c>
       <c r="L4" t="n">
-        <v>1045.36083984375</v>
+        <v>1757.772216796875</v>
       </c>
       <c r="M4" t="n">
-        <v>1032.184936523438</v>
+        <v>1785.825073242188</v>
       </c>
       <c r="N4" t="n">
-        <v>1016.724182128906</v>
+        <v>1799.48291015625</v>
       </c>
       <c r="O4" t="n">
-        <v>1007.921142578125</v>
+        <v>1808.10693359375</v>
       </c>
       <c r="P4" t="n">
-        <v>1005.326416015625</v>
+        <v>1812.955078125</v>
       </c>
       <c r="Q4" t="n">
-        <v>1001.793395996094</v>
+        <v>1813.433227539062</v>
       </c>
       <c r="R4" t="n">
-        <v>997.0728149414062</v>
+        <v>1814.314086914062</v>
       </c>
       <c r="S4" t="n">
-        <v>991.726318359375</v>
+        <v>1814.840209960938</v>
       </c>
       <c r="T4" t="n">
-        <v>988.48388671875</v>
+        <v>1816.0732421875</v>
       </c>
       <c r="U4" t="n">
-        <v>982.229736328125</v>
+        <v>1816.620361328125</v>
       </c>
       <c r="V4" t="n">
-        <v>972.3968505859375</v>
+        <v>1816.659301757812</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5488891601562</v>
+        <v>1811.783203125</v>
       </c>
       <c r="X4" t="n">
-        <v>957.4008178710938</v>
+        <v>1786.691772460938</v>
       </c>
       <c r="Y4" t="n">
-        <v>945.5861206054688</v>
+        <v>1769.948486328125</v>
       </c>
       <c r="Z4" t="n">
-        <v>929.2421264648438</v>
+        <v>1750.17578125</v>
       </c>
       <c r="AA4" t="n">
-        <v>923.4195556640625</v>
+        <v>1714.664672851562</v>
       </c>
       <c r="AB4" t="n">
-        <v>917.7181396484375</v>
+        <v>1669.235961914062</v>
       </c>
       <c r="AC4" t="n">
-        <v>914.8549194335938</v>
+        <v>1643.602172851562</v>
       </c>
       <c r="AD4" t="n">
-        <v>908.194580078125</v>
+        <v>1618.634033203125</v>
       </c>
       <c r="AE4" t="n">
-        <v>906.6864013671875</v>
+        <v>1565.264404296875</v>
       </c>
       <c r="AF4" t="n">
-        <v>903.843017578125</v>
+        <v>1505.213012695312</v>
       </c>
       <c r="AG4" t="n">
-        <v>901.5593872070312</v>
+        <v>1473.956298828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>901.1990356445312</v>
+        <v>1444.563354492188</v>
       </c>
       <c r="AI4" t="n">
-        <v>900.9059448242188</v>
+        <v>1389.318725585938</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900.097412109375</v>
+        <v>1371.111572265625</v>
       </c>
       <c r="AK4" t="n">
-        <v>899.7130737304688</v>
+        <v>1348.899169921875</v>
       </c>
       <c r="AL4" t="n">
-        <v>898.4544677734375</v>
+        <v>1338.234985351562</v>
       </c>
       <c r="AM4" t="n">
-        <v>894.3248901367188</v>
+        <v>1307.634643554688</v>
       </c>
       <c r="AN4" t="n">
-        <v>886.3331909179688</v>
+        <v>1282.903686523438</v>
       </c>
       <c r="AO4" t="n">
-        <v>867.68115234375</v>
+        <v>1275.310546875</v>
       </c>
       <c r="AP4" t="n">
-        <v>862.277099609375</v>
+        <v>1257.0751953125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>860.4430541992188</v>
+        <v>1241.820922851562</v>
       </c>
       <c r="AR4" t="n">
-        <v>860.311279296875</v>
+        <v>1213.935913085938</v>
       </c>
       <c r="AS4" t="n">
-        <v>859.7600708007812</v>
+        <v>1200.845703125</v>
       </c>
       <c r="AT4" t="n">
-        <v>856.7022094726562</v>
+        <v>1183.302612304688</v>
       </c>
       <c r="AU4" t="n">
-        <v>843.666259765625</v>
+        <v>1136.064086914062</v>
       </c>
       <c r="AV4" t="n">
-        <v>834.490966796875</v>
+        <v>1114.37744140625</v>
       </c>
       <c r="AW4" t="n">
-        <v>817.2001953125</v>
+        <v>1072.2763671875</v>
       </c>
       <c r="AX4" t="n">
-        <v>813.25390625</v>
+        <v>1057.6748046875</v>
       </c>
       <c r="AY4" t="n">
-        <v>811.555419921875</v>
+        <v>1041.045654296875</v>
       </c>
       <c r="AZ4" t="n">
-        <v>811.0654296875</v>
+        <v>1004.258483886719</v>
       </c>
       <c r="BA4" t="n">
-        <v>811.2003784179688</v>
+        <v>965.8525390625</v>
       </c>
       <c r="BB4" t="n">
-        <v>811.1806030273438</v>
+        <v>947.6702270507812</v>
       </c>
       <c r="BC4" t="n">
-        <v>811.0288696289062</v>
+        <v>908.39306640625</v>
       </c>
       <c r="BD4" t="n">
-        <v>810.8241577148438</v>
+        <v>886.6580200195312</v>
       </c>
       <c r="BE4" t="n">
-        <v>810.0862426757812</v>
+        <v>861.9658813476562</v>
       </c>
       <c r="BF4" t="n">
-        <v>808.95166015625</v>
+        <v>811.2916259765625</v>
       </c>
       <c r="BG4" t="n">
-        <v>808.3502197265625</v>
+        <v>786.4190673828125</v>
       </c>
       <c r="BH4" t="n">
-        <v>807.28076171875</v>
+        <v>743.9598388671875</v>
       </c>
       <c r="BI4" t="n">
-        <v>806.9956665039062</v>
+        <v>718.6436767578125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>806.3167724609375</v>
+        <v>662.7295532226562</v>
       </c>
       <c r="BK4" t="n">
-        <v>805.9472045898438</v>
+        <v>635.3165283203125</v>
       </c>
       <c r="BL4" t="n">
-        <v>806.6582641601562</v>
+        <v>611.4104614257812</v>
       </c>
       <c r="BM4" t="n">
-        <v>807.9966430664062</v>
+        <v>582.663330078125</v>
       </c>
       <c r="BN4" t="n">
-        <v>811.6250610351562</v>
+        <v>580.1866455078125</v>
       </c>
       <c r="BO4" t="n">
-        <v>819.6331787109375</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>826.8484497070312</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>837.7686157226562</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>839.648193359375</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>840.1381225585938</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>840.1028442382812</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>840.0051879882812</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>839.9178466796875</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>839.2289428710938</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>837.77197265625</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>837.0271606445312</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>836.3108520507812</v>
+        <v>580.2326049804688</v>
       </c>
     </row>
   </sheetData>

--- a/Head_Data.xlsx
+++ b/Head_Data.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>START</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -374,13 +377,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CI4"/>
+  <dimension ref="A1:PV4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:87">
+    <row r="1" spans="1:438">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,794 +645,5006 @@
       <c r="CI1" s="1">
         <v>0</v>
       </c>
+      <c r="CJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DY1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER1" s="1">
+        <v>0</v>
+      </c>
+      <c r="ES1" s="1">
+        <v>0</v>
+      </c>
+      <c r="ET1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EW1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EX1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EY1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EZ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FM1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FO1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FW1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FX1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FY1" s="1">
+        <v>0</v>
+      </c>
+      <c r="FZ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GM1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GO1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NO1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NW1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NX1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NY1" s="1">
+        <v>0</v>
+      </c>
+      <c r="NZ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OM1" s="1">
+        <v>0</v>
+      </c>
+      <c r="ON1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OO1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OW1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OX1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OY1" s="1">
+        <v>0</v>
+      </c>
+      <c r="OZ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PM1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PO1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="PV1" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:87">
+    <row r="2" spans="1:438">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>341.809814453125</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>336.3388061523438</v>
+        <v>295.7279052734375</v>
       </c>
       <c r="D2">
-        <v>331.5388488769531</v>
+        <v>300.2068786621094</v>
       </c>
       <c r="E2">
-        <v>327.89013671875</v>
+        <v>304.8485717773438</v>
       </c>
       <c r="F2">
-        <v>324.8857421875</v>
+        <v>308.6157836914062</v>
       </c>
       <c r="G2">
-        <v>321.3202514648438</v>
+        <v>311.0007934570312</v>
       </c>
       <c r="H2">
-        <v>317.1427001953125</v>
+        <v>314.1683044433594</v>
       </c>
       <c r="I2">
-        <v>312.5546264648438</v>
+        <v>316.1963500976562</v>
       </c>
       <c r="J2">
-        <v>307.3953857421875</v>
+        <v>316.9570922851562</v>
       </c>
       <c r="K2">
-        <v>303.2371826171875</v>
+        <v>316.7989196777344</v>
       </c>
       <c r="L2">
-        <v>299.3726501464844</v>
+        <v>320.09375</v>
       </c>
       <c r="M2">
-        <v>296.2529907226562</v>
+        <v>311.6241760253906</v>
       </c>
       <c r="N2">
-        <v>293.5875549316406</v>
+        <v>345.2510375976562</v>
       </c>
       <c r="O2">
-        <v>291.1062316894531</v>
+        <v>351.5323486328125</v>
       </c>
       <c r="P2">
-        <v>288.5947570800781</v>
+        <v>355.5050048828125</v>
       </c>
       <c r="Q2">
-        <v>286.4432067871094</v>
+        <v>359.001220703125</v>
       </c>
       <c r="R2">
-        <v>283.5059509277344</v>
+        <v>364.9669799804688</v>
       </c>
       <c r="S2">
-        <v>280.4044189453125</v>
+        <v>367.8603515625</v>
       </c>
       <c r="T2">
-        <v>278.1427001953125</v>
+        <v>369.763427734375</v>
       </c>
       <c r="U2">
-        <v>277.1499633789062</v>
+        <v>373.0259399414062</v>
       </c>
       <c r="V2">
-        <v>276.9839477539062</v>
+        <v>378.8419189453125</v>
       </c>
       <c r="W2">
-        <v>277.0147399902344</v>
+        <v>379.7587890625</v>
       </c>
       <c r="X2">
-        <v>277.1846923828125</v>
+        <v>374.4709777832031</v>
       </c>
       <c r="Y2">
-        <v>277.1213073730469</v>
+        <v>323.252197265625</v>
       </c>
       <c r="Z2">
-        <v>277.0647888183594</v>
+        <v>278.7958679199219</v>
       </c>
       <c r="AA2">
-        <v>276.9989624023438</v>
+        <v>272.0782165527344</v>
       </c>
       <c r="AB2">
-        <v>276.94091796875</v>
+        <v>269.1071472167969</v>
       </c>
       <c r="AC2">
-        <v>276.8088989257812</v>
+        <v>267.9541015625</v>
       </c>
       <c r="AD2">
-        <v>276.6352844238281</v>
+        <v>271.3695983886719</v>
       </c>
       <c r="AE2">
-        <v>276.3682250976562</v>
+        <v>278.8145141601562</v>
       </c>
       <c r="AF2">
-        <v>275.9852294921875</v>
+        <v>287.6304931640625</v>
       </c>
       <c r="AG2">
-        <v>275.5217895507812</v>
+        <v>295.5814514160156</v>
       </c>
       <c r="AH2">
-        <v>275.7600402832031</v>
+        <v>300.7763977050781</v>
       </c>
       <c r="AI2">
-        <v>276.55908203125</v>
+        <v>303.6276550292969</v>
       </c>
       <c r="AJ2">
-        <v>276.8129577636719</v>
+        <v>305.9732360839844</v>
       </c>
       <c r="AK2">
-        <v>276.795166015625</v>
+        <v>307.7510986328125</v>
       </c>
       <c r="AL2">
-        <v>276.7418823242188</v>
+        <v>309.3633728027344</v>
       </c>
       <c r="AM2">
-        <v>277.2087097167969</v>
+        <v>311.0296936035156</v>
       </c>
       <c r="AN2">
-        <v>277.3918762207031</v>
+        <v>314.0177307128906</v>
       </c>
       <c r="AO2">
-        <v>278.4386291503906</v>
+        <v>319.5430908203125</v>
       </c>
       <c r="AP2">
-        <v>280.0465087890625</v>
+        <v>330.8295288085938</v>
       </c>
       <c r="AQ2">
-        <v>281.658203125</v>
+        <v>332.5207824707031</v>
       </c>
       <c r="AR2">
-        <v>283.6837463378906</v>
+        <v>313.10791015625</v>
       </c>
       <c r="AS2">
-        <v>286.5912780761719</v>
+        <v>292.1679992675781</v>
       </c>
       <c r="AT2">
-        <v>290.0823059082031</v>
+        <v>359.0633850097656</v>
       </c>
       <c r="AU2">
-        <v>294.1009216308594</v>
+        <v>368.2111206054688</v>
       </c>
       <c r="AV2">
-        <v>300.2288208007812</v>
+        <v>372.0947265625</v>
       </c>
       <c r="AW2">
-        <v>303.6468811035156</v>
+        <v>390.4302673339844</v>
       </c>
       <c r="AX2">
-        <v>305.8431091308594</v>
+        <v>394.641357421875</v>
       </c>
       <c r="AY2">
-        <v>307.5471496582031</v>
+        <v>394.1293640136719</v>
       </c>
       <c r="AZ2">
-        <v>309.1401672363281</v>
+        <v>394.2879638671875</v>
       </c>
       <c r="BA2">
-        <v>310.9196166992188</v>
+        <v>395.7334594726562</v>
       </c>
       <c r="BB2">
-        <v>312.6008605957031</v>
+        <v>397.7952575683594</v>
       </c>
       <c r="BC2">
-        <v>313.7354125976562</v>
+        <v>390.4511108398438</v>
       </c>
       <c r="BD2">
-        <v>313.948486328125</v>
+        <v>381.1615600585938</v>
       </c>
       <c r="BE2">
-        <v>313.6878662109375</v>
+        <v>367.8720703125</v>
       </c>
       <c r="BF2">
-        <v>313.5164489746094</v>
+        <v>376.7141723632812</v>
       </c>
       <c r="BG2">
-        <v>313.7111206054688</v>
+        <v>378.1109924316406</v>
       </c>
       <c r="BH2">
-        <v>313.80224609375</v>
+        <v>375.3018493652344</v>
       </c>
       <c r="BI2">
-        <v>313.2297058105469</v>
+        <v>372.8550720214844</v>
       </c>
       <c r="BJ2">
-        <v>311.0856628417969</v>
+        <v>370.8265686035156</v>
       </c>
       <c r="BK2">
-        <v>308.5826110839844</v>
+        <v>369.3317260742188</v>
       </c>
       <c r="BL2">
-        <v>304.9071960449219</v>
+        <v>367.9229431152344</v>
       </c>
       <c r="BM2">
-        <v>300.3428955078125</v>
+        <v>366.5274353027344</v>
       </c>
       <c r="BN2">
-        <v>297.4874572753906</v>
+        <v>365.000732421875</v>
       </c>
       <c r="BO2">
-        <v>294.0680236816406</v>
+        <v>362.2761840820312</v>
       </c>
       <c r="BP2">
-        <v>290.1593933105469</v>
+        <v>358.8522338867188</v>
       </c>
       <c r="BQ2">
-        <v>285.6961669921875</v>
+        <v>354.4367980957031</v>
       </c>
       <c r="BR2">
-        <v>282.6054992675781</v>
+        <v>348.352783203125</v>
       </c>
       <c r="BS2">
-        <v>279.4012756347656</v>
+        <v>343.1087036132812</v>
       </c>
       <c r="BT2">
-        <v>276.3650512695312</v>
+        <v>339.3062744140625</v>
       </c>
       <c r="BU2">
-        <v>272.7322692871094</v>
+        <v>335.8601379394531</v>
       </c>
       <c r="BV2">
-        <v>271.6822509765625</v>
+        <v>333.0548706054688</v>
       </c>
       <c r="BW2">
-        <v>270.9497375488281</v>
+        <v>330.8123168945312</v>
       </c>
       <c r="BX2">
-        <v>270.3522338867188</v>
+        <v>328.7275695800781</v>
       </c>
       <c r="BY2">
-        <v>267.5615234375</v>
+        <v>327.2706909179688</v>
       </c>
       <c r="BZ2">
-        <v>264.4044799804688</v>
+        <v>326.4300537109375</v>
       </c>
       <c r="CA2">
-        <v>261.5488586425781</v>
+        <v>325.9653015136719</v>
       </c>
       <c r="CB2">
-        <v>258.733642578125</v>
+        <v>325.8501586914062</v>
       </c>
       <c r="CC2">
-        <v>257.1322631835938</v>
+        <v>325.96728515625</v>
       </c>
       <c r="CD2">
-        <v>258.5294189453125</v>
+        <v>326.40185546875</v>
       </c>
       <c r="CE2">
-        <v>262.0370178222656</v>
+        <v>327.6758117675781</v>
       </c>
       <c r="CF2">
-        <v>268.5947265625</v>
+        <v>329.8427734375</v>
       </c>
       <c r="CG2">
-        <v>276.77490234375</v>
+        <v>332.8739013671875</v>
       </c>
       <c r="CH2">
-        <v>284.2825012207031</v>
+        <v>336.0936889648438</v>
       </c>
       <c r="CI2">
-        <v>288.5382995605469</v>
+        <v>339.298583984375</v>
+      </c>
+      <c r="CJ2">
+        <v>343.1939086914062</v>
+      </c>
+      <c r="CK2">
+        <v>347.8633117675781</v>
+      </c>
+      <c r="CL2">
+        <v>352.6688842773438</v>
+      </c>
+      <c r="CM2">
+        <v>356.5796508789062</v>
+      </c>
+      <c r="CN2">
+        <v>358.9200134277344</v>
+      </c>
+      <c r="CO2">
+        <v>360.5919189453125</v>
+      </c>
+      <c r="CP2">
+        <v>361.8047790527344</v>
+      </c>
+      <c r="CQ2">
+        <v>362.8916015625</v>
+      </c>
+      <c r="CR2">
+        <v>364.1398620605469</v>
+      </c>
+      <c r="CS2">
+        <v>365.3688354492188</v>
+      </c>
+      <c r="CT2">
+        <v>366.18212890625</v>
+      </c>
+      <c r="CU2">
+        <v>366.5477905273438</v>
+      </c>
+      <c r="CV2">
+        <v>366.4554443359375</v>
+      </c>
+      <c r="CW2">
+        <v>366.3316345214844</v>
+      </c>
+      <c r="CX2">
+        <v>366.0074462890625</v>
+      </c>
+      <c r="CY2">
+        <v>365.9891052246094</v>
+      </c>
+      <c r="CZ2">
+        <v>366.1290893554688</v>
+      </c>
+      <c r="DA2">
+        <v>366.2611389160156</v>
+      </c>
+      <c r="DB2">
+        <v>366.4560546875</v>
+      </c>
+      <c r="DC2">
+        <v>366.71728515625</v>
+      </c>
+      <c r="DD2">
+        <v>366.60107421875</v>
+      </c>
+      <c r="DE2">
+        <v>366.3495483398438</v>
+      </c>
+      <c r="DF2">
+        <v>366.1568603515625</v>
+      </c>
+      <c r="DG2">
+        <v>365.8436279296875</v>
+      </c>
+      <c r="DH2">
+        <v>365.3286437988281</v>
+      </c>
+      <c r="DI2">
+        <v>364.7570495605469</v>
+      </c>
+      <c r="DJ2">
+        <v>364.4674072265625</v>
+      </c>
+      <c r="DK2">
+        <v>364.2594909667969</v>
+      </c>
+      <c r="DL2">
+        <v>364.211669921875</v>
+      </c>
+      <c r="DM2">
+        <v>364.21826171875</v>
+      </c>
+      <c r="DN2">
+        <v>364.1919250488281</v>
+      </c>
+      <c r="DO2">
+        <v>364.2523803710938</v>
+      </c>
+      <c r="DP2">
+        <v>364.28125</v>
+      </c>
+      <c r="DQ2">
+        <v>364.5281372070312</v>
+      </c>
+      <c r="DR2">
+        <v>365.022705078125</v>
+      </c>
+      <c r="DS2">
+        <v>365.9164123535156</v>
+      </c>
+      <c r="DT2">
+        <v>367.4613037109375</v>
+      </c>
+      <c r="DU2">
+        <v>369.7269287109375</v>
+      </c>
+      <c r="DV2">
+        <v>372.3008422851562</v>
+      </c>
+      <c r="DW2">
+        <v>375.2413330078125</v>
+      </c>
+      <c r="DX2">
+        <v>377.7882690429688</v>
+      </c>
+      <c r="DY2">
+        <v>380.3109130859375</v>
+      </c>
+      <c r="DZ2">
+        <v>382.6129455566406</v>
+      </c>
+      <c r="EA2">
+        <v>385.1659545898438</v>
+      </c>
+      <c r="EB2">
+        <v>388.6813049316406</v>
+      </c>
+      <c r="EC2">
+        <v>392.9525146484375</v>
+      </c>
+      <c r="ED2">
+        <v>397.8750610351562</v>
+      </c>
+      <c r="EE2">
+        <v>402.2874145507812</v>
+      </c>
+      <c r="EF2">
+        <v>406.670166015625</v>
+      </c>
+      <c r="EG2">
+        <v>411.5403747558594</v>
+      </c>
+      <c r="EH2">
+        <v>416.4606323242188</v>
+      </c>
+      <c r="EI2">
+        <v>421.0910034179688</v>
+      </c>
+      <c r="EJ2">
+        <v>426.2518615722656</v>
+      </c>
+      <c r="EK2">
+        <v>430.7709350585938</v>
+      </c>
+      <c r="EL2">
+        <v>434.9348754882812</v>
+      </c>
+      <c r="EM2">
+        <v>438.044189453125</v>
+      </c>
+      <c r="EN2">
+        <v>440.5543518066406</v>
+      </c>
+      <c r="EO2">
+        <v>443.4024353027344</v>
+      </c>
+      <c r="EP2">
+        <v>445.8637084960938</v>
+      </c>
+      <c r="EQ2">
+        <v>449.1484985351562</v>
+      </c>
+      <c r="ER2">
+        <v>451.7899169921875</v>
+      </c>
+      <c r="ES2">
+        <v>454.3091125488281</v>
+      </c>
+      <c r="ET2">
+        <v>456.7653198242188</v>
+      </c>
+      <c r="EU2">
+        <v>458.6112060546875</v>
+      </c>
+      <c r="EV2">
+        <v>459.81103515625</v>
+      </c>
+      <c r="EW2">
+        <v>460.4291381835938</v>
+      </c>
+      <c r="EX2">
+        <v>460.7897644042969</v>
+      </c>
+      <c r="EY2">
+        <v>460.9530944824219</v>
+      </c>
+      <c r="EZ2">
+        <v>461.0896606445312</v>
+      </c>
+      <c r="FA2">
+        <v>461.2024230957031</v>
+      </c>
+      <c r="FB2">
+        <v>461.5197143554688</v>
+      </c>
+      <c r="FC2">
+        <v>461.8492431640625</v>
+      </c>
+      <c r="FD2">
+        <v>461.4678649902344</v>
+      </c>
+      <c r="FE2">
+        <v>459.4483642578125</v>
+      </c>
+      <c r="FF2">
+        <v>455.4510192871094</v>
+      </c>
+      <c r="FG2">
+        <v>451.6849975585938</v>
+      </c>
+      <c r="FH2">
+        <v>449.664794921875</v>
+      </c>
+      <c r="FI2">
+        <v>447.4752197265625</v>
+      </c>
+      <c r="FJ2">
+        <v>444.6919555664062</v>
+      </c>
+      <c r="FK2">
+        <v>441.277099609375</v>
+      </c>
+      <c r="FL2">
+        <v>437.2506103515625</v>
+      </c>
+      <c r="FM2">
+        <v>432.3787841796875</v>
+      </c>
+      <c r="FN2">
+        <v>427.5786743164062</v>
+      </c>
+      <c r="FO2">
+        <v>423.992919921875</v>
+      </c>
+      <c r="FP2">
+        <v>419.0718078613281</v>
+      </c>
+      <c r="FQ2">
+        <v>415.1973876953125</v>
+      </c>
+      <c r="FR2">
+        <v>410.8111572265625</v>
+      </c>
+      <c r="FS2">
+        <v>406.235595703125</v>
+      </c>
+      <c r="FT2">
+        <v>402.3563232421875</v>
+      </c>
+      <c r="FU2">
+        <v>398.3319702148438</v>
+      </c>
+      <c r="FV2">
+        <v>394.6476440429688</v>
+      </c>
+      <c r="FW2">
+        <v>391.7398376464844</v>
+      </c>
+      <c r="FX2">
+        <v>388.300048828125</v>
+      </c>
+      <c r="FY2">
+        <v>384.7542724609375</v>
+      </c>
+      <c r="FZ2">
+        <v>380.7288818359375</v>
+      </c>
+      <c r="GA2">
+        <v>376.4817810058594</v>
+      </c>
+      <c r="GB2">
+        <v>372.9716186523438</v>
+      </c>
+      <c r="GC2">
+        <v>370.2254638671875</v>
+      </c>
+      <c r="GD2">
+        <v>366.7654418945312</v>
+      </c>
+      <c r="GE2">
+        <v>364.0081787109375</v>
+      </c>
+      <c r="GF2">
+        <v>361.4688110351562</v>
+      </c>
+      <c r="GG2">
+        <v>358.5662536621094</v>
+      </c>
+      <c r="GH2">
+        <v>355.8441772460938</v>
+      </c>
+      <c r="GI2">
+        <v>353.099609375</v>
+      </c>
+      <c r="GJ2">
+        <v>349.2094421386719</v>
+      </c>
+      <c r="GK2">
+        <v>346.117919921875</v>
+      </c>
+      <c r="GL2">
+        <v>343.6733703613281</v>
+      </c>
+      <c r="GM2">
+        <v>339.9110412597656</v>
+      </c>
+      <c r="GN2">
+        <v>335.1858215332031</v>
+      </c>
+      <c r="GO2">
+        <v>331.1654052734375</v>
+      </c>
+      <c r="GP2">
+        <v>327.0971984863281</v>
+      </c>
+      <c r="GQ2">
+        <v>322.2685546875</v>
+      </c>
+      <c r="GR2">
+        <v>317.349365234375</v>
+      </c>
+      <c r="GS2">
+        <v>313.2572937011719</v>
+      </c>
+      <c r="GT2">
+        <v>308.7897033691406</v>
+      </c>
+      <c r="GU2">
+        <v>305.237548828125</v>
+      </c>
+      <c r="GV2">
+        <v>301.7635498046875</v>
+      </c>
+      <c r="GW2">
+        <v>298.3150939941406</v>
+      </c>
+      <c r="GX2">
+        <v>295.8160705566406</v>
+      </c>
+      <c r="GY2">
+        <v>292.6213989257812</v>
+      </c>
+      <c r="GZ2">
+        <v>289.8976440429688</v>
+      </c>
+      <c r="HA2">
+        <v>287.2634887695312</v>
+      </c>
+      <c r="HB2">
+        <v>284.0794982910156</v>
+      </c>
+      <c r="HC2">
+        <v>280.9738464355469</v>
+      </c>
+      <c r="HD2">
+        <v>277.4977416992188</v>
+      </c>
+      <c r="HE2">
+        <v>274.0345458984375</v>
+      </c>
+      <c r="HF2">
+        <v>270.718505859375</v>
+      </c>
+      <c r="HG2">
+        <v>267.7432250976562</v>
+      </c>
+      <c r="HH2">
+        <v>265.0760192871094</v>
+      </c>
+      <c r="HI2">
+        <v>262.3473510742188</v>
+      </c>
+      <c r="HJ2">
+        <v>259.244873046875</v>
+      </c>
+      <c r="HK2">
+        <v>256.5953979492188</v>
+      </c>
+      <c r="HL2">
+        <v>254.2537689208984</v>
+      </c>
+      <c r="HM2">
+        <v>251.2869873046875</v>
+      </c>
+      <c r="HN2">
+        <v>248.8314666748047</v>
+      </c>
+      <c r="HO2">
+        <v>246.321533203125</v>
+      </c>
+      <c r="HP2">
+        <v>244.3589630126953</v>
+      </c>
+      <c r="HQ2">
+        <v>242.4146728515625</v>
+      </c>
+      <c r="HR2">
+        <v>240.3646850585938</v>
+      </c>
+      <c r="HS2">
+        <v>238.8116149902344</v>
+      </c>
+      <c r="HT2">
+        <v>237.6718444824219</v>
+      </c>
+      <c r="HU2">
+        <v>236.6558837890625</v>
+      </c>
+      <c r="HV2">
+        <v>235.7471313476562</v>
+      </c>
+      <c r="HW2">
+        <v>235.5016174316406</v>
+      </c>
+      <c r="HX2">
+        <v>236.8060150146484</v>
+      </c>
+      <c r="HY2">
+        <v>239.60888671875</v>
+      </c>
+      <c r="HZ2">
+        <v>242.8114166259766</v>
+      </c>
+      <c r="IA2">
+        <v>246.6500549316406</v>
+      </c>
+      <c r="IB2">
+        <v>249.8240356445312</v>
+      </c>
+      <c r="IC2">
+        <v>252.7239227294922</v>
+      </c>
+      <c r="ID2">
+        <v>256.2254943847656</v>
+      </c>
+      <c r="IE2">
+        <v>260.3046569824219</v>
+      </c>
+      <c r="IF2">
+        <v>264.1155395507812</v>
+      </c>
+      <c r="IG2">
+        <v>267.46826171875</v>
+      </c>
+      <c r="IH2">
+        <v>270.895263671875</v>
+      </c>
+      <c r="II2">
+        <v>276.3052673339844</v>
+      </c>
+      <c r="IJ2">
+        <v>282.0040893554688</v>
+      </c>
+      <c r="IK2">
+        <v>287.6324462890625</v>
+      </c>
+      <c r="IL2">
+        <v>290.8787536621094</v>
+      </c>
+      <c r="IM2">
+        <v>293.2559204101562</v>
+      </c>
+      <c r="IN2">
+        <v>295.3993835449219</v>
+      </c>
+      <c r="IO2">
+        <v>298.165283203125</v>
+      </c>
+      <c r="IP2">
+        <v>301.6299743652344</v>
+      </c>
+      <c r="IQ2">
+        <v>304.7532348632812</v>
+      </c>
+      <c r="IR2">
+        <v>306.5889587402344</v>
+      </c>
+      <c r="IS2">
+        <v>307.2203674316406</v>
+      </c>
+      <c r="IT2">
+        <v>307.4747314453125</v>
+      </c>
+      <c r="IU2">
+        <v>307.7244873046875</v>
+      </c>
+      <c r="IV2">
+        <v>308.0103454589844</v>
+      </c>
+      <c r="IW2">
+        <v>308.3791198730469</v>
+      </c>
+      <c r="IX2">
+        <v>308.6278381347656</v>
+      </c>
+      <c r="IY2">
+        <v>308.882568359375</v>
+      </c>
+      <c r="IZ2">
+        <v>309.0171508789062</v>
+      </c>
+      <c r="JA2">
+        <v>309.0985412597656</v>
+      </c>
+      <c r="JB2">
+        <v>309.1739196777344</v>
+      </c>
+      <c r="JC2">
+        <v>309.2125549316406</v>
+      </c>
+      <c r="JD2">
+        <v>309.24169921875</v>
+      </c>
+      <c r="JE2">
+        <v>309.28125</v>
+      </c>
+      <c r="JF2">
+        <v>309.3002014160156</v>
+      </c>
+      <c r="JG2">
+        <v>309.3053588867188</v>
+      </c>
+      <c r="JH2">
+        <v>309.3510437011719</v>
+      </c>
+      <c r="JI2">
+        <v>309.4074401855469</v>
+      </c>
+      <c r="JJ2">
+        <v>309.4898376464844</v>
+      </c>
+      <c r="JK2">
+        <v>309.6677551269531</v>
+      </c>
+      <c r="JL2">
+        <v>309.9000854492188</v>
+      </c>
+      <c r="JM2">
+        <v>310.7903747558594</v>
+      </c>
+      <c r="JN2">
+        <v>311.513671875</v>
+      </c>
+      <c r="JO2">
+        <v>312.3987121582031</v>
+      </c>
+      <c r="JP2">
+        <v>312.8933410644531</v>
+      </c>
+      <c r="JQ2">
+        <v>312.0356140136719</v>
+      </c>
+      <c r="JR2">
+        <v>309.7303161621094</v>
+      </c>
+      <c r="JS2">
+        <v>305.53271484375</v>
+      </c>
+      <c r="JT2">
+        <v>301.3489379882812</v>
+      </c>
+      <c r="JU2">
+        <v>297.1288146972656</v>
+      </c>
+      <c r="JV2">
+        <v>292.2010498046875</v>
+      </c>
+      <c r="JW2">
+        <v>287.9957580566406</v>
+      </c>
+      <c r="JX2">
+        <v>283.1971740722656</v>
+      </c>
+      <c r="JY2">
+        <v>277.3739929199219</v>
+      </c>
+      <c r="JZ2">
+        <v>272.483642578125</v>
+      </c>
+      <c r="KA2">
+        <v>267.2957763671875</v>
+      </c>
+      <c r="KB2">
+        <v>262.8005065917969</v>
+      </c>
+      <c r="KC2">
+        <v>259.2585144042969</v>
+      </c>
+      <c r="KD2">
+        <v>256.6013488769531</v>
+      </c>
+      <c r="KE2">
+        <v>253.8775329589844</v>
+      </c>
+      <c r="KF2">
+        <v>250.52294921875</v>
+      </c>
+      <c r="KG2">
+        <v>247.2341613769531</v>
+      </c>
+      <c r="KH2">
+        <v>244.7460632324219</v>
+      </c>
+      <c r="KI2">
+        <v>243.3805999755859</v>
+      </c>
+      <c r="KJ2">
+        <v>242.7486267089844</v>
+      </c>
+      <c r="KK2">
+        <v>243.0025939941406</v>
+      </c>
+      <c r="KL2">
+        <v>243.3020324707031</v>
+      </c>
+      <c r="KM2">
+        <v>243.5633239746094</v>
+      </c>
+      <c r="KN2">
+        <v>243.8881225585938</v>
+      </c>
+      <c r="KO2">
+        <v>244.2034301757812</v>
+      </c>
+      <c r="KP2">
+        <v>244.5592041015625</v>
+      </c>
+      <c r="KQ2">
+        <v>245.3362731933594</v>
+      </c>
+      <c r="KR2">
+        <v>246.7496948242188</v>
+      </c>
+      <c r="KS2">
+        <v>248.9290618896484</v>
+      </c>
+      <c r="KT2">
+        <v>251.2097473144531</v>
+      </c>
+      <c r="KU2">
+        <v>252.5470886230469</v>
+      </c>
+      <c r="KV2">
+        <v>253.312255859375</v>
+      </c>
+      <c r="KW2">
+        <v>253.7453308105469</v>
+      </c>
+      <c r="KX2">
+        <v>254.1104431152344</v>
+      </c>
+      <c r="KY2">
+        <v>254.484130859375</v>
+      </c>
+      <c r="KZ2">
+        <v>255.07421875</v>
+      </c>
+      <c r="LA2">
+        <v>255.5902252197266</v>
+      </c>
+      <c r="LB2">
+        <v>256.0247497558594</v>
+      </c>
+      <c r="LC2">
+        <v>256.4807739257812</v>
+      </c>
+      <c r="LD2">
+        <v>257.0051879882812</v>
+      </c>
+      <c r="LE2">
+        <v>257.7024841308594</v>
+      </c>
+      <c r="LF2">
+        <v>258.6304016113281</v>
+      </c>
+      <c r="LG2">
+        <v>260.077880859375</v>
+      </c>
+      <c r="LH2">
+        <v>261.9783935546875</v>
+      </c>
+      <c r="LI2">
+        <v>264.0749206542969</v>
+      </c>
+      <c r="LJ2">
+        <v>266.4521179199219</v>
+      </c>
+      <c r="LK2">
+        <v>268.6169738769531</v>
+      </c>
+      <c r="LL2">
+        <v>270.5175476074219</v>
+      </c>
+      <c r="LM2">
+        <v>272.4588623046875</v>
+      </c>
+      <c r="LN2">
+        <v>274.1936645507812</v>
+      </c>
+      <c r="LO2">
+        <v>276.5743103027344</v>
+      </c>
+      <c r="LP2">
+        <v>279.1358337402344</v>
+      </c>
+      <c r="LQ2">
+        <v>281.1360778808594</v>
+      </c>
+      <c r="LR2">
+        <v>283.0714721679688</v>
+      </c>
+      <c r="LS2">
+        <v>285.94287109375</v>
+      </c>
+      <c r="LT2">
+        <v>290.1367492675781</v>
+      </c>
+      <c r="LU2">
+        <v>293.8733520507812</v>
+      </c>
+      <c r="LV2">
+        <v>296.8108215332031</v>
+      </c>
+      <c r="LW2">
+        <v>299.5146484375</v>
+      </c>
+      <c r="LX2">
+        <v>301.80029296875</v>
+      </c>
+      <c r="LY2">
+        <v>304.0819702148438</v>
+      </c>
+      <c r="LZ2">
+        <v>306.5780029296875</v>
+      </c>
+      <c r="MA2">
+        <v>309.1796569824219</v>
+      </c>
+      <c r="MB2">
+        <v>312.2696228027344</v>
+      </c>
+      <c r="MC2">
+        <v>315.1991882324219</v>
+      </c>
+      <c r="MD2">
+        <v>317.2286376953125</v>
+      </c>
+      <c r="ME2">
+        <v>319.1500854492188</v>
+      </c>
+      <c r="MF2">
+        <v>321.3796997070312</v>
+      </c>
+      <c r="MG2">
+        <v>323.5180053710938</v>
+      </c>
+      <c r="MH2">
+        <v>325.5255737304688</v>
+      </c>
+      <c r="MI2">
+        <v>327.5706787109375</v>
+      </c>
+      <c r="MJ2">
+        <v>329.0614624023438</v>
+      </c>
+      <c r="MK2">
+        <v>330.056884765625</v>
+      </c>
+      <c r="ML2">
+        <v>331.2393188476562</v>
+      </c>
+      <c r="MM2">
+        <v>332.31787109375</v>
+      </c>
+      <c r="MN2">
+        <v>333.7158813476562</v>
+      </c>
+      <c r="MO2">
+        <v>335.1340026855469</v>
+      </c>
+      <c r="MP2">
+        <v>336.5647583007812</v>
+      </c>
+      <c r="MQ2">
+        <v>338.2322692871094</v>
+      </c>
+      <c r="MR2">
+        <v>339.9287719726562</v>
+      </c>
+      <c r="MS2">
+        <v>340.9801025390625</v>
+      </c>
+      <c r="MT2">
+        <v>341.5557250976562</v>
+      </c>
+      <c r="MU2">
+        <v>341.9468994140625</v>
+      </c>
+      <c r="MV2">
+        <v>342.2826538085938</v>
+      </c>
+      <c r="MW2">
+        <v>342.5856323242188</v>
+      </c>
+      <c r="MX2">
+        <v>342.8491516113281</v>
+      </c>
+      <c r="MY2">
+        <v>342.9812316894531</v>
+      </c>
+      <c r="MZ2">
+        <v>342.9064636230469</v>
+      </c>
+      <c r="NA2">
+        <v>341.4144897460938</v>
+      </c>
+      <c r="NB2">
+        <v>339.5259094238281</v>
+      </c>
+      <c r="NC2">
+        <v>336.966064453125</v>
+      </c>
+      <c r="ND2">
+        <v>334.3904113769531</v>
+      </c>
+      <c r="NE2">
+        <v>332.7152099609375</v>
+      </c>
+      <c r="NF2">
+        <v>330.7809448242188</v>
+      </c>
+      <c r="NG2">
+        <v>328.928466796875</v>
+      </c>
+      <c r="NH2">
+        <v>327.1325073242188</v>
+      </c>
+      <c r="NI2">
+        <v>323.7385864257812</v>
+      </c>
+      <c r="NJ2">
+        <v>321.333984375</v>
+      </c>
+      <c r="NK2">
+        <v>319.4294128417969</v>
+      </c>
+      <c r="NL2">
+        <v>315.7315368652344</v>
+      </c>
+      <c r="NM2">
+        <v>312.947509765625</v>
+      </c>
+      <c r="NN2">
+        <v>310.9108581542969</v>
+      </c>
+      <c r="NO2">
+        <v>308.658935546875</v>
+      </c>
+      <c r="NP2">
+        <v>306.5812377929688</v>
+      </c>
+      <c r="NQ2">
+        <v>304.2103881835938</v>
+      </c>
+      <c r="NR2">
+        <v>302.1333312988281</v>
+      </c>
+      <c r="NS2">
+        <v>300.3281555175781</v>
+      </c>
+      <c r="NT2">
+        <v>298.8102722167969</v>
+      </c>
+      <c r="NU2">
+        <v>297.5982971191406</v>
+      </c>
+      <c r="NV2">
+        <v>296.4289855957031</v>
+      </c>
+      <c r="NW2">
+        <v>295.1976928710938</v>
+      </c>
+      <c r="NX2">
+        <v>294.0332336425781</v>
+      </c>
+      <c r="NY2">
+        <v>292.5948486328125</v>
+      </c>
+      <c r="NZ2">
+        <v>291.1303405761719</v>
+      </c>
+      <c r="OA2">
+        <v>289.6312866210938</v>
+      </c>
+      <c r="OB2">
+        <v>288.0411682128906</v>
+      </c>
+      <c r="OC2">
+        <v>286.9402465820312</v>
+      </c>
+      <c r="OD2">
+        <v>286.0565185546875</v>
+      </c>
+      <c r="OE2">
+        <v>285.4414978027344</v>
+      </c>
+      <c r="OF2">
+        <v>284.8960266113281</v>
+      </c>
+      <c r="OG2">
+        <v>284.3968811035156</v>
+      </c>
+      <c r="OH2">
+        <v>284.0268859863281</v>
+      </c>
+      <c r="OI2">
+        <v>283.7207336425781</v>
+      </c>
+      <c r="OJ2">
+        <v>283.8079528808594</v>
+      </c>
+      <c r="OK2">
+        <v>283.9744567871094</v>
+      </c>
+      <c r="OL2">
+        <v>284.1326904296875</v>
+      </c>
+      <c r="OM2">
+        <v>285.0870666503906</v>
+      </c>
+      <c r="ON2">
+        <v>286.4370727539062</v>
+      </c>
+      <c r="OO2">
+        <v>287.6522521972656</v>
+      </c>
+      <c r="OP2">
+        <v>288.6050720214844</v>
+      </c>
+      <c r="OQ2">
+        <v>290.10302734375</v>
+      </c>
+      <c r="OR2">
+        <v>292.2557067871094</v>
+      </c>
+      <c r="OS2">
+        <v>294.4694519042969</v>
+      </c>
+      <c r="OT2">
+        <v>297.0252075195312</v>
+      </c>
+      <c r="OU2">
+        <v>298.9305419921875</v>
+      </c>
+      <c r="OV2">
+        <v>301.3611450195312</v>
+      </c>
+      <c r="OW2">
+        <v>304.9983520507812</v>
+      </c>
+      <c r="OX2">
+        <v>307.9530944824219</v>
+      </c>
+      <c r="OY2">
+        <v>311.6034851074219</v>
+      </c>
+      <c r="OZ2">
+        <v>314.6421508789062</v>
+      </c>
+      <c r="PA2">
+        <v>316.0477294921875</v>
+      </c>
+      <c r="PB2">
+        <v>316.7298583984375</v>
+      </c>
+      <c r="PC2">
+        <v>317.2653198242188</v>
+      </c>
+      <c r="PD2">
+        <v>317.6356811523438</v>
+      </c>
+      <c r="PE2">
+        <v>318.0512390136719</v>
+      </c>
+      <c r="PF2">
+        <v>318.700439453125</v>
+      </c>
+      <c r="PG2">
+        <v>319.0773315429688</v>
+      </c>
+      <c r="PH2">
+        <v>319.4494323730469</v>
+      </c>
+      <c r="PI2">
+        <v>319.7809448242188</v>
+      </c>
+      <c r="PJ2">
+        <v>319.9689331054688</v>
+      </c>
+      <c r="PK2">
+        <v>320.077880859375</v>
+      </c>
+      <c r="PL2">
+        <v>320.1379699707031</v>
+      </c>
+      <c r="PM2">
+        <v>320.2171020507812</v>
+      </c>
+      <c r="PN2">
+        <v>320.2506713867188</v>
+      </c>
+      <c r="PO2">
+        <v>320.3129272460938</v>
+      </c>
+      <c r="PP2">
+        <v>320.7058715820312</v>
+      </c>
+      <c r="PQ2">
+        <v>320.058837890625</v>
+      </c>
+      <c r="PR2">
+        <v>317.5703125</v>
+      </c>
+      <c r="PS2">
+        <v>309.4131774902344</v>
+      </c>
+      <c r="PT2">
+        <v>276.1323547363281</v>
+      </c>
+      <c r="PU2">
+        <v>308.492919921875</v>
+      </c>
+      <c r="PV2">
+        <v>302.4676208496094</v>
       </c>
     </row>
-    <row r="3" spans="1:87">
+    <row r="3" spans="1:438">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>270.87939453125</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>269.4916687011719</v>
+        <v>65.41665649414062</v>
       </c>
       <c r="D3">
-        <v>267.0022888183594</v>
+        <v>64.26175689697266</v>
       </c>
       <c r="E3">
-        <v>265.5276184082031</v>
+        <v>60.17334365844727</v>
       </c>
       <c r="F3">
-        <v>264.8980712890625</v>
+        <v>57.1566047668457</v>
       </c>
       <c r="G3">
-        <v>265.4901428222656</v>
+        <v>52.90538787841797</v>
       </c>
       <c r="H3">
-        <v>265.0605163574219</v>
+        <v>48.1809196472168</v>
       </c>
       <c r="I3">
-        <v>264.7030639648438</v>
+        <v>47.93696594238281</v>
       </c>
       <c r="J3">
-        <v>264.4748840332031</v>
+        <v>59.14186096191406</v>
       </c>
       <c r="K3">
-        <v>262.5182189941406</v>
+        <v>69.38969421386719</v>
       </c>
       <c r="L3">
-        <v>258.7788391113281</v>
+        <v>76.8121337890625</v>
       </c>
       <c r="M3">
-        <v>253.8454284667969</v>
+        <v>32.87331008911133</v>
       </c>
       <c r="N3">
-        <v>247.9376831054688</v>
+        <v>64.77726745605469</v>
       </c>
       <c r="O3">
-        <v>242.4804992675781</v>
+        <v>61.06314849853516</v>
       </c>
       <c r="P3">
-        <v>236.9501953125</v>
+        <v>58.54568481445312</v>
       </c>
       <c r="Q3">
-        <v>229.9530029296875</v>
+        <v>58.35610580444336</v>
       </c>
       <c r="R3">
-        <v>222.0962371826172</v>
+        <v>53.05332565307617</v>
       </c>
       <c r="S3">
-        <v>214.7967987060547</v>
+        <v>48.440673828125</v>
       </c>
       <c r="T3">
-        <v>208.9533081054688</v>
+        <v>45.62810134887695</v>
       </c>
       <c r="U3">
-        <v>202.8971557617188</v>
+        <v>44.0018424987793</v>
       </c>
       <c r="V3">
-        <v>198.2008361816406</v>
+        <v>43.85995101928711</v>
       </c>
       <c r="W3">
-        <v>194.4277038574219</v>
+        <v>42.74351119995117</v>
       </c>
       <c r="X3">
-        <v>190.4366455078125</v>
+        <v>38.55572509765625</v>
       </c>
       <c r="Y3">
-        <v>185.9842376708984</v>
+        <v>33.23293304443359</v>
       </c>
       <c r="Z3">
-        <v>181.7033996582031</v>
+        <v>75.69285583496094</v>
       </c>
       <c r="AA3">
-        <v>177.3741149902344</v>
+        <v>93.47050476074219</v>
       </c>
       <c r="AB3">
-        <v>172.5196380615234</v>
+        <v>99.3330078125</v>
       </c>
       <c r="AC3">
-        <v>167.9498138427734</v>
+        <v>97.67970275878906</v>
       </c>
       <c r="AD3">
-        <v>163.5731811523438</v>
+        <v>87.69409942626953</v>
       </c>
       <c r="AE3">
-        <v>158.9994354248047</v>
+        <v>73.95695495605469</v>
       </c>
       <c r="AF3">
-        <v>155.1580810546875</v>
+        <v>63.99582672119141</v>
       </c>
       <c r="AG3">
-        <v>151.6034240722656</v>
+        <v>61.84311294555664</v>
       </c>
       <c r="AH3">
-        <v>148.7883911132812</v>
+        <v>64.50441741943359</v>
       </c>
       <c r="AI3">
-        <v>146.2189483642578</v>
+        <v>67.80913543701172</v>
       </c>
       <c r="AJ3">
-        <v>144.2793731689453</v>
+        <v>72.09486389160156</v>
       </c>
       <c r="AK3">
-        <v>142.7674560546875</v>
+        <v>76.81049346923828</v>
       </c>
       <c r="AL3">
-        <v>140.8596038818359</v>
+        <v>80.73660278320312</v>
       </c>
       <c r="AM3">
-        <v>138.1343688964844</v>
+        <v>85.87136840820312</v>
       </c>
       <c r="AN3">
-        <v>135.0523376464844</v>
+        <v>93.13726806640625</v>
       </c>
       <c r="AO3">
-        <v>131.1342468261719</v>
+        <v>91.45950317382812</v>
       </c>
       <c r="AP3">
-        <v>126.5661010742188</v>
+        <v>74.26200103759766</v>
       </c>
       <c r="AQ3">
-        <v>122.0340118408203</v>
+        <v>48.88069534301758</v>
       </c>
       <c r="AR3">
-        <v>119.1205902099609</v>
+        <v>39.90993499755859</v>
       </c>
       <c r="AS3">
-        <v>114.6946716308594</v>
+        <v>50.1113166809082</v>
       </c>
       <c r="AT3">
-        <v>109.5587387084961</v>
+        <v>-43.46065139770508</v>
       </c>
       <c r="AU3">
-        <v>104.1696319580078</v>
+        <v>-46.66123199462891</v>
       </c>
       <c r="AV3">
-        <v>94.93366241455078</v>
+        <v>-45.85721206665039</v>
       </c>
       <c r="AW3">
-        <v>87.63361358642578</v>
+        <v>-40.91453170776367</v>
       </c>
       <c r="AX3">
-        <v>83.38311767578125</v>
+        <v>-36.84625244140625</v>
       </c>
       <c r="AY3">
-        <v>78.84385681152344</v>
+        <v>-33.50649261474609</v>
       </c>
       <c r="AZ3">
-        <v>75.22863006591797</v>
+        <v>-29.59765625</v>
       </c>
       <c r="BA3">
-        <v>73.54677581787109</v>
+        <v>-19.78088188171387</v>
       </c>
       <c r="BB3">
-        <v>72.19789123535156</v>
+        <v>5.54267406463623</v>
       </c>
       <c r="BC3">
-        <v>72.14867401123047</v>
+        <v>46.07745742797852</v>
       </c>
       <c r="BD3">
-        <v>70.98371124267578</v>
+        <v>70.24015045166016</v>
       </c>
       <c r="BE3">
-        <v>69.73381042480469</v>
+        <v>-21.25347709655762</v>
       </c>
       <c r="BF3">
-        <v>68.32230377197266</v>
+        <v>53.15171432495117</v>
       </c>
       <c r="BG3">
-        <v>67.02535247802734</v>
+        <v>16.93744087219238</v>
       </c>
       <c r="BH3">
-        <v>66.00108337402344</v>
+        <v>11.08748054504395</v>
       </c>
       <c r="BI3">
-        <v>63.57647323608398</v>
+        <v>15.77798938751221</v>
       </c>
       <c r="BJ3">
-        <v>60.79135131835938</v>
+        <v>22.61131858825684</v>
       </c>
       <c r="BK3">
-        <v>58.64233779907227</v>
+        <v>27.28637313842773</v>
       </c>
       <c r="BL3">
-        <v>57.10440444946289</v>
+        <v>31.75128173828125</v>
       </c>
       <c r="BM3">
-        <v>55.80754852294922</v>
+        <v>37.26825714111328</v>
       </c>
       <c r="BN3">
-        <v>55.2444953918457</v>
+        <v>44.03774261474609</v>
       </c>
       <c r="BO3">
-        <v>54.60597229003906</v>
+        <v>50.72108840942383</v>
       </c>
       <c r="BP3">
-        <v>53.51333236694336</v>
+        <v>59.11656188964844</v>
       </c>
       <c r="BQ3">
-        <v>51.76242828369141</v>
+        <v>67.20822906494141</v>
       </c>
       <c r="BR3">
-        <v>50.57489776611328</v>
+        <v>73.71018981933594</v>
       </c>
       <c r="BS3">
-        <v>49.66143035888672</v>
+        <v>83.48912811279297</v>
       </c>
       <c r="BT3">
-        <v>49.486572265625</v>
+        <v>97.85452270507812</v>
       </c>
       <c r="BU3">
-        <v>49.53938674926758</v>
+        <v>109.1380767822266</v>
       </c>
       <c r="BV3">
-        <v>50.8037223815918</v>
+        <v>117.4549026489258</v>
       </c>
       <c r="BW3">
-        <v>54.43688583374023</v>
+        <v>122.6280899047852</v>
       </c>
       <c r="BX3">
-        <v>58.08250427246094</v>
+        <v>126.4405899047852</v>
       </c>
       <c r="BY3">
-        <v>58.13301849365234</v>
+        <v>129.5167236328125</v>
       </c>
       <c r="BZ3">
-        <v>54.44474411010742</v>
+        <v>131.7024230957031</v>
       </c>
       <c r="CA3">
-        <v>49.5960693359375</v>
+        <v>133.9767303466797</v>
       </c>
       <c r="CB3">
-        <v>45.90536880493164</v>
+        <v>136.477294921875</v>
       </c>
       <c r="CC3">
-        <v>45.04463577270508</v>
+        <v>138.3271179199219</v>
       </c>
       <c r="CD3">
-        <v>46.4541130065918</v>
+        <v>139.4344329833984</v>
       </c>
       <c r="CE3">
-        <v>48.62172698974609</v>
+        <v>140.8980255126953</v>
       </c>
       <c r="CF3">
-        <v>49.62904739379883</v>
+        <v>143.1124114990234</v>
       </c>
       <c r="CG3">
-        <v>50.92179107666016</v>
+        <v>146.0506896972656</v>
       </c>
       <c r="CH3">
-        <v>52.10253524780273</v>
+        <v>149.4788970947266</v>
       </c>
       <c r="CI3">
-        <v>52.32027053833008</v>
+        <v>153.0847473144531</v>
+      </c>
+      <c r="CJ3">
+        <v>156.2055511474609</v>
+      </c>
+      <c r="CK3">
+        <v>159.0027618408203</v>
+      </c>
+      <c r="CL3">
+        <v>162.0659637451172</v>
+      </c>
+      <c r="CM3">
+        <v>164.1126861572266</v>
+      </c>
+      <c r="CN3">
+        <v>165.8739776611328</v>
+      </c>
+      <c r="CO3">
+        <v>167.0214385986328</v>
+      </c>
+      <c r="CP3">
+        <v>168.2663269042969</v>
+      </c>
+      <c r="CQ3">
+        <v>169.5228118896484</v>
+      </c>
+      <c r="CR3">
+        <v>171.0903015136719</v>
+      </c>
+      <c r="CS3">
+        <v>172.9964904785156</v>
+      </c>
+      <c r="CT3">
+        <v>174.6208038330078</v>
+      </c>
+      <c r="CU3">
+        <v>177.222900390625</v>
+      </c>
+      <c r="CV3">
+        <v>180.6583557128906</v>
+      </c>
+      <c r="CW3">
+        <v>184.0558624267578</v>
+      </c>
+      <c r="CX3">
+        <v>186.7612915039062</v>
+      </c>
+      <c r="CY3">
+        <v>189.337890625</v>
+      </c>
+      <c r="CZ3">
+        <v>192.1719512939453</v>
+      </c>
+      <c r="DA3">
+        <v>195.3530426025391</v>
+      </c>
+      <c r="DB3">
+        <v>196.8531341552734</v>
+      </c>
+      <c r="DC3">
+        <v>198.3071441650391</v>
+      </c>
+      <c r="DD3">
+        <v>199.7631072998047</v>
+      </c>
+      <c r="DE3">
+        <v>201.4785003662109</v>
+      </c>
+      <c r="DF3">
+        <v>203.5595855712891</v>
+      </c>
+      <c r="DG3">
+        <v>205.5034027099609</v>
+      </c>
+      <c r="DH3">
+        <v>207.2376861572266</v>
+      </c>
+      <c r="DI3">
+        <v>208.4778594970703</v>
+      </c>
+      <c r="DJ3">
+        <v>209.7966461181641</v>
+      </c>
+      <c r="DK3">
+        <v>211.0844116210938</v>
+      </c>
+      <c r="DL3">
+        <v>211.7550964355469</v>
+      </c>
+      <c r="DM3">
+        <v>212.0113372802734</v>
+      </c>
+      <c r="DN3">
+        <v>212.4920806884766</v>
+      </c>
+      <c r="DO3">
+        <v>212.9524536132812</v>
+      </c>
+      <c r="DP3">
+        <v>213.5335540771484</v>
+      </c>
+      <c r="DQ3">
+        <v>214.360107421875</v>
+      </c>
+      <c r="DR3">
+        <v>214.9691772460938</v>
+      </c>
+      <c r="DS3">
+        <v>215.3101959228516</v>
+      </c>
+      <c r="DT3">
+        <v>215.7432250976562</v>
+      </c>
+      <c r="DU3">
+        <v>216.14208984375</v>
+      </c>
+      <c r="DV3">
+        <v>216.5281219482422</v>
+      </c>
+      <c r="DW3">
+        <v>216.6581268310547</v>
+      </c>
+      <c r="DX3">
+        <v>216.6937713623047</v>
+      </c>
+      <c r="DY3">
+        <v>216.6117553710938</v>
+      </c>
+      <c r="DZ3">
+        <v>216.6156311035156</v>
+      </c>
+      <c r="EA3">
+        <v>216.7042236328125</v>
+      </c>
+      <c r="EB3">
+        <v>216.7640686035156</v>
+      </c>
+      <c r="EC3">
+        <v>216.8609313964844</v>
+      </c>
+      <c r="ED3">
+        <v>217.0701446533203</v>
+      </c>
+      <c r="EE3">
+        <v>217.6053466796875</v>
+      </c>
+      <c r="EF3">
+        <v>218.2875061035156</v>
+      </c>
+      <c r="EG3">
+        <v>218.3528747558594</v>
+      </c>
+      <c r="EH3">
+        <v>218.2867736816406</v>
+      </c>
+      <c r="EI3">
+        <v>217.9104766845703</v>
+      </c>
+      <c r="EJ3">
+        <v>217.644287109375</v>
+      </c>
+      <c r="EK3">
+        <v>217.3592987060547</v>
+      </c>
+      <c r="EL3">
+        <v>217.0069732666016</v>
+      </c>
+      <c r="EM3">
+        <v>216.7810516357422</v>
+      </c>
+      <c r="EN3">
+        <v>216.4267883300781</v>
+      </c>
+      <c r="EO3">
+        <v>215.3453216552734</v>
+      </c>
+      <c r="EP3">
+        <v>214.6520233154297</v>
+      </c>
+      <c r="EQ3">
+        <v>214.1741638183594</v>
+      </c>
+      <c r="ER3">
+        <v>213.6957397460938</v>
+      </c>
+      <c r="ES3">
+        <v>213.2534484863281</v>
+      </c>
+      <c r="ET3">
+        <v>213.0604858398438</v>
+      </c>
+      <c r="EU3">
+        <v>212.9716033935547</v>
+      </c>
+      <c r="EV3">
+        <v>212.8871002197266</v>
+      </c>
+      <c r="EW3">
+        <v>212.6720733642578</v>
+      </c>
+      <c r="EX3">
+        <v>212.2657928466797</v>
+      </c>
+      <c r="EY3">
+        <v>211.7245941162109</v>
+      </c>
+      <c r="EZ3">
+        <v>211.717529296875</v>
+      </c>
+      <c r="FA3">
+        <v>211.8628082275391</v>
+      </c>
+      <c r="FB3">
+        <v>211.8394165039062</v>
+      </c>
+      <c r="FC3">
+        <v>211.2233123779297</v>
+      </c>
+      <c r="FD3">
+        <v>210.3902893066406</v>
+      </c>
+      <c r="FE3">
+        <v>209.6669006347656</v>
+      </c>
+      <c r="FF3">
+        <v>209.1821594238281</v>
+      </c>
+      <c r="FG3">
+        <v>209.0050506591797</v>
+      </c>
+      <c r="FH3">
+        <v>209.1243743896484</v>
+      </c>
+      <c r="FI3">
+        <v>209.4098205566406</v>
+      </c>
+      <c r="FJ3">
+        <v>209.2492828369141</v>
+      </c>
+      <c r="FK3">
+        <v>208.8335571289062</v>
+      </c>
+      <c r="FL3">
+        <v>208.6722717285156</v>
+      </c>
+      <c r="FM3">
+        <v>208.6067504882812</v>
+      </c>
+      <c r="FN3">
+        <v>208.3808288574219</v>
+      </c>
+      <c r="FO3">
+        <v>208.0191040039062</v>
+      </c>
+      <c r="FP3">
+        <v>207.334716796875</v>
+      </c>
+      <c r="FQ3">
+        <v>206.2926788330078</v>
+      </c>
+      <c r="FR3">
+        <v>205.5329132080078</v>
+      </c>
+      <c r="FS3">
+        <v>204.9807586669922</v>
+      </c>
+      <c r="FT3">
+        <v>204.7687377929688</v>
+      </c>
+      <c r="FU3">
+        <v>204.3787078857422</v>
+      </c>
+      <c r="FV3">
+        <v>204.0962982177734</v>
+      </c>
+      <c r="FW3">
+        <v>203.8156890869141</v>
+      </c>
+      <c r="FX3">
+        <v>203.234375</v>
+      </c>
+      <c r="FY3">
+        <v>202.1702117919922</v>
+      </c>
+      <c r="FZ3">
+        <v>200.9268493652344</v>
+      </c>
+      <c r="GA3">
+        <v>200.2703247070312</v>
+      </c>
+      <c r="GB3">
+        <v>199.3843688964844</v>
+      </c>
+      <c r="GC3">
+        <v>198.5282287597656</v>
+      </c>
+      <c r="GD3">
+        <v>197.8619689941406</v>
+      </c>
+      <c r="GE3">
+        <v>197.2765350341797</v>
+      </c>
+      <c r="GF3">
+        <v>196.4917907714844</v>
+      </c>
+      <c r="GG3">
+        <v>195.7921142578125</v>
+      </c>
+      <c r="GH3">
+        <v>195.3108978271484</v>
+      </c>
+      <c r="GI3">
+        <v>195.0346069335938</v>
+      </c>
+      <c r="GJ3">
+        <v>194.5721435546875</v>
+      </c>
+      <c r="GK3">
+        <v>194.1661987304688</v>
+      </c>
+      <c r="GL3">
+        <v>193.5807495117188</v>
+      </c>
+      <c r="GM3">
+        <v>192.7010803222656</v>
+      </c>
+      <c r="GN3">
+        <v>191.4452056884766</v>
+      </c>
+      <c r="GO3">
+        <v>190.0827178955078</v>
+      </c>
+      <c r="GP3">
+        <v>187.5481872558594</v>
+      </c>
+      <c r="GQ3">
+        <v>185.2122192382812</v>
+      </c>
+      <c r="GR3">
+        <v>182.2312927246094</v>
+      </c>
+      <c r="GS3">
+        <v>179.9000549316406</v>
+      </c>
+      <c r="GT3">
+        <v>178.2080688476562</v>
+      </c>
+      <c r="GU3">
+        <v>177.2461395263672</v>
+      </c>
+      <c r="GV3">
+        <v>176.0748596191406</v>
+      </c>
+      <c r="GW3">
+        <v>174.6828765869141</v>
+      </c>
+      <c r="GX3">
+        <v>173.5170745849609</v>
+      </c>
+      <c r="GY3">
+        <v>173.1304473876953</v>
+      </c>
+      <c r="GZ3">
+        <v>172.6141204833984</v>
+      </c>
+      <c r="HA3">
+        <v>171.1704711914062</v>
+      </c>
+      <c r="HB3">
+        <v>168.4548034667969</v>
+      </c>
+      <c r="HC3">
+        <v>166.0540618896484</v>
+      </c>
+      <c r="HD3">
+        <v>163.5139923095703</v>
+      </c>
+      <c r="HE3">
+        <v>161.6528930664062</v>
+      </c>
+      <c r="HF3">
+        <v>160.6824188232422</v>
+      </c>
+      <c r="HG3">
+        <v>160.0097961425781</v>
+      </c>
+      <c r="HH3">
+        <v>159.1376190185547</v>
+      </c>
+      <c r="HI3">
+        <v>158.2288055419922</v>
+      </c>
+      <c r="HJ3">
+        <v>156.4620056152344</v>
+      </c>
+      <c r="HK3">
+        <v>154.0247802734375</v>
+      </c>
+      <c r="HL3">
+        <v>151.6663818359375</v>
+      </c>
+      <c r="HM3">
+        <v>149.4184265136719</v>
+      </c>
+      <c r="HN3">
+        <v>147.2288360595703</v>
+      </c>
+      <c r="HO3">
+        <v>144.3702392578125</v>
+      </c>
+      <c r="HP3">
+        <v>140.6566925048828</v>
+      </c>
+      <c r="HQ3">
+        <v>136.4925537109375</v>
+      </c>
+      <c r="HR3">
+        <v>131.9712371826172</v>
+      </c>
+      <c r="HS3">
+        <v>128.3557434082031</v>
+      </c>
+      <c r="HT3">
+        <v>125.7212753295898</v>
+      </c>
+      <c r="HU3">
+        <v>123.624870300293</v>
+      </c>
+      <c r="HV3">
+        <v>121.945068359375</v>
+      </c>
+      <c r="HW3">
+        <v>120.4958419799805</v>
+      </c>
+      <c r="HX3">
+        <v>119.2687759399414</v>
+      </c>
+      <c r="HY3">
+        <v>118.7375793457031</v>
+      </c>
+      <c r="HZ3">
+        <v>118.7609024047852</v>
+      </c>
+      <c r="IA3">
+        <v>118.4102478027344</v>
+      </c>
+      <c r="IB3">
+        <v>117.1934204101562</v>
+      </c>
+      <c r="IC3">
+        <v>115.6994705200195</v>
+      </c>
+      <c r="ID3">
+        <v>113.5273971557617</v>
+      </c>
+      <c r="IE3">
+        <v>111.8718185424805</v>
+      </c>
+      <c r="IF3">
+        <v>110.5719909667969</v>
+      </c>
+      <c r="IG3">
+        <v>109.4023208618164</v>
+      </c>
+      <c r="IH3">
+        <v>107.5264892578125</v>
+      </c>
+      <c r="II3">
+        <v>104.6016693115234</v>
+      </c>
+      <c r="IJ3">
+        <v>100.7436828613281</v>
+      </c>
+      <c r="IK3">
+        <v>96.06324005126953</v>
+      </c>
+      <c r="IL3">
+        <v>92.64687347412109</v>
+      </c>
+      <c r="IM3">
+        <v>90.28939056396484</v>
+      </c>
+      <c r="IN3">
+        <v>88.73183441162109</v>
+      </c>
+      <c r="IO3">
+        <v>87.22415924072266</v>
+      </c>
+      <c r="IP3">
+        <v>86.01806640625</v>
+      </c>
+      <c r="IQ3">
+        <v>85.01685333251953</v>
+      </c>
+      <c r="IR3">
+        <v>84.61387634277344</v>
+      </c>
+      <c r="IS3">
+        <v>84.40789031982422</v>
+      </c>
+      <c r="IT3">
+        <v>84.22722625732422</v>
+      </c>
+      <c r="IU3">
+        <v>84.00431060791016</v>
+      </c>
+      <c r="IV3">
+        <v>83.71109008789062</v>
+      </c>
+      <c r="IW3">
+        <v>84.21661376953125</v>
+      </c>
+      <c r="IX3">
+        <v>84.58203887939453</v>
+      </c>
+      <c r="IY3">
+        <v>84.83040618896484</v>
+      </c>
+      <c r="IZ3">
+        <v>85.07509613037109</v>
+      </c>
+      <c r="JA3">
+        <v>85.27754974365234</v>
+      </c>
+      <c r="JB3">
+        <v>85.44437408447266</v>
+      </c>
+      <c r="JC3">
+        <v>85.52350616455078</v>
+      </c>
+      <c r="JD3">
+        <v>85.57563018798828</v>
+      </c>
+      <c r="JE3">
+        <v>85.61798858642578</v>
+      </c>
+      <c r="JF3">
+        <v>85.62770080566406</v>
+      </c>
+      <c r="JG3">
+        <v>85.76891326904297</v>
+      </c>
+      <c r="JH3">
+        <v>86.40229034423828</v>
+      </c>
+      <c r="JI3">
+        <v>87.61908721923828</v>
+      </c>
+      <c r="JJ3">
+        <v>89.14274597167969</v>
+      </c>
+      <c r="JK3">
+        <v>91.39238739013672</v>
+      </c>
+      <c r="JL3">
+        <v>93.65872955322266</v>
+      </c>
+      <c r="JM3">
+        <v>95.94284820556641</v>
+      </c>
+      <c r="JN3">
+        <v>97.70238494873047</v>
+      </c>
+      <c r="JO3">
+        <v>100.2807083129883</v>
+      </c>
+      <c r="JP3">
+        <v>103.0319900512695</v>
+      </c>
+      <c r="JQ3">
+        <v>106.8316268920898</v>
+      </c>
+      <c r="JR3">
+        <v>111.5437469482422</v>
+      </c>
+      <c r="JS3">
+        <v>116.1807250976562</v>
+      </c>
+      <c r="JT3">
+        <v>120.8188934326172</v>
+      </c>
+      <c r="JU3">
+        <v>125.5659332275391</v>
+      </c>
+      <c r="JV3">
+        <v>130.2816009521484</v>
+      </c>
+      <c r="JW3">
+        <v>134.8303375244141</v>
+      </c>
+      <c r="JX3">
+        <v>138.4048461914062</v>
+      </c>
+      <c r="JY3">
+        <v>141.5990905761719</v>
+      </c>
+      <c r="JZ3">
+        <v>144.7660675048828</v>
+      </c>
+      <c r="KA3">
+        <v>146.8919372558594</v>
+      </c>
+      <c r="KB3">
+        <v>148.3835601806641</v>
+      </c>
+      <c r="KC3">
+        <v>150.0651702880859</v>
+      </c>
+      <c r="KD3">
+        <v>151.7267456054688</v>
+      </c>
+      <c r="KE3">
+        <v>153.232666015625</v>
+      </c>
+      <c r="KF3">
+        <v>154.2320556640625</v>
+      </c>
+      <c r="KG3">
+        <v>154.8980102539062</v>
+      </c>
+      <c r="KH3">
+        <v>155.7947387695312</v>
+      </c>
+      <c r="KI3">
+        <v>156.0889892578125</v>
+      </c>
+      <c r="KJ3">
+        <v>156.1145782470703</v>
+      </c>
+      <c r="KK3">
+        <v>156.245849609375</v>
+      </c>
+      <c r="KL3">
+        <v>156.2190856933594</v>
+      </c>
+      <c r="KM3">
+        <v>156.2440032958984</v>
+      </c>
+      <c r="KN3">
+        <v>156.5098266601562</v>
+      </c>
+      <c r="KO3">
+        <v>156.7385864257812</v>
+      </c>
+      <c r="KP3">
+        <v>157.4003143310547</v>
+      </c>
+      <c r="KQ3">
+        <v>157.9035797119141</v>
+      </c>
+      <c r="KR3">
+        <v>158.1605224609375</v>
+      </c>
+      <c r="KS3">
+        <v>158.9614105224609</v>
+      </c>
+      <c r="KT3">
+        <v>160.1143951416016</v>
+      </c>
+      <c r="KU3">
+        <v>160.9719085693359</v>
+      </c>
+      <c r="KV3">
+        <v>161.7527770996094</v>
+      </c>
+      <c r="KW3">
+        <v>162.2363128662109</v>
+      </c>
+      <c r="KX3">
+        <v>162.8227081298828</v>
+      </c>
+      <c r="KY3">
+        <v>163.2994232177734</v>
+      </c>
+      <c r="KZ3">
+        <v>163.7193145751953</v>
+      </c>
+      <c r="LA3">
+        <v>163.9372253417969</v>
+      </c>
+      <c r="LB3">
+        <v>163.9204711914062</v>
+      </c>
+      <c r="LC3">
+        <v>163.9291229248047</v>
+      </c>
+      <c r="LD3">
+        <v>163.9185638427734</v>
+      </c>
+      <c r="LE3">
+        <v>164.1090698242188</v>
+      </c>
+      <c r="LF3">
+        <v>164.3775787353516</v>
+      </c>
+      <c r="LG3">
+        <v>164.9122009277344</v>
+      </c>
+      <c r="LH3">
+        <v>165.2959899902344</v>
+      </c>
+      <c r="LI3">
+        <v>165.5750274658203</v>
+      </c>
+      <c r="LJ3">
+        <v>166.0864715576172</v>
+      </c>
+      <c r="LK3">
+        <v>166.7126312255859</v>
+      </c>
+      <c r="LL3">
+        <v>167.9402160644531</v>
+      </c>
+      <c r="LM3">
+        <v>168.7793884277344</v>
+      </c>
+      <c r="LN3">
+        <v>169.3628387451172</v>
+      </c>
+      <c r="LO3">
+        <v>169.7968292236328</v>
+      </c>
+      <c r="LP3">
+        <v>170.7332763671875</v>
+      </c>
+      <c r="LQ3">
+        <v>171.3637084960938</v>
+      </c>
+      <c r="LR3">
+        <v>171.7764739990234</v>
+      </c>
+      <c r="LS3">
+        <v>171.8633880615234</v>
+      </c>
+      <c r="LT3">
+        <v>172.7794189453125</v>
+      </c>
+      <c r="LU3">
+        <v>173.5945434570312</v>
+      </c>
+      <c r="LV3">
+        <v>174.2916870117188</v>
+      </c>
+      <c r="LW3">
+        <v>175.0050659179688</v>
+      </c>
+      <c r="LX3">
+        <v>175.4185180664062</v>
+      </c>
+      <c r="LY3">
+        <v>175.9041748046875</v>
+      </c>
+      <c r="LZ3">
+        <v>176.6837005615234</v>
+      </c>
+      <c r="MA3">
+        <v>177.1930236816406</v>
+      </c>
+      <c r="MB3">
+        <v>177.9051055908203</v>
+      </c>
+      <c r="MC3">
+        <v>178.5956573486328</v>
+      </c>
+      <c r="MD3">
+        <v>178.8680572509766</v>
+      </c>
+      <c r="ME3">
+        <v>179.0443725585938</v>
+      </c>
+      <c r="MF3">
+        <v>179.4704284667969</v>
+      </c>
+      <c r="MG3">
+        <v>179.8119506835938</v>
+      </c>
+      <c r="MH3">
+        <v>180.5813140869141</v>
+      </c>
+      <c r="MI3">
+        <v>180.6679229736328</v>
+      </c>
+      <c r="MJ3">
+        <v>180.6831359863281</v>
+      </c>
+      <c r="MK3">
+        <v>180.7164764404297</v>
+      </c>
+      <c r="ML3">
+        <v>180.7498931884766</v>
+      </c>
+      <c r="MM3">
+        <v>180.839111328125</v>
+      </c>
+      <c r="MN3">
+        <v>180.9685516357422</v>
+      </c>
+      <c r="MO3">
+        <v>181.1318664550781</v>
+      </c>
+      <c r="MP3">
+        <v>181.0080871582031</v>
+      </c>
+      <c r="MQ3">
+        <v>180.71044921875</v>
+      </c>
+      <c r="MR3">
+        <v>180.1215515136719</v>
+      </c>
+      <c r="MS3">
+        <v>179.8927612304688</v>
+      </c>
+      <c r="MT3">
+        <v>179.8638610839844</v>
+      </c>
+      <c r="MU3">
+        <v>178.9751739501953</v>
+      </c>
+      <c r="MV3">
+        <v>177.9057312011719</v>
+      </c>
+      <c r="MW3">
+        <v>177.0708770751953</v>
+      </c>
+      <c r="MX3">
+        <v>176.1401214599609</v>
+      </c>
+      <c r="MY3">
+        <v>175.0488891601562</v>
+      </c>
+      <c r="MZ3">
+        <v>174.1231536865234</v>
+      </c>
+      <c r="NA3">
+        <v>173.3476104736328</v>
+      </c>
+      <c r="NB3">
+        <v>172.7234802246094</v>
+      </c>
+      <c r="NC3">
+        <v>172.1941223144531</v>
+      </c>
+      <c r="ND3">
+        <v>171.6717529296875</v>
+      </c>
+      <c r="NE3">
+        <v>170.9606018066406</v>
+      </c>
+      <c r="NF3">
+        <v>170.2508697509766</v>
+      </c>
+      <c r="NG3">
+        <v>168.7431793212891</v>
+      </c>
+      <c r="NH3">
+        <v>166.6695556640625</v>
+      </c>
+      <c r="NI3">
+        <v>164.693603515625</v>
+      </c>
+      <c r="NJ3">
+        <v>162.5788116455078</v>
+      </c>
+      <c r="NK3">
+        <v>160.0919189453125</v>
+      </c>
+      <c r="NL3">
+        <v>157.9956359863281</v>
+      </c>
+      <c r="NM3">
+        <v>156.5881805419922</v>
+      </c>
+      <c r="NN3">
+        <v>153.6672210693359</v>
+      </c>
+      <c r="NO3">
+        <v>151.2350463867188</v>
+      </c>
+      <c r="NP3">
+        <v>149.4536895751953</v>
+      </c>
+      <c r="NQ3">
+        <v>147.6635589599609</v>
+      </c>
+      <c r="NR3">
+        <v>146.0200653076172</v>
+      </c>
+      <c r="NS3">
+        <v>144.0879516601562</v>
+      </c>
+      <c r="NT3">
+        <v>142.6673583984375</v>
+      </c>
+      <c r="NU3">
+        <v>141.5295257568359</v>
+      </c>
+      <c r="NV3">
+        <v>140.7655639648438</v>
+      </c>
+      <c r="NW3">
+        <v>140.0970916748047</v>
+      </c>
+      <c r="NX3">
+        <v>138.9278869628906</v>
+      </c>
+      <c r="NY3">
+        <v>137.5951995849609</v>
+      </c>
+      <c r="NZ3">
+        <v>136.1583099365234</v>
+      </c>
+      <c r="OA3">
+        <v>134.9942321777344</v>
+      </c>
+      <c r="OB3">
+        <v>133.5879974365234</v>
+      </c>
+      <c r="OC3">
+        <v>132.3395538330078</v>
+      </c>
+      <c r="OD3">
+        <v>131.0034942626953</v>
+      </c>
+      <c r="OE3">
+        <v>128.9734039306641</v>
+      </c>
+      <c r="OF3">
+        <v>125.8570175170898</v>
+      </c>
+      <c r="OG3">
+        <v>122.2796783447266</v>
+      </c>
+      <c r="OH3">
+        <v>119.5039901733398</v>
+      </c>
+      <c r="OI3">
+        <v>117.6731262207031</v>
+      </c>
+      <c r="OJ3">
+        <v>115.7799606323242</v>
+      </c>
+      <c r="OK3">
+        <v>113.1333999633789</v>
+      </c>
+      <c r="OL3">
+        <v>109.5187225341797</v>
+      </c>
+      <c r="OM3">
+        <v>106.5903701782227</v>
+      </c>
+      <c r="ON3">
+        <v>103.5598526000977</v>
+      </c>
+      <c r="OO3">
+        <v>100.104850769043</v>
+      </c>
+      <c r="OP3">
+        <v>96.13794708251953</v>
+      </c>
+      <c r="OQ3">
+        <v>92.40090179443359</v>
+      </c>
+      <c r="OR3">
+        <v>89.10427856445312</v>
+      </c>
+      <c r="OS3">
+        <v>86.39121246337891</v>
+      </c>
+      <c r="OT3">
+        <v>84.36968231201172</v>
+      </c>
+      <c r="OU3">
+        <v>82.57290649414062</v>
+      </c>
+      <c r="OV3">
+        <v>80.32290649414062</v>
+      </c>
+      <c r="OW3">
+        <v>78.30115509033203</v>
+      </c>
+      <c r="OX3">
+        <v>77.1044921875</v>
+      </c>
+      <c r="OY3">
+        <v>76.31079864501953</v>
+      </c>
+      <c r="OZ3">
+        <v>75.53215026855469</v>
+      </c>
+      <c r="PA3">
+        <v>75.48687744140625</v>
+      </c>
+      <c r="PB3">
+        <v>75.32221221923828</v>
+      </c>
+      <c r="PC3">
+        <v>73.99208831787109</v>
+      </c>
+      <c r="PD3">
+        <v>71.91909027099609</v>
+      </c>
+      <c r="PE3">
+        <v>69.15755462646484</v>
+      </c>
+      <c r="PF3">
+        <v>66.41929626464844</v>
+      </c>
+      <c r="PG3">
+        <v>63.67171478271484</v>
+      </c>
+      <c r="PH3">
+        <v>60.48245239257812</v>
+      </c>
+      <c r="PI3">
+        <v>56.56667327880859</v>
+      </c>
+      <c r="PJ3">
+        <v>52.73443984985352</v>
+      </c>
+      <c r="PK3">
+        <v>49.21834564208984</v>
+      </c>
+      <c r="PL3">
+        <v>45.85963439941406</v>
+      </c>
+      <c r="PM3">
+        <v>41.98019409179688</v>
+      </c>
+      <c r="PN3">
+        <v>38.89171981811523</v>
+      </c>
+      <c r="PO3">
+        <v>34.51354217529297</v>
+      </c>
+      <c r="PP3">
+        <v>29.03262329101562</v>
+      </c>
+      <c r="PQ3">
+        <v>24.78888702392578</v>
+      </c>
+      <c r="PR3">
+        <v>21.95807456970215</v>
+      </c>
+      <c r="PS3">
+        <v>14.73666667938232</v>
+      </c>
+      <c r="PT3">
+        <v>53.88958358764648</v>
+      </c>
+      <c r="PU3">
+        <v>15.12438488006592</v>
+      </c>
+      <c r="PV3">
+        <v>15.62631511688232</v>
       </c>
     </row>
-    <row r="4" spans="1:87">
+    <row r="4" spans="1:438">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>1505.558959960938</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1499.395629882812</v>
+        <v>832.1376342773438</v>
       </c>
       <c r="D4">
-        <v>1489.897338867188</v>
+        <v>842.4090576171875</v>
       </c>
       <c r="E4">
-        <v>1474.834350585938</v>
+        <v>844.5791625976562</v>
       </c>
       <c r="F4">
-        <v>1458.108642578125</v>
+        <v>839.3521728515625</v>
       </c>
       <c r="G4">
-        <v>1439.273559570312</v>
+        <v>825.54345703125</v>
       </c>
       <c r="H4">
-        <v>1420.948608398438</v>
+        <v>798.2567138671875</v>
       </c>
       <c r="I4">
-        <v>1402.9658203125</v>
+        <v>748.2135009765625</v>
       </c>
       <c r="J4">
-        <v>1389.638671875</v>
+        <v>711.8189697265625</v>
       </c>
       <c r="K4">
-        <v>1380.505249023438</v>
+        <v>693.4408569335938</v>
       </c>
       <c r="L4">
-        <v>1372.527954101562</v>
+        <v>682.0565795898438</v>
       </c>
       <c r="M4">
-        <v>1365.268310546875</v>
+        <v>731.3776245117188</v>
       </c>
       <c r="N4">
-        <v>1360.79638671875</v>
+        <v>671.3108520507812</v>
       </c>
       <c r="O4">
-        <v>1358.28662109375</v>
+        <v>662.6444702148438</v>
       </c>
       <c r="P4">
-        <v>1357.179443359375</v>
+        <v>651.6224365234375</v>
       </c>
       <c r="Q4">
-        <v>1356.6455078125</v>
+        <v>639.0830688476562</v>
       </c>
       <c r="R4">
-        <v>1356.996337890625</v>
+        <v>626.5650024414062</v>
       </c>
       <c r="S4">
-        <v>1357.203857421875</v>
+        <v>616.26220703125</v>
       </c>
       <c r="T4">
-        <v>1359.997436523438</v>
+        <v>609.1271362304688</v>
       </c>
       <c r="U4">
-        <v>1367.11083984375</v>
+        <v>603.7538452148438</v>
       </c>
       <c r="V4">
-        <v>1376.854370117188</v>
+        <v>603.1456298828125</v>
       </c>
       <c r="W4">
-        <v>1388.869140625</v>
+        <v>602.0471801757812</v>
       </c>
       <c r="X4">
-        <v>1400.102905273438</v>
+        <v>600.4517211914062</v>
       </c>
       <c r="Y4">
-        <v>1407.973266601562</v>
+        <v>611.8408203125</v>
       </c>
       <c r="Z4">
-        <v>1413.94873046875</v>
+        <v>652.7103881835938</v>
       </c>
       <c r="AA4">
-        <v>1418.410400390625</v>
+        <v>664.5242309570312</v>
       </c>
       <c r="AB4">
-        <v>1421.2119140625</v>
+        <v>666.423095703125</v>
       </c>
       <c r="AC4">
-        <v>1421.549194335938</v>
+        <v>664.83935546875</v>
       </c>
       <c r="AD4">
-        <v>1418.514038085938</v>
+        <v>660.0111694335938</v>
       </c>
       <c r="AE4">
-        <v>1409.64111328125</v>
+        <v>647.8862915039062</v>
       </c>
       <c r="AF4">
-        <v>1395.535766601562</v>
+        <v>634.42578125</v>
       </c>
       <c r="AG4">
-        <v>1378.489135742188</v>
+        <v>632.6672973632812</v>
       </c>
       <c r="AH4">
-        <v>1361.03564453125</v>
+        <v>635.1605834960938</v>
       </c>
       <c r="AI4">
-        <v>1341.956298828125</v>
+        <v>636.4884033203125</v>
       </c>
       <c r="AJ4">
-        <v>1325.00244140625</v>
+        <v>635.6513061523438</v>
       </c>
       <c r="AK4">
-        <v>1311.475952148438</v>
+        <v>633.8812866210938</v>
       </c>
       <c r="AL4">
-        <v>1291.557373046875</v>
+        <v>633.361328125</v>
       </c>
       <c r="AM4">
-        <v>1266.873657226562</v>
+        <v>635.5272216796875</v>
       </c>
       <c r="AN4">
-        <v>1241.091674804688</v>
+        <v>639.369873046875</v>
       </c>
       <c r="AO4">
-        <v>1212.174194335938</v>
+        <v>640.400390625</v>
       </c>
       <c r="AP4">
-        <v>1185.754638671875</v>
+        <v>643.3400268554688</v>
       </c>
       <c r="AQ4">
-        <v>1162.117065429688</v>
+        <v>656.7472534179688</v>
       </c>
       <c r="AR4">
-        <v>1142.678955078125</v>
+        <v>669.7396240234375</v>
       </c>
       <c r="AS4">
-        <v>1121.337036132812</v>
+        <v>647.8927001953125</v>
       </c>
       <c r="AT4">
-        <v>1097.94873046875</v>
+        <v>558.7699584960938</v>
       </c>
       <c r="AU4">
-        <v>1073.56787109375</v>
+        <v>559.1299438476562</v>
       </c>
       <c r="AV4">
-        <v>1045.885620117188</v>
+        <v>574.3675537109375</v>
       </c>
       <c r="AW4">
-        <v>1024.47265625</v>
+        <v>589.036376953125</v>
       </c>
       <c r="AX4">
-        <v>1007.535400390625</v>
+        <v>597.2764892578125</v>
       </c>
       <c r="AY4">
-        <v>995.0657958984375</v>
+        <v>605.8184204101562</v>
       </c>
       <c r="AZ4">
-        <v>983.9659423828125</v>
+        <v>614.2352905273438</v>
       </c>
       <c r="BA4">
-        <v>973.8279418945312</v>
+        <v>634.7311401367188</v>
       </c>
       <c r="BB4">
-        <v>964.9600219726562</v>
+        <v>677.0155639648438</v>
       </c>
       <c r="BC4">
-        <v>958.7220458984375</v>
+        <v>726.5650634765625</v>
       </c>
       <c r="BD4">
-        <v>955.4994506835938</v>
+        <v>747.4136352539062</v>
       </c>
       <c r="BE4">
-        <v>952.5712280273438</v>
+        <v>605.7890625</v>
       </c>
       <c r="BF4">
-        <v>950.51123046875</v>
+        <v>758.281005859375</v>
       </c>
       <c r="BG4">
-        <v>948.162353515625</v>
+        <v>723.3672485351562</v>
       </c>
       <c r="BH4">
-        <v>945.5424194335938</v>
+        <v>717.3889770507812</v>
       </c>
       <c r="BI4">
-        <v>941.126708984375</v>
+        <v>731.3261108398438</v>
       </c>
       <c r="BJ4">
-        <v>934.920166015625</v>
+        <v>750.6172485351562</v>
       </c>
       <c r="BK4">
-        <v>930.8206176757812</v>
+        <v>766.0978393554688</v>
       </c>
       <c r="BL4">
-        <v>928.521240234375</v>
+        <v>783.9351806640625</v>
       </c>
       <c r="BM4">
-        <v>926.1521606445312</v>
+        <v>806.5194091796875</v>
       </c>
       <c r="BN4">
-        <v>924.591064453125</v>
+        <v>831.1974487304688</v>
       </c>
       <c r="BO4">
-        <v>922.353759765625</v>
+        <v>857.9109497070312</v>
       </c>
       <c r="BP4">
-        <v>918.9725952148438</v>
+        <v>887.7319946289062</v>
       </c>
       <c r="BQ4">
-        <v>912.9303588867188</v>
+        <v>915.9419555664062</v>
       </c>
       <c r="BR4">
-        <v>907.974609375</v>
+        <v>945.886962890625</v>
       </c>
       <c r="BS4">
-        <v>904.0764770507812</v>
+        <v>978.1611938476562</v>
       </c>
       <c r="BT4">
-        <v>903.478759765625</v>
+        <v>1016.070190429688</v>
       </c>
       <c r="BU4">
-        <v>903.2027587890625</v>
+        <v>1054.86669921875</v>
       </c>
       <c r="BV4">
-        <v>905.4017333984375</v>
+        <v>1091.405517578125</v>
       </c>
       <c r="BW4">
-        <v>908.5401000976562</v>
+        <v>1124.514282226562</v>
       </c>
       <c r="BX4">
-        <v>911.6832885742188</v>
+        <v>1155.265502929688</v>
       </c>
       <c r="BY4">
-        <v>905.1046752929688</v>
+        <v>1185.250854492188</v>
       </c>
       <c r="BZ4">
-        <v>888.2057495117188</v>
+        <v>1211.4970703125</v>
       </c>
       <c r="CA4">
-        <v>867.0084838867188</v>
+        <v>1237.674926757812</v>
       </c>
       <c r="CB4">
-        <v>848.1455688476562</v>
+        <v>1260.460327148438</v>
       </c>
       <c r="CC4">
-        <v>837.2954711914062</v>
+        <v>1285.524169921875</v>
       </c>
       <c r="CD4">
-        <v>831.9578247070312</v>
+        <v>1312.362548828125</v>
       </c>
       <c r="CE4">
-        <v>823.3363037109375</v>
+        <v>1339.622436523438</v>
       </c>
       <c r="CF4">
-        <v>811.8701782226562</v>
+        <v>1366.65576171875</v>
       </c>
       <c r="CG4">
-        <v>800.1256103515625</v>
+        <v>1390.4375</v>
       </c>
       <c r="CH4">
-        <v>787.6840209960938</v>
+        <v>1411.972412109375</v>
       </c>
       <c r="CI4">
-        <v>778.80908203125</v>
+        <v>1436.241088867188</v>
+      </c>
+      <c r="CJ4">
+        <v>1459.136596679688</v>
+      </c>
+      <c r="CK4">
+        <v>1480.64404296875</v>
+      </c>
+      <c r="CL4">
+        <v>1502.796264648438</v>
+      </c>
+      <c r="CM4">
+        <v>1520.486450195312</v>
+      </c>
+      <c r="CN4">
+        <v>1540.08203125</v>
+      </c>
+      <c r="CO4">
+        <v>1559.626831054688</v>
+      </c>
+      <c r="CP4">
+        <v>1582.85302734375</v>
+      </c>
+      <c r="CQ4">
+        <v>1608.027709960938</v>
+      </c>
+      <c r="CR4">
+        <v>1632.902465820312</v>
+      </c>
+      <c r="CS4">
+        <v>1655.366821289062</v>
+      </c>
+      <c r="CT4">
+        <v>1674.259643554688</v>
+      </c>
+      <c r="CU4">
+        <v>1696.547119140625</v>
+      </c>
+      <c r="CV4">
+        <v>1720.532470703125</v>
+      </c>
+      <c r="CW4">
+        <v>1743.86328125</v>
+      </c>
+      <c r="CX4">
+        <v>1768.21630859375</v>
+      </c>
+      <c r="CY4">
+        <v>1789.81005859375</v>
+      </c>
+      <c r="CZ4">
+        <v>1808.460815429688</v>
+      </c>
+      <c r="DA4">
+        <v>1833.707275390625</v>
+      </c>
+      <c r="DB4">
+        <v>1856.646362304688</v>
+      </c>
+      <c r="DC4">
+        <v>1872.82080078125</v>
+      </c>
+      <c r="DD4">
+        <v>1891.79052734375</v>
+      </c>
+      <c r="DE4">
+        <v>1910.066040039062</v>
+      </c>
+      <c r="DF4">
+        <v>1923.084350585938</v>
+      </c>
+      <c r="DG4">
+        <v>1937.5380859375</v>
+      </c>
+      <c r="DH4">
+        <v>1960.445556640625</v>
+      </c>
+      <c r="DI4">
+        <v>1987.038940429688</v>
+      </c>
+      <c r="DJ4">
+        <v>2008.323486328125</v>
+      </c>
+      <c r="DK4">
+        <v>2023.879150390625</v>
+      </c>
+      <c r="DL4">
+        <v>2032.815307617188</v>
+      </c>
+      <c r="DM4">
+        <v>2039.672485351562</v>
+      </c>
+      <c r="DN4">
+        <v>2045.357421875</v>
+      </c>
+      <c r="DO4">
+        <v>2052.150634765625</v>
+      </c>
+      <c r="DP4">
+        <v>2060.310546875</v>
+      </c>
+      <c r="DQ4">
+        <v>2067.572509765625</v>
+      </c>
+      <c r="DR4">
+        <v>2073.745361328125</v>
+      </c>
+      <c r="DS4">
+        <v>2078.845947265625</v>
+      </c>
+      <c r="DT4">
+        <v>2083.227783203125</v>
+      </c>
+      <c r="DU4">
+        <v>2088.162109375</v>
+      </c>
+      <c r="DV4">
+        <v>2094.080810546875</v>
+      </c>
+      <c r="DW4">
+        <v>2097.4169921875</v>
+      </c>
+      <c r="DX4">
+        <v>2100.09033203125</v>
+      </c>
+      <c r="DY4">
+        <v>2100.978515625</v>
+      </c>
+      <c r="DZ4">
+        <v>2101.1953125</v>
+      </c>
+      <c r="EA4">
+        <v>2100.642333984375</v>
+      </c>
+      <c r="EB4">
+        <v>2099.575439453125</v>
+      </c>
+      <c r="EC4">
+        <v>2098.93408203125</v>
+      </c>
+      <c r="ED4">
+        <v>2098.353271484375</v>
+      </c>
+      <c r="EE4">
+        <v>2095.11083984375</v>
+      </c>
+      <c r="EF4">
+        <v>2089.361328125</v>
+      </c>
+      <c r="EG4">
+        <v>2082.128662109375</v>
+      </c>
+      <c r="EH4">
+        <v>2077.5849609375</v>
+      </c>
+      <c r="EI4">
+        <v>2075.1875</v>
+      </c>
+      <c r="EJ4">
+        <v>2073.93017578125</v>
+      </c>
+      <c r="EK4">
+        <v>2072.17724609375</v>
+      </c>
+      <c r="EL4">
+        <v>2069.633056640625</v>
+      </c>
+      <c r="EM4">
+        <v>2064.6875</v>
+      </c>
+      <c r="EN4">
+        <v>2060.716796875</v>
+      </c>
+      <c r="EO4">
+        <v>2057.806884765625</v>
+      </c>
+      <c r="EP4">
+        <v>2056.05224609375</v>
+      </c>
+      <c r="EQ4">
+        <v>2055.166015625</v>
+      </c>
+      <c r="ER4">
+        <v>2051.17822265625</v>
+      </c>
+      <c r="ES4">
+        <v>2046.296508789062</v>
+      </c>
+      <c r="ET4">
+        <v>2040.178100585938</v>
+      </c>
+      <c r="EU4">
+        <v>2035.684692382812</v>
+      </c>
+      <c r="EV4">
+        <v>2032.62060546875</v>
+      </c>
+      <c r="EW4">
+        <v>2030.466186523438</v>
+      </c>
+      <c r="EX4">
+        <v>2027.996215820312</v>
+      </c>
+      <c r="EY4">
+        <v>2026.640747070312</v>
+      </c>
+      <c r="EZ4">
+        <v>2024.760864257812</v>
+      </c>
+      <c r="FA4">
+        <v>2023.353149414062</v>
+      </c>
+      <c r="FB4">
+        <v>2019.048217773438</v>
+      </c>
+      <c r="FC4">
+        <v>2013.671508789062</v>
+      </c>
+      <c r="FD4">
+        <v>2005.515380859375</v>
+      </c>
+      <c r="FE4">
+        <v>1995.695678710938</v>
+      </c>
+      <c r="FF4">
+        <v>1985.909301757812</v>
+      </c>
+      <c r="FG4">
+        <v>1976.795532226562</v>
+      </c>
+      <c r="FH4">
+        <v>1971.861328125</v>
+      </c>
+      <c r="FI4">
+        <v>1968.334716796875</v>
+      </c>
+      <c r="FJ4">
+        <v>1961.078735351562</v>
+      </c>
+      <c r="FK4">
+        <v>1952.304931640625</v>
+      </c>
+      <c r="FL4">
+        <v>1947.063354492188</v>
+      </c>
+      <c r="FM4">
+        <v>1943.229736328125</v>
+      </c>
+      <c r="FN4">
+        <v>1939.315185546875</v>
+      </c>
+      <c r="FO4">
+        <v>1934.384765625</v>
+      </c>
+      <c r="FP4">
+        <v>1927.324340820312</v>
+      </c>
+      <c r="FQ4">
+        <v>1920.78466796875</v>
+      </c>
+      <c r="FR4">
+        <v>1917.013427734375</v>
+      </c>
+      <c r="FS4">
+        <v>1914.050048828125</v>
+      </c>
+      <c r="FT4">
+        <v>1911.3203125</v>
+      </c>
+      <c r="FU4">
+        <v>1909.013793945312</v>
+      </c>
+      <c r="FV4">
+        <v>1905.34228515625</v>
+      </c>
+      <c r="FW4">
+        <v>1901.406372070312</v>
+      </c>
+      <c r="FX4">
+        <v>1898.84033203125</v>
+      </c>
+      <c r="FY4">
+        <v>1896.468139648438</v>
+      </c>
+      <c r="FZ4">
+        <v>1892.419799804688</v>
+      </c>
+      <c r="GA4">
+        <v>1886.731323242188</v>
+      </c>
+      <c r="GB4">
+        <v>1877.9912109375</v>
+      </c>
+      <c r="GC4">
+        <v>1868.623291015625</v>
+      </c>
+      <c r="GD4">
+        <v>1860.173461914062</v>
+      </c>
+      <c r="GE4">
+        <v>1852.088623046875</v>
+      </c>
+      <c r="GF4">
+        <v>1839.127075195312</v>
+      </c>
+      <c r="GG4">
+        <v>1823.268798828125</v>
+      </c>
+      <c r="GH4">
+        <v>1810.064697265625</v>
+      </c>
+      <c r="GI4">
+        <v>1796.003173828125</v>
+      </c>
+      <c r="GJ4">
+        <v>1781.480590820312</v>
+      </c>
+      <c r="GK4">
+        <v>1769.949096679688</v>
+      </c>
+      <c r="GL4">
+        <v>1760.99609375</v>
+      </c>
+      <c r="GM4">
+        <v>1749.711547851562</v>
+      </c>
+      <c r="GN4">
+        <v>1733.643676757812</v>
+      </c>
+      <c r="GO4">
+        <v>1714.249267578125</v>
+      </c>
+      <c r="GP4">
+        <v>1691.651977539062</v>
+      </c>
+      <c r="GQ4">
+        <v>1675.186401367188</v>
+      </c>
+      <c r="GR4">
+        <v>1659.170532226562</v>
+      </c>
+      <c r="GS4">
+        <v>1641.087524414062</v>
+      </c>
+      <c r="GT4">
+        <v>1625.050415039062</v>
+      </c>
+      <c r="GU4">
+        <v>1613.090454101562</v>
+      </c>
+      <c r="GV4">
+        <v>1598.368896484375</v>
+      </c>
+      <c r="GW4">
+        <v>1578.287963867188</v>
+      </c>
+      <c r="GX4">
+        <v>1558.617553710938</v>
+      </c>
+      <c r="GY4">
+        <v>1544.903442382812</v>
+      </c>
+      <c r="GZ4">
+        <v>1534.529296875</v>
+      </c>
+      <c r="HA4">
+        <v>1526.239990234375</v>
+      </c>
+      <c r="HB4">
+        <v>1520.492431640625</v>
+      </c>
+      <c r="HC4">
+        <v>1511.54736328125</v>
+      </c>
+      <c r="HD4">
+        <v>1493.134643554688</v>
+      </c>
+      <c r="HE4">
+        <v>1474.493408203125</v>
+      </c>
+      <c r="HF4">
+        <v>1460.943481445312</v>
+      </c>
+      <c r="HG4">
+        <v>1450.236206054688</v>
+      </c>
+      <c r="HH4">
+        <v>1439.394287109375</v>
+      </c>
+      <c r="HI4">
+        <v>1429.423950195312</v>
+      </c>
+      <c r="HJ4">
+        <v>1417.502197265625</v>
+      </c>
+      <c r="HK4">
+        <v>1404.2939453125</v>
+      </c>
+      <c r="HL4">
+        <v>1392.31103515625</v>
+      </c>
+      <c r="HM4">
+        <v>1380.746948242188</v>
+      </c>
+      <c r="HN4">
+        <v>1370.95849609375</v>
+      </c>
+      <c r="HO4">
+        <v>1356.108520507812</v>
+      </c>
+      <c r="HP4">
+        <v>1337.633666992188</v>
+      </c>
+      <c r="HQ4">
+        <v>1318.460327148438</v>
+      </c>
+      <c r="HR4">
+        <v>1299.483520507812</v>
+      </c>
+      <c r="HS4">
+        <v>1282.319091796875</v>
+      </c>
+      <c r="HT4">
+        <v>1268.015625</v>
+      </c>
+      <c r="HU4">
+        <v>1253.512084960938</v>
+      </c>
+      <c r="HV4">
+        <v>1240.0546875</v>
+      </c>
+      <c r="HW4">
+        <v>1227.801025390625</v>
+      </c>
+      <c r="HX4">
+        <v>1216.903198242188</v>
+      </c>
+      <c r="HY4">
+        <v>1210.634765625</v>
+      </c>
+      <c r="HZ4">
+        <v>1205.9501953125</v>
+      </c>
+      <c r="IA4">
+        <v>1199.277099609375</v>
+      </c>
+      <c r="IB4">
+        <v>1189.898315429688</v>
+      </c>
+      <c r="IC4">
+        <v>1179.802490234375</v>
+      </c>
+      <c r="ID4">
+        <v>1166.466918945312</v>
+      </c>
+      <c r="IE4">
+        <v>1153.904907226562</v>
+      </c>
+      <c r="IF4">
+        <v>1143.109741210938</v>
+      </c>
+      <c r="IG4">
+        <v>1134.794677734375</v>
+      </c>
+      <c r="IH4">
+        <v>1126.291137695312</v>
+      </c>
+      <c r="II4">
+        <v>1115.79150390625</v>
+      </c>
+      <c r="IJ4">
+        <v>1101.888671875</v>
+      </c>
+      <c r="IK4">
+        <v>1088.245971679688</v>
+      </c>
+      <c r="IL4">
+        <v>1078.90869140625</v>
+      </c>
+      <c r="IM4">
+        <v>1072.059814453125</v>
+      </c>
+      <c r="IN4">
+        <v>1066.998779296875</v>
+      </c>
+      <c r="IO4">
+        <v>1060.596923828125</v>
+      </c>
+      <c r="IP4">
+        <v>1055.185424804688</v>
+      </c>
+      <c r="IQ4">
+        <v>1050.600830078125</v>
+      </c>
+      <c r="IR4">
+        <v>1048.462768554688</v>
+      </c>
+      <c r="IS4">
+        <v>1047.294067382812</v>
+      </c>
+      <c r="IT4">
+        <v>1046.459228515625</v>
+      </c>
+      <c r="IU4">
+        <v>1045.4443359375</v>
+      </c>
+      <c r="IV4">
+        <v>1044.270141601562</v>
+      </c>
+      <c r="IW4">
+        <v>1042.099731445312</v>
+      </c>
+      <c r="IX4">
+        <v>1040.074340820312</v>
+      </c>
+      <c r="IY4">
+        <v>1038.270385742188</v>
+      </c>
+      <c r="IZ4">
+        <v>1037.27001953125</v>
+      </c>
+      <c r="JA4">
+        <v>1036.688232421875</v>
+      </c>
+      <c r="JB4">
+        <v>1036.318115234375</v>
+      </c>
+      <c r="JC4">
+        <v>1036.196655273438</v>
+      </c>
+      <c r="JD4">
+        <v>1036.152709960938</v>
+      </c>
+      <c r="JE4">
+        <v>1036.140747070312</v>
+      </c>
+      <c r="JF4">
+        <v>1036.25439453125</v>
+      </c>
+      <c r="JG4">
+        <v>1038.249633789062</v>
+      </c>
+      <c r="JH4">
+        <v>1043.008422851562</v>
+      </c>
+      <c r="JI4">
+        <v>1050.495727539062</v>
+      </c>
+      <c r="JJ4">
+        <v>1059.495849609375</v>
+      </c>
+      <c r="JK4">
+        <v>1069.53271484375</v>
+      </c>
+      <c r="JL4">
+        <v>1078.346801757812</v>
+      </c>
+      <c r="JM4">
+        <v>1086.399536132812</v>
+      </c>
+      <c r="JN4">
+        <v>1095.633056640625</v>
+      </c>
+      <c r="JO4">
+        <v>1106.792602539062</v>
+      </c>
+      <c r="JP4">
+        <v>1121.249877929688</v>
+      </c>
+      <c r="JQ4">
+        <v>1137.214477539062</v>
+      </c>
+      <c r="JR4">
+        <v>1157.70458984375</v>
+      </c>
+      <c r="JS4">
+        <v>1178.204467773438</v>
+      </c>
+      <c r="JT4">
+        <v>1196.34228515625</v>
+      </c>
+      <c r="JU4">
+        <v>1214.311645507812</v>
+      </c>
+      <c r="JV4">
+        <v>1236.427124023438</v>
+      </c>
+      <c r="JW4">
+        <v>1257.700927734375</v>
+      </c>
+      <c r="JX4">
+        <v>1274.715698242188</v>
+      </c>
+      <c r="JY4">
+        <v>1290.904174804688</v>
+      </c>
+      <c r="JZ4">
+        <v>1312.283325195312</v>
+      </c>
+      <c r="KA4">
+        <v>1328.030395507812</v>
+      </c>
+      <c r="KB4">
+        <v>1341.9970703125</v>
+      </c>
+      <c r="KC4">
+        <v>1359.697509765625</v>
+      </c>
+      <c r="KD4">
+        <v>1377.189697265625</v>
+      </c>
+      <c r="KE4">
+        <v>1393.304077148438</v>
+      </c>
+      <c r="KF4">
+        <v>1405.944946289062</v>
+      </c>
+      <c r="KG4">
+        <v>1416.744873046875</v>
+      </c>
+      <c r="KH4">
+        <v>1424.453979492188</v>
+      </c>
+      <c r="KI4">
+        <v>1431.918823242188</v>
+      </c>
+      <c r="KJ4">
+        <v>1438.836791992188</v>
+      </c>
+      <c r="KK4">
+        <v>1447.3046875</v>
+      </c>
+      <c r="KL4">
+        <v>1455.3994140625</v>
+      </c>
+      <c r="KM4">
+        <v>1462.3056640625</v>
+      </c>
+      <c r="KN4">
+        <v>1469.281372070312</v>
+      </c>
+      <c r="KO4">
+        <v>1475.747436523438</v>
+      </c>
+      <c r="KP4">
+        <v>1482.582641601562</v>
+      </c>
+      <c r="KQ4">
+        <v>1488.070678710938</v>
+      </c>
+      <c r="KR4">
+        <v>1495.837646484375</v>
+      </c>
+      <c r="KS4">
+        <v>1502.47265625</v>
+      </c>
+      <c r="KT4">
+        <v>1508.638916015625</v>
+      </c>
+      <c r="KU4">
+        <v>1511.717041015625</v>
+      </c>
+      <c r="KV4">
+        <v>1515.331176757812</v>
+      </c>
+      <c r="KW4">
+        <v>1518.115478515625</v>
+      </c>
+      <c r="KX4">
+        <v>1522.9853515625</v>
+      </c>
+      <c r="KY4">
+        <v>1528.825317382812</v>
+      </c>
+      <c r="KZ4">
+        <v>1534.5009765625</v>
+      </c>
+      <c r="LA4">
+        <v>1538.305297851562</v>
+      </c>
+      <c r="LB4">
+        <v>1540.411865234375</v>
+      </c>
+      <c r="LC4">
+        <v>1542.175415039062</v>
+      </c>
+      <c r="LD4">
+        <v>1544.44775390625</v>
+      </c>
+      <c r="LE4">
+        <v>1548.348876953125</v>
+      </c>
+      <c r="LF4">
+        <v>1552.14013671875</v>
+      </c>
+      <c r="LG4">
+        <v>1557.734497070312</v>
+      </c>
+      <c r="LH4">
+        <v>1562.417114257812</v>
+      </c>
+      <c r="LI4">
+        <v>1566.22607421875</v>
+      </c>
+      <c r="LJ4">
+        <v>1571.541870117188</v>
+      </c>
+      <c r="LK4">
+        <v>1577.497680664062</v>
+      </c>
+      <c r="LL4">
+        <v>1582.727172851562</v>
+      </c>
+      <c r="LM4">
+        <v>1587.229248046875</v>
+      </c>
+      <c r="LN4">
+        <v>1590.319458007812</v>
+      </c>
+      <c r="LO4">
+        <v>1594.010375976562</v>
+      </c>
+      <c r="LP4">
+        <v>1597.212036132812</v>
+      </c>
+      <c r="LQ4">
+        <v>1599.461303710938</v>
+      </c>
+      <c r="LR4">
+        <v>1601.838500976562</v>
+      </c>
+      <c r="LS4">
+        <v>1604.917236328125</v>
+      </c>
+      <c r="LT4">
+        <v>1610.303100585938</v>
+      </c>
+      <c r="LU4">
+        <v>1615.67626953125</v>
+      </c>
+      <c r="LV4">
+        <v>1620.033081054688</v>
+      </c>
+      <c r="LW4">
+        <v>1622.959228515625</v>
+      </c>
+      <c r="LX4">
+        <v>1625.565185546875</v>
+      </c>
+      <c r="LY4">
+        <v>1628.1103515625</v>
+      </c>
+      <c r="LZ4">
+        <v>1632.424560546875</v>
+      </c>
+      <c r="MA4">
+        <v>1637.611206054688</v>
+      </c>
+      <c r="MB4">
+        <v>1644.26904296875</v>
+      </c>
+      <c r="MC4">
+        <v>1651.733276367188</v>
+      </c>
+      <c r="MD4">
+        <v>1656.39404296875</v>
+      </c>
+      <c r="ME4">
+        <v>1659.304321289062</v>
+      </c>
+      <c r="MF4">
+        <v>1663.094848632812</v>
+      </c>
+      <c r="MG4">
+        <v>1665.821899414062</v>
+      </c>
+      <c r="MH4">
+        <v>1666.1650390625</v>
+      </c>
+      <c r="MI4">
+        <v>1667.656372070312</v>
+      </c>
+      <c r="MJ4">
+        <v>1668.55908203125</v>
+      </c>
+      <c r="MK4">
+        <v>1669.185302734375</v>
+      </c>
+      <c r="ML4">
+        <v>1669.661987304688</v>
+      </c>
+      <c r="MM4">
+        <v>1669.99072265625</v>
+      </c>
+      <c r="MN4">
+        <v>1670.186401367188</v>
+      </c>
+      <c r="MO4">
+        <v>1670.337646484375</v>
+      </c>
+      <c r="MP4">
+        <v>1666.958740234375</v>
+      </c>
+      <c r="MQ4">
+        <v>1660.192504882812</v>
+      </c>
+      <c r="MR4">
+        <v>1649.293701171875</v>
+      </c>
+      <c r="MS4">
+        <v>1642.11865234375</v>
+      </c>
+      <c r="MT4">
+        <v>1637.578125</v>
+      </c>
+      <c r="MU4">
+        <v>1633.629516601562</v>
+      </c>
+      <c r="MV4">
+        <v>1628.249145507812</v>
+      </c>
+      <c r="MW4">
+        <v>1621.432861328125</v>
+      </c>
+      <c r="MX4">
+        <v>1612.327514648438</v>
+      </c>
+      <c r="MY4">
+        <v>1601.902709960938</v>
+      </c>
+      <c r="MZ4">
+        <v>1592.512329101562</v>
+      </c>
+      <c r="NA4">
+        <v>1583.570678710938</v>
+      </c>
+      <c r="NB4">
+        <v>1572.228271484375</v>
+      </c>
+      <c r="NC4">
+        <v>1559.734497070312</v>
+      </c>
+      <c r="ND4">
+        <v>1546.88427734375</v>
+      </c>
+      <c r="NE4">
+        <v>1536.447387695312</v>
+      </c>
+      <c r="NF4">
+        <v>1527.42578125</v>
+      </c>
+      <c r="NG4">
+        <v>1514.354125976562</v>
+      </c>
+      <c r="NH4">
+        <v>1500.591430664062</v>
+      </c>
+      <c r="NI4">
+        <v>1488.712524414062</v>
+      </c>
+      <c r="NJ4">
+        <v>1474.780517578125</v>
+      </c>
+      <c r="NK4">
+        <v>1458.97802734375</v>
+      </c>
+      <c r="NL4">
+        <v>1443.487060546875</v>
+      </c>
+      <c r="NM4">
+        <v>1428.343139648438</v>
+      </c>
+      <c r="NN4">
+        <v>1413.465087890625</v>
+      </c>
+      <c r="NO4">
+        <v>1398.43017578125</v>
+      </c>
+      <c r="NP4">
+        <v>1387.115112304688</v>
+      </c>
+      <c r="NQ4">
+        <v>1375.293701171875</v>
+      </c>
+      <c r="NR4">
+        <v>1364.451904296875</v>
+      </c>
+      <c r="NS4">
+        <v>1351.20556640625</v>
+      </c>
+      <c r="NT4">
+        <v>1339.97509765625</v>
+      </c>
+      <c r="NU4">
+        <v>1331.238891601562</v>
+      </c>
+      <c r="NV4">
+        <v>1324.728759765625</v>
+      </c>
+      <c r="NW4">
+        <v>1318.6591796875</v>
+      </c>
+      <c r="NX4">
+        <v>1313.36865234375</v>
+      </c>
+      <c r="NY4">
+        <v>1308.923828125</v>
+      </c>
+      <c r="NZ4">
+        <v>1301.709106445312</v>
+      </c>
+      <c r="OA4">
+        <v>1294.714233398438</v>
+      </c>
+      <c r="OB4">
+        <v>1283.671020507812</v>
+      </c>
+      <c r="OC4">
+        <v>1273.8837890625</v>
+      </c>
+      <c r="OD4">
+        <v>1265.281127929688</v>
+      </c>
+      <c r="OE4">
+        <v>1256.102416992188</v>
+      </c>
+      <c r="OF4">
+        <v>1244.704956054688</v>
+      </c>
+      <c r="OG4">
+        <v>1230.442504882812</v>
+      </c>
+      <c r="OH4">
+        <v>1216.561889648438</v>
+      </c>
+      <c r="OI4">
+        <v>1203.939331054688</v>
+      </c>
+      <c r="OJ4">
+        <v>1191.164306640625</v>
+      </c>
+      <c r="OK4">
+        <v>1174.832153320312</v>
+      </c>
+      <c r="OL4">
+        <v>1154.719970703125</v>
+      </c>
+      <c r="OM4">
+        <v>1137.615600585938</v>
+      </c>
+      <c r="ON4">
+        <v>1121.355590820312</v>
+      </c>
+      <c r="OO4">
+        <v>1103.192749023438</v>
+      </c>
+      <c r="OP4">
+        <v>1081.75537109375</v>
+      </c>
+      <c r="OQ4">
+        <v>1063.66650390625</v>
+      </c>
+      <c r="OR4">
+        <v>1050.174560546875</v>
+      </c>
+      <c r="OS4">
+        <v>1039.113525390625</v>
+      </c>
+      <c r="OT4">
+        <v>1028.527465820312</v>
+      </c>
+      <c r="OU4">
+        <v>1020.855346679688</v>
+      </c>
+      <c r="OV4">
+        <v>1011.647705078125</v>
+      </c>
+      <c r="OW4">
+        <v>1002.042846679688</v>
+      </c>
+      <c r="OX4">
+        <v>994.4330444335938</v>
+      </c>
+      <c r="OY4">
+        <v>987.43505859375</v>
+      </c>
+      <c r="OZ4">
+        <v>980.1284790039062</v>
+      </c>
+      <c r="PA4">
+        <v>973.4108276367188</v>
+      </c>
+      <c r="PB4">
+        <v>967.7508544921875</v>
+      </c>
+      <c r="PC4">
+        <v>959.3096923828125</v>
+      </c>
+      <c r="PD4">
+        <v>949.169677734375</v>
+      </c>
+      <c r="PE4">
+        <v>938.3598022460938</v>
+      </c>
+      <c r="PF4">
+        <v>927.867431640625</v>
+      </c>
+      <c r="PG4">
+        <v>917.5439453125</v>
+      </c>
+      <c r="PH4">
+        <v>905.663818359375</v>
+      </c>
+      <c r="PI4">
+        <v>891.6585693359375</v>
+      </c>
+      <c r="PJ4">
+        <v>876.7450561523438</v>
+      </c>
+      <c r="PK4">
+        <v>862.7584228515625</v>
+      </c>
+      <c r="PL4">
+        <v>849.5186767578125</v>
+      </c>
+      <c r="PM4">
+        <v>834.53076171875</v>
+      </c>
+      <c r="PN4">
+        <v>820.3486938476562</v>
+      </c>
+      <c r="PO4">
+        <v>802.7701416015625</v>
+      </c>
+      <c r="PP4">
+        <v>781.8622436523438</v>
+      </c>
+      <c r="PQ4">
+        <v>760.4218139648438</v>
+      </c>
+      <c r="PR4">
+        <v>737.6973266601562</v>
+      </c>
+      <c r="PS4">
+        <v>692.2665405273438</v>
+      </c>
+      <c r="PT4">
+        <v>598.8339233398438</v>
+      </c>
+      <c r="PU4">
+        <v>659.6024169921875</v>
+      </c>
+      <c r="PV4">
+        <v>643.4004516601562</v>
       </c>
     </row>
   </sheetData>

--- a/Head_Data.xlsx
+++ b/Head_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO4"/>
+  <dimension ref="A1:JM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -1025,1786 +1023,2698 @@
         <v>0</v>
       </c>
       <c r="GO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>240.135009765625</v>
       </c>
       <c r="B2" t="n">
-        <v>353.6511840820312</v>
+        <v>240.5755310058594</v>
       </c>
       <c r="C2" t="n">
-        <v>351.2214660644531</v>
+        <v>240.6069183349609</v>
       </c>
       <c r="D2" t="n">
-        <v>349.800537109375</v>
+        <v>240.6217803955078</v>
       </c>
       <c r="E2" t="n">
-        <v>349.1967468261719</v>
+        <v>240.6289825439453</v>
       </c>
       <c r="F2" t="n">
-        <v>348.9167785644531</v>
+        <v>240.6324462890625</v>
       </c>
       <c r="G2" t="n">
-        <v>348.9031982421875</v>
+        <v>240.6339874267578</v>
       </c>
       <c r="H2" t="n">
-        <v>348.9157409667969</v>
+        <v>240.6342163085938</v>
       </c>
       <c r="I2" t="n">
-        <v>348.9450073242188</v>
+        <v>240.6340179443359</v>
       </c>
       <c r="J2" t="n">
-        <v>348.9806518554688</v>
+        <v>240.6338348388672</v>
       </c>
       <c r="K2" t="n">
-        <v>349.015625</v>
+        <v>240.63427734375</v>
       </c>
       <c r="L2" t="n">
-        <v>349.05126953125</v>
+        <v>240.6244812011719</v>
       </c>
       <c r="M2" t="n">
-        <v>349.087890625</v>
+        <v>240.6108093261719</v>
       </c>
       <c r="N2" t="n">
-        <v>349.1243286132812</v>
+        <v>240.6004486083984</v>
       </c>
       <c r="O2" t="n">
-        <v>349.1630249023438</v>
+        <v>240.59619140625</v>
       </c>
       <c r="P2" t="n">
-        <v>349.1793518066406</v>
+        <v>240.5948791503906</v>
       </c>
       <c r="Q2" t="n">
-        <v>349.1992797851562</v>
+        <v>240.5921325683594</v>
       </c>
       <c r="R2" t="n">
-        <v>349.2174072265625</v>
+        <v>240.5892639160156</v>
       </c>
       <c r="S2" t="n">
-        <v>349.2342529296875</v>
+        <v>240.582763671875</v>
       </c>
       <c r="T2" t="n">
-        <v>349.2496948242188</v>
+        <v>240.5274658203125</v>
       </c>
       <c r="U2" t="n">
-        <v>349.2658081054688</v>
+        <v>240.2250671386719</v>
       </c>
       <c r="V2" t="n">
-        <v>349.2808837890625</v>
+        <v>239.6020660400391</v>
       </c>
       <c r="W2" t="n">
-        <v>349.2944946289062</v>
+        <v>238.9793243408203</v>
       </c>
       <c r="X2" t="n">
-        <v>349.3085021972656</v>
+        <v>239.8233184814453</v>
       </c>
       <c r="Y2" t="n">
-        <v>349.3215637207031</v>
+        <v>242.9817504882812</v>
       </c>
       <c r="Z2" t="n">
-        <v>349.3326110839844</v>
+        <v>246.4697418212891</v>
       </c>
       <c r="AA2" t="n">
-        <v>349.3551025390625</v>
+        <v>249.3909301757812</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.3778076171875</v>
+        <v>250.8782653808594</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.3887939453125</v>
+        <v>251.4002990722656</v>
       </c>
       <c r="AD2" t="n">
-        <v>349.3985595703125</v>
+        <v>252.2186279296875</v>
       </c>
       <c r="AE2" t="n">
-        <v>349.4122009277344</v>
+        <v>253.6959686279297</v>
       </c>
       <c r="AF2" t="n">
-        <v>349.4247131347656</v>
+        <v>255.7752075195312</v>
       </c>
       <c r="AG2" t="n">
-        <v>349.4303588867188</v>
+        <v>257.8538208007812</v>
       </c>
       <c r="AH2" t="n">
-        <v>349.4352722167969</v>
+        <v>259.343994140625</v>
       </c>
       <c r="AI2" t="n">
-        <v>349.440185546875</v>
+        <v>260.9107971191406</v>
       </c>
       <c r="AJ2" t="n">
-        <v>349.4407653808594</v>
+        <v>262.7864990234375</v>
       </c>
       <c r="AK2" t="n">
-        <v>349.4387817382812</v>
+        <v>264.3778686523438</v>
       </c>
       <c r="AL2" t="n">
-        <v>349.433349609375</v>
+        <v>267.5397033691406</v>
       </c>
       <c r="AM2" t="n">
-        <v>349.4287719726562</v>
+        <v>270.6600036621094</v>
       </c>
       <c r="AN2" t="n">
-        <v>349.4259338378906</v>
+        <v>274.5137023925781</v>
       </c>
       <c r="AO2" t="n">
-        <v>349.4225463867188</v>
+        <v>278.1903076171875</v>
       </c>
       <c r="AP2" t="n">
-        <v>349.47314453125</v>
+        <v>281.6076965332031</v>
       </c>
       <c r="AQ2" t="n">
-        <v>351.8642578125</v>
+        <v>284.9181213378906</v>
       </c>
       <c r="AR2" t="n">
-        <v>365.2508239746094</v>
+        <v>287.9197387695312</v>
       </c>
       <c r="AS2" t="n">
-        <v>371.9432067871094</v>
+        <v>290.9053344726562</v>
       </c>
       <c r="AT2" t="n">
-        <v>383.3081665039062</v>
+        <v>292.7310180664062</v>
       </c>
       <c r="AU2" t="n">
-        <v>389.2147216796875</v>
+        <v>293.9386901855469</v>
       </c>
       <c r="AV2" t="n">
-        <v>395.7193603515625</v>
+        <v>294.8762512207031</v>
       </c>
       <c r="AW2" t="n">
-        <v>404.427978515625</v>
+        <v>295.6350402832031</v>
       </c>
       <c r="AX2" t="n">
-        <v>413.443359375</v>
+        <v>296.3309936523438</v>
       </c>
       <c r="AY2" t="n">
-        <v>420.6746826171875</v>
+        <v>296.8813781738281</v>
       </c>
       <c r="AZ2" t="n">
-        <v>428.3150939941406</v>
+        <v>297.3955688476562</v>
       </c>
       <c r="BA2" t="n">
-        <v>434.8011779785156</v>
+        <v>298.0310974121094</v>
       </c>
       <c r="BB2" t="n">
-        <v>442.0846252441406</v>
+        <v>298.6343994140625</v>
       </c>
       <c r="BC2" t="n">
-        <v>448.8778991699219</v>
+        <v>299.5439147949219</v>
       </c>
       <c r="BD2" t="n">
-        <v>454.6140747070312</v>
+        <v>300.992431640625</v>
       </c>
       <c r="BE2" t="n">
-        <v>460.0512390136719</v>
+        <v>302.5606384277344</v>
       </c>
       <c r="BF2" t="n">
-        <v>461.7523803710938</v>
+        <v>304.9227905273438</v>
       </c>
       <c r="BG2" t="n">
-        <v>462.0242614746094</v>
+        <v>307.2247009277344</v>
       </c>
       <c r="BH2" t="n">
-        <v>456.4172973632812</v>
+        <v>310.3926696777344</v>
       </c>
       <c r="BI2" t="n">
-        <v>450.9112854003906</v>
+        <v>314.2718811035156</v>
       </c>
       <c r="BJ2" t="n">
-        <v>433.607421875</v>
+        <v>315.72509765625</v>
       </c>
       <c r="BK2" t="n">
-        <v>415.4107055664062</v>
+        <v>318.43798828125</v>
       </c>
       <c r="BL2" t="n">
-        <v>404.2294921875</v>
+        <v>321.0982971191406</v>
       </c>
       <c r="BM2" t="n">
-        <v>380.8124389648438</v>
+        <v>323.9111938476562</v>
       </c>
       <c r="BN2" t="n">
-        <v>367.9000244140625</v>
+        <v>326.2894287109375</v>
       </c>
       <c r="BO2" t="n">
-        <v>354.8833618164062</v>
+        <v>328.6463012695312</v>
       </c>
       <c r="BP2" t="n">
-        <v>341.9710693359375</v>
+        <v>331.5406494140625</v>
       </c>
       <c r="BQ2" t="n">
-        <v>329.6478881835938</v>
+        <v>334.58154296875</v>
       </c>
       <c r="BR2" t="n">
-        <v>317.6022033691406</v>
+        <v>337.20068359375</v>
       </c>
       <c r="BS2" t="n">
-        <v>305.9717407226562</v>
+        <v>340.139404296875</v>
       </c>
       <c r="BT2" t="n">
-        <v>294.5758972167969</v>
+        <v>342.7361755371094</v>
       </c>
       <c r="BU2" t="n">
-        <v>284.0193786621094</v>
+        <v>345.7111206054688</v>
       </c>
       <c r="BV2" t="n">
-        <v>273.755859375</v>
+        <v>348.0938720703125</v>
       </c>
       <c r="BW2" t="n">
-        <v>264.3271179199219</v>
+        <v>350.2996826171875</v>
       </c>
       <c r="BX2" t="n">
-        <v>256.2928771972656</v>
+        <v>352.2663879394531</v>
       </c>
       <c r="BY2" t="n">
-        <v>249.8950042724609</v>
+        <v>354.1196899414062</v>
       </c>
       <c r="BZ2" t="n">
-        <v>243.9866333007812</v>
+        <v>355.8994140625</v>
       </c>
       <c r="CA2" t="n">
-        <v>238.8468627929688</v>
+        <v>357.8453369140625</v>
       </c>
       <c r="CB2" t="n">
-        <v>234.3169860839844</v>
+        <v>359.2920227050781</v>
       </c>
       <c r="CC2" t="n">
-        <v>230.5306854248047</v>
+        <v>360.263916015625</v>
       </c>
       <c r="CD2" t="n">
-        <v>227.9371948242188</v>
+        <v>361.204345703125</v>
       </c>
       <c r="CE2" t="n">
-        <v>225.78564453125</v>
+        <v>361.5918579101562</v>
       </c>
       <c r="CF2" t="n">
-        <v>224.7761840820312</v>
+        <v>362.0494079589844</v>
       </c>
       <c r="CG2" t="n">
-        <v>224.5649108886719</v>
+        <v>362.4966735839844</v>
       </c>
       <c r="CH2" t="n">
-        <v>224.7817687988281</v>
+        <v>362.9220275878906</v>
       </c>
       <c r="CI2" t="n">
-        <v>226.5727996826172</v>
+        <v>363.3928833007812</v>
       </c>
       <c r="CJ2" t="n">
-        <v>230.8314819335938</v>
+        <v>363.9559936523438</v>
       </c>
       <c r="CK2" t="n">
-        <v>239.7063903808594</v>
+        <v>364.2223510742188</v>
       </c>
       <c r="CL2" t="n">
-        <v>250.0075988769531</v>
+        <v>364.0416870117188</v>
       </c>
       <c r="CM2" t="n">
-        <v>259.2762451171875</v>
+        <v>363.3569946289062</v>
       </c>
       <c r="CN2" t="n">
-        <v>267.5620727539062</v>
+        <v>362.1815185546875</v>
       </c>
       <c r="CO2" t="n">
-        <v>275.8734130859375</v>
+        <v>360.9637145996094</v>
       </c>
       <c r="CP2" t="n">
-        <v>283.7651062011719</v>
+        <v>359.892333984375</v>
       </c>
       <c r="CQ2" t="n">
-        <v>292.4169311523438</v>
+        <v>358.6013793945312</v>
       </c>
       <c r="CR2" t="n">
-        <v>310.4886779785156</v>
+        <v>356.7304077148438</v>
       </c>
       <c r="CS2" t="n">
-        <v>319.0528564453125</v>
+        <v>354.8877563476562</v>
       </c>
       <c r="CT2" t="n">
-        <v>327.1790161132812</v>
+        <v>352.8961486816406</v>
       </c>
       <c r="CU2" t="n">
-        <v>336.1052856445312</v>
+        <v>351.1145629882812</v>
       </c>
       <c r="CV2" t="n">
-        <v>345.3955688476562</v>
+        <v>349.5103759765625</v>
       </c>
       <c r="CW2" t="n">
-        <v>353.9361572265625</v>
+        <v>348.2097778320312</v>
       </c>
       <c r="CX2" t="n">
-        <v>361.3260192871094</v>
+        <v>347.0949096679688</v>
       </c>
       <c r="CY2" t="n">
-        <v>369.416748046875</v>
+        <v>344.7685241699219</v>
       </c>
       <c r="CZ2" t="n">
-        <v>376.877685546875</v>
+        <v>343.2510986328125</v>
       </c>
       <c r="DA2" t="n">
-        <v>383.6826171875</v>
+        <v>340.6851806640625</v>
       </c>
       <c r="DB2" t="n">
-        <v>396.0105895996094</v>
+        <v>339.0236206054688</v>
       </c>
       <c r="DC2" t="n">
-        <v>401.9180908203125</v>
+        <v>337.4808349609375</v>
       </c>
       <c r="DD2" t="n">
-        <v>407.2122802734375</v>
+        <v>336.5398559570312</v>
       </c>
       <c r="DE2" t="n">
-        <v>411.532958984375</v>
+        <v>336.0147399902344</v>
       </c>
       <c r="DF2" t="n">
-        <v>415.6423645019531</v>
+        <v>335.2874145507812</v>
       </c>
       <c r="DG2" t="n">
-        <v>419.7363891601562</v>
+        <v>334.8124694824219</v>
       </c>
       <c r="DH2" t="n">
-        <v>423.0512084960938</v>
+        <v>333.7225952148438</v>
       </c>
       <c r="DI2" t="n">
-        <v>424.0078125</v>
+        <v>333.198974609375</v>
       </c>
       <c r="DJ2" t="n">
-        <v>424.4617004394531</v>
+        <v>332.5805969238281</v>
       </c>
       <c r="DK2" t="n">
-        <v>422.1769714355469</v>
+        <v>332.0929260253906</v>
       </c>
       <c r="DL2" t="n">
-        <v>417.8817138671875</v>
+        <v>331.5170288085938</v>
       </c>
       <c r="DM2" t="n">
-        <v>411.6959228515625</v>
+        <v>331.1242065429688</v>
       </c>
       <c r="DN2" t="n">
-        <v>406.44921875</v>
+        <v>330.5465087890625</v>
       </c>
       <c r="DO2" t="n">
-        <v>399.0443725585938</v>
+        <v>330.0972900390625</v>
       </c>
       <c r="DP2" t="n">
-        <v>395.4744262695312</v>
+        <v>330.0052185058594</v>
       </c>
       <c r="DQ2" t="n">
-        <v>383.7294921875</v>
+        <v>329.9287414550781</v>
       </c>
       <c r="DR2" t="n">
-        <v>379.05517578125</v>
+        <v>329.8928833007812</v>
       </c>
       <c r="DS2" t="n">
-        <v>375.2350158691406</v>
+        <v>329.8599853515625</v>
       </c>
       <c r="DT2" t="n">
-        <v>365.58935546875</v>
+        <v>329.7779541015625</v>
       </c>
       <c r="DU2" t="n">
-        <v>362.1057434082031</v>
+        <v>329.768310546875</v>
       </c>
       <c r="DV2" t="n">
-        <v>359.0453491210938</v>
+        <v>329.768310546875</v>
       </c>
       <c r="DW2" t="n">
-        <v>351.5222778320312</v>
+        <v>329.7686767578125</v>
       </c>
       <c r="DX2" t="n">
-        <v>346.3822631835938</v>
+        <v>329.7701416015625</v>
       </c>
       <c r="DY2" t="n">
-        <v>335.5635986328125</v>
+        <v>329.770751953125</v>
       </c>
       <c r="DZ2" t="n">
-        <v>330.4436950683594</v>
+        <v>329.7720947265625</v>
       </c>
       <c r="EA2" t="n">
-        <v>318.1610717773438</v>
+        <v>330.0446166992188</v>
       </c>
       <c r="EB2" t="n">
-        <v>301.9360961914062</v>
+        <v>330.3643493652344</v>
       </c>
       <c r="EC2" t="n">
-        <v>295.0984802246094</v>
+        <v>331.5374755859375</v>
       </c>
       <c r="ED2" t="n">
-        <v>290.3825073242188</v>
+        <v>332.4664611816406</v>
       </c>
       <c r="EE2" t="n">
-        <v>289.4978942871094</v>
+        <v>333.7702026367188</v>
       </c>
       <c r="EF2" t="n">
-        <v>289.6202697753906</v>
+        <v>334.0207214355469</v>
       </c>
       <c r="EG2" t="n">
-        <v>299.2801208496094</v>
+        <v>334.3005676269531</v>
       </c>
       <c r="EH2" t="n">
-        <v>316.1759033203125</v>
+        <v>334.4324340820312</v>
       </c>
       <c r="EI2" t="n">
-        <v>322.4001770019531</v>
+        <v>334.7027587890625</v>
       </c>
       <c r="EJ2" t="n">
-        <v>329.4058837890625</v>
+        <v>334.9492797851562</v>
       </c>
       <c r="EK2" t="n">
-        <v>341.5887145996094</v>
+        <v>335.5715942382812</v>
       </c>
       <c r="EL2" t="n">
-        <v>346.87158203125</v>
+        <v>336.1954345703125</v>
       </c>
       <c r="EM2" t="n">
-        <v>355.7486267089844</v>
+        <v>337.8252868652344</v>
       </c>
       <c r="EN2" t="n">
-        <v>358.6932678222656</v>
+        <v>338.9580078125</v>
       </c>
       <c r="EO2" t="n">
-        <v>362.3328857421875</v>
+        <v>339.1284790039062</v>
       </c>
       <c r="EP2" t="n">
-        <v>362.700439453125</v>
+        <v>339.130126953125</v>
       </c>
       <c r="EQ2" t="n">
-        <v>358.3759155273438</v>
+        <v>339.1212158203125</v>
       </c>
       <c r="ER2" t="n">
-        <v>353.0608825683594</v>
+        <v>339.0810852050781</v>
       </c>
       <c r="ES2" t="n">
-        <v>345.6322937011719</v>
+        <v>339.0575561523438</v>
       </c>
       <c r="ET2" t="n">
-        <v>326.9014892578125</v>
+        <v>339.0933227539062</v>
       </c>
       <c r="EU2" t="n">
-        <v>311.7071533203125</v>
+        <v>339.1246948242188</v>
       </c>
       <c r="EV2" t="n">
-        <v>303.2758483886719</v>
+        <v>339.1365051269531</v>
       </c>
       <c r="EW2" t="n">
-        <v>285.6611328125</v>
+        <v>339.1593017578125</v>
       </c>
       <c r="EX2" t="n">
-        <v>277.9118041992188</v>
+        <v>339.1862487792969</v>
       </c>
       <c r="EY2" t="n">
-        <v>272.3994750976562</v>
+        <v>339.2157592773438</v>
       </c>
       <c r="EZ2" t="n">
-        <v>262.3330688476562</v>
+        <v>339.2577514648438</v>
       </c>
       <c r="FA2" t="n">
-        <v>255.8062438964844</v>
+        <v>339.3008728027344</v>
       </c>
       <c r="FB2" t="n">
-        <v>255.2091674804688</v>
+        <v>339.3197021484375</v>
       </c>
       <c r="FC2" t="n">
-        <v>256.1055603027344</v>
+        <v>339.348388671875</v>
       </c>
       <c r="FD2" t="n">
-        <v>255.9373321533203</v>
+        <v>339.4081420898438</v>
       </c>
       <c r="FE2" t="n">
-        <v>258.2908325195312</v>
+        <v>339.4727172851562</v>
       </c>
       <c r="FF2" t="n">
-        <v>262.7174072265625</v>
+        <v>339.5382690429688</v>
       </c>
       <c r="FG2" t="n">
-        <v>275.0903625488281</v>
+        <v>339.5758666992188</v>
       </c>
       <c r="FH2" t="n">
-        <v>289.8334350585938</v>
+        <v>339.6188659667969</v>
       </c>
       <c r="FI2" t="n">
-        <v>297.1536560058594</v>
+        <v>339.68505859375</v>
       </c>
       <c r="FJ2" t="n">
-        <v>303.2070007324219</v>
+        <v>339.7591857910156</v>
       </c>
       <c r="FK2" t="n">
-        <v>319.357666015625</v>
+        <v>339.8403625488281</v>
       </c>
       <c r="FL2" t="n">
-        <v>329.1598205566406</v>
+        <v>339.8823852539062</v>
       </c>
       <c r="FM2" t="n">
-        <v>349.211669921875</v>
+        <v>339.9611206054688</v>
       </c>
       <c r="FN2" t="n">
-        <v>365.3406372070312</v>
+        <v>340.0042114257812</v>
       </c>
       <c r="FO2" t="n">
-        <v>372.402587890625</v>
+        <v>340.0276489257812</v>
       </c>
       <c r="FP2" t="n">
-        <v>378.518310546875</v>
+        <v>340.0544738769531</v>
       </c>
       <c r="FQ2" t="n">
-        <v>392.752685546875</v>
+        <v>340.0621948242188</v>
       </c>
       <c r="FR2" t="n">
-        <v>398.8827514648438</v>
+        <v>340.0643310546875</v>
       </c>
       <c r="FS2" t="n">
-        <v>408.2571716308594</v>
+        <v>340.0659790039062</v>
       </c>
       <c r="FT2" t="n">
-        <v>416.2869873046875</v>
+        <v>340.0645141601562</v>
       </c>
       <c r="FU2" t="n">
-        <v>421.5015258789062</v>
+        <v>340.0623168945312</v>
       </c>
       <c r="FV2" t="n">
-        <v>422.650390625</v>
+        <v>340.0614624023438</v>
       </c>
       <c r="FW2" t="n">
-        <v>423.7804565429688</v>
+        <v>340.0618286132812</v>
       </c>
       <c r="FX2" t="n">
-        <v>421.64453125</v>
+        <v>340.0630493164062</v>
       </c>
       <c r="FY2" t="n">
-        <v>410.1153869628906</v>
+        <v>340.0647583007812</v>
       </c>
       <c r="FZ2" t="n">
-        <v>401.3085327148438</v>
+        <v>340.0658874511719</v>
       </c>
       <c r="GA2" t="n">
-        <v>380.7802734375</v>
+        <v>340.115478515625</v>
       </c>
       <c r="GB2" t="n">
-        <v>369.2660827636719</v>
+        <v>340.1310424804688</v>
       </c>
       <c r="GC2" t="n">
-        <v>351.0194702148438</v>
+        <v>340.1473388671875</v>
       </c>
       <c r="GD2" t="n">
-        <v>340.1478271484375</v>
+        <v>340.139892578125</v>
       </c>
       <c r="GE2" t="n">
-        <v>318.7767639160156</v>
+        <v>340.1096801757812</v>
       </c>
       <c r="GF2" t="n">
-        <v>305.7336120605469</v>
+        <v>339.9983520507812</v>
       </c>
       <c r="GG2" t="n">
-        <v>297.5517272949219</v>
+        <v>339.8032836914062</v>
       </c>
       <c r="GH2" t="n">
-        <v>291.3222045898438</v>
+        <v>339.3765869140625</v>
       </c>
       <c r="GI2" t="n">
-        <v>288.85791015625</v>
+        <v>338.3576049804688</v>
       </c>
       <c r="GJ2" t="n">
-        <v>286.9168701171875</v>
+        <v>338.05810546875</v>
       </c>
       <c r="GK2" t="n">
-        <v>284.2649841308594</v>
+        <v>337.5794677734375</v>
       </c>
       <c r="GL2" t="n">
-        <v>283.6538391113281</v>
+        <v>337.3006896972656</v>
       </c>
       <c r="GM2" t="n">
-        <v>282.6982116699219</v>
+        <v>337.1610717773438</v>
       </c>
       <c r="GN2" t="n">
-        <v>281.7222900390625</v>
+        <v>337.0108032226562</v>
       </c>
       <c r="GO2" t="n">
-        <v>282.8319396972656</v>
+        <v>336.9271545410156</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>336.7548217773438</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>336.5120849609375</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>336.1659545898438</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>335.7422180175781</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>334.0280456542969</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>333.1039428710938</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>331.7928466796875</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>330.8748779296875</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>330.474853515625</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>329.96044921875</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>329.3150024414062</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>328.8741760253906</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>328.06982421875</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>327.0462036132812</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>326.3437194824219</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>324.9978332519531</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>324.83544921875</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>324.7968139648438</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>324.8645629882812</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>324.91064453125</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>324.9486694335938</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>325.0151977539062</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>325.0213623046875</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>324.8960571289062</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>324.78564453125</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>323.804443359375</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>320.4494934082031</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>316.1472473144531</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>313.1396789550781</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>308.86669921875</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>303.2330932617188</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>298.1842956542969</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>294.908203125</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>287.1702575683594</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>280.7420349121094</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>275.1994018554688</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>270.7900390625</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>267.8436279296875</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>262.7763366699219</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>260.9030456542969</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>257.3022155761719</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>254.1165466308594</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>250.3795013427734</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>247.7854614257812</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>247.0781097412109</v>
+      </c>
+      <c r="II2" t="n">
+        <v>245.9079284667969</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>244.7512512207031</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>246.8250427246094</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>269.8336791992188</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>254.0732727050781</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>300.9254150390625</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>279.658203125</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>270.669677734375</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>264.4356384277344</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>266.5397338867188</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>271.1762084960938</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>274.800048828125</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>268.0251159667969</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>166.2814025878906</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>152.1839141845703</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>174.7834014892578</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>171.5289611816406</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>163.5822143554688</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>170.2103424072266</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>179.2661285400391</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>187.5689392089844</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>194.1817932128906</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>199.7719116210938</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>203.7318420410156</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>205.9626617431641</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>206.1777648925781</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>206.1710510253906</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>205.8146362304688</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>206.56884765625</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>203.603271484375</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>199.1505737304688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>61.26369857788086</v>
       </c>
       <c r="B3" t="n">
-        <v>233.2101898193359</v>
+        <v>61.08300399780273</v>
       </c>
       <c r="C3" t="n">
-        <v>228.9753570556641</v>
+        <v>61.07972717285156</v>
       </c>
       <c r="D3" t="n">
-        <v>227.0715942382812</v>
+        <v>61.089111328125</v>
       </c>
       <c r="E3" t="n">
-        <v>226.5481719970703</v>
+        <v>61.0959587097168</v>
       </c>
       <c r="F3" t="n">
-        <v>226.5010833740234</v>
+        <v>61.10006332397461</v>
       </c>
       <c r="G3" t="n">
-        <v>226.6273345947266</v>
+        <v>61.10361862182617</v>
       </c>
       <c r="H3" t="n">
-        <v>226.8212890625</v>
+        <v>61.10403442382812</v>
       </c>
       <c r="I3" t="n">
-        <v>227.0787963867188</v>
+        <v>61.1013069152832</v>
       </c>
       <c r="J3" t="n">
-        <v>227.3637084960938</v>
+        <v>61.09725189208984</v>
       </c>
       <c r="K3" t="n">
-        <v>227.6604156494141</v>
+        <v>61.10052871704102</v>
       </c>
       <c r="L3" t="n">
-        <v>227.9698181152344</v>
+        <v>61.15382385253906</v>
       </c>
       <c r="M3" t="n">
-        <v>228.2850341796875</v>
+        <v>61.19797515869141</v>
       </c>
       <c r="N3" t="n">
-        <v>228.5943756103516</v>
+        <v>61.24460220336914</v>
       </c>
       <c r="O3" t="n">
-        <v>228.8716278076172</v>
+        <v>61.24354934692383</v>
       </c>
       <c r="P3" t="n">
-        <v>229.1008453369141</v>
+        <v>61.22929382324219</v>
       </c>
       <c r="Q3" t="n">
-        <v>229.2800598144531</v>
+        <v>61.21335220336914</v>
       </c>
       <c r="R3" t="n">
-        <v>229.4215240478516</v>
+        <v>61.19831848144531</v>
       </c>
       <c r="S3" t="n">
-        <v>229.5330505371094</v>
+        <v>61.19775390625</v>
       </c>
       <c r="T3" t="n">
-        <v>229.6221618652344</v>
+        <v>61.3042106628418</v>
       </c>
       <c r="U3" t="n">
-        <v>229.6908569335938</v>
+        <v>60.69084548950195</v>
       </c>
       <c r="V3" t="n">
-        <v>229.7527160644531</v>
+        <v>58.82887268066406</v>
       </c>
       <c r="W3" t="n">
-        <v>229.8001556396484</v>
+        <v>55.72499084472656</v>
       </c>
       <c r="X3" t="n">
-        <v>229.8444213867188</v>
+        <v>52.68012619018555</v>
       </c>
       <c r="Y3" t="n">
-        <v>229.8795318603516</v>
+        <v>50.69478225708008</v>
       </c>
       <c r="Z3" t="n">
-        <v>229.9072113037109</v>
+        <v>49.64335250854492</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.9300079345703</v>
+        <v>49.02119827270508</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.9476776123047</v>
+        <v>48.35971450805664</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.9612884521484</v>
+        <v>47.71457290649414</v>
       </c>
       <c r="AD3" t="n">
-        <v>229.9724578857422</v>
+        <v>47.25483703613281</v>
       </c>
       <c r="AE3" t="n">
-        <v>229.9841613769531</v>
+        <v>47.41838455200195</v>
       </c>
       <c r="AF3" t="n">
-        <v>229.9911651611328</v>
+        <v>46.48388290405273</v>
       </c>
       <c r="AG3" t="n">
-        <v>229.9940643310547</v>
+        <v>46.29374313354492</v>
       </c>
       <c r="AH3" t="n">
-        <v>229.9973754882812</v>
+        <v>46.3156852722168</v>
       </c>
       <c r="AI3" t="n">
-        <v>229.9981231689453</v>
+        <v>46.34244918823242</v>
       </c>
       <c r="AJ3" t="n">
-        <v>229.9992828369141</v>
+        <v>46.50844573974609</v>
       </c>
       <c r="AK3" t="n">
-        <v>230.0018310546875</v>
+        <v>48.01543807983398</v>
       </c>
       <c r="AL3" t="n">
-        <v>229.9907379150391</v>
+        <v>52.03310775756836</v>
       </c>
       <c r="AM3" t="n">
-        <v>230.0187835693359</v>
+        <v>58.21949768066406</v>
       </c>
       <c r="AN3" t="n">
-        <v>230.02392578125</v>
+        <v>64.78624725341797</v>
       </c>
       <c r="AO3" t="n">
-        <v>230.025390625</v>
+        <v>71.08139038085938</v>
       </c>
       <c r="AP3" t="n">
-        <v>229.9564971923828</v>
+        <v>76.07697296142578</v>
       </c>
       <c r="AQ3" t="n">
-        <v>229.9747924804688</v>
+        <v>80.15616607666016</v>
       </c>
       <c r="AR3" t="n">
-        <v>229.6935729980469</v>
+        <v>83.75027465820312</v>
       </c>
       <c r="AS3" t="n">
-        <v>229.3619842529297</v>
+        <v>88.03085327148438</v>
       </c>
       <c r="AT3" t="n">
-        <v>228.6438598632812</v>
+        <v>94.00856781005859</v>
       </c>
       <c r="AU3" t="n">
-        <v>228.4771118164062</v>
+        <v>101.4834823608398</v>
       </c>
       <c r="AV3" t="n">
-        <v>228.4797973632812</v>
+        <v>110.1621932983398</v>
       </c>
       <c r="AW3" t="n">
-        <v>228.5648193359375</v>
+        <v>119.0356826782227</v>
       </c>
       <c r="AX3" t="n">
-        <v>228.7781829833984</v>
+        <v>125.6802749633789</v>
       </c>
       <c r="AY3" t="n">
-        <v>228.9508819580078</v>
+        <v>130.2921295166016</v>
       </c>
       <c r="AZ3" t="n">
-        <v>229.1928405761719</v>
+        <v>134.3041229248047</v>
       </c>
       <c r="BA3" t="n">
-        <v>229.3716278076172</v>
+        <v>138.3112335205078</v>
       </c>
       <c r="BB3" t="n">
-        <v>229.4866027832031</v>
+        <v>140.9520111083984</v>
       </c>
       <c r="BC3" t="n">
-        <v>229.3946075439453</v>
+        <v>142.8527679443359</v>
       </c>
       <c r="BD3" t="n">
-        <v>229.3861694335938</v>
+        <v>143.4638366699219</v>
       </c>
       <c r="BE3" t="n">
-        <v>228.7693023681641</v>
+        <v>144.6647186279297</v>
       </c>
       <c r="BF3" t="n">
-        <v>228.740234375</v>
+        <v>145.1887512207031</v>
       </c>
       <c r="BG3" t="n">
-        <v>228.9620361328125</v>
+        <v>145.3390045166016</v>
       </c>
       <c r="BH3" t="n">
-        <v>229.1883392333984</v>
+        <v>145.5241546630859</v>
       </c>
       <c r="BI3" t="n">
-        <v>229.2139587402344</v>
+        <v>147.3017730712891</v>
       </c>
       <c r="BJ3" t="n">
-        <v>230.3791351318359</v>
+        <v>150.3711242675781</v>
       </c>
       <c r="BK3" t="n">
-        <v>231.1368560791016</v>
+        <v>154.5152282714844</v>
       </c>
       <c r="BL3" t="n">
-        <v>231.8193664550781</v>
+        <v>157.2942199707031</v>
       </c>
       <c r="BM3" t="n">
-        <v>233.5552673339844</v>
+        <v>158.4403076171875</v>
       </c>
       <c r="BN3" t="n">
-        <v>234.5518035888672</v>
+        <v>159.7271881103516</v>
       </c>
       <c r="BO3" t="n">
-        <v>235.7058868408203</v>
+        <v>162.2342376708984</v>
       </c>
       <c r="BP3" t="n">
-        <v>237.2496185302734</v>
+        <v>164.8820190429688</v>
       </c>
       <c r="BQ3" t="n">
-        <v>239.9466094970703</v>
+        <v>167.7298889160156</v>
       </c>
       <c r="BR3" t="n">
-        <v>242.31298828125</v>
+        <v>169.9288635253906</v>
       </c>
       <c r="BS3" t="n">
-        <v>243.945556640625</v>
+        <v>173.2315063476562</v>
       </c>
       <c r="BT3" t="n">
-        <v>245.1203460693359</v>
+        <v>176.3464965820312</v>
       </c>
       <c r="BU3" t="n">
-        <v>244.7896423339844</v>
+        <v>177.7654876708984</v>
       </c>
       <c r="BV3" t="n">
-        <v>244.8426818847656</v>
+        <v>179.1416168212891</v>
       </c>
       <c r="BW3" t="n">
-        <v>245.0929412841797</v>
+        <v>180.2671356201172</v>
       </c>
       <c r="BX3" t="n">
-        <v>245.5489807128906</v>
+        <v>181.3959197998047</v>
       </c>
       <c r="BY3" t="n">
-        <v>245.7845001220703</v>
+        <v>182.1298065185547</v>
       </c>
       <c r="BZ3" t="n">
-        <v>246.3625793457031</v>
+        <v>182.787841796875</v>
       </c>
       <c r="CA3" t="n">
-        <v>246.9612121582031</v>
+        <v>183.7308197021484</v>
       </c>
       <c r="CB3" t="n">
-        <v>246.7561645507812</v>
+        <v>184.4696655273438</v>
       </c>
       <c r="CC3" t="n">
-        <v>246.5696563720703</v>
+        <v>184.8694305419922</v>
       </c>
       <c r="CD3" t="n">
-        <v>246.0826263427734</v>
+        <v>185.830322265625</v>
       </c>
       <c r="CE3" t="n">
-        <v>245.8561096191406</v>
+        <v>186.3502349853516</v>
       </c>
       <c r="CF3" t="n">
-        <v>245.4517059326172</v>
+        <v>186.3263092041016</v>
       </c>
       <c r="CG3" t="n">
-        <v>245.0046081542969</v>
+        <v>186.5794677734375</v>
       </c>
       <c r="CH3" t="n">
-        <v>244.7065887451172</v>
+        <v>187.2617645263672</v>
       </c>
       <c r="CI3" t="n">
-        <v>244.4292297363281</v>
+        <v>187.8632507324219</v>
       </c>
       <c r="CJ3" t="n">
-        <v>243.0169219970703</v>
+        <v>188.6945190429688</v>
       </c>
       <c r="CK3" t="n">
-        <v>240.1685180664062</v>
+        <v>189.3589477539062</v>
       </c>
       <c r="CL3" t="n">
-        <v>237.9843139648438</v>
+        <v>190.6375122070312</v>
       </c>
       <c r="CM3" t="n">
-        <v>236.2177276611328</v>
+        <v>191.6195068359375</v>
       </c>
       <c r="CN3" t="n">
-        <v>235.02392578125</v>
+        <v>192.3704528808594</v>
       </c>
       <c r="CO3" t="n">
-        <v>234.4472351074219</v>
+        <v>193.0016784667969</v>
       </c>
       <c r="CP3" t="n">
-        <v>233.8828887939453</v>
+        <v>194.3472900390625</v>
       </c>
       <c r="CQ3" t="n">
-        <v>233.3027801513672</v>
+        <v>195.7468414306641</v>
       </c>
       <c r="CR3" t="n">
-        <v>233.1119689941406</v>
+        <v>197.0579071044922</v>
       </c>
       <c r="CS3" t="n">
-        <v>233.1083374023438</v>
+        <v>198.419921875</v>
       </c>
       <c r="CT3" t="n">
-        <v>232.9364929199219</v>
+        <v>199.3850402832031</v>
       </c>
       <c r="CU3" t="n">
-        <v>232.7748870849609</v>
+        <v>199.9259033203125</v>
       </c>
       <c r="CV3" t="n">
-        <v>232.5976104736328</v>
+        <v>200.1152648925781</v>
       </c>
       <c r="CW3" t="n">
-        <v>232.4757690429688</v>
+        <v>200.0766448974609</v>
       </c>
       <c r="CX3" t="n">
-        <v>232.4364929199219</v>
+        <v>200.2425231933594</v>
       </c>
       <c r="CY3" t="n">
-        <v>232.4649353027344</v>
+        <v>201.8430023193359</v>
       </c>
       <c r="CZ3" t="n">
-        <v>232.4613037109375</v>
+        <v>202.8675231933594</v>
       </c>
       <c r="DA3" t="n">
-        <v>232.3150024414062</v>
+        <v>203.3634490966797</v>
       </c>
       <c r="DB3" t="n">
-        <v>232.15478515625</v>
+        <v>203.5167846679688</v>
       </c>
       <c r="DC3" t="n">
-        <v>232.4214019775391</v>
+        <v>203.6930999755859</v>
       </c>
       <c r="DD3" t="n">
-        <v>232.5414733886719</v>
+        <v>203.8067779541016</v>
       </c>
       <c r="DE3" t="n">
-        <v>232.4335479736328</v>
+        <v>203.7795562744141</v>
       </c>
       <c r="DF3" t="n">
-        <v>232.7068023681641</v>
+        <v>203.8128204345703</v>
       </c>
       <c r="DG3" t="n">
-        <v>233.3472595214844</v>
+        <v>203.9193878173828</v>
       </c>
       <c r="DH3" t="n">
-        <v>234.3161315917969</v>
+        <v>204.7192077636719</v>
       </c>
       <c r="DI3" t="n">
-        <v>234.6457672119141</v>
+        <v>205.3275604248047</v>
       </c>
       <c r="DJ3" t="n">
-        <v>234.7745819091797</v>
+        <v>205.9554443359375</v>
       </c>
       <c r="DK3" t="n">
-        <v>234.4288940429688</v>
+        <v>206.4430999755859</v>
       </c>
       <c r="DL3" t="n">
-        <v>234.1490478515625</v>
+        <v>206.6288299560547</v>
       </c>
       <c r="DM3" t="n">
-        <v>234.4154815673828</v>
+        <v>206.6945190429688</v>
       </c>
       <c r="DN3" t="n">
-        <v>234.3037872314453</v>
+        <v>206.7037200927734</v>
       </c>
       <c r="DO3" t="n">
-        <v>231.4239959716797</v>
+        <v>206.6174774169922</v>
       </c>
       <c r="DP3" t="n">
-        <v>227.3519134521484</v>
+        <v>206.5914001464844</v>
       </c>
       <c r="DQ3" t="n">
-        <v>213.6760406494141</v>
+        <v>206.5714874267578</v>
       </c>
       <c r="DR3" t="n">
-        <v>206.1081848144531</v>
+        <v>206.5609436035156</v>
       </c>
       <c r="DS3" t="n">
-        <v>198.2718048095703</v>
+        <v>206.5359649658203</v>
       </c>
       <c r="DT3" t="n">
-        <v>183.8318786621094</v>
+        <v>206.4811401367188</v>
       </c>
       <c r="DU3" t="n">
-        <v>177.0264129638672</v>
+        <v>206.4821166992188</v>
       </c>
       <c r="DV3" t="n">
-        <v>169.9935913085938</v>
+        <v>206.4806518554688</v>
       </c>
       <c r="DW3" t="n">
-        <v>155.4911499023438</v>
+        <v>206.4800109863281</v>
       </c>
       <c r="DX3" t="n">
-        <v>148.3942718505859</v>
+        <v>206.4944915771484</v>
       </c>
       <c r="DY3" t="n">
-        <v>138.9318084716797</v>
+        <v>206.4996337890625</v>
       </c>
       <c r="DZ3" t="n">
-        <v>137.2405395507812</v>
+        <v>206.506591796875</v>
       </c>
       <c r="EA3" t="n">
-        <v>139.6546478271484</v>
+        <v>206.224853515625</v>
       </c>
       <c r="EB3" t="n">
-        <v>151.4038391113281</v>
+        <v>205.9112548828125</v>
       </c>
       <c r="EC3" t="n">
-        <v>160.0856628417969</v>
+        <v>205.8296508789062</v>
       </c>
       <c r="ED3" t="n">
-        <v>184.1309509277344</v>
+        <v>205.9285583496094</v>
       </c>
       <c r="EE3" t="n">
-        <v>210.7238464355469</v>
+        <v>206.3043365478516</v>
       </c>
       <c r="EF3" t="n">
-        <v>220.1031341552734</v>
+        <v>206.5410308837891</v>
       </c>
       <c r="EG3" t="n">
-        <v>243.1458435058594</v>
+        <v>206.4668121337891</v>
       </c>
       <c r="EH3" t="n">
-        <v>254.3320007324219</v>
+        <v>206.3106079101562</v>
       </c>
       <c r="EI3" t="n">
-        <v>256.046630859375</v>
+        <v>206.0652618408203</v>
       </c>
       <c r="EJ3" t="n">
-        <v>257.0234985351562</v>
+        <v>205.9524841308594</v>
       </c>
       <c r="EK3" t="n">
-        <v>259.8446655273438</v>
+        <v>205.7216796875</v>
       </c>
       <c r="EL3" t="n">
-        <v>261.7369079589844</v>
+        <v>205.5946502685547</v>
       </c>
       <c r="EM3" t="n">
-        <v>260.7540588378906</v>
+        <v>205.2755584716797</v>
       </c>
       <c r="EN3" t="n">
-        <v>259.269775390625</v>
+        <v>204.9046478271484</v>
       </c>
       <c r="EO3" t="n">
-        <v>257.1505737304688</v>
+        <v>204.7235717773438</v>
       </c>
       <c r="EP3" t="n">
-        <v>256.795654296875</v>
+        <v>203.9479675292969</v>
       </c>
       <c r="EQ3" t="n">
-        <v>257.3139953613281</v>
+        <v>203.7068023681641</v>
       </c>
       <c r="ER3" t="n">
-        <v>258.5205688476562</v>
+        <v>203.408203125</v>
       </c>
       <c r="ES3" t="n">
-        <v>261.6019287109375</v>
+        <v>203.369140625</v>
       </c>
       <c r="ET3" t="n">
-        <v>273.1766052246094</v>
+        <v>203.1731414794922</v>
       </c>
       <c r="EU3" t="n">
-        <v>281.3138427734375</v>
+        <v>203.1394500732422</v>
       </c>
       <c r="EV3" t="n">
-        <v>283.5020446777344</v>
+        <v>203.0985717773438</v>
       </c>
       <c r="EW3" t="n">
-        <v>287.3992309570312</v>
+        <v>203.0514831542969</v>
       </c>
       <c r="EX3" t="n">
-        <v>290.5385437011719</v>
+        <v>203.0577392578125</v>
       </c>
       <c r="EY3" t="n">
-        <v>292.6635437011719</v>
+        <v>203.0598449707031</v>
       </c>
       <c r="EZ3" t="n">
-        <v>295.5496215820312</v>
+        <v>203.0625762939453</v>
       </c>
       <c r="FA3" t="n">
-        <v>294.288818359375</v>
+        <v>203.0662384033203</v>
       </c>
       <c r="FB3" t="n">
-        <v>291.9885559082031</v>
+        <v>203.0683898925781</v>
       </c>
       <c r="FC3" t="n">
-        <v>286.2713317871094</v>
+        <v>203.0681610107422</v>
       </c>
       <c r="FD3" t="n">
-        <v>282.5109252929688</v>
+        <v>203.0672454833984</v>
       </c>
       <c r="FE3" t="n">
-        <v>272.7181091308594</v>
+        <v>203.0467987060547</v>
       </c>
       <c r="FF3" t="n">
-        <v>267.89990234375</v>
+        <v>203.0580291748047</v>
       </c>
       <c r="FG3" t="n">
-        <v>263.2397766113281</v>
+        <v>203.0621337890625</v>
       </c>
       <c r="FH3" t="n">
-        <v>257.6440124511719</v>
+        <v>202.8680572509766</v>
       </c>
       <c r="FI3" t="n">
-        <v>254.4762268066406</v>
+        <v>202.5762786865234</v>
       </c>
       <c r="FJ3" t="n">
-        <v>251.5472564697266</v>
+        <v>202.32763671875</v>
       </c>
       <c r="FK3" t="n">
-        <v>246.6949157714844</v>
+        <v>202.1957550048828</v>
       </c>
       <c r="FL3" t="n">
-        <v>244.0498657226562</v>
+        <v>202.1553039550781</v>
       </c>
       <c r="FM3" t="n">
-        <v>240.5166168212891</v>
+        <v>202.0941314697266</v>
       </c>
       <c r="FN3" t="n">
-        <v>238.0743255615234</v>
+        <v>202.0780792236328</v>
       </c>
       <c r="FO3" t="n">
-        <v>236.8027954101562</v>
+        <v>202.0727233886719</v>
       </c>
       <c r="FP3" t="n">
-        <v>234.7826538085938</v>
+        <v>202.0650329589844</v>
       </c>
       <c r="FQ3" t="n">
-        <v>231.3546142578125</v>
+        <v>202.1261749267578</v>
       </c>
       <c r="FR3" t="n">
-        <v>229.5452728271484</v>
+        <v>202.1633148193359</v>
       </c>
       <c r="FS3" t="n">
-        <v>224.0709991455078</v>
+        <v>202.2350006103516</v>
       </c>
       <c r="FT3" t="n">
-        <v>220.540771484375</v>
+        <v>202.2606506347656</v>
       </c>
       <c r="FU3" t="n">
-        <v>216.6572265625</v>
+        <v>202.3347320556641</v>
       </c>
       <c r="FV3" t="n">
-        <v>214.4898376464844</v>
+        <v>202.3821868896484</v>
       </c>
       <c r="FW3" t="n">
-        <v>209.3632202148438</v>
+        <v>202.5518188476562</v>
       </c>
       <c r="FX3" t="n">
-        <v>206.7701416015625</v>
+        <v>202.6142730712891</v>
       </c>
       <c r="FY3" t="n">
-        <v>202.0740814208984</v>
+        <v>202.6493682861328</v>
       </c>
       <c r="FZ3" t="n">
-        <v>199.8206787109375</v>
+        <v>202.6638031005859</v>
       </c>
       <c r="GA3" t="n">
-        <v>195.1921081542969</v>
+        <v>202.2354736328125</v>
       </c>
       <c r="GB3" t="n">
-        <v>193.4507904052734</v>
+        <v>202.1915893554688</v>
       </c>
       <c r="GC3" t="n">
-        <v>191.3215026855469</v>
+        <v>202.2684783935547</v>
       </c>
       <c r="GD3" t="n">
-        <v>190.5860900878906</v>
+        <v>202.3857727050781</v>
       </c>
       <c r="GE3" t="n">
-        <v>187.9908752441406</v>
+        <v>202.4154052734375</v>
       </c>
       <c r="GF3" t="n">
-        <v>185.4011840820312</v>
+        <v>202.4989013671875</v>
       </c>
       <c r="GG3" t="n">
-        <v>184.144287109375</v>
+        <v>202.5399932861328</v>
       </c>
       <c r="GH3" t="n">
-        <v>183.6738128662109</v>
+        <v>202.6408538818359</v>
       </c>
       <c r="GI3" t="n">
-        <v>183.0547637939453</v>
+        <v>202.7754211425781</v>
       </c>
       <c r="GJ3" t="n">
-        <v>181.6831512451172</v>
+        <v>202.8231201171875</v>
       </c>
       <c r="GK3" t="n">
-        <v>176.6364135742188</v>
+        <v>202.896484375</v>
       </c>
       <c r="GL3" t="n">
-        <v>173.2696838378906</v>
+        <v>202.9377593994141</v>
       </c>
       <c r="GM3" t="n">
-        <v>165.9495391845703</v>
+        <v>202.8777923583984</v>
       </c>
       <c r="GN3" t="n">
-        <v>157.6207885742188</v>
+        <v>202.8125610351562</v>
       </c>
       <c r="GO3" t="n">
-        <v>154.1865539550781</v>
+        <v>202.7626342773438</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>202.7159118652344</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>202.7223968505859</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>202.7330322265625</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>202.7268218994141</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>202.7234039306641</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>202.6950836181641</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>202.5974273681641</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>202.2101745605469</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>201.9262390136719</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>201.314208984375</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>201.3071441650391</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>201.1287384033203</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>200.3096008300781</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>198.3094940185547</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>197.8187255859375</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>196.9931030273438</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>196.6475982666016</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>195.2105407714844</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>191.2790679931641</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>185.6365509033203</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>183.2793731689453</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>179.3457183837891</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>176.8772735595703</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>174.5738983154297</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>173.41015625</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>169.2538299560547</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>164.4261932373047</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>161.3052215576172</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>158.8451995849609</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>156.5839996337891</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>154.4708862304688</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>150.8776092529297</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>148.8561553955078</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>140.4474792480469</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>131.9765167236328</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>126.3467483520508</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>122.8520812988281</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>118.0641860961914</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>106.7854080200195</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>103.3114013671875</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>97.73683166503906</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>91.79786682128906</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>83.02070617675781</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>75.20938873291016</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>66.791748046875</v>
+      </c>
+      <c r="II3" t="n">
+        <v>56.20251083374023</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>44.20502471923828</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>35.56567764282227</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>28.74218559265137</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>37.46601486206055</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>88.659912109375</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>121.2976760864258</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>129.7253570556641</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>119.7781295776367</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>109.982307434082</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>99.97730255126953</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>86.1802978515625</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>66.77445983886719</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>55.59938430786133</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>56.44846725463867</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>14.77340698242188</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>43.99994277954102</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>84.53931427001953</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>125.4919509887695</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>174.4171142578125</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>193.6397857666016</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>196.0137329101562</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>195.1883392333984</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>196.9652252197266</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>199.6596527099609</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>203.6241760253906</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>205.2729339599609</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>202.4308929443359</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>198.1881256103516</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>195.3000183105469</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>193.3416900634766</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>990.172119140625</v>
       </c>
       <c r="B4" t="n">
-        <v>1070.325805664062</v>
+        <v>989.9745483398438</v>
       </c>
       <c r="C4" t="n">
-        <v>1073.16943359375</v>
+        <v>989.9697265625</v>
       </c>
       <c r="D4" t="n">
-        <v>1075.080200195312</v>
+        <v>989.9591674804688</v>
       </c>
       <c r="E4" t="n">
-        <v>1075.838989257812</v>
+        <v>989.9515380859375</v>
       </c>
       <c r="F4" t="n">
-        <v>1076.266235351562</v>
+        <v>989.9462280273438</v>
       </c>
       <c r="G4" t="n">
-        <v>1076.524536132812</v>
+        <v>989.9419555664062</v>
       </c>
       <c r="H4" t="n">
-        <v>1076.677001953125</v>
+        <v>989.9337768554688</v>
       </c>
       <c r="I4" t="n">
-        <v>1076.755737304688</v>
+        <v>989.92626953125</v>
       </c>
       <c r="J4" t="n">
-        <v>1076.807373046875</v>
+        <v>989.9215698242188</v>
       </c>
       <c r="K4" t="n">
-        <v>1076.83740234375</v>
+        <v>989.9314575195312</v>
       </c>
       <c r="L4" t="n">
-        <v>1076.859619140625</v>
+        <v>990.104736328125</v>
       </c>
       <c r="M4" t="n">
-        <v>1076.864868164062</v>
+        <v>990.2601318359375</v>
       </c>
       <c r="N4" t="n">
-        <v>1076.858642578125</v>
+        <v>990.435302734375</v>
       </c>
       <c r="O4" t="n">
-        <v>1076.798095703125</v>
+        <v>990.4607543945312</v>
       </c>
       <c r="P4" t="n">
-        <v>1076.702880859375</v>
+        <v>990.4366455078125</v>
       </c>
       <c r="Q4" t="n">
-        <v>1076.604125976562</v>
+        <v>990.3992309570312</v>
       </c>
       <c r="R4" t="n">
-        <v>1076.522216796875</v>
+        <v>990.3552856445312</v>
       </c>
       <c r="S4" t="n">
-        <v>1076.455810546875</v>
+        <v>990.2679443359375</v>
       </c>
       <c r="T4" t="n">
-        <v>1076.402099609375</v>
+        <v>989.583984375</v>
       </c>
       <c r="U4" t="n">
-        <v>1076.359741210938</v>
+        <v>985.8046875</v>
       </c>
       <c r="V4" t="n">
-        <v>1076.323974609375</v>
+        <v>977.7725219726562</v>
       </c>
       <c r="W4" t="n">
-        <v>1076.297119140625</v>
+        <v>965.2353515625</v>
       </c>
       <c r="X4" t="n">
-        <v>1076.2724609375</v>
+        <v>952.2007446289062</v>
       </c>
       <c r="Y4" t="n">
-        <v>1076.253173828125</v>
+        <v>942.5370483398438</v>
       </c>
       <c r="Z4" t="n">
-        <v>1076.238159179688</v>
+        <v>936.2926025390625</v>
       </c>
       <c r="AA4" t="n">
-        <v>1076.225952148438</v>
+        <v>931.7587890625</v>
       </c>
       <c r="AB4" t="n">
-        <v>1076.216430664062</v>
+        <v>927.4539184570312</v>
       </c>
       <c r="AC4" t="n">
-        <v>1076.209350585938</v>
+        <v>923.0394287109375</v>
       </c>
       <c r="AD4" t="n">
-        <v>1076.203491210938</v>
+        <v>918.6885375976562</v>
       </c>
       <c r="AE4" t="n">
-        <v>1076.197265625</v>
+        <v>915.1953735351562</v>
       </c>
       <c r="AF4" t="n">
-        <v>1076.193603515625</v>
+        <v>911.96044921875</v>
       </c>
       <c r="AG4" t="n">
-        <v>1076.19189453125</v>
+        <v>911.2444458007812</v>
       </c>
       <c r="AH4" t="n">
-        <v>1076.189453125</v>
+        <v>911.357177734375</v>
       </c>
       <c r="AI4" t="n">
-        <v>1076.180786132812</v>
+        <v>911.6973876953125</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1076.1455078125</v>
+        <v>912.5634155273438</v>
       </c>
       <c r="AK4" t="n">
-        <v>1076.101318359375</v>
+        <v>918.5969848632812</v>
       </c>
       <c r="AL4" t="n">
-        <v>1075.999877929688</v>
+        <v>933.9127197265625</v>
       </c>
       <c r="AM4" t="n">
-        <v>1075.87060546875</v>
+        <v>957.36474609375</v>
       </c>
       <c r="AN4" t="n">
-        <v>1075.814453125</v>
+        <v>982.8577880859375</v>
       </c>
       <c r="AO4" t="n">
-        <v>1075.790649414062</v>
+        <v>1007.502685546875</v>
       </c>
       <c r="AP4" t="n">
-        <v>1076.091430664062</v>
+        <v>1031.115478515625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1078.858154296875</v>
+        <v>1054.120361328125</v>
       </c>
       <c r="AR4" t="n">
-        <v>1087.301635742188</v>
+        <v>1076.757202148438</v>
       </c>
       <c r="AS4" t="n">
-        <v>1089.699096679688</v>
+        <v>1100.140258789062</v>
       </c>
       <c r="AT4" t="n">
-        <v>1096.352416992188</v>
+        <v>1126.87744140625</v>
       </c>
       <c r="AU4" t="n">
-        <v>1101.010986328125</v>
+        <v>1155.770263671875</v>
       </c>
       <c r="AV4" t="n">
-        <v>1106.49755859375</v>
+        <v>1187.134399414062</v>
       </c>
       <c r="AW4" t="n">
-        <v>1110.89794921875</v>
+        <v>1217.785400390625</v>
       </c>
       <c r="AX4" t="n">
-        <v>1115.283569335938</v>
+        <v>1250.681396484375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1120.865356445312</v>
+        <v>1278.8994140625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1126.01611328125</v>
+        <v>1307.302001953125</v>
       </c>
       <c r="BA4" t="n">
-        <v>1131.261962890625</v>
+        <v>1336.394165039062</v>
       </c>
       <c r="BB4" t="n">
-        <v>1137.56787109375</v>
+        <v>1366.993408203125</v>
       </c>
       <c r="BC4" t="n">
-        <v>1142.276123046875</v>
+        <v>1396.309204101562</v>
       </c>
       <c r="BD4" t="n">
-        <v>1145.5087890625</v>
+        <v>1419.057006835938</v>
       </c>
       <c r="BE4" t="n">
-        <v>1148.5869140625</v>
+        <v>1443.318481445312</v>
       </c>
       <c r="BF4" t="n">
-        <v>1149.666015625</v>
+        <v>1467.121704101562</v>
       </c>
       <c r="BG4" t="n">
-        <v>1149.94970703125</v>
+        <v>1490.711059570312</v>
       </c>
       <c r="BH4" t="n">
-        <v>1151.66259765625</v>
+        <v>1507.919921875</v>
       </c>
       <c r="BI4" t="n">
-        <v>1152.30029296875</v>
+        <v>1539.705810546875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1151.667724609375</v>
+        <v>1562.593994140625</v>
       </c>
       <c r="BK4" t="n">
-        <v>1150.470581054688</v>
+        <v>1586.555297851562</v>
       </c>
       <c r="BL4" t="n">
-        <v>1148.797119140625</v>
+        <v>1607.961791992188</v>
       </c>
       <c r="BM4" t="n">
-        <v>1146.145629882812</v>
+        <v>1624.713256835938</v>
       </c>
       <c r="BN4" t="n">
-        <v>1145.85791015625</v>
+        <v>1638.238525390625</v>
       </c>
       <c r="BO4" t="n">
-        <v>1145.592895507812</v>
+        <v>1657.369750976562</v>
       </c>
       <c r="BP4" t="n">
-        <v>1145.18701171875</v>
+        <v>1682.062866210938</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1144.279907226562</v>
+        <v>1708.18994140625</v>
       </c>
       <c r="BR4" t="n">
-        <v>1143.25</v>
+        <v>1729.703125</v>
       </c>
       <c r="BS4" t="n">
-        <v>1140.862060546875</v>
+        <v>1750.247314453125</v>
       </c>
       <c r="BT4" t="n">
-        <v>1137.712890625</v>
+        <v>1765.542358398438</v>
       </c>
       <c r="BU4" t="n">
-        <v>1134.544677734375</v>
+        <v>1779.099975585938</v>
       </c>
       <c r="BV4" t="n">
-        <v>1130.660034179688</v>
+        <v>1798.88232421875</v>
       </c>
       <c r="BW4" t="n">
-        <v>1128.630737304688</v>
+        <v>1823.350708007812</v>
       </c>
       <c r="BX4" t="n">
-        <v>1127.639404296875</v>
+        <v>1848.781860351562</v>
       </c>
       <c r="BY4" t="n">
-        <v>1127.77490234375</v>
+        <v>1867.043823242188</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1128.79931640625</v>
+        <v>1879.738159179688</v>
       </c>
       <c r="CA4" t="n">
-        <v>1130.522094726562</v>
+        <v>1892.585815429688</v>
       </c>
       <c r="CB4" t="n">
-        <v>1132.605712890625</v>
+        <v>1905.378784179688</v>
       </c>
       <c r="CC4" t="n">
-        <v>1134.7177734375</v>
+        <v>1916.734985351562</v>
       </c>
       <c r="CD4" t="n">
-        <v>1136.012329101562</v>
+        <v>1934.41162109375</v>
       </c>
       <c r="CE4" t="n">
-        <v>1137.055908203125</v>
+        <v>1954.46484375</v>
       </c>
       <c r="CF4" t="n">
-        <v>1138.446044921875</v>
+        <v>1969.878173828125</v>
       </c>
       <c r="CG4" t="n">
-        <v>1139.78271484375</v>
+        <v>1986.524047851562</v>
       </c>
       <c r="CH4" t="n">
-        <v>1140.9453125</v>
+        <v>2005.33349609375</v>
       </c>
       <c r="CI4" t="n">
-        <v>1141.103637695312</v>
+        <v>2017.382202148438</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1141.86181640625</v>
+        <v>2028.071533203125</v>
       </c>
       <c r="CK4" t="n">
-        <v>1148.32373046875</v>
+        <v>2034.188842773438</v>
       </c>
       <c r="CL4" t="n">
-        <v>1158.499145507812</v>
+        <v>2043.259765625</v>
       </c>
       <c r="CM4" t="n">
-        <v>1168.858520507812</v>
+        <v>2051.98095703125</v>
       </c>
       <c r="CN4" t="n">
-        <v>1178.420532226562</v>
+        <v>2060.006103515625</v>
       </c>
       <c r="CO4" t="n">
-        <v>1185.041137695312</v>
+        <v>2066.737548828125</v>
       </c>
       <c r="CP4" t="n">
-        <v>1188.494750976562</v>
+        <v>2073.923095703125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1190.185546875</v>
+        <v>2083.16162109375</v>
       </c>
       <c r="CR4" t="n">
-        <v>1190.991821289062</v>
+        <v>2092.535888671875</v>
       </c>
       <c r="CS4" t="n">
-        <v>1190.838256835938</v>
+        <v>2103.2734375</v>
       </c>
       <c r="CT4" t="n">
-        <v>1190.436889648438</v>
+        <v>2124.009521484375</v>
       </c>
       <c r="CU4" t="n">
-        <v>1190.099487304688</v>
+        <v>2141.166259765625</v>
       </c>
       <c r="CV4" t="n">
-        <v>1189.861450195312</v>
+        <v>2153.439208984375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1189.716186523438</v>
+        <v>2160.4794921875</v>
       </c>
       <c r="CX4" t="n">
-        <v>1189.539916992188</v>
+        <v>2169.56005859375</v>
       </c>
       <c r="CY4" t="n">
-        <v>1189.167602539062</v>
+        <v>2199.025634765625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1188.86962890625</v>
+        <v>2215.0283203125</v>
       </c>
       <c r="DA4" t="n">
-        <v>1188.137573242188</v>
+        <v>2226.533935546875</v>
       </c>
       <c r="DB4" t="n">
-        <v>1186.927490234375</v>
+        <v>2227.967529296875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1185.97412109375</v>
+        <v>2228.667236328125</v>
       </c>
       <c r="DD4" t="n">
-        <v>1184.193481445312</v>
+        <v>2229.443359375</v>
       </c>
       <c r="DE4" t="n">
-        <v>1177.880859375</v>
+        <v>2230.552001953125</v>
       </c>
       <c r="DF4" t="n">
-        <v>1169.490112304688</v>
+        <v>2231.421630859375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1159.049682617188</v>
+        <v>2232.947509765625</v>
       </c>
       <c r="DH4" t="n">
-        <v>1144.668334960938</v>
+        <v>2241.7109375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1135.502075195312</v>
+        <v>2246.554443359375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1124.574096679688</v>
+        <v>2251.568359375</v>
       </c>
       <c r="DK4" t="n">
-        <v>1115.236206054688</v>
+        <v>2256.398193359375</v>
       </c>
       <c r="DL4" t="n">
-        <v>1103.862426757812</v>
+        <v>2258.850830078125</v>
       </c>
       <c r="DM4" t="n">
-        <v>1091.624145507812</v>
+        <v>2260.125244140625</v>
       </c>
       <c r="DN4" t="n">
-        <v>1079.36279296875</v>
+        <v>2260.800048828125</v>
       </c>
       <c r="DO4" t="n">
-        <v>1061.5126953125</v>
+        <v>2261.56640625</v>
       </c>
       <c r="DP4" t="n">
-        <v>1056.020874023438</v>
+        <v>2261.7939453125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1048.062622070312</v>
+        <v>2262.14794921875</v>
       </c>
       <c r="DR4" t="n">
-        <v>1044.753540039062</v>
+        <v>2262.324951171875</v>
       </c>
       <c r="DS4" t="n">
-        <v>1040.63427734375</v>
+        <v>2262.452880859375</v>
       </c>
       <c r="DT4" t="n">
-        <v>1029.768310546875</v>
+        <v>2262.714111328125</v>
       </c>
       <c r="DU4" t="n">
-        <v>1025.77197265625</v>
+        <v>2262.73583984375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1023.795532226562</v>
+        <v>2262.733154296875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1020.821716308594</v>
+        <v>2262.7060546875</v>
       </c>
       <c r="DX4" t="n">
-        <v>1019.83154296875</v>
+        <v>2262.6513671875</v>
       </c>
       <c r="DY4" t="n">
-        <v>1019.663635253906</v>
+        <v>2262.632080078125</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1020.236267089844</v>
+        <v>2262.600341796875</v>
       </c>
       <c r="EA4" t="n">
-        <v>1021.809997558594</v>
+        <v>2259.604248046875</v>
       </c>
       <c r="EB4" t="n">
-        <v>1023.149719238281</v>
+        <v>2255.43505859375</v>
       </c>
       <c r="EC4" t="n">
-        <v>1023.468383789062</v>
+        <v>2250.579833984375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1029.419799804688</v>
+        <v>2249.017333984375</v>
       </c>
       <c r="EE4" t="n">
-        <v>1041.5546875</v>
+        <v>2246.2275390625</v>
       </c>
       <c r="EF4" t="n">
-        <v>1052.65576171875</v>
+        <v>2244.22216796875</v>
       </c>
       <c r="EG4" t="n">
-        <v>1091.192016601562</v>
+        <v>2243.134765625</v>
       </c>
       <c r="EH4" t="n">
-        <v>1127.061645507812</v>
+        <v>2242.91796875</v>
       </c>
       <c r="EI4" t="n">
-        <v>1148.900024414062</v>
+        <v>2242.68115234375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1170.582153320312</v>
+        <v>2242.61767578125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1204.111328125</v>
+        <v>2242.47705078125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1217.498413085938</v>
+        <v>2242.445068359375</v>
       </c>
       <c r="EM4" t="n">
-        <v>1246.803100585938</v>
+        <v>2242.003662109375</v>
       </c>
       <c r="EN4" t="n">
-        <v>1259.443481445312</v>
+        <v>2241.390869140625</v>
       </c>
       <c r="EO4" t="n">
-        <v>1279.152709960938</v>
+        <v>2240.984130859375</v>
       </c>
       <c r="EP4" t="n">
-        <v>1285.459838867188</v>
+        <v>2234.808837890625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1287.1806640625</v>
+        <v>2229.947021484375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1286.143798828125</v>
+        <v>2221.91357421875</v>
       </c>
       <c r="ES4" t="n">
-        <v>1282.257568359375</v>
+        <v>2220.100341796875</v>
       </c>
       <c r="ET4" t="n">
-        <v>1260.598999023438</v>
+        <v>2219.062255859375</v>
       </c>
       <c r="EU4" t="n">
-        <v>1242.335571289062</v>
+        <v>2219.022216796875</v>
       </c>
       <c r="EV4" t="n">
-        <v>1235.998779296875</v>
+        <v>2219.104248046875</v>
       </c>
       <c r="EW4" t="n">
-        <v>1216.469848632812</v>
+        <v>2219.3359375</v>
       </c>
       <c r="EX4" t="n">
-        <v>1202.757690429688</v>
+        <v>2219.416748046875</v>
       </c>
       <c r="EY4" t="n">
-        <v>1191.850708007812</v>
+        <v>2219.42236328125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1168.038208007812</v>
+        <v>2219.416015625</v>
       </c>
       <c r="FA4" t="n">
-        <v>1147.5810546875</v>
+        <v>2219.404541015625</v>
       </c>
       <c r="FB4" t="n">
-        <v>1140.307739257812</v>
+        <v>2219.397705078125</v>
       </c>
       <c r="FC4" t="n">
-        <v>1125.113525390625</v>
+        <v>2219.397216796875</v>
       </c>
       <c r="FD4" t="n">
-        <v>1115.314697265625</v>
+        <v>2219.400390625</v>
       </c>
       <c r="FE4" t="n">
-        <v>1087.589111328125</v>
+        <v>2219.455078125</v>
       </c>
       <c r="FF4" t="n">
-        <v>1068.144653320312</v>
+        <v>2219.42626953125</v>
       </c>
       <c r="FG4" t="n">
-        <v>1029.618530273438</v>
+        <v>2219.415771484375</v>
       </c>
       <c r="FH4" t="n">
-        <v>1010.077453613281</v>
+        <v>2218.525634765625</v>
       </c>
       <c r="FI4" t="n">
-        <v>1004.371459960938</v>
+        <v>2217.178955078125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>995.8277587890625</v>
+        <v>2216.345947265625</v>
       </c>
       <c r="FK4" t="n">
-        <v>978.469970703125</v>
+        <v>2215.49169921875</v>
       </c>
       <c r="FL4" t="n">
-        <v>970.8663330078125</v>
+        <v>2214.927001953125</v>
       </c>
       <c r="FM4" t="n">
-        <v>955.8016967773438</v>
+        <v>2213.822265625</v>
       </c>
       <c r="FN4" t="n">
-        <v>940.0988159179688</v>
+        <v>2213.19970703125</v>
       </c>
       <c r="FO4" t="n">
-        <v>934.9937744140625</v>
+        <v>2212.4609375</v>
       </c>
       <c r="FP4" t="n">
-        <v>930.5331420898438</v>
+        <v>2211.0380859375</v>
       </c>
       <c r="FQ4" t="n">
-        <v>921.6121826171875</v>
+        <v>2210.638671875</v>
       </c>
       <c r="FR4" t="n">
-        <v>916.4102783203125</v>
+        <v>2210.486083984375</v>
       </c>
       <c r="FS4" t="n">
-        <v>906.525390625</v>
+        <v>2210.310546875</v>
       </c>
       <c r="FT4" t="n">
-        <v>898.2694091796875</v>
+        <v>2210.43017578125</v>
       </c>
       <c r="FU4" t="n">
-        <v>891.2486572265625</v>
+        <v>2210.5615234375</v>
       </c>
       <c r="FV4" t="n">
-        <v>887.7313232421875</v>
+        <v>2210.615478515625</v>
       </c>
       <c r="FW4" t="n">
-        <v>876.6533813476562</v>
+        <v>2210.51904296875</v>
       </c>
       <c r="FX4" t="n">
-        <v>873.1683959960938</v>
+        <v>2210.382568359375</v>
       </c>
       <c r="FY4" t="n">
-        <v>863.910400390625</v>
+        <v>2210.1884765625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>855.7437133789062</v>
+        <v>2210.068359375</v>
       </c>
       <c r="GA4" t="n">
-        <v>837.9747924804688</v>
+        <v>2204.101806640625</v>
       </c>
       <c r="GB4" t="n">
-        <v>832.0564575195312</v>
+        <v>2202.33203125</v>
       </c>
       <c r="GC4" t="n">
-        <v>825.6488037109375</v>
+        <v>2200.584716796875</v>
       </c>
       <c r="GD4" t="n">
-        <v>819.4898681640625</v>
+        <v>2200.841552734375</v>
       </c>
       <c r="GE4" t="n">
-        <v>799.2040405273438</v>
+        <v>2201.040771484375</v>
       </c>
       <c r="GF4" t="n">
-        <v>786.4298095703125</v>
+        <v>2201.534423828125</v>
       </c>
       <c r="GG4" t="n">
-        <v>779.33642578125</v>
+        <v>2201.841796875</v>
       </c>
       <c r="GH4" t="n">
-        <v>773.1422729492188</v>
+        <v>2202.696533203125</v>
       </c>
       <c r="GI4" t="n">
-        <v>768.3543090820312</v>
+        <v>2203.7744140625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>762.05615234375</v>
+        <v>2204.330810546875</v>
       </c>
       <c r="GK4" t="n">
-        <v>747.7363891601562</v>
+        <v>2205.49169921875</v>
       </c>
       <c r="GL4" t="n">
-        <v>741.1346435546875</v>
+        <v>2206.704833984375</v>
       </c>
       <c r="GM4" t="n">
-        <v>722.0965576171875</v>
+        <v>2207.03271484375</v>
       </c>
       <c r="GN4" t="n">
-        <v>697.4160766601562</v>
+        <v>2207.236328125</v>
       </c>
       <c r="GO4" t="n">
-        <v>689.6958618164062</v>
+        <v>2207.3349609375</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>2207.38134765625</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>2207.2646484375</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2207.13427734375</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2207.04345703125</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2206.839111328125</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2206.21044921875</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2204.363525390625</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2198.846923828125</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2192.375732421875</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2172.478515625</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2155.661865234375</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2147.233154296875</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2130.529541015625</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>2094.466796875</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>2079.646728515625</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>2048.90576171875</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>2031.024169921875</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1979.713623046875</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1921.066040039062</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1884.75</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1870.057983398438</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1831.987182617188</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1786.805786132812</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1756.528198242188</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1741.194580078125</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1710.234985351562</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1676.036865234375</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1638.479736328125</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1598.067138671875</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1557.640502929688</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1519.707397460938</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1478.433349609375</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1457.892700195312</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1413.288452148438</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1376.535278320312</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1329.996948242188</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1295.493286132812</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1256.624633789062</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1199.8818359375</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1179.806274414062</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1141.33642578125</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1100.621826171875</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1045.79833984375</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>994.5460815429688</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>938.3760986328125</v>
+      </c>
+      <c r="II4" t="n">
+        <v>878.2887573242188</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>822.68994140625</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>777.2876586914062</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>727.9380493164062</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>674.6366577148438</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>644.1874389648438</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>626.8499755859375</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>610.1331787109375</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>605.1150512695312</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>606.0690307617188</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>610.5670166015625</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>628.9903564453125</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>646.9532470703125</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>636.4685668945312</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>684.4891967773438</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>622.7870483398438</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>592.6026611328125</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>603.467529296875</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>682.0733032226562</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>754.3334350585938</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>808.6455688476562</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>855.9633178710938</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>899.9920654296875</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>934.826904296875</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>956.7076416015625</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>959.2919921875</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>953.4710693359375</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>928.1385498046875</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>889.4444580078125</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>850.228271484375</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>814.9031982421875</v>
       </c>
     </row>
   </sheetData>

--- a/Head_Data.xlsx
+++ b/Head_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM4"/>
+  <dimension ref="A1:GQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,2690 +1031,1802 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>240.135009765625</v>
+        <v>400.2581176757812</v>
       </c>
       <c r="B2" t="n">
-        <v>240.5755310058594</v>
+        <v>398.3163452148438</v>
       </c>
       <c r="C2" t="n">
-        <v>240.6069183349609</v>
+        <v>396.1109924316406</v>
       </c>
       <c r="D2" t="n">
-        <v>240.6217803955078</v>
+        <v>393.8199462890625</v>
       </c>
       <c r="E2" t="n">
-        <v>240.6289825439453</v>
+        <v>390.8151245117188</v>
       </c>
       <c r="F2" t="n">
-        <v>240.6324462890625</v>
+        <v>387.4882507324219</v>
       </c>
       <c r="G2" t="n">
-        <v>240.6339874267578</v>
+        <v>384.0019226074219</v>
       </c>
       <c r="H2" t="n">
-        <v>240.6342163085938</v>
+        <v>380.7348937988281</v>
       </c>
       <c r="I2" t="n">
-        <v>240.6340179443359</v>
+        <v>378.8936157226562</v>
       </c>
       <c r="J2" t="n">
-        <v>240.6338348388672</v>
+        <v>375.8087463378906</v>
       </c>
       <c r="K2" t="n">
-        <v>240.63427734375</v>
+        <v>370.8086853027344</v>
       </c>
       <c r="L2" t="n">
-        <v>240.6244812011719</v>
+        <v>365.2120361328125</v>
       </c>
       <c r="M2" t="n">
-        <v>240.6108093261719</v>
+        <v>360.7437438964844</v>
       </c>
       <c r="N2" t="n">
-        <v>240.6004486083984</v>
+        <v>353.0535278320312</v>
       </c>
       <c r="O2" t="n">
-        <v>240.59619140625</v>
+        <v>346.2493896484375</v>
       </c>
       <c r="P2" t="n">
-        <v>240.5948791503906</v>
+        <v>341.8866271972656</v>
       </c>
       <c r="Q2" t="n">
-        <v>240.5921325683594</v>
+        <v>339.3584594726562</v>
       </c>
       <c r="R2" t="n">
-        <v>240.5892639160156</v>
+        <v>338.5498657226562</v>
       </c>
       <c r="S2" t="n">
-        <v>240.582763671875</v>
+        <v>338.5393676757812</v>
       </c>
       <c r="T2" t="n">
-        <v>240.5274658203125</v>
+        <v>339.1225891113281</v>
       </c>
       <c r="U2" t="n">
-        <v>240.2250671386719</v>
+        <v>339.4009399414062</v>
       </c>
       <c r="V2" t="n">
-        <v>239.6020660400391</v>
+        <v>339.2699584960938</v>
       </c>
       <c r="W2" t="n">
-        <v>238.9793243408203</v>
+        <v>338.8824768066406</v>
       </c>
       <c r="X2" t="n">
-        <v>239.8233184814453</v>
+        <v>338.4923706054688</v>
       </c>
       <c r="Y2" t="n">
-        <v>242.9817504882812</v>
+        <v>338.4177856445312</v>
       </c>
       <c r="Z2" t="n">
-        <v>246.4697418212891</v>
+        <v>338.5393981933594</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.3909301757812</v>
+        <v>338.8821105957031</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.8782653808594</v>
+        <v>339.6127624511719</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.4002990722656</v>
+        <v>341.2564697265625</v>
       </c>
       <c r="AD2" t="n">
-        <v>252.2186279296875</v>
+        <v>343.9317321777344</v>
       </c>
       <c r="AE2" t="n">
-        <v>253.6959686279297</v>
+        <v>347.1216430664062</v>
       </c>
       <c r="AF2" t="n">
-        <v>255.7752075195312</v>
+        <v>349.0813598632812</v>
       </c>
       <c r="AG2" t="n">
-        <v>257.8538208007812</v>
+        <v>350.6998291015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>259.343994140625</v>
+        <v>352.0483703613281</v>
       </c>
       <c r="AI2" t="n">
-        <v>260.9107971191406</v>
+        <v>353.3935241699219</v>
       </c>
       <c r="AJ2" t="n">
-        <v>262.7864990234375</v>
+        <v>355.0567321777344</v>
       </c>
       <c r="AK2" t="n">
-        <v>264.3778686523438</v>
+        <v>356.6236572265625</v>
       </c>
       <c r="AL2" t="n">
-        <v>267.5397033691406</v>
+        <v>357.8424682617188</v>
       </c>
       <c r="AM2" t="n">
-        <v>270.6600036621094</v>
+        <v>359.095947265625</v>
       </c>
       <c r="AN2" t="n">
-        <v>274.5137023925781</v>
+        <v>359.6958923339844</v>
       </c>
       <c r="AO2" t="n">
-        <v>278.1903076171875</v>
+        <v>359.9498901367188</v>
       </c>
       <c r="AP2" t="n">
-        <v>281.6076965332031</v>
+        <v>360.0359497070312</v>
       </c>
       <c r="AQ2" t="n">
-        <v>284.9181213378906</v>
+        <v>360.0088195800781</v>
       </c>
       <c r="AR2" t="n">
-        <v>287.9197387695312</v>
+        <v>358.6177062988281</v>
       </c>
       <c r="AS2" t="n">
-        <v>290.9053344726562</v>
+        <v>355.9222717285156</v>
       </c>
       <c r="AT2" t="n">
-        <v>292.7310180664062</v>
+        <v>352.1819458007812</v>
       </c>
       <c r="AU2" t="n">
-        <v>293.9386901855469</v>
+        <v>348.0602416992188</v>
       </c>
       <c r="AV2" t="n">
-        <v>294.8762512207031</v>
+        <v>344.4992065429688</v>
       </c>
       <c r="AW2" t="n">
-        <v>295.6350402832031</v>
+        <v>340.5030517578125</v>
       </c>
       <c r="AX2" t="n">
-        <v>296.3309936523438</v>
+        <v>334.5944519042969</v>
       </c>
       <c r="AY2" t="n">
-        <v>296.8813781738281</v>
+        <v>327.3315124511719</v>
       </c>
       <c r="AZ2" t="n">
-        <v>297.3955688476562</v>
+        <v>319.8741149902344</v>
       </c>
       <c r="BA2" t="n">
-        <v>298.0310974121094</v>
+        <v>311.8276977539062</v>
       </c>
       <c r="BB2" t="n">
-        <v>298.6343994140625</v>
+        <v>303.7237854003906</v>
       </c>
       <c r="BC2" t="n">
-        <v>299.5439147949219</v>
+        <v>295.0935668945312</v>
       </c>
       <c r="BD2" t="n">
-        <v>300.992431640625</v>
+        <v>287.4508666992188</v>
       </c>
       <c r="BE2" t="n">
-        <v>302.5606384277344</v>
+        <v>280.4084167480469</v>
       </c>
       <c r="BF2" t="n">
-        <v>304.9227905273438</v>
+        <v>273.008544921875</v>
       </c>
       <c r="BG2" t="n">
-        <v>307.2247009277344</v>
+        <v>267.0983581542969</v>
       </c>
       <c r="BH2" t="n">
-        <v>310.3926696777344</v>
+        <v>261.0962829589844</v>
       </c>
       <c r="BI2" t="n">
-        <v>314.2718811035156</v>
+        <v>255.9617462158203</v>
       </c>
       <c r="BJ2" t="n">
-        <v>315.72509765625</v>
+        <v>251.6109619140625</v>
       </c>
       <c r="BK2" t="n">
-        <v>318.43798828125</v>
+        <v>248.0863952636719</v>
       </c>
       <c r="BL2" t="n">
-        <v>321.0982971191406</v>
+        <v>245.0766143798828</v>
       </c>
       <c r="BM2" t="n">
-        <v>323.9111938476562</v>
+        <v>242.27099609375</v>
       </c>
       <c r="BN2" t="n">
-        <v>326.2894287109375</v>
+        <v>240.0488586425781</v>
       </c>
       <c r="BO2" t="n">
-        <v>328.6463012695312</v>
+        <v>238.4330596923828</v>
       </c>
       <c r="BP2" t="n">
-        <v>331.5406494140625</v>
+        <v>236.9600219726562</v>
       </c>
       <c r="BQ2" t="n">
-        <v>334.58154296875</v>
+        <v>235.3755950927734</v>
       </c>
       <c r="BR2" t="n">
-        <v>337.20068359375</v>
+        <v>233.8578033447266</v>
       </c>
       <c r="BS2" t="n">
-        <v>340.139404296875</v>
+        <v>232.86376953125</v>
       </c>
       <c r="BT2" t="n">
-        <v>342.7361755371094</v>
+        <v>232.1759033203125</v>
       </c>
       <c r="BU2" t="n">
-        <v>345.7111206054688</v>
+        <v>231.8442993164062</v>
       </c>
       <c r="BV2" t="n">
-        <v>348.0938720703125</v>
+        <v>231.7011260986328</v>
       </c>
       <c r="BW2" t="n">
-        <v>350.2996826171875</v>
+        <v>231.6499633789062</v>
       </c>
       <c r="BX2" t="n">
-        <v>352.2663879394531</v>
+        <v>231.6319427490234</v>
       </c>
       <c r="BY2" t="n">
-        <v>354.1196899414062</v>
+        <v>231.6225891113281</v>
       </c>
       <c r="BZ2" t="n">
-        <v>355.8994140625</v>
+        <v>231.6347045898438</v>
       </c>
       <c r="CA2" t="n">
-        <v>357.8453369140625</v>
+        <v>231.6472778320312</v>
       </c>
       <c r="CB2" t="n">
-        <v>359.2920227050781</v>
+        <v>231.6573333740234</v>
       </c>
       <c r="CC2" t="n">
-        <v>360.263916015625</v>
+        <v>231.6706695556641</v>
       </c>
       <c r="CD2" t="n">
-        <v>361.204345703125</v>
+        <v>231.6823577880859</v>
       </c>
       <c r="CE2" t="n">
-        <v>361.5918579101562</v>
+        <v>231.6947174072266</v>
       </c>
       <c r="CF2" t="n">
-        <v>362.0494079589844</v>
+        <v>231.7098846435547</v>
       </c>
       <c r="CG2" t="n">
-        <v>362.4966735839844</v>
+        <v>231.7182006835938</v>
       </c>
       <c r="CH2" t="n">
-        <v>362.9220275878906</v>
+        <v>231.7311859130859</v>
       </c>
       <c r="CI2" t="n">
-        <v>363.3928833007812</v>
+        <v>231.7512664794922</v>
       </c>
       <c r="CJ2" t="n">
-        <v>363.9559936523438</v>
+        <v>231.8640289306641</v>
       </c>
       <c r="CK2" t="n">
-        <v>364.2223510742188</v>
+        <v>232.018310546875</v>
       </c>
       <c r="CL2" t="n">
-        <v>364.0416870117188</v>
+        <v>232.3998870849609</v>
       </c>
       <c r="CM2" t="n">
-        <v>363.3569946289062</v>
+        <v>232.5190887451172</v>
       </c>
       <c r="CN2" t="n">
-        <v>362.1815185546875</v>
+        <v>232.5849609375</v>
       </c>
       <c r="CO2" t="n">
-        <v>360.9637145996094</v>
+        <v>232.6160278320312</v>
       </c>
       <c r="CP2" t="n">
-        <v>359.892333984375</v>
+        <v>232.6330261230469</v>
       </c>
       <c r="CQ2" t="n">
-        <v>358.6013793945312</v>
+        <v>232.6437225341797</v>
       </c>
       <c r="CR2" t="n">
-        <v>356.7304077148438</v>
+        <v>232.6558685302734</v>
       </c>
       <c r="CS2" t="n">
-        <v>354.8877563476562</v>
+        <v>232.6600036621094</v>
       </c>
       <c r="CT2" t="n">
-        <v>352.8961486816406</v>
+        <v>232.6632843017578</v>
       </c>
       <c r="CU2" t="n">
-        <v>351.1145629882812</v>
+        <v>232.6661834716797</v>
       </c>
       <c r="CV2" t="n">
-        <v>349.5103759765625</v>
+        <v>232.6729583740234</v>
       </c>
       <c r="CW2" t="n">
-        <v>348.2097778320312</v>
+        <v>232.9307250976562</v>
       </c>
       <c r="CX2" t="n">
-        <v>347.0949096679688</v>
+        <v>233.4498901367188</v>
       </c>
       <c r="CY2" t="n">
-        <v>344.7685241699219</v>
+        <v>234.7726287841797</v>
       </c>
       <c r="CZ2" t="n">
-        <v>343.2510986328125</v>
+        <v>236.4511260986328</v>
       </c>
       <c r="DA2" t="n">
-        <v>340.6851806640625</v>
+        <v>238.5749053955078</v>
       </c>
       <c r="DB2" t="n">
-        <v>339.0236206054688</v>
+        <v>240.4371948242188</v>
       </c>
       <c r="DC2" t="n">
-        <v>337.4808349609375</v>
+        <v>241.6793060302734</v>
       </c>
       <c r="DD2" t="n">
-        <v>336.5398559570312</v>
+        <v>242.8686676025391</v>
       </c>
       <c r="DE2" t="n">
-        <v>336.0147399902344</v>
+        <v>244.6327209472656</v>
       </c>
       <c r="DF2" t="n">
-        <v>335.2874145507812</v>
+        <v>246.5950012207031</v>
       </c>
       <c r="DG2" t="n">
-        <v>334.8124694824219</v>
+        <v>249.2113342285156</v>
       </c>
       <c r="DH2" t="n">
-        <v>333.7225952148438</v>
+        <v>252.7906036376953</v>
       </c>
       <c r="DI2" t="n">
-        <v>333.198974609375</v>
+        <v>256.8885498046875</v>
       </c>
       <c r="DJ2" t="n">
-        <v>332.5805969238281</v>
+        <v>260.8413696289062</v>
       </c>
       <c r="DK2" t="n">
-        <v>332.0929260253906</v>
+        <v>265.38720703125</v>
       </c>
       <c r="DL2" t="n">
-        <v>331.5170288085938</v>
+        <v>274.2891235351562</v>
       </c>
       <c r="DM2" t="n">
-        <v>331.1242065429688</v>
+        <v>280.8584899902344</v>
       </c>
       <c r="DN2" t="n">
-        <v>330.5465087890625</v>
+        <v>288.7214660644531</v>
       </c>
       <c r="DO2" t="n">
-        <v>330.0972900390625</v>
+        <v>296.7555847167969</v>
       </c>
       <c r="DP2" t="n">
-        <v>330.0052185058594</v>
+        <v>312.9859619140625</v>
       </c>
       <c r="DQ2" t="n">
-        <v>329.9287414550781</v>
+        <v>320.9459838867188</v>
       </c>
       <c r="DR2" t="n">
-        <v>329.8928833007812</v>
+        <v>329.0165710449219</v>
       </c>
       <c r="DS2" t="n">
-        <v>329.8599853515625</v>
+        <v>345.0184936523438</v>
       </c>
       <c r="DT2" t="n">
-        <v>329.7779541015625</v>
+        <v>352.2922973632812</v>
       </c>
       <c r="DU2" t="n">
-        <v>329.768310546875</v>
+        <v>359.0491943359375</v>
       </c>
       <c r="DV2" t="n">
-        <v>329.768310546875</v>
+        <v>369.9626159667969</v>
       </c>
       <c r="DW2" t="n">
-        <v>329.7686767578125</v>
+        <v>377.6587219238281</v>
       </c>
       <c r="DX2" t="n">
-        <v>329.7701416015625</v>
+        <v>380.2427978515625</v>
       </c>
       <c r="DY2" t="n">
-        <v>329.770751953125</v>
+        <v>384.2562255859375</v>
       </c>
       <c r="DZ2" t="n">
-        <v>329.7720947265625</v>
+        <v>391.3450317382812</v>
       </c>
       <c r="EA2" t="n">
-        <v>330.0446166992188</v>
+        <v>393.7681274414062</v>
       </c>
       <c r="EB2" t="n">
-        <v>330.3643493652344</v>
+        <v>398.470947265625</v>
       </c>
       <c r="EC2" t="n">
-        <v>331.5374755859375</v>
+        <v>399.67822265625</v>
       </c>
       <c r="ED2" t="n">
-        <v>332.4664611816406</v>
+        <v>403.1146850585938</v>
       </c>
       <c r="EE2" t="n">
-        <v>333.7702026367188</v>
+        <v>405.2869262695312</v>
       </c>
       <c r="EF2" t="n">
-        <v>334.0207214355469</v>
+        <v>406.9990844726562</v>
       </c>
       <c r="EG2" t="n">
-        <v>334.3005676269531</v>
+        <v>409.7480773925781</v>
       </c>
       <c r="EH2" t="n">
-        <v>334.4324340820312</v>
+        <v>405.72314453125</v>
       </c>
       <c r="EI2" t="n">
-        <v>334.7027587890625</v>
+        <v>393.5740356445312</v>
       </c>
       <c r="EJ2" t="n">
-        <v>334.9492797851562</v>
+        <v>389.5538940429688</v>
       </c>
       <c r="EK2" t="n">
-        <v>335.5715942382812</v>
+        <v>379.1746215820312</v>
       </c>
       <c r="EL2" t="n">
-        <v>336.1954345703125</v>
+        <v>372.1953735351562</v>
       </c>
       <c r="EM2" t="n">
-        <v>337.8252868652344</v>
+        <v>359.092041015625</v>
       </c>
       <c r="EN2" t="n">
-        <v>338.9580078125</v>
+        <v>350.5084838867188</v>
       </c>
       <c r="EO2" t="n">
-        <v>339.1284790039062</v>
+        <v>334.1091613769531</v>
       </c>
       <c r="EP2" t="n">
-        <v>339.130126953125</v>
+        <v>326.44970703125</v>
       </c>
       <c r="EQ2" t="n">
-        <v>339.1212158203125</v>
+        <v>314.7566833496094</v>
       </c>
       <c r="ER2" t="n">
-        <v>339.0810852050781</v>
+        <v>309.0198059082031</v>
       </c>
       <c r="ES2" t="n">
-        <v>339.0575561523438</v>
+        <v>297.3762817382812</v>
       </c>
       <c r="ET2" t="n">
-        <v>339.0933227539062</v>
+        <v>291.4205627441406</v>
       </c>
       <c r="EU2" t="n">
-        <v>339.1246948242188</v>
+        <v>283.8150634765625</v>
       </c>
       <c r="EV2" t="n">
-        <v>339.1365051269531</v>
+        <v>264.1710510253906</v>
       </c>
       <c r="EW2" t="n">
-        <v>339.1593017578125</v>
+        <v>247.6136779785156</v>
       </c>
       <c r="EX2" t="n">
-        <v>339.1862487792969</v>
+        <v>239.0879974365234</v>
       </c>
       <c r="EY2" t="n">
-        <v>339.2157592773438</v>
+        <v>219.0635070800781</v>
       </c>
       <c r="EZ2" t="n">
-        <v>339.2577514648438</v>
+        <v>196.8728332519531</v>
       </c>
       <c r="FA2" t="n">
-        <v>339.3008728027344</v>
+        <v>186.0605773925781</v>
       </c>
       <c r="FB2" t="n">
-        <v>339.3197021484375</v>
+        <v>175.8406372070312</v>
       </c>
       <c r="FC2" t="n">
-        <v>339.348388671875</v>
+        <v>158.3593597412109</v>
       </c>
       <c r="FD2" t="n">
-        <v>339.4081420898438</v>
+        <v>148.8745422363281</v>
       </c>
       <c r="FE2" t="n">
-        <v>339.4727172851562</v>
+        <v>148.5115509033203</v>
       </c>
       <c r="FF2" t="n">
-        <v>339.5382690429688</v>
+        <v>150.3273162841797</v>
       </c>
       <c r="FG2" t="n">
-        <v>339.5758666992188</v>
+        <v>151.1283111572266</v>
       </c>
       <c r="FH2" t="n">
-        <v>339.6188659667969</v>
+        <v>154.5858306884766</v>
       </c>
       <c r="FI2" t="n">
-        <v>339.68505859375</v>
+        <v>159.1149444580078</v>
       </c>
       <c r="FJ2" t="n">
-        <v>339.7591857910156</v>
+        <v>177.3092651367188</v>
       </c>
       <c r="FK2" t="n">
-        <v>339.8403625488281</v>
+        <v>188.8993682861328</v>
       </c>
       <c r="FL2" t="n">
-        <v>339.8823852539062</v>
+        <v>207.9668884277344</v>
       </c>
       <c r="FM2" t="n">
-        <v>339.9611206054688</v>
+        <v>217.8460998535156</v>
       </c>
       <c r="FN2" t="n">
-        <v>340.0042114257812</v>
+        <v>229.4882507324219</v>
       </c>
       <c r="FO2" t="n">
-        <v>340.0276489257812</v>
+        <v>263.1385803222656</v>
       </c>
       <c r="FP2" t="n">
-        <v>340.0544738769531</v>
+        <v>308.5483093261719</v>
       </c>
       <c r="FQ2" t="n">
-        <v>340.0621948242188</v>
+        <v>332.0296630859375</v>
       </c>
       <c r="FR2" t="n">
-        <v>340.0643310546875</v>
+        <v>367.5610961914062</v>
       </c>
       <c r="FS2" t="n">
-        <v>340.0659790039062</v>
+        <v>380.4390869140625</v>
       </c>
       <c r="FT2" t="n">
-        <v>340.0645141601562</v>
+        <v>393.2448120117188</v>
       </c>
       <c r="FU2" t="n">
-        <v>340.0623168945312</v>
+        <v>420.33251953125</v>
       </c>
       <c r="FV2" t="n">
-        <v>340.0614624023438</v>
+        <v>433.5610656738281</v>
       </c>
       <c r="FW2" t="n">
-        <v>340.0618286132812</v>
+        <v>454.6458129882812</v>
       </c>
       <c r="FX2" t="n">
-        <v>340.0630493164062</v>
+        <v>468.58984375</v>
       </c>
       <c r="FY2" t="n">
-        <v>340.0647583007812</v>
+        <v>472.4536743164062</v>
       </c>
       <c r="FZ2" t="n">
-        <v>340.0658874511719</v>
+        <v>474.9435424804688</v>
       </c>
       <c r="GA2" t="n">
-        <v>340.115478515625</v>
+        <v>476.7926635742188</v>
       </c>
       <c r="GB2" t="n">
-        <v>340.1310424804688</v>
+        <v>476.8121948242188</v>
       </c>
       <c r="GC2" t="n">
-        <v>340.1473388671875</v>
+        <v>473.37060546875</v>
       </c>
       <c r="GD2" t="n">
-        <v>340.139892578125</v>
+        <v>456.232177734375</v>
       </c>
       <c r="GE2" t="n">
-        <v>340.1096801757812</v>
+        <v>445.5567016601562</v>
       </c>
       <c r="GF2" t="n">
-        <v>339.9983520507812</v>
+        <v>433.3092651367188</v>
       </c>
       <c r="GG2" t="n">
-        <v>339.8032836914062</v>
+        <v>404.3975219726562</v>
       </c>
       <c r="GH2" t="n">
-        <v>339.3765869140625</v>
+        <v>389.9133605957031</v>
       </c>
       <c r="GI2" t="n">
-        <v>338.3576049804688</v>
+        <v>363.7515258789062</v>
       </c>
       <c r="GJ2" t="n">
-        <v>338.05810546875</v>
+        <v>351.5375061035156</v>
       </c>
       <c r="GK2" t="n">
-        <v>337.5794677734375</v>
+        <v>334.2394409179688</v>
       </c>
       <c r="GL2" t="n">
-        <v>337.3006896972656</v>
+        <v>327.7507934570312</v>
       </c>
       <c r="GM2" t="n">
-        <v>337.1610717773438</v>
+        <v>316.9305114746094</v>
       </c>
       <c r="GN2" t="n">
-        <v>337.0108032226562</v>
+        <v>307.6192932128906</v>
       </c>
       <c r="GO2" t="n">
-        <v>336.9271545410156</v>
+        <v>305.0926513671875</v>
       </c>
       <c r="GP2" t="n">
-        <v>336.7548217773438</v>
+        <v>302.9936218261719</v>
       </c>
       <c r="GQ2" t="n">
-        <v>336.5120849609375</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>336.1659545898438</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>335.7422180175781</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>334.0280456542969</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>333.1039428710938</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>331.7928466796875</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>330.8748779296875</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>330.474853515625</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>329.96044921875</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>329.3150024414062</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>328.8741760253906</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>328.06982421875</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>327.0462036132812</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>326.3437194824219</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>324.9978332519531</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>324.83544921875</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>324.7968139648438</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>324.8645629882812</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>324.91064453125</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>324.9486694335938</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>325.0151977539062</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>325.0213623046875</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>324.8960571289062</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>324.78564453125</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>323.804443359375</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>320.4494934082031</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>316.1472473144531</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>313.1396789550781</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>308.86669921875</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>303.2330932617188</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>298.1842956542969</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>294.908203125</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>287.1702575683594</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>280.7420349121094</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>275.1994018554688</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>270.7900390625</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>267.8436279296875</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>262.7763366699219</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>260.9030456542969</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>257.3022155761719</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>254.1165466308594</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>250.3795013427734</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>247.7854614257812</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>247.0781097412109</v>
-      </c>
-      <c r="II2" t="n">
-        <v>245.9079284667969</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>244.7512512207031</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>246.8250427246094</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>269.8336791992188</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>254.0732727050781</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>300.9254150390625</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>279.658203125</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>270.669677734375</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>264.4356384277344</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>266.5397338867188</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>271.1762084960938</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>274.800048828125</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>268.0251159667969</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>166.2814025878906</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>152.1839141845703</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>174.7834014892578</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>171.5289611816406</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>163.5822143554688</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>170.2103424072266</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>179.2661285400391</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>187.5689392089844</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>194.1817932128906</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>199.7719116210938</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>203.7318420410156</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>205.9626617431641</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>206.1777648925781</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>206.1710510253906</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>205.8146362304688</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>206.56884765625</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>203.603271484375</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>199.1505737304688</v>
+        <v>299.7483520507812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61.26369857788086</v>
+        <v>202.0360412597656</v>
       </c>
       <c r="B3" t="n">
-        <v>61.08300399780273</v>
+        <v>199.1920776367188</v>
       </c>
       <c r="C3" t="n">
-        <v>61.07972717285156</v>
+        <v>196.3037719726562</v>
       </c>
       <c r="D3" t="n">
-        <v>61.089111328125</v>
+        <v>194.7307739257812</v>
       </c>
       <c r="E3" t="n">
-        <v>61.0959587097168</v>
+        <v>193.9439849853516</v>
       </c>
       <c r="F3" t="n">
-        <v>61.10006332397461</v>
+        <v>193.3559265136719</v>
       </c>
       <c r="G3" t="n">
-        <v>61.10361862182617</v>
+        <v>192.0327606201172</v>
       </c>
       <c r="H3" t="n">
-        <v>61.10403442382812</v>
+        <v>190.0830230712891</v>
       </c>
       <c r="I3" t="n">
-        <v>61.1013069152832</v>
+        <v>187.2672119140625</v>
       </c>
       <c r="J3" t="n">
-        <v>61.09725189208984</v>
+        <v>182.6349182128906</v>
       </c>
       <c r="K3" t="n">
-        <v>61.10052871704102</v>
+        <v>177.2961730957031</v>
       </c>
       <c r="L3" t="n">
-        <v>61.15382385253906</v>
+        <v>172.7693939208984</v>
       </c>
       <c r="M3" t="n">
-        <v>61.19797515869141</v>
+        <v>167.8680725097656</v>
       </c>
       <c r="N3" t="n">
-        <v>61.24460220336914</v>
+        <v>156.3955230712891</v>
       </c>
       <c r="O3" t="n">
-        <v>61.24354934692383</v>
+        <v>143.4355773925781</v>
       </c>
       <c r="P3" t="n">
-        <v>61.22929382324219</v>
+        <v>132.5257110595703</v>
       </c>
       <c r="Q3" t="n">
-        <v>61.21335220336914</v>
+        <v>126.8393325805664</v>
       </c>
       <c r="R3" t="n">
-        <v>61.19831848144531</v>
+        <v>123.2736663818359</v>
       </c>
       <c r="S3" t="n">
-        <v>61.19775390625</v>
+        <v>120.4712524414062</v>
       </c>
       <c r="T3" t="n">
-        <v>61.3042106628418</v>
+        <v>117.5411911010742</v>
       </c>
       <c r="U3" t="n">
-        <v>60.69084548950195</v>
+        <v>114.2897109985352</v>
       </c>
       <c r="V3" t="n">
-        <v>58.82887268066406</v>
+        <v>110.8019866943359</v>
       </c>
       <c r="W3" t="n">
-        <v>55.72499084472656</v>
+        <v>107.5121841430664</v>
       </c>
       <c r="X3" t="n">
-        <v>52.68012619018555</v>
+        <v>104.6326904296875</v>
       </c>
       <c r="Y3" t="n">
-        <v>50.69478225708008</v>
+        <v>102.4057464599609</v>
       </c>
       <c r="Z3" t="n">
-        <v>49.64335250854492</v>
+        <v>100.6416473388672</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.02119827270508</v>
+        <v>99.39005279541016</v>
       </c>
       <c r="AB3" t="n">
-        <v>48.35971450805664</v>
+        <v>98.15583038330078</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.71457290649414</v>
+        <v>97.01448059082031</v>
       </c>
       <c r="AD3" t="n">
-        <v>47.25483703613281</v>
+        <v>96.067138671875</v>
       </c>
       <c r="AE3" t="n">
-        <v>47.41838455200195</v>
+        <v>95.50178527832031</v>
       </c>
       <c r="AF3" t="n">
-        <v>46.48388290405273</v>
+        <v>95.13845062255859</v>
       </c>
       <c r="AG3" t="n">
-        <v>46.29374313354492</v>
+        <v>94.93247222900391</v>
       </c>
       <c r="AH3" t="n">
-        <v>46.3156852722168</v>
+        <v>94.93770599365234</v>
       </c>
       <c r="AI3" t="n">
-        <v>46.34244918823242</v>
+        <v>94.81250762939453</v>
       </c>
       <c r="AJ3" t="n">
-        <v>46.50844573974609</v>
+        <v>94.23551940917969</v>
       </c>
       <c r="AK3" t="n">
-        <v>48.01543807983398</v>
+        <v>93.11464691162109</v>
       </c>
       <c r="AL3" t="n">
-        <v>52.03310775756836</v>
+        <v>91.76258850097656</v>
       </c>
       <c r="AM3" t="n">
-        <v>58.21949768066406</v>
+        <v>90.64776611328125</v>
       </c>
       <c r="AN3" t="n">
-        <v>64.78624725341797</v>
+        <v>89.66962432861328</v>
       </c>
       <c r="AO3" t="n">
-        <v>71.08139038085938</v>
+        <v>89.10369873046875</v>
       </c>
       <c r="AP3" t="n">
-        <v>76.07697296142578</v>
+        <v>88.93944549560547</v>
       </c>
       <c r="AQ3" t="n">
-        <v>80.15616607666016</v>
+        <v>88.89520263671875</v>
       </c>
       <c r="AR3" t="n">
-        <v>83.75027465820312</v>
+        <v>89.08723449707031</v>
       </c>
       <c r="AS3" t="n">
-        <v>88.03085327148438</v>
+        <v>89.67751312255859</v>
       </c>
       <c r="AT3" t="n">
-        <v>94.00856781005859</v>
+        <v>90.38345336914062</v>
       </c>
       <c r="AU3" t="n">
-        <v>101.4834823608398</v>
+        <v>91.58100128173828</v>
       </c>
       <c r="AV3" t="n">
-        <v>110.1621932983398</v>
+        <v>92.44313049316406</v>
       </c>
       <c r="AW3" t="n">
-        <v>119.0356826782227</v>
+        <v>93.15798187255859</v>
       </c>
       <c r="AX3" t="n">
-        <v>125.6802749633789</v>
+        <v>93.572509765625</v>
       </c>
       <c r="AY3" t="n">
-        <v>130.2921295166016</v>
+        <v>94.75135040283203</v>
       </c>
       <c r="AZ3" t="n">
-        <v>134.3041229248047</v>
+        <v>95.88661193847656</v>
       </c>
       <c r="BA3" t="n">
-        <v>138.3112335205078</v>
+        <v>97.08364105224609</v>
       </c>
       <c r="BB3" t="n">
-        <v>140.9520111083984</v>
+        <v>97.80962371826172</v>
       </c>
       <c r="BC3" t="n">
-        <v>142.8527679443359</v>
+        <v>99.57692718505859</v>
       </c>
       <c r="BD3" t="n">
-        <v>143.4638366699219</v>
+        <v>101.2003402709961</v>
       </c>
       <c r="BE3" t="n">
-        <v>144.6647186279297</v>
+        <v>101.8436050415039</v>
       </c>
       <c r="BF3" t="n">
-        <v>145.1887512207031</v>
+        <v>101.6831970214844</v>
       </c>
       <c r="BG3" t="n">
-        <v>145.3390045166016</v>
+        <v>101.3916015625</v>
       </c>
       <c r="BH3" t="n">
-        <v>145.5241546630859</v>
+        <v>101.1760101318359</v>
       </c>
       <c r="BI3" t="n">
-        <v>147.3017730712891</v>
+        <v>101.09326171875</v>
       </c>
       <c r="BJ3" t="n">
-        <v>150.3711242675781</v>
+        <v>100.9031524658203</v>
       </c>
       <c r="BK3" t="n">
-        <v>154.5152282714844</v>
+        <v>100.9124450683594</v>
       </c>
       <c r="BL3" t="n">
-        <v>157.2942199707031</v>
+        <v>100.8824615478516</v>
       </c>
       <c r="BM3" t="n">
-        <v>158.4403076171875</v>
+        <v>100.970458984375</v>
       </c>
       <c r="BN3" t="n">
-        <v>159.7271881103516</v>
+        <v>101.2007751464844</v>
       </c>
       <c r="BO3" t="n">
-        <v>162.2342376708984</v>
+        <v>101.4970016479492</v>
       </c>
       <c r="BP3" t="n">
-        <v>164.8820190429688</v>
+        <v>101.8792724609375</v>
       </c>
       <c r="BQ3" t="n">
-        <v>167.7298889160156</v>
+        <v>102.4154357910156</v>
       </c>
       <c r="BR3" t="n">
-        <v>169.9288635253906</v>
+        <v>103.1546630859375</v>
       </c>
       <c r="BS3" t="n">
-        <v>173.2315063476562</v>
+        <v>103.7356719970703</v>
       </c>
       <c r="BT3" t="n">
-        <v>176.3464965820312</v>
+        <v>104.0388641357422</v>
       </c>
       <c r="BU3" t="n">
-        <v>177.7654876708984</v>
+        <v>104.1504287719727</v>
       </c>
       <c r="BV3" t="n">
-        <v>179.1416168212891</v>
+        <v>104.1984939575195</v>
       </c>
       <c r="BW3" t="n">
-        <v>180.2671356201172</v>
+        <v>104.2967758178711</v>
       </c>
       <c r="BX3" t="n">
-        <v>181.3959197998047</v>
+        <v>104.4041061401367</v>
       </c>
       <c r="BY3" t="n">
-        <v>182.1298065185547</v>
+        <v>104.532470703125</v>
       </c>
       <c r="BZ3" t="n">
-        <v>182.787841796875</v>
+        <v>104.6844711303711</v>
       </c>
       <c r="CA3" t="n">
-        <v>183.7308197021484</v>
+        <v>104.8588638305664</v>
       </c>
       <c r="CB3" t="n">
-        <v>184.4696655273438</v>
+        <v>105.0285415649414</v>
       </c>
       <c r="CC3" t="n">
-        <v>184.8694305419922</v>
+        <v>105.2141647338867</v>
       </c>
       <c r="CD3" t="n">
-        <v>185.830322265625</v>
+        <v>105.3968734741211</v>
       </c>
       <c r="CE3" t="n">
-        <v>186.3502349853516</v>
+        <v>105.5579681396484</v>
       </c>
       <c r="CF3" t="n">
-        <v>186.3263092041016</v>
+        <v>105.7057037353516</v>
       </c>
       <c r="CG3" t="n">
-        <v>186.5794677734375</v>
+        <v>106.4939575195312</v>
       </c>
       <c r="CH3" t="n">
-        <v>187.2617645263672</v>
+        <v>107.1760787963867</v>
       </c>
       <c r="CI3" t="n">
-        <v>187.8632507324219</v>
+        <v>107.7804412841797</v>
       </c>
       <c r="CJ3" t="n">
-        <v>188.6945190429688</v>
+        <v>108.6135025024414</v>
       </c>
       <c r="CK3" t="n">
-        <v>189.3589477539062</v>
+        <v>109.4363784790039</v>
       </c>
       <c r="CL3" t="n">
-        <v>190.6375122070312</v>
+        <v>110.3544769287109</v>
       </c>
       <c r="CM3" t="n">
-        <v>191.6195068359375</v>
+        <v>110.4890899658203</v>
       </c>
       <c r="CN3" t="n">
-        <v>192.3704528808594</v>
+        <v>110.589241027832</v>
       </c>
       <c r="CO3" t="n">
-        <v>193.0016784667969</v>
+        <v>110.508415222168</v>
       </c>
       <c r="CP3" t="n">
-        <v>194.3472900390625</v>
+        <v>110.3967361450195</v>
       </c>
       <c r="CQ3" t="n">
-        <v>195.7468414306641</v>
+        <v>110.2909088134766</v>
       </c>
       <c r="CR3" t="n">
-        <v>197.0579071044922</v>
+        <v>110.1262741088867</v>
       </c>
       <c r="CS3" t="n">
-        <v>198.419921875</v>
+        <v>110.0488891601562</v>
       </c>
       <c r="CT3" t="n">
-        <v>199.3850402832031</v>
+        <v>109.9831085205078</v>
       </c>
       <c r="CU3" t="n">
-        <v>199.9259033203125</v>
+        <v>109.9329605102539</v>
       </c>
       <c r="CV3" t="n">
-        <v>200.1152648925781</v>
+        <v>109.9248733520508</v>
       </c>
       <c r="CW3" t="n">
-        <v>200.0766448974609</v>
+        <v>109.9051055908203</v>
       </c>
       <c r="CX3" t="n">
-        <v>200.2425231933594</v>
+        <v>109.8917236328125</v>
       </c>
       <c r="CY3" t="n">
-        <v>201.8430023193359</v>
+        <v>109.8756332397461</v>
       </c>
       <c r="CZ3" t="n">
-        <v>202.8675231933594</v>
+        <v>109.8588027954102</v>
       </c>
       <c r="DA3" t="n">
-        <v>203.3634490966797</v>
+        <v>109.8446197509766</v>
       </c>
       <c r="DB3" t="n">
-        <v>203.5167846679688</v>
+        <v>109.8331680297852</v>
       </c>
       <c r="DC3" t="n">
-        <v>203.6930999755859</v>
+        <v>109.8189163208008</v>
       </c>
       <c r="DD3" t="n">
-        <v>203.8067779541016</v>
+        <v>109.7991104125977</v>
       </c>
       <c r="DE3" t="n">
-        <v>203.7795562744141</v>
+        <v>109.7779312133789</v>
       </c>
       <c r="DF3" t="n">
-        <v>203.8128204345703</v>
+        <v>109.7456665039062</v>
       </c>
       <c r="DG3" t="n">
-        <v>203.9193878173828</v>
+        <v>109.7057342529297</v>
       </c>
       <c r="DH3" t="n">
-        <v>204.7192077636719</v>
+        <v>109.6692962646484</v>
       </c>
       <c r="DI3" t="n">
-        <v>205.3275604248047</v>
+        <v>109.6461639404297</v>
       </c>
       <c r="DJ3" t="n">
-        <v>205.9554443359375</v>
+        <v>109.6943511962891</v>
       </c>
       <c r="DK3" t="n">
-        <v>206.4430999755859</v>
+        <v>109.5015411376953</v>
       </c>
       <c r="DL3" t="n">
-        <v>206.6288299560547</v>
+        <v>109.2801666259766</v>
       </c>
       <c r="DM3" t="n">
-        <v>206.6945190429688</v>
+        <v>109.3160171508789</v>
       </c>
       <c r="DN3" t="n">
-        <v>206.7037200927734</v>
+        <v>110.571891784668</v>
       </c>
       <c r="DO3" t="n">
-        <v>206.6174774169922</v>
+        <v>111.7948684692383</v>
       </c>
       <c r="DP3" t="n">
-        <v>206.5914001464844</v>
+        <v>112.4038238525391</v>
       </c>
       <c r="DQ3" t="n">
-        <v>206.5714874267578</v>
+        <v>112.0256576538086</v>
       </c>
       <c r="DR3" t="n">
-        <v>206.5609436035156</v>
+        <v>111.5712203979492</v>
       </c>
       <c r="DS3" t="n">
-        <v>206.5359649658203</v>
+        <v>109.5817642211914</v>
       </c>
       <c r="DT3" t="n">
-        <v>206.4811401367188</v>
+        <v>108.6170120239258</v>
       </c>
       <c r="DU3" t="n">
-        <v>206.4821166992188</v>
+        <v>107.6092300415039</v>
       </c>
       <c r="DV3" t="n">
-        <v>206.4806518554688</v>
+        <v>102.7122421264648</v>
       </c>
       <c r="DW3" t="n">
-        <v>206.4800109863281</v>
+        <v>97.23351287841797</v>
       </c>
       <c r="DX3" t="n">
-        <v>206.4944915771484</v>
+        <v>95.2969970703125</v>
       </c>
       <c r="DY3" t="n">
-        <v>206.4996337890625</v>
+        <v>94.03876495361328</v>
       </c>
       <c r="DZ3" t="n">
-        <v>206.506591796875</v>
+        <v>92.23072052001953</v>
       </c>
       <c r="EA3" t="n">
-        <v>206.224853515625</v>
+        <v>91.51032257080078</v>
       </c>
       <c r="EB3" t="n">
-        <v>205.9112548828125</v>
+        <v>90.07932281494141</v>
       </c>
       <c r="EC3" t="n">
-        <v>205.8296508789062</v>
+        <v>89.70220947265625</v>
       </c>
       <c r="ED3" t="n">
-        <v>205.9285583496094</v>
+        <v>86.40442657470703</v>
       </c>
       <c r="EE3" t="n">
-        <v>206.3043365478516</v>
+        <v>84.486083984375</v>
       </c>
       <c r="EF3" t="n">
-        <v>206.5410308837891</v>
+        <v>82.67807769775391</v>
       </c>
       <c r="EG3" t="n">
-        <v>206.4668121337891</v>
+        <v>80.40762329101562</v>
       </c>
       <c r="EH3" t="n">
-        <v>206.3106079101562</v>
+        <v>79.76717376708984</v>
       </c>
       <c r="EI3" t="n">
-        <v>206.0652618408203</v>
+        <v>77.71664428710938</v>
       </c>
       <c r="EJ3" t="n">
-        <v>205.9524841308594</v>
+        <v>77.70751953125</v>
       </c>
       <c r="EK3" t="n">
-        <v>205.7216796875</v>
+        <v>74.62082672119141</v>
       </c>
       <c r="EL3" t="n">
-        <v>205.5946502685547</v>
+        <v>75.66591644287109</v>
       </c>
       <c r="EM3" t="n">
-        <v>205.2755584716797</v>
+        <v>74.70394897460938</v>
       </c>
       <c r="EN3" t="n">
-        <v>204.9046478271484</v>
+        <v>72.22504425048828</v>
       </c>
       <c r="EO3" t="n">
-        <v>204.7235717773438</v>
+        <v>68.13199615478516</v>
       </c>
       <c r="EP3" t="n">
-        <v>203.9479675292969</v>
+        <v>69.52177429199219</v>
       </c>
       <c r="EQ3" t="n">
-        <v>203.7068023681641</v>
+        <v>71.20261383056641</v>
       </c>
       <c r="ER3" t="n">
-        <v>203.408203125</v>
+        <v>70.87702178955078</v>
       </c>
       <c r="ES3" t="n">
-        <v>203.369140625</v>
+        <v>70.20050048828125</v>
       </c>
       <c r="ET3" t="n">
-        <v>203.1731414794922</v>
+        <v>69.53007507324219</v>
       </c>
       <c r="EU3" t="n">
-        <v>203.1394500732422</v>
+        <v>68.55171966552734</v>
       </c>
       <c r="EV3" t="n">
-        <v>203.0985717773438</v>
+        <v>65.14933776855469</v>
       </c>
       <c r="EW3" t="n">
-        <v>203.0514831542969</v>
+        <v>60.28380584716797</v>
       </c>
       <c r="EX3" t="n">
-        <v>203.0577392578125</v>
+        <v>56.26853561401367</v>
       </c>
       <c r="EY3" t="n">
-        <v>203.0598449707031</v>
+        <v>49.20957183837891</v>
       </c>
       <c r="EZ3" t="n">
-        <v>203.0625762939453</v>
+        <v>42.30844497680664</v>
       </c>
       <c r="FA3" t="n">
-        <v>203.0662384033203</v>
+        <v>38.56777954101562</v>
       </c>
       <c r="FB3" t="n">
-        <v>203.0683898925781</v>
+        <v>35.63232040405273</v>
       </c>
       <c r="FC3" t="n">
-        <v>203.0681610107422</v>
+        <v>38.53945922851562</v>
       </c>
       <c r="FD3" t="n">
-        <v>203.0672454833984</v>
+        <v>46.52204895019531</v>
       </c>
       <c r="FE3" t="n">
-        <v>203.0467987060547</v>
+        <v>50.63932418823242</v>
       </c>
       <c r="FF3" t="n">
-        <v>203.0580291748047</v>
+        <v>59.44070053100586</v>
       </c>
       <c r="FG3" t="n">
-        <v>203.0621337890625</v>
+        <v>66.00788879394531</v>
       </c>
       <c r="FH3" t="n">
-        <v>202.8680572509766</v>
+        <v>85.61513519287109</v>
       </c>
       <c r="FI3" t="n">
-        <v>202.5762786865234</v>
+        <v>96.91310119628906</v>
       </c>
       <c r="FJ3" t="n">
-        <v>202.32763671875</v>
+        <v>115.4125137329102</v>
       </c>
       <c r="FK3" t="n">
-        <v>202.1957550048828</v>
+        <v>130.5048217773438</v>
       </c>
       <c r="FL3" t="n">
-        <v>202.1553039550781</v>
+        <v>155.8394470214844</v>
       </c>
       <c r="FM3" t="n">
-        <v>202.0941314697266</v>
+        <v>163.3061218261719</v>
       </c>
       <c r="FN3" t="n">
-        <v>202.0780792236328</v>
+        <v>169.3538665771484</v>
       </c>
       <c r="FO3" t="n">
-        <v>202.0727233886719</v>
+        <v>179.5983428955078</v>
       </c>
       <c r="FP3" t="n">
-        <v>202.0650329589844</v>
+        <v>184.2297668457031</v>
       </c>
       <c r="FQ3" t="n">
-        <v>202.1261749267578</v>
+        <v>187.2734222412109</v>
       </c>
       <c r="FR3" t="n">
-        <v>202.1633148193359</v>
+        <v>186.3793792724609</v>
       </c>
       <c r="FS3" t="n">
-        <v>202.2350006103516</v>
+        <v>181.7561340332031</v>
       </c>
       <c r="FT3" t="n">
-        <v>202.2606506347656</v>
+        <v>176.4480285644531</v>
       </c>
       <c r="FU3" t="n">
-        <v>202.3347320556641</v>
+        <v>167.8655395507812</v>
       </c>
       <c r="FV3" t="n">
-        <v>202.3821868896484</v>
+        <v>166.2387084960938</v>
       </c>
       <c r="FW3" t="n">
-        <v>202.5518188476562</v>
+        <v>167.5319976806641</v>
       </c>
       <c r="FX3" t="n">
-        <v>202.6142730712891</v>
+        <v>169.3280944824219</v>
       </c>
       <c r="FY3" t="n">
-        <v>202.6493682861328</v>
+        <v>170.0234069824219</v>
       </c>
       <c r="FZ3" t="n">
-        <v>202.6638031005859</v>
+        <v>170.7757873535156</v>
       </c>
       <c r="GA3" t="n">
-        <v>202.2354736328125</v>
+        <v>171.253173828125</v>
       </c>
       <c r="GB3" t="n">
-        <v>202.1915893554688</v>
+        <v>170.5852355957031</v>
       </c>
       <c r="GC3" t="n">
-        <v>202.2684783935547</v>
+        <v>169.0083770751953</v>
       </c>
       <c r="GD3" t="n">
-        <v>202.3857727050781</v>
+        <v>169.2216033935547</v>
       </c>
       <c r="GE3" t="n">
-        <v>202.4154052734375</v>
+        <v>170.1302032470703</v>
       </c>
       <c r="GF3" t="n">
-        <v>202.4989013671875</v>
+        <v>171.9982757568359</v>
       </c>
       <c r="GG3" t="n">
-        <v>202.5399932861328</v>
+        <v>177.1856994628906</v>
       </c>
       <c r="GH3" t="n">
-        <v>202.6408538818359</v>
+        <v>181.07568359375</v>
       </c>
       <c r="GI3" t="n">
-        <v>202.7754211425781</v>
+        <v>189.2644348144531</v>
       </c>
       <c r="GJ3" t="n">
-        <v>202.8231201171875</v>
+        <v>191.6544342041016</v>
       </c>
       <c r="GK3" t="n">
-        <v>202.896484375</v>
+        <v>193.98486328125</v>
       </c>
       <c r="GL3" t="n">
-        <v>202.9377593994141</v>
+        <v>193.2310638427734</v>
       </c>
       <c r="GM3" t="n">
-        <v>202.8777923583984</v>
+        <v>190.8415069580078</v>
       </c>
       <c r="GN3" t="n">
-        <v>202.8125610351562</v>
+        <v>189.2359619140625</v>
       </c>
       <c r="GO3" t="n">
-        <v>202.7626342773438</v>
+        <v>187.1167297363281</v>
       </c>
       <c r="GP3" t="n">
-        <v>202.7159118652344</v>
+        <v>179.2744140625</v>
       </c>
       <c r="GQ3" t="n">
-        <v>202.7223968505859</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>202.7330322265625</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>202.7268218994141</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>202.7234039306641</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>202.6950836181641</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>202.5974273681641</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>202.2101745605469</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>201.9262390136719</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>201.314208984375</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>201.3071441650391</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>201.1287384033203</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>200.3096008300781</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>198.3094940185547</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>197.8187255859375</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>196.9931030273438</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>196.6475982666016</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>195.2105407714844</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>191.2790679931641</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>185.6365509033203</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>183.2793731689453</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>179.3457183837891</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>176.8772735595703</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>174.5738983154297</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>173.41015625</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>169.2538299560547</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>164.4261932373047</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>161.3052215576172</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>158.8451995849609</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>156.5839996337891</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>154.4708862304688</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>150.8776092529297</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>148.8561553955078</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>140.4474792480469</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>131.9765167236328</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>126.3467483520508</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>122.8520812988281</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>118.0641860961914</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>106.7854080200195</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>103.3114013671875</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>97.73683166503906</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>91.79786682128906</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>83.02070617675781</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>75.20938873291016</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>66.791748046875</v>
-      </c>
-      <c r="II3" t="n">
-        <v>56.20251083374023</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>44.20502471923828</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>35.56567764282227</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>28.74218559265137</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>37.46601486206055</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>88.659912109375</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>121.2976760864258</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>129.7253570556641</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>119.7781295776367</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>109.982307434082</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>99.97730255126953</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>86.1802978515625</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>66.77445983886719</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>55.59938430786133</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>56.44846725463867</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>14.77340698242188</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>43.99994277954102</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>84.53931427001953</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>125.4919509887695</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>174.4171142578125</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>193.6397857666016</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>196.0137329101562</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>195.1883392333984</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>196.9652252197266</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>199.6596527099609</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>203.6241760253906</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>205.2729339599609</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>202.4308929443359</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>198.1881256103516</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>195.3000183105469</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>193.3416900634766</v>
+        <v>166.5347747802734</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>990.172119140625</v>
+        <v>1186.658325195312</v>
       </c>
       <c r="B4" t="n">
-        <v>989.9745483398438</v>
+        <v>1176.66162109375</v>
       </c>
       <c r="C4" t="n">
-        <v>989.9697265625</v>
+        <v>1170.684814453125</v>
       </c>
       <c r="D4" t="n">
-        <v>989.9591674804688</v>
+        <v>1167.5244140625</v>
       </c>
       <c r="E4" t="n">
-        <v>989.9515380859375</v>
+        <v>1164.031372070312</v>
       </c>
       <c r="F4" t="n">
-        <v>989.9462280273438</v>
+        <v>1159.304321289062</v>
       </c>
       <c r="G4" t="n">
-        <v>989.9419555664062</v>
+        <v>1154.851196289062</v>
       </c>
       <c r="H4" t="n">
-        <v>989.9337768554688</v>
+        <v>1152.61181640625</v>
       </c>
       <c r="I4" t="n">
-        <v>989.92626953125</v>
+        <v>1151.393188476562</v>
       </c>
       <c r="J4" t="n">
-        <v>989.9215698242188</v>
+        <v>1150.650512695312</v>
       </c>
       <c r="K4" t="n">
-        <v>989.9314575195312</v>
+        <v>1154.203247070312</v>
       </c>
       <c r="L4" t="n">
-        <v>990.104736328125</v>
+        <v>1163.842041015625</v>
       </c>
       <c r="M4" t="n">
-        <v>990.2601318359375</v>
+        <v>1180.106811523438</v>
       </c>
       <c r="N4" t="n">
-        <v>990.435302734375</v>
+        <v>1200.892211914062</v>
       </c>
       <c r="O4" t="n">
-        <v>990.4607543945312</v>
+        <v>1218.564697265625</v>
       </c>
       <c r="P4" t="n">
-        <v>990.4366455078125</v>
+        <v>1232.003173828125</v>
       </c>
       <c r="Q4" t="n">
-        <v>990.3992309570312</v>
+        <v>1248.839233398438</v>
       </c>
       <c r="R4" t="n">
-        <v>990.3552856445312</v>
+        <v>1262.990112304688</v>
       </c>
       <c r="S4" t="n">
-        <v>990.2679443359375</v>
+        <v>1274.779296875</v>
       </c>
       <c r="T4" t="n">
-        <v>989.583984375</v>
+        <v>1286.334228515625</v>
       </c>
       <c r="U4" t="n">
-        <v>985.8046875</v>
+        <v>1301.187255859375</v>
       </c>
       <c r="V4" t="n">
-        <v>977.7725219726562</v>
+        <v>1316.473999023438</v>
       </c>
       <c r="W4" t="n">
-        <v>965.2353515625</v>
+        <v>1329.100463867188</v>
       </c>
       <c r="X4" t="n">
-        <v>952.2007446289062</v>
+        <v>1337.968383789062</v>
       </c>
       <c r="Y4" t="n">
-        <v>942.5370483398438</v>
+        <v>1344.951049804688</v>
       </c>
       <c r="Z4" t="n">
-        <v>936.2926025390625</v>
+        <v>1351.086669921875</v>
       </c>
       <c r="AA4" t="n">
-        <v>931.7587890625</v>
+        <v>1356.47119140625</v>
       </c>
       <c r="AB4" t="n">
-        <v>927.4539184570312</v>
+        <v>1360.191650390625</v>
       </c>
       <c r="AC4" t="n">
-        <v>923.0394287109375</v>
+        <v>1362.105102539062</v>
       </c>
       <c r="AD4" t="n">
-        <v>918.6885375976562</v>
+        <v>1362.946655273438</v>
       </c>
       <c r="AE4" t="n">
-        <v>915.1953735351562</v>
+        <v>1363.327026367188</v>
       </c>
       <c r="AF4" t="n">
-        <v>911.96044921875</v>
+        <v>1363.38330078125</v>
       </c>
       <c r="AG4" t="n">
-        <v>911.2444458007812</v>
+        <v>1363.31103515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>911.357177734375</v>
+        <v>1363.053588867188</v>
       </c>
       <c r="AI4" t="n">
-        <v>911.6973876953125</v>
+        <v>1360.732421875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>912.5634155273438</v>
+        <v>1355.038452148438</v>
       </c>
       <c r="AK4" t="n">
-        <v>918.5969848632812</v>
+        <v>1345.662353515625</v>
       </c>
       <c r="AL4" t="n">
-        <v>933.9127197265625</v>
+        <v>1334.640991210938</v>
       </c>
       <c r="AM4" t="n">
-        <v>957.36474609375</v>
+        <v>1324.990600585938</v>
       </c>
       <c r="AN4" t="n">
-        <v>982.8577880859375</v>
+        <v>1316.232421875</v>
       </c>
       <c r="AO4" t="n">
-        <v>1007.502685546875</v>
+        <v>1310.289428710938</v>
       </c>
       <c r="AP4" t="n">
-        <v>1031.115478515625</v>
+        <v>1307.33447265625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1054.120361328125</v>
+        <v>1305.430297851562</v>
       </c>
       <c r="AR4" t="n">
-        <v>1076.757202148438</v>
+        <v>1304.125610351562</v>
       </c>
       <c r="AS4" t="n">
-        <v>1100.140258789062</v>
+        <v>1303.006713867188</v>
       </c>
       <c r="AT4" t="n">
-        <v>1126.87744140625</v>
+        <v>1302.239868164062</v>
       </c>
       <c r="AU4" t="n">
-        <v>1155.770263671875</v>
+        <v>1301.778198242188</v>
       </c>
       <c r="AV4" t="n">
-        <v>1187.134399414062</v>
+        <v>1301.530517578125</v>
       </c>
       <c r="AW4" t="n">
-        <v>1217.785400390625</v>
+        <v>1301.33837890625</v>
       </c>
       <c r="AX4" t="n">
-        <v>1250.681396484375</v>
+        <v>1302.601318359375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1278.8994140625</v>
+        <v>1305.26708984375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1307.302001953125</v>
+        <v>1309.183715820312</v>
       </c>
       <c r="BA4" t="n">
-        <v>1336.394165039062</v>
+        <v>1313.526611328125</v>
       </c>
       <c r="BB4" t="n">
-        <v>1366.993408203125</v>
+        <v>1318.459106445312</v>
       </c>
       <c r="BC4" t="n">
-        <v>1396.309204101562</v>
+        <v>1325.200073242188</v>
       </c>
       <c r="BD4" t="n">
-        <v>1419.057006835938</v>
+        <v>1331.667724609375</v>
       </c>
       <c r="BE4" t="n">
-        <v>1443.318481445312</v>
+        <v>1338.391845703125</v>
       </c>
       <c r="BF4" t="n">
-        <v>1467.121704101562</v>
+        <v>1343.592163085938</v>
       </c>
       <c r="BG4" t="n">
-        <v>1490.711059570312</v>
+        <v>1348.669067382812</v>
       </c>
       <c r="BH4" t="n">
-        <v>1507.919921875</v>
+        <v>1353.308471679688</v>
       </c>
       <c r="BI4" t="n">
-        <v>1539.705810546875</v>
+        <v>1356.553466796875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1562.593994140625</v>
+        <v>1358.51318359375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1586.555297851562</v>
+        <v>1360.812866210938</v>
       </c>
       <c r="BL4" t="n">
-        <v>1607.961791992188</v>
+        <v>1362.504760742188</v>
       </c>
       <c r="BM4" t="n">
-        <v>1624.713256835938</v>
+        <v>1364.40380859375</v>
       </c>
       <c r="BN4" t="n">
-        <v>1638.238525390625</v>
+        <v>1366.890380859375</v>
       </c>
       <c r="BO4" t="n">
-        <v>1657.369750976562</v>
+        <v>1369.327270507812</v>
       </c>
       <c r="BP4" t="n">
-        <v>1682.062866210938</v>
+        <v>1372.013671875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1708.18994140625</v>
+        <v>1375.36865234375</v>
       </c>
       <c r="BR4" t="n">
-        <v>1729.703125</v>
+        <v>1379.730590820312</v>
       </c>
       <c r="BS4" t="n">
-        <v>1750.247314453125</v>
+        <v>1383.128051757812</v>
       </c>
       <c r="BT4" t="n">
-        <v>1765.542358398438</v>
+        <v>1385.034790039062</v>
       </c>
       <c r="BU4" t="n">
-        <v>1779.099975585938</v>
+        <v>1385.924682617188</v>
       </c>
       <c r="BV4" t="n">
-        <v>1798.88232421875</v>
+        <v>1386.243530273438</v>
       </c>
       <c r="BW4" t="n">
-        <v>1823.350708007812</v>
+        <v>1386.471557617188</v>
       </c>
       <c r="BX4" t="n">
-        <v>1848.781860351562</v>
+        <v>1386.664672851562</v>
       </c>
       <c r="BY4" t="n">
-        <v>1867.043823242188</v>
+        <v>1386.913696289062</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1879.738159179688</v>
+        <v>1387.21533203125</v>
       </c>
       <c r="CA4" t="n">
-        <v>1892.585815429688</v>
+        <v>1387.519165039062</v>
       </c>
       <c r="CB4" t="n">
-        <v>1905.378784179688</v>
+        <v>1387.808959960938</v>
       </c>
       <c r="CC4" t="n">
-        <v>1916.734985351562</v>
+        <v>1388.164916992188</v>
       </c>
       <c r="CD4" t="n">
-        <v>1934.41162109375</v>
+        <v>1388.543334960938</v>
       </c>
       <c r="CE4" t="n">
-        <v>1954.46484375</v>
+        <v>1388.959350585938</v>
       </c>
       <c r="CF4" t="n">
-        <v>1969.878173828125</v>
+        <v>1389.427001953125</v>
       </c>
       <c r="CG4" t="n">
-        <v>1986.524047851562</v>
+        <v>1389.246704101562</v>
       </c>
       <c r="CH4" t="n">
-        <v>2005.33349609375</v>
+        <v>1389.1787109375</v>
       </c>
       <c r="CI4" t="n">
-        <v>2017.382202148438</v>
+        <v>1389.222290039062</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2028.071533203125</v>
+        <v>1390.89599609375</v>
       </c>
       <c r="CK4" t="n">
-        <v>2034.188842773438</v>
+        <v>1393.322631835938</v>
       </c>
       <c r="CL4" t="n">
-        <v>2043.259765625</v>
+        <v>1399.881713867188</v>
       </c>
       <c r="CM4" t="n">
-        <v>2051.98095703125</v>
+        <v>1402.199462890625</v>
       </c>
       <c r="CN4" t="n">
-        <v>2060.006103515625</v>
+        <v>1403.578369140625</v>
       </c>
       <c r="CO4" t="n">
-        <v>2066.737548828125</v>
+        <v>1404.21923828125</v>
       </c>
       <c r="CP4" t="n">
-        <v>2073.923095703125</v>
+        <v>1404.58349609375</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2083.16162109375</v>
+        <v>1404.81787109375</v>
       </c>
       <c r="CR4" t="n">
-        <v>2092.535888671875</v>
+        <v>1405.088500976562</v>
       </c>
       <c r="CS4" t="n">
-        <v>2103.2734375</v>
+        <v>1405.188354492188</v>
       </c>
       <c r="CT4" t="n">
-        <v>2124.009521484375</v>
+        <v>1405.264404296875</v>
       </c>
       <c r="CU4" t="n">
-        <v>2141.166259765625</v>
+        <v>1405.315795898438</v>
       </c>
       <c r="CV4" t="n">
-        <v>2153.439208984375</v>
+        <v>1405.312622070312</v>
       </c>
       <c r="CW4" t="n">
-        <v>2160.4794921875</v>
+        <v>1405.3203125</v>
       </c>
       <c r="CX4" t="n">
-        <v>2169.56005859375</v>
+        <v>1405.321044921875</v>
       </c>
       <c r="CY4" t="n">
-        <v>2199.025634765625</v>
+        <v>1405.323120117188</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2215.0283203125</v>
+        <v>1405.325561523438</v>
       </c>
       <c r="DA4" t="n">
-        <v>2226.533935546875</v>
+        <v>1405.323852539062</v>
       </c>
       <c r="DB4" t="n">
-        <v>2227.967529296875</v>
+        <v>1405.3193359375</v>
       </c>
       <c r="DC4" t="n">
-        <v>2228.667236328125</v>
+        <v>1405.305786132812</v>
       </c>
       <c r="DD4" t="n">
-        <v>2229.443359375</v>
+        <v>1405.26708984375</v>
       </c>
       <c r="DE4" t="n">
-        <v>2230.552001953125</v>
+        <v>1405.2177734375</v>
       </c>
       <c r="DF4" t="n">
-        <v>2231.421630859375</v>
+        <v>1405.109619140625</v>
       </c>
       <c r="DG4" t="n">
-        <v>2232.947509765625</v>
+        <v>1404.951416015625</v>
       </c>
       <c r="DH4" t="n">
-        <v>2241.7109375</v>
+        <v>1404.759887695312</v>
       </c>
       <c r="DI4" t="n">
-        <v>2246.554443359375</v>
+        <v>1404.52734375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2251.568359375</v>
+        <v>1404.127807617188</v>
       </c>
       <c r="DK4" t="n">
-        <v>2256.398193359375</v>
+        <v>1402.176025390625</v>
       </c>
       <c r="DL4" t="n">
-        <v>2258.850830078125</v>
+        <v>1397.631225585938</v>
       </c>
       <c r="DM4" t="n">
-        <v>2260.125244140625</v>
+        <v>1395.678466796875</v>
       </c>
       <c r="DN4" t="n">
-        <v>2260.800048828125</v>
+        <v>1391.513061523438</v>
       </c>
       <c r="DO4" t="n">
-        <v>2261.56640625</v>
+        <v>1386.954956054688</v>
       </c>
       <c r="DP4" t="n">
-        <v>2261.7939453125</v>
+        <v>1375.715942382812</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2262.14794921875</v>
+        <v>1367.182983398438</v>
       </c>
       <c r="DR4" t="n">
-        <v>2262.324951171875</v>
+        <v>1359.163208007812</v>
       </c>
       <c r="DS4" t="n">
-        <v>2262.452880859375</v>
+        <v>1339.645751953125</v>
       </c>
       <c r="DT4" t="n">
-        <v>2262.714111328125</v>
+        <v>1331.322631835938</v>
       </c>
       <c r="DU4" t="n">
-        <v>2262.73583984375</v>
+        <v>1323.65771484375</v>
       </c>
       <c r="DV4" t="n">
-        <v>2262.733154296875</v>
+        <v>1313.92431640625</v>
       </c>
       <c r="DW4" t="n">
-        <v>2262.7060546875</v>
+        <v>1305.940307617188</v>
       </c>
       <c r="DX4" t="n">
-        <v>2262.6513671875</v>
+        <v>1302.466186523438</v>
       </c>
       <c r="DY4" t="n">
-        <v>2262.632080078125</v>
+        <v>1297.928344726562</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2262.600341796875</v>
+        <v>1285.09130859375</v>
       </c>
       <c r="EA4" t="n">
-        <v>2259.604248046875</v>
+        <v>1277.573852539062</v>
       </c>
       <c r="EB4" t="n">
-        <v>2255.43505859375</v>
+        <v>1259.365844726562</v>
       </c>
       <c r="EC4" t="n">
-        <v>2250.579833984375</v>
+        <v>1252.282836914062</v>
       </c>
       <c r="ED4" t="n">
-        <v>2249.017333984375</v>
+        <v>1224.876342773438</v>
       </c>
       <c r="EE4" t="n">
-        <v>2246.2275390625</v>
+        <v>1204.687622070312</v>
       </c>
       <c r="EF4" t="n">
-        <v>2244.22216796875</v>
+        <v>1183.160522460938</v>
       </c>
       <c r="EG4" t="n">
-        <v>2243.134765625</v>
+        <v>1139.444091796875</v>
       </c>
       <c r="EH4" t="n">
-        <v>2242.91796875</v>
+        <v>1123.315795898438</v>
       </c>
       <c r="EI4" t="n">
-        <v>2242.68115234375</v>
+        <v>1087.980102539062</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2242.61767578125</v>
+        <v>1067.762451171875</v>
       </c>
       <c r="EK4" t="n">
-        <v>2242.47705078125</v>
+        <v>1023.609008789062</v>
       </c>
       <c r="EL4" t="n">
-        <v>2242.445068359375</v>
+        <v>1001.924926757812</v>
       </c>
       <c r="EM4" t="n">
-        <v>2242.003662109375</v>
+        <v>958.0365600585938</v>
       </c>
       <c r="EN4" t="n">
-        <v>2241.390869140625</v>
+        <v>938.045166015625</v>
       </c>
       <c r="EO4" t="n">
-        <v>2240.984130859375</v>
+        <v>903.95458984375</v>
       </c>
       <c r="EP4" t="n">
-        <v>2234.808837890625</v>
+        <v>893.568359375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2229.947021484375</v>
+        <v>868.2183227539062</v>
       </c>
       <c r="ER4" t="n">
-        <v>2221.91357421875</v>
+        <v>856.6612548828125</v>
       </c>
       <c r="ES4" t="n">
-        <v>2220.100341796875</v>
+        <v>838.46484375</v>
       </c>
       <c r="ET4" t="n">
-        <v>2219.062255859375</v>
+        <v>830.2225952148438</v>
       </c>
       <c r="EU4" t="n">
-        <v>2219.022216796875</v>
+        <v>821.1295776367188</v>
       </c>
       <c r="EV4" t="n">
-        <v>2219.104248046875</v>
+        <v>800.0963745117188</v>
       </c>
       <c r="EW4" t="n">
-        <v>2219.3359375</v>
+        <v>779.2843627929688</v>
       </c>
       <c r="EX4" t="n">
-        <v>2219.416748046875</v>
+        <v>767.58203125</v>
       </c>
       <c r="EY4" t="n">
-        <v>2219.42236328125</v>
+        <v>742.3867797851562</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2219.416015625</v>
+        <v>720.6575317382812</v>
       </c>
       <c r="FA4" t="n">
-        <v>2219.404541015625</v>
+        <v>709.8375244140625</v>
       </c>
       <c r="FB4" t="n">
-        <v>2219.397705078125</v>
+        <v>700.7979736328125</v>
       </c>
       <c r="FC4" t="n">
-        <v>2219.397216796875</v>
+        <v>692.345947265625</v>
       </c>
       <c r="FD4" t="n">
-        <v>2219.400390625</v>
+        <v>690.3524780273438</v>
       </c>
       <c r="FE4" t="n">
-        <v>2219.455078125</v>
+        <v>691.9934692382812</v>
       </c>
       <c r="FF4" t="n">
-        <v>2219.42626953125</v>
+        <v>694.3145141601562</v>
       </c>
       <c r="FG4" t="n">
-        <v>2219.415771484375</v>
+        <v>698.4906005859375</v>
       </c>
       <c r="FH4" t="n">
-        <v>2218.525634765625</v>
+        <v>723.227294921875</v>
       </c>
       <c r="FI4" t="n">
-        <v>2217.178955078125</v>
+        <v>738.2047119140625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2216.345947265625</v>
+        <v>748.037353515625</v>
       </c>
       <c r="FK4" t="n">
-        <v>2215.49169921875</v>
+        <v>748.2505493164062</v>
       </c>
       <c r="FL4" t="n">
-        <v>2214.927001953125</v>
+        <v>751.6085815429688</v>
       </c>
       <c r="FM4" t="n">
-        <v>2213.822265625</v>
+        <v>758.6222534179688</v>
       </c>
       <c r="FN4" t="n">
-        <v>2213.19970703125</v>
+        <v>770.515380859375</v>
       </c>
       <c r="FO4" t="n">
-        <v>2212.4609375</v>
+        <v>803.2723388671875</v>
       </c>
       <c r="FP4" t="n">
-        <v>2211.0380859375</v>
+        <v>809.9200439453125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2210.638671875</v>
+        <v>813.84814453125</v>
       </c>
       <c r="FR4" t="n">
-        <v>2210.486083984375</v>
+        <v>834.6779174804688</v>
       </c>
       <c r="FS4" t="n">
-        <v>2210.310546875</v>
+        <v>842.0138549804688</v>
       </c>
       <c r="FT4" t="n">
-        <v>2210.43017578125</v>
+        <v>852.9528198242188</v>
       </c>
       <c r="FU4" t="n">
-        <v>2210.5615234375</v>
+        <v>875.06787109375</v>
       </c>
       <c r="FV4" t="n">
-        <v>2210.615478515625</v>
+        <v>882.027099609375</v>
       </c>
       <c r="FW4" t="n">
-        <v>2210.51904296875</v>
+        <v>891.3091430664062</v>
       </c>
       <c r="FX4" t="n">
-        <v>2210.382568359375</v>
+        <v>894.912353515625</v>
       </c>
       <c r="FY4" t="n">
-        <v>2210.1884765625</v>
+        <v>895.336669921875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2210.068359375</v>
+        <v>895.9253540039062</v>
       </c>
       <c r="GA4" t="n">
-        <v>2204.101806640625</v>
+        <v>896.2296142578125</v>
       </c>
       <c r="GB4" t="n">
-        <v>2202.33203125</v>
+        <v>896.619140625</v>
       </c>
       <c r="GC4" t="n">
-        <v>2200.584716796875</v>
+        <v>886.7771606445312</v>
       </c>
       <c r="GD4" t="n">
-        <v>2200.841552734375</v>
+        <v>866.6434326171875</v>
       </c>
       <c r="GE4" t="n">
-        <v>2201.040771484375</v>
+        <v>855.7048950195312</v>
       </c>
       <c r="GF4" t="n">
-        <v>2201.534423828125</v>
+        <v>845.7191772460938</v>
       </c>
       <c r="GG4" t="n">
-        <v>2201.841796875</v>
+        <v>836.143310546875</v>
       </c>
       <c r="GH4" t="n">
-        <v>2202.696533203125</v>
+        <v>829.8629150390625</v>
       </c>
       <c r="GI4" t="n">
-        <v>2203.7744140625</v>
+        <v>811.4657592773438</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2204.330810546875</v>
+        <v>800.5006103515625</v>
       </c>
       <c r="GK4" t="n">
-        <v>2205.49169921875</v>
+        <v>780.45166015625</v>
       </c>
       <c r="GL4" t="n">
-        <v>2206.704833984375</v>
+        <v>770.9147338867188</v>
       </c>
       <c r="GM4" t="n">
-        <v>2207.03271484375</v>
+        <v>760.21875</v>
       </c>
       <c r="GN4" t="n">
-        <v>2207.236328125</v>
+        <v>751.534912109375</v>
       </c>
       <c r="GO4" t="n">
-        <v>2207.3349609375</v>
+        <v>748.04833984375</v>
       </c>
       <c r="GP4" t="n">
-        <v>2207.38134765625</v>
+        <v>744.56494140625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2207.2646484375</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>2207.13427734375</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>2207.04345703125</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>2206.839111328125</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>2206.21044921875</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>2204.363525390625</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>2198.846923828125</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>2192.375732421875</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>2172.478515625</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>2155.661865234375</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>2147.233154296875</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>2130.529541015625</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>2094.466796875</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>2079.646728515625</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>2048.90576171875</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>2031.024169921875</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>1979.713623046875</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>1921.066040039062</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>1884.75</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>1870.057983398438</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>1831.987182617188</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>1786.805786132812</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>1756.528198242188</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>1741.194580078125</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>1710.234985351562</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>1676.036865234375</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>1638.479736328125</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>1598.067138671875</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>1557.640502929688</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>1519.707397460938</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>1478.433349609375</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>1457.892700195312</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>1413.288452148438</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>1376.535278320312</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>1329.996948242188</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>1295.493286132812</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>1256.624633789062</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>1199.8818359375</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>1179.806274414062</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>1141.33642578125</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>1100.621826171875</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>1045.79833984375</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>994.5460815429688</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>938.3760986328125</v>
-      </c>
-      <c r="II4" t="n">
-        <v>878.2887573242188</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>822.68994140625</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>777.2876586914062</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>727.9380493164062</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>674.6366577148438</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>644.1874389648438</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>626.8499755859375</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>610.1331787109375</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>605.1150512695312</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>606.0690307617188</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>610.5670166015625</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>628.9903564453125</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>646.9532470703125</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>636.4685668945312</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>684.4891967773438</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>622.7870483398438</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>592.6026611328125</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>603.467529296875</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>682.0733032226562</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>754.3334350585938</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>808.6455688476562</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>855.9633178710938</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>899.9920654296875</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>934.826904296875</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>956.7076416015625</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>959.2919921875</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>953.4710693359375</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>928.1385498046875</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>889.4444580078125</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>850.228271484375</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>814.9031982421875</v>
+        <v>743.1886596679688</v>
       </c>
     </row>
   </sheetData>

--- a/Head_Data.xlsx
+++ b/Head_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ4"/>
+  <dimension ref="A1:LD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,1802 +1031,3206 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>400.2581176757812</v>
+        <v>342.9869079589844</v>
       </c>
       <c r="B2" t="n">
-        <v>398.3163452148438</v>
+        <v>340.6692504882812</v>
       </c>
       <c r="C2" t="n">
-        <v>396.1109924316406</v>
+        <v>338.8975524902344</v>
       </c>
       <c r="D2" t="n">
-        <v>393.8199462890625</v>
+        <v>337.0722961425781</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8151245117188</v>
+        <v>335.5108337402344</v>
       </c>
       <c r="F2" t="n">
-        <v>387.4882507324219</v>
+        <v>334.2109985351562</v>
       </c>
       <c r="G2" t="n">
-        <v>384.0019226074219</v>
+        <v>333.2754821777344</v>
       </c>
       <c r="H2" t="n">
-        <v>380.7348937988281</v>
+        <v>332.5780639648438</v>
       </c>
       <c r="I2" t="n">
-        <v>378.8936157226562</v>
+        <v>332.1136169433594</v>
       </c>
       <c r="J2" t="n">
-        <v>375.8087463378906</v>
+        <v>331.6885986328125</v>
       </c>
       <c r="K2" t="n">
-        <v>370.8086853027344</v>
+        <v>331.3760681152344</v>
       </c>
       <c r="L2" t="n">
-        <v>365.2120361328125</v>
+        <v>331.5186157226562</v>
       </c>
       <c r="M2" t="n">
-        <v>360.7437438964844</v>
+        <v>331.8395385742188</v>
       </c>
       <c r="N2" t="n">
-        <v>353.0535278320312</v>
+        <v>332.4026184082031</v>
       </c>
       <c r="O2" t="n">
-        <v>346.2493896484375</v>
+        <v>332.7378845214844</v>
       </c>
       <c r="P2" t="n">
-        <v>341.8866271972656</v>
+        <v>332.8644409179688</v>
       </c>
       <c r="Q2" t="n">
-        <v>339.3584594726562</v>
+        <v>332.7959594726562</v>
       </c>
       <c r="R2" t="n">
-        <v>338.5498657226562</v>
+        <v>332.6648559570312</v>
       </c>
       <c r="S2" t="n">
-        <v>338.5393676757812</v>
+        <v>332.4687194824219</v>
       </c>
       <c r="T2" t="n">
-        <v>339.1225891113281</v>
+        <v>332.2619018554688</v>
       </c>
       <c r="U2" t="n">
-        <v>339.4009399414062</v>
+        <v>331.9107360839844</v>
       </c>
       <c r="V2" t="n">
-        <v>339.2699584960938</v>
+        <v>331.171875</v>
       </c>
       <c r="W2" t="n">
-        <v>338.8824768066406</v>
+        <v>330.3442993164062</v>
       </c>
       <c r="X2" t="n">
-        <v>338.4923706054688</v>
+        <v>328.814208984375</v>
       </c>
       <c r="Y2" t="n">
-        <v>338.4177856445312</v>
+        <v>326.965087890625</v>
       </c>
       <c r="Z2" t="n">
-        <v>338.5393981933594</v>
+        <v>325.6289978027344</v>
       </c>
       <c r="AA2" t="n">
-        <v>338.8821105957031</v>
+        <v>324.3695678710938</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.6127624511719</v>
+        <v>322.84521484375</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.2564697265625</v>
+        <v>321.78515625</v>
       </c>
       <c r="AD2" t="n">
-        <v>343.9317321777344</v>
+        <v>320.734619140625</v>
       </c>
       <c r="AE2" t="n">
-        <v>347.1216430664062</v>
+        <v>319.749755859375</v>
       </c>
       <c r="AF2" t="n">
-        <v>349.0813598632812</v>
+        <v>319.1754760742188</v>
       </c>
       <c r="AG2" t="n">
-        <v>350.6998291015625</v>
+        <v>318.6684265136719</v>
       </c>
       <c r="AH2" t="n">
-        <v>352.0483703613281</v>
+        <v>318.1837768554688</v>
       </c>
       <c r="AI2" t="n">
-        <v>353.3935241699219</v>
+        <v>317.8186340332031</v>
       </c>
       <c r="AJ2" t="n">
-        <v>355.0567321777344</v>
+        <v>317.4379272460938</v>
       </c>
       <c r="AK2" t="n">
-        <v>356.6236572265625</v>
+        <v>317.2493591308594</v>
       </c>
       <c r="AL2" t="n">
-        <v>357.8424682617188</v>
+        <v>317.1732482910156</v>
       </c>
       <c r="AM2" t="n">
-        <v>359.095947265625</v>
+        <v>317.1395874023438</v>
       </c>
       <c r="AN2" t="n">
-        <v>359.6958923339844</v>
+        <v>317.5563659667969</v>
       </c>
       <c r="AO2" t="n">
-        <v>359.9498901367188</v>
+        <v>318.2806396484375</v>
       </c>
       <c r="AP2" t="n">
-        <v>360.0359497070312</v>
+        <v>319.1936340332031</v>
       </c>
       <c r="AQ2" t="n">
-        <v>360.0088195800781</v>
+        <v>320.434814453125</v>
       </c>
       <c r="AR2" t="n">
-        <v>358.6177062988281</v>
+        <v>321.6860656738281</v>
       </c>
       <c r="AS2" t="n">
-        <v>355.9222717285156</v>
+        <v>322.7557678222656</v>
       </c>
       <c r="AT2" t="n">
-        <v>352.1819458007812</v>
+        <v>323.9935302734375</v>
       </c>
       <c r="AU2" t="n">
-        <v>348.0602416992188</v>
+        <v>324.8996276855469</v>
       </c>
       <c r="AV2" t="n">
-        <v>344.4992065429688</v>
+        <v>325.6494750976562</v>
       </c>
       <c r="AW2" t="n">
-        <v>340.5030517578125</v>
+        <v>326.5308227539062</v>
       </c>
       <c r="AX2" t="n">
-        <v>334.5944519042969</v>
+        <v>327.0197143554688</v>
       </c>
       <c r="AY2" t="n">
-        <v>327.3315124511719</v>
+        <v>327.2445678710938</v>
       </c>
       <c r="AZ2" t="n">
-        <v>319.8741149902344</v>
+        <v>327.3704833984375</v>
       </c>
       <c r="BA2" t="n">
-        <v>311.8276977539062</v>
+        <v>327.368408203125</v>
       </c>
       <c r="BB2" t="n">
-        <v>303.7237854003906</v>
+        <v>327.3307800292969</v>
       </c>
       <c r="BC2" t="n">
-        <v>295.0935668945312</v>
+        <v>327.28271484375</v>
       </c>
       <c r="BD2" t="n">
-        <v>287.4508666992188</v>
+        <v>327.2494506835938</v>
       </c>
       <c r="BE2" t="n">
-        <v>280.4084167480469</v>
+        <v>327.1808471679688</v>
       </c>
       <c r="BF2" t="n">
-        <v>273.008544921875</v>
+        <v>327.0518798828125</v>
       </c>
       <c r="BG2" t="n">
-        <v>267.0983581542969</v>
+        <v>326.3978576660156</v>
       </c>
       <c r="BH2" t="n">
-        <v>261.0962829589844</v>
+        <v>325.345703125</v>
       </c>
       <c r="BI2" t="n">
-        <v>255.9617462158203</v>
+        <v>324.3110961914062</v>
       </c>
       <c r="BJ2" t="n">
-        <v>251.6109619140625</v>
+        <v>323.8250427246094</v>
       </c>
       <c r="BK2" t="n">
-        <v>248.0863952636719</v>
+        <v>323.5542297363281</v>
       </c>
       <c r="BL2" t="n">
-        <v>245.0766143798828</v>
+        <v>323.3987426757812</v>
       </c>
       <c r="BM2" t="n">
-        <v>242.27099609375</v>
+        <v>323.3210754394531</v>
       </c>
       <c r="BN2" t="n">
-        <v>240.0488586425781</v>
+        <v>323.2554931640625</v>
       </c>
       <c r="BO2" t="n">
-        <v>238.4330596923828</v>
+        <v>323.1769409179688</v>
       </c>
       <c r="BP2" t="n">
-        <v>236.9600219726562</v>
+        <v>323.100341796875</v>
       </c>
       <c r="BQ2" t="n">
-        <v>235.3755950927734</v>
+        <v>323.0244445800781</v>
       </c>
       <c r="BR2" t="n">
-        <v>233.8578033447266</v>
+        <v>322.95849609375</v>
       </c>
       <c r="BS2" t="n">
-        <v>232.86376953125</v>
+        <v>322.894287109375</v>
       </c>
       <c r="BT2" t="n">
-        <v>232.1759033203125</v>
+        <v>322.8140869140625</v>
       </c>
       <c r="BU2" t="n">
-        <v>231.8442993164062</v>
+        <v>322.7463989257812</v>
       </c>
       <c r="BV2" t="n">
-        <v>231.7011260986328</v>
+        <v>322.6788330078125</v>
       </c>
       <c r="BW2" t="n">
-        <v>231.6499633789062</v>
+        <v>322.6146850585938</v>
       </c>
       <c r="BX2" t="n">
-        <v>231.6319427490234</v>
+        <v>322.5422668457031</v>
       </c>
       <c r="BY2" t="n">
-        <v>231.6225891113281</v>
+        <v>322.4759521484375</v>
       </c>
       <c r="BZ2" t="n">
-        <v>231.6347045898438</v>
+        <v>322.3911743164062</v>
       </c>
       <c r="CA2" t="n">
-        <v>231.6472778320312</v>
+        <v>322.2155151367188</v>
       </c>
       <c r="CB2" t="n">
-        <v>231.6573333740234</v>
+        <v>322.1210327148438</v>
       </c>
       <c r="CC2" t="n">
-        <v>231.6706695556641</v>
+        <v>322.0355834960938</v>
       </c>
       <c r="CD2" t="n">
-        <v>231.6823577880859</v>
+        <v>321.9270629882812</v>
       </c>
       <c r="CE2" t="n">
-        <v>231.6947174072266</v>
+        <v>321.8155517578125</v>
       </c>
       <c r="CF2" t="n">
-        <v>231.7098846435547</v>
+        <v>321.7113952636719</v>
       </c>
       <c r="CG2" t="n">
-        <v>231.7182006835938</v>
+        <v>321.6029052734375</v>
       </c>
       <c r="CH2" t="n">
-        <v>231.7311859130859</v>
+        <v>321.5049743652344</v>
       </c>
       <c r="CI2" t="n">
-        <v>231.7512664794922</v>
+        <v>321.4097595214844</v>
       </c>
       <c r="CJ2" t="n">
-        <v>231.8640289306641</v>
+        <v>321.3076477050781</v>
       </c>
       <c r="CK2" t="n">
-        <v>232.018310546875</v>
+        <v>321.2049560546875</v>
       </c>
       <c r="CL2" t="n">
-        <v>232.3998870849609</v>
+        <v>321.1127319335938</v>
       </c>
       <c r="CM2" t="n">
-        <v>232.5190887451172</v>
+        <v>321.0010986328125</v>
       </c>
       <c r="CN2" t="n">
-        <v>232.5849609375</v>
+        <v>320.8857727050781</v>
       </c>
       <c r="CO2" t="n">
-        <v>232.6160278320312</v>
+        <v>320.7597351074219</v>
       </c>
       <c r="CP2" t="n">
-        <v>232.6330261230469</v>
+        <v>320.6376953125</v>
       </c>
       <c r="CQ2" t="n">
-        <v>232.6437225341797</v>
+        <v>320.512451171875</v>
       </c>
       <c r="CR2" t="n">
-        <v>232.6558685302734</v>
+        <v>320.3903198242188</v>
       </c>
       <c r="CS2" t="n">
-        <v>232.6600036621094</v>
+        <v>320.284912109375</v>
       </c>
       <c r="CT2" t="n">
-        <v>232.6632843017578</v>
+        <v>320.2301635742188</v>
       </c>
       <c r="CU2" t="n">
-        <v>232.6661834716797</v>
+        <v>320.1801147460938</v>
       </c>
       <c r="CV2" t="n">
-        <v>232.6729583740234</v>
+        <v>320.1316833496094</v>
       </c>
       <c r="CW2" t="n">
-        <v>232.9307250976562</v>
+        <v>320.0718383789062</v>
       </c>
       <c r="CX2" t="n">
-        <v>233.4498901367188</v>
+        <v>320.0384216308594</v>
       </c>
       <c r="CY2" t="n">
-        <v>234.7726287841797</v>
+        <v>320.0100402832031</v>
       </c>
       <c r="CZ2" t="n">
-        <v>236.4511260986328</v>
+        <v>319.9952392578125</v>
       </c>
       <c r="DA2" t="n">
-        <v>238.5749053955078</v>
+        <v>319.9872741699219</v>
       </c>
       <c r="DB2" t="n">
-        <v>240.4371948242188</v>
+        <v>319.9713134765625</v>
       </c>
       <c r="DC2" t="n">
-        <v>241.6793060302734</v>
+        <v>319.9622192382812</v>
       </c>
       <c r="DD2" t="n">
-        <v>242.8686676025391</v>
+        <v>319.9525756835938</v>
       </c>
       <c r="DE2" t="n">
-        <v>244.6327209472656</v>
+        <v>319.9433288574219</v>
       </c>
       <c r="DF2" t="n">
-        <v>246.5950012207031</v>
+        <v>319.9339904785156</v>
       </c>
       <c r="DG2" t="n">
-        <v>249.2113342285156</v>
+        <v>319.9244689941406</v>
       </c>
       <c r="DH2" t="n">
-        <v>252.7906036376953</v>
+        <v>319.9095764160156</v>
       </c>
       <c r="DI2" t="n">
-        <v>256.8885498046875</v>
+        <v>319.8905944824219</v>
       </c>
       <c r="DJ2" t="n">
-        <v>260.8413696289062</v>
+        <v>319.871337890625</v>
       </c>
       <c r="DK2" t="n">
-        <v>265.38720703125</v>
+        <v>319.833740234375</v>
       </c>
       <c r="DL2" t="n">
-        <v>274.2891235351562</v>
+        <v>319.7579040527344</v>
       </c>
       <c r="DM2" t="n">
-        <v>280.8584899902344</v>
+        <v>319.7252807617188</v>
       </c>
       <c r="DN2" t="n">
-        <v>288.7214660644531</v>
+        <v>319.6682739257812</v>
       </c>
       <c r="DO2" t="n">
-        <v>296.7555847167969</v>
+        <v>319.6409912109375</v>
       </c>
       <c r="DP2" t="n">
-        <v>312.9859619140625</v>
+        <v>319.4842529296875</v>
       </c>
       <c r="DQ2" t="n">
-        <v>320.9459838867188</v>
+        <v>319.3150024414062</v>
       </c>
       <c r="DR2" t="n">
-        <v>329.0165710449219</v>
+        <v>319.1445007324219</v>
       </c>
       <c r="DS2" t="n">
-        <v>345.0184936523438</v>
+        <v>318.9511108398438</v>
       </c>
       <c r="DT2" t="n">
-        <v>352.2922973632812</v>
+        <v>318.5691223144531</v>
       </c>
       <c r="DU2" t="n">
-        <v>359.0491943359375</v>
+        <v>318.3961486816406</v>
       </c>
       <c r="DV2" t="n">
-        <v>369.9626159667969</v>
+        <v>318.0259399414062</v>
       </c>
       <c r="DW2" t="n">
-        <v>377.6587219238281</v>
+        <v>317.8526306152344</v>
       </c>
       <c r="DX2" t="n">
-        <v>380.2427978515625</v>
+        <v>317.6507568359375</v>
       </c>
       <c r="DY2" t="n">
-        <v>384.2562255859375</v>
+        <v>317.5048217773438</v>
       </c>
       <c r="DZ2" t="n">
-        <v>391.3450317382812</v>
+        <v>317.4650268554688</v>
       </c>
       <c r="EA2" t="n">
-        <v>393.7681274414062</v>
+        <v>317.3558044433594</v>
       </c>
       <c r="EB2" t="n">
-        <v>398.470947265625</v>
+        <v>317.3114013671875</v>
       </c>
       <c r="EC2" t="n">
-        <v>399.67822265625</v>
+        <v>317.1292114257812</v>
       </c>
       <c r="ED2" t="n">
-        <v>403.1146850585938</v>
+        <v>316.7623596191406</v>
       </c>
       <c r="EE2" t="n">
-        <v>405.2869262695312</v>
+        <v>316.5978088378906</v>
       </c>
       <c r="EF2" t="n">
-        <v>406.9990844726562</v>
+        <v>316.51806640625</v>
       </c>
       <c r="EG2" t="n">
-        <v>409.7480773925781</v>
+        <v>316.5612487792969</v>
       </c>
       <c r="EH2" t="n">
-        <v>405.72314453125</v>
+        <v>316.6152038574219</v>
       </c>
       <c r="EI2" t="n">
-        <v>393.5740356445312</v>
+        <v>316.7579345703125</v>
       </c>
       <c r="EJ2" t="n">
-        <v>389.5538940429688</v>
+        <v>316.8343200683594</v>
       </c>
       <c r="EK2" t="n">
-        <v>379.1746215820312</v>
+        <v>316.8763122558594</v>
       </c>
       <c r="EL2" t="n">
-        <v>372.1953735351562</v>
+        <v>316.8821105957031</v>
       </c>
       <c r="EM2" t="n">
-        <v>359.092041015625</v>
+        <v>316.8993225097656</v>
       </c>
       <c r="EN2" t="n">
-        <v>350.5084838867188</v>
+        <v>316.9078369140625</v>
       </c>
       <c r="EO2" t="n">
-        <v>334.1091613769531</v>
+        <v>316.9163818359375</v>
       </c>
       <c r="EP2" t="n">
-        <v>326.44970703125</v>
+        <v>316.9209899902344</v>
       </c>
       <c r="EQ2" t="n">
-        <v>314.7566833496094</v>
+        <v>316.9312744140625</v>
       </c>
       <c r="ER2" t="n">
-        <v>309.0198059082031</v>
+        <v>316.9418640136719</v>
       </c>
       <c r="ES2" t="n">
-        <v>297.3762817382812</v>
+        <v>316.9469299316406</v>
       </c>
       <c r="ET2" t="n">
-        <v>291.4205627441406</v>
+        <v>316.9571838378906</v>
       </c>
       <c r="EU2" t="n">
-        <v>283.8150634765625</v>
+        <v>316.9627075195312</v>
       </c>
       <c r="EV2" t="n">
-        <v>264.1710510253906</v>
+        <v>316.9652404785156</v>
       </c>
       <c r="EW2" t="n">
-        <v>247.6136779785156</v>
+        <v>316.9681091308594</v>
       </c>
       <c r="EX2" t="n">
-        <v>239.0879974365234</v>
+        <v>316.9721069335938</v>
       </c>
       <c r="EY2" t="n">
-        <v>219.0635070800781</v>
+        <v>316.9745788574219</v>
       </c>
       <c r="EZ2" t="n">
-        <v>196.8728332519531</v>
+        <v>316.9753723144531</v>
       </c>
       <c r="FA2" t="n">
-        <v>186.0605773925781</v>
+        <v>316.9759216308594</v>
       </c>
       <c r="FB2" t="n">
-        <v>175.8406372070312</v>
+        <v>316.975830078125</v>
       </c>
       <c r="FC2" t="n">
-        <v>158.3593597412109</v>
+        <v>316.9706420898438</v>
       </c>
       <c r="FD2" t="n">
-        <v>148.8745422363281</v>
+        <v>316.9498901367188</v>
       </c>
       <c r="FE2" t="n">
-        <v>148.5115509033203</v>
+        <v>316.9429016113281</v>
       </c>
       <c r="FF2" t="n">
-        <v>150.3273162841797</v>
+        <v>316.9383544921875</v>
       </c>
       <c r="FG2" t="n">
-        <v>151.1283111572266</v>
+        <v>316.9326171875</v>
       </c>
       <c r="FH2" t="n">
-        <v>154.5858306884766</v>
+        <v>316.9225463867188</v>
       </c>
       <c r="FI2" t="n">
-        <v>159.1149444580078</v>
+        <v>316.6132507324219</v>
       </c>
       <c r="FJ2" t="n">
-        <v>177.3092651367188</v>
+        <v>316.2671508789062</v>
       </c>
       <c r="FK2" t="n">
-        <v>188.8993682861328</v>
+        <v>316.0748291015625</v>
       </c>
       <c r="FL2" t="n">
-        <v>207.9668884277344</v>
+        <v>315.6952209472656</v>
       </c>
       <c r="FM2" t="n">
-        <v>217.8460998535156</v>
+        <v>315.5079345703125</v>
       </c>
       <c r="FN2" t="n">
-        <v>229.4882507324219</v>
+        <v>315.1443786621094</v>
       </c>
       <c r="FO2" t="n">
-        <v>263.1385803222656</v>
+        <v>314.9784240722656</v>
       </c>
       <c r="FP2" t="n">
-        <v>308.5483093261719</v>
+        <v>314.8718872070312</v>
       </c>
       <c r="FQ2" t="n">
-        <v>332.0296630859375</v>
+        <v>314.8394775390625</v>
       </c>
       <c r="FR2" t="n">
-        <v>367.5610961914062</v>
+        <v>314.7909851074219</v>
       </c>
       <c r="FS2" t="n">
-        <v>380.4390869140625</v>
+        <v>314.7799072265625</v>
       </c>
       <c r="FT2" t="n">
-        <v>393.2448120117188</v>
+        <v>314.640869140625</v>
       </c>
       <c r="FU2" t="n">
-        <v>420.33251953125</v>
+        <v>314.486328125</v>
       </c>
       <c r="FV2" t="n">
-        <v>433.5610656738281</v>
+        <v>314.4175720214844</v>
       </c>
       <c r="FW2" t="n">
-        <v>454.6458129882812</v>
+        <v>314.298583984375</v>
       </c>
       <c r="FX2" t="n">
-        <v>468.58984375</v>
+        <v>314.2798767089844</v>
       </c>
       <c r="FY2" t="n">
-        <v>472.4536743164062</v>
+        <v>314.2655639648438</v>
       </c>
       <c r="FZ2" t="n">
-        <v>474.9435424804688</v>
+        <v>314.2608947753906</v>
       </c>
       <c r="GA2" t="n">
-        <v>476.7926635742188</v>
+        <v>314.259521484375</v>
       </c>
       <c r="GB2" t="n">
-        <v>476.8121948242188</v>
+        <v>314.2582397460938</v>
       </c>
       <c r="GC2" t="n">
-        <v>473.37060546875</v>
+        <v>314.2561950683594</v>
       </c>
       <c r="GD2" t="n">
-        <v>456.232177734375</v>
+        <v>314.2557067871094</v>
       </c>
       <c r="GE2" t="n">
-        <v>445.5567016601562</v>
+        <v>314.2549133300781</v>
       </c>
       <c r="GF2" t="n">
-        <v>433.3092651367188</v>
+        <v>314.2544250488281</v>
       </c>
       <c r="GG2" t="n">
-        <v>404.3975219726562</v>
+        <v>314.2451782226562</v>
       </c>
       <c r="GH2" t="n">
-        <v>389.9133605957031</v>
+        <v>314.21826171875</v>
       </c>
       <c r="GI2" t="n">
-        <v>363.7515258789062</v>
+        <v>314.2070617675781</v>
       </c>
       <c r="GJ2" t="n">
-        <v>351.5375061035156</v>
+        <v>314.2009887695312</v>
       </c>
       <c r="GK2" t="n">
-        <v>334.2394409179688</v>
+        <v>314.197265625</v>
       </c>
       <c r="GL2" t="n">
-        <v>327.7507934570312</v>
+        <v>314.1961364746094</v>
       </c>
       <c r="GM2" t="n">
-        <v>316.9305114746094</v>
+        <v>314.1947631835938</v>
       </c>
       <c r="GN2" t="n">
-        <v>307.6192932128906</v>
+        <v>314.1941223144531</v>
       </c>
       <c r="GO2" t="n">
-        <v>305.0926513671875</v>
+        <v>314.1930236816406</v>
       </c>
       <c r="GP2" t="n">
-        <v>302.9936218261719</v>
+        <v>314.1923828125</v>
       </c>
       <c r="GQ2" t="n">
-        <v>299.7483520507812</v>
+        <v>314.1933898925781</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>314.1992797851562</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>314.2079467773438</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>314.2041015625</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>314.201171875</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>314.2004089355469</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>314.2000732421875</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>314.1979064941406</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>314.1950378417969</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>314.1904296875</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>314.1852722167969</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>314.1831359863281</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>314.1598510742188</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>314.1358032226562</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>314.1087951660156</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>314.0916137695312</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>314.0554809570312</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>314.0245056152344</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>313.9791564941406</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>313.9664306640625</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>313.9748229980469</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>313.9738464355469</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>313.9737548828125</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>313.973388671875</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>313.9730834960938</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>313.9728088378906</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>313.9725646972656</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>313.9723510742188</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>313.9722900390625</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>313.9727478027344</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>313.9730834960938</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>313.9734191894531</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>313.9728393554688</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>313.9254760742188</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>313.8788146972656</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>313.8360900878906</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>313.6988525390625</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>313.6056213378906</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>313.4142456054688</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>313.335693359375</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>313.3024597167969</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>313.30078125</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>313.2994079589844</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>313.2986145019531</v>
+      </c>
+      <c r="II2" t="n">
+        <v>313.2978820800781</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>313.361083984375</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>313.3773498535156</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>313.3880004882812</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>313.3954162597656</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>313.3967895507812</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>313.3970336914062</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>313.397216796875</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>313.3976135253906</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>313.3976135253906</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>313.3984375</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>313.3995666503906</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>313.4011840820312</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>313.4765930175781</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>313.6076354980469</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>313.7308654785156</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>313.90771484375</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>313.9440612792969</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>313.9329528808594</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>313.9112854003906</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>313.889892578125</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>313.87744140625</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>313.84814453125</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>313.8158874511719</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>313.792236328125</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>313.7091369628906</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>313.5155334472656</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>313.2970275878906</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>313.0655822753906</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>312.8392028808594</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>312.6358337402344</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>312.4431762695312</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>312.2351379394531</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>312.0581665039062</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>312.0266418457031</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>312.0271911621094</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>312.0297546386719</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>312.0333251953125</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>312.0332946777344</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>312.0322570800781</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>312.0185852050781</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>311.76220703125</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>311.6110229492188</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>311.48095703125</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>310.4369201660156</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>308.8287658691406</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>307.7015380859375</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>307.0714111328125</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>306.9611206054688</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>306.77099609375</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>306.47900390625</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>306.2027893066406</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>305.9277954101562</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>305.4887084960938</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>305.6442260742188</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>307.32958984375</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>309.8599548339844</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>314.6449279785156</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>320.306640625</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>323.5821228027344</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>325.7445678710938</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>327.3391418457031</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>328.5416259765625</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>328.4407043457031</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>325.888671875</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>322.5793762207031</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>321.0073852539062</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>319.4770202636719</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>317.7430114746094</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>316.0067138671875</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>313.98828125</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>313.436767578125</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>313.4649658203125</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>314.1763305664062</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>202.0360412597656</v>
+        <v>120.5993804931641</v>
       </c>
       <c r="B3" t="n">
-        <v>199.1920776367188</v>
+        <v>118.1131057739258</v>
       </c>
       <c r="C3" t="n">
-        <v>196.3037719726562</v>
+        <v>119.0209884643555</v>
       </c>
       <c r="D3" t="n">
-        <v>194.7307739257812</v>
+        <v>122.0051879882812</v>
       </c>
       <c r="E3" t="n">
-        <v>193.9439849853516</v>
+        <v>126.7593536376953</v>
       </c>
       <c r="F3" t="n">
-        <v>193.3559265136719</v>
+        <v>132.1723022460938</v>
       </c>
       <c r="G3" t="n">
-        <v>192.0327606201172</v>
+        <v>137.1122283935547</v>
       </c>
       <c r="H3" t="n">
-        <v>190.0830230712891</v>
+        <v>141.4455108642578</v>
       </c>
       <c r="I3" t="n">
-        <v>187.2672119140625</v>
+        <v>145.8650970458984</v>
       </c>
       <c r="J3" t="n">
-        <v>182.6349182128906</v>
+        <v>150.6102752685547</v>
       </c>
       <c r="K3" t="n">
-        <v>177.2961730957031</v>
+        <v>156.9753723144531</v>
       </c>
       <c r="L3" t="n">
-        <v>172.7693939208984</v>
+        <v>163.0794372558594</v>
       </c>
       <c r="M3" t="n">
-        <v>167.8680725097656</v>
+        <v>168.6825408935547</v>
       </c>
       <c r="N3" t="n">
-        <v>156.3955230712891</v>
+        <v>172.4683685302734</v>
       </c>
       <c r="O3" t="n">
-        <v>143.4355773925781</v>
+        <v>175.1172637939453</v>
       </c>
       <c r="P3" t="n">
-        <v>132.5257110595703</v>
+        <v>176.9880218505859</v>
       </c>
       <c r="Q3" t="n">
-        <v>126.8393325805664</v>
+        <v>177.3208923339844</v>
       </c>
       <c r="R3" t="n">
-        <v>123.2736663818359</v>
+        <v>176.5726776123047</v>
       </c>
       <c r="S3" t="n">
-        <v>120.4712524414062</v>
+        <v>176.8003234863281</v>
       </c>
       <c r="T3" t="n">
-        <v>117.5411911010742</v>
+        <v>177.3730316162109</v>
       </c>
       <c r="U3" t="n">
-        <v>114.2897109985352</v>
+        <v>178.2806549072266</v>
       </c>
       <c r="V3" t="n">
-        <v>110.8019866943359</v>
+        <v>180.0537109375</v>
       </c>
       <c r="W3" t="n">
-        <v>107.5121841430664</v>
+        <v>183.6933441162109</v>
       </c>
       <c r="X3" t="n">
-        <v>104.6326904296875</v>
+        <v>187.4503173828125</v>
       </c>
       <c r="Y3" t="n">
-        <v>102.4057464599609</v>
+        <v>190.6656646728516</v>
       </c>
       <c r="Z3" t="n">
-        <v>100.6416473388672</v>
+        <v>194.6427459716797</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.39005279541016</v>
+        <v>199.4813385009766</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.15583038330078</v>
+        <v>203.5086822509766</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.01448059082031</v>
+        <v>206.8124542236328</v>
       </c>
       <c r="AD3" t="n">
-        <v>96.067138671875</v>
+        <v>209.4687347412109</v>
       </c>
       <c r="AE3" t="n">
-        <v>95.50178527832031</v>
+        <v>211.3644866943359</v>
       </c>
       <c r="AF3" t="n">
-        <v>95.13845062255859</v>
+        <v>212.9278259277344</v>
       </c>
       <c r="AG3" t="n">
-        <v>94.93247222900391</v>
+        <v>214.5090026855469</v>
       </c>
       <c r="AH3" t="n">
-        <v>94.93770599365234</v>
+        <v>216.0171661376953</v>
       </c>
       <c r="AI3" t="n">
-        <v>94.81250762939453</v>
+        <v>217.3064117431641</v>
       </c>
       <c r="AJ3" t="n">
-        <v>94.23551940917969</v>
+        <v>217.9846801757812</v>
       </c>
       <c r="AK3" t="n">
-        <v>93.11464691162109</v>
+        <v>218.5011596679688</v>
       </c>
       <c r="AL3" t="n">
-        <v>91.76258850097656</v>
+        <v>218.2793426513672</v>
       </c>
       <c r="AM3" t="n">
-        <v>90.64776611328125</v>
+        <v>218.1606140136719</v>
       </c>
       <c r="AN3" t="n">
-        <v>89.66962432861328</v>
+        <v>217.9702911376953</v>
       </c>
       <c r="AO3" t="n">
-        <v>89.10369873046875</v>
+        <v>217.9988403320312</v>
       </c>
       <c r="AP3" t="n">
-        <v>88.93944549560547</v>
+        <v>218.1969146728516</v>
       </c>
       <c r="AQ3" t="n">
-        <v>88.89520263671875</v>
+        <v>219.1097869873047</v>
       </c>
       <c r="AR3" t="n">
-        <v>89.08723449707031</v>
+        <v>220.2040405273438</v>
       </c>
       <c r="AS3" t="n">
-        <v>89.67751312255859</v>
+        <v>220.9417572021484</v>
       </c>
       <c r="AT3" t="n">
-        <v>90.38345336914062</v>
+        <v>221.1632080078125</v>
       </c>
       <c r="AU3" t="n">
-        <v>91.58100128173828</v>
+        <v>221.4333801269531</v>
       </c>
       <c r="AV3" t="n">
-        <v>92.44313049316406</v>
+        <v>222.4191741943359</v>
       </c>
       <c r="AW3" t="n">
-        <v>93.15798187255859</v>
+        <v>223.7901153564453</v>
       </c>
       <c r="AX3" t="n">
-        <v>93.572509765625</v>
+        <v>225.0713958740234</v>
       </c>
       <c r="AY3" t="n">
-        <v>94.75135040283203</v>
+        <v>226.0343322753906</v>
       </c>
       <c r="AZ3" t="n">
-        <v>95.88661193847656</v>
+        <v>226.6209259033203</v>
       </c>
       <c r="BA3" t="n">
-        <v>97.08364105224609</v>
+        <v>226.9095458984375</v>
       </c>
       <c r="BB3" t="n">
-        <v>97.80962371826172</v>
+        <v>227.0369873046875</v>
       </c>
       <c r="BC3" t="n">
-        <v>99.57692718505859</v>
+        <v>227.0743408203125</v>
       </c>
       <c r="BD3" t="n">
-        <v>101.2003402709961</v>
+        <v>226.8427276611328</v>
       </c>
       <c r="BE3" t="n">
-        <v>101.8436050415039</v>
+        <v>226.6519317626953</v>
       </c>
       <c r="BF3" t="n">
-        <v>101.6831970214844</v>
+        <v>226.3822631835938</v>
       </c>
       <c r="BG3" t="n">
-        <v>101.3916015625</v>
+        <v>225.9857788085938</v>
       </c>
       <c r="BH3" t="n">
-        <v>101.1760101318359</v>
+        <v>225.5004730224609</v>
       </c>
       <c r="BI3" t="n">
-        <v>101.09326171875</v>
+        <v>225.28662109375</v>
       </c>
       <c r="BJ3" t="n">
-        <v>100.9031524658203</v>
+        <v>225.4815673828125</v>
       </c>
       <c r="BK3" t="n">
-        <v>100.9124450683594</v>
+        <v>225.5915222167969</v>
       </c>
       <c r="BL3" t="n">
-        <v>100.8824615478516</v>
+        <v>225.3091430664062</v>
       </c>
       <c r="BM3" t="n">
-        <v>100.970458984375</v>
+        <v>225.4940948486328</v>
       </c>
       <c r="BN3" t="n">
-        <v>101.2007751464844</v>
+        <v>225.6278839111328</v>
       </c>
       <c r="BO3" t="n">
-        <v>101.4970016479492</v>
+        <v>225.7402954101562</v>
       </c>
       <c r="BP3" t="n">
-        <v>101.8792724609375</v>
+        <v>225.8150787353516</v>
       </c>
       <c r="BQ3" t="n">
-        <v>102.4154357910156</v>
+        <v>225.8675689697266</v>
       </c>
       <c r="BR3" t="n">
-        <v>103.1546630859375</v>
+        <v>225.9034729003906</v>
       </c>
       <c r="BS3" t="n">
-        <v>103.7356719970703</v>
+        <v>225.9256591796875</v>
       </c>
       <c r="BT3" t="n">
-        <v>104.0388641357422</v>
+        <v>225.940185546875</v>
       </c>
       <c r="BU3" t="n">
-        <v>104.1504287719727</v>
+        <v>225.5729217529297</v>
       </c>
       <c r="BV3" t="n">
-        <v>104.1984939575195</v>
+        <v>225.2805633544922</v>
       </c>
       <c r="BW3" t="n">
-        <v>104.2967758178711</v>
+        <v>225.0443420410156</v>
       </c>
       <c r="BX3" t="n">
-        <v>104.4041061401367</v>
+        <v>224.8556976318359</v>
       </c>
       <c r="BY3" t="n">
-        <v>104.532470703125</v>
+        <v>224.7075042724609</v>
       </c>
       <c r="BZ3" t="n">
-        <v>104.6844711303711</v>
+        <v>224.5891265869141</v>
       </c>
       <c r="CA3" t="n">
-        <v>104.8588638305664</v>
+        <v>224.2651824951172</v>
       </c>
       <c r="CB3" t="n">
-        <v>105.0285415649414</v>
+        <v>224.1843872070312</v>
       </c>
       <c r="CC3" t="n">
-        <v>105.2141647338867</v>
+        <v>224.1196746826172</v>
       </c>
       <c r="CD3" t="n">
-        <v>105.3968734741211</v>
+        <v>224.1123046875</v>
       </c>
       <c r="CE3" t="n">
-        <v>105.5579681396484</v>
+        <v>224.1656799316406</v>
       </c>
       <c r="CF3" t="n">
-        <v>105.7057037353516</v>
+        <v>224.2244110107422</v>
       </c>
       <c r="CG3" t="n">
-        <v>106.4939575195312</v>
+        <v>224.273681640625</v>
       </c>
       <c r="CH3" t="n">
-        <v>107.1760787963867</v>
+        <v>224.3126220703125</v>
       </c>
       <c r="CI3" t="n">
-        <v>107.7804412841797</v>
+        <v>224.7442474365234</v>
       </c>
       <c r="CJ3" t="n">
-        <v>108.6135025024414</v>
+        <v>225.1170196533203</v>
       </c>
       <c r="CK3" t="n">
-        <v>109.4363784790039</v>
+        <v>225.3754119873047</v>
       </c>
       <c r="CL3" t="n">
-        <v>110.3544769287109</v>
+        <v>225.5713195800781</v>
       </c>
       <c r="CM3" t="n">
-        <v>110.4890899658203</v>
+        <v>225.7267456054688</v>
       </c>
       <c r="CN3" t="n">
-        <v>110.589241027832</v>
+        <v>225.8751068115234</v>
       </c>
       <c r="CO3" t="n">
-        <v>110.508415222168</v>
+        <v>226.0131683349609</v>
       </c>
       <c r="CP3" t="n">
-        <v>110.3967361450195</v>
+        <v>226.13134765625</v>
       </c>
       <c r="CQ3" t="n">
-        <v>110.2909088134766</v>
+        <v>226.2703704833984</v>
       </c>
       <c r="CR3" t="n">
-        <v>110.1262741088867</v>
+        <v>226.3879241943359</v>
       </c>
       <c r="CS3" t="n">
-        <v>110.0488891601562</v>
+        <v>226.3595123291016</v>
       </c>
       <c r="CT3" t="n">
-        <v>109.9831085205078</v>
+        <v>226.2825012207031</v>
       </c>
       <c r="CU3" t="n">
-        <v>109.9329605102539</v>
+        <v>226.28173828125</v>
       </c>
       <c r="CV3" t="n">
-        <v>109.9248733520508</v>
+        <v>226.2951354980469</v>
       </c>
       <c r="CW3" t="n">
-        <v>109.9051055908203</v>
+        <v>226.2286376953125</v>
       </c>
       <c r="CX3" t="n">
-        <v>109.8917236328125</v>
+        <v>226.1956481933594</v>
       </c>
       <c r="CY3" t="n">
-        <v>109.8756332397461</v>
+        <v>226.2263031005859</v>
       </c>
       <c r="CZ3" t="n">
-        <v>109.8588027954102</v>
+        <v>226.2597351074219</v>
       </c>
       <c r="DA3" t="n">
-        <v>109.8446197509766</v>
+        <v>226.3341064453125</v>
       </c>
       <c r="DB3" t="n">
-        <v>109.8331680297852</v>
+        <v>226.4266815185547</v>
       </c>
       <c r="DC3" t="n">
-        <v>109.8189163208008</v>
+        <v>226.4454040527344</v>
       </c>
       <c r="DD3" t="n">
-        <v>109.7991104125977</v>
+        <v>226.4645690917969</v>
       </c>
       <c r="DE3" t="n">
-        <v>109.7779312133789</v>
+        <v>226.5119171142578</v>
       </c>
       <c r="DF3" t="n">
-        <v>109.7456665039062</v>
+        <v>226.54541015625</v>
       </c>
       <c r="DG3" t="n">
-        <v>109.7057342529297</v>
+        <v>226.585205078125</v>
       </c>
       <c r="DH3" t="n">
-        <v>109.6692962646484</v>
+        <v>226.6234283447266</v>
       </c>
       <c r="DI3" t="n">
-        <v>109.6461639404297</v>
+        <v>226.62939453125</v>
       </c>
       <c r="DJ3" t="n">
-        <v>109.6943511962891</v>
+        <v>226.6380615234375</v>
       </c>
       <c r="DK3" t="n">
-        <v>109.5015411376953</v>
+        <v>226.6772003173828</v>
       </c>
       <c r="DL3" t="n">
-        <v>109.2801666259766</v>
+        <v>227.0136108398438</v>
       </c>
       <c r="DM3" t="n">
-        <v>109.3160171508789</v>
+        <v>226.9486083984375</v>
       </c>
       <c r="DN3" t="n">
-        <v>110.571891784668</v>
+        <v>226.9486541748047</v>
       </c>
       <c r="DO3" t="n">
-        <v>111.7948684692383</v>
+        <v>226.9929351806641</v>
       </c>
       <c r="DP3" t="n">
-        <v>112.4038238525391</v>
+        <v>227.0346832275391</v>
       </c>
       <c r="DQ3" t="n">
-        <v>112.0256576538086</v>
+        <v>227.0795288085938</v>
       </c>
       <c r="DR3" t="n">
-        <v>111.5712203979492</v>
+        <v>227.1157989501953</v>
       </c>
       <c r="DS3" t="n">
-        <v>109.5817642211914</v>
+        <v>227.1598205566406</v>
       </c>
       <c r="DT3" t="n">
-        <v>108.6170120239258</v>
+        <v>227.2577819824219</v>
       </c>
       <c r="DU3" t="n">
-        <v>107.6092300415039</v>
+        <v>227.3261413574219</v>
       </c>
       <c r="DV3" t="n">
-        <v>102.7122421264648</v>
+        <v>227.4498138427734</v>
       </c>
       <c r="DW3" t="n">
-        <v>97.23351287841797</v>
+        <v>227.5084075927734</v>
       </c>
       <c r="DX3" t="n">
-        <v>95.2969970703125</v>
+        <v>227.5832977294922</v>
       </c>
       <c r="DY3" t="n">
-        <v>94.03876495361328</v>
+        <v>227.6755523681641</v>
       </c>
       <c r="DZ3" t="n">
-        <v>92.23072052001953</v>
+        <v>227.81982421875</v>
       </c>
       <c r="EA3" t="n">
-        <v>91.51032257080078</v>
+        <v>228.1015167236328</v>
       </c>
       <c r="EB3" t="n">
-        <v>90.07932281494141</v>
+        <v>228.2402954101562</v>
       </c>
       <c r="EC3" t="n">
-        <v>89.70220947265625</v>
+        <v>228.3175506591797</v>
       </c>
       <c r="ED3" t="n">
-        <v>86.40442657470703</v>
+        <v>228.2783813476562</v>
       </c>
       <c r="EE3" t="n">
-        <v>84.486083984375</v>
+        <v>228.2593841552734</v>
       </c>
       <c r="EF3" t="n">
-        <v>82.67807769775391</v>
+        <v>228.2467956542969</v>
       </c>
       <c r="EG3" t="n">
-        <v>80.40762329101562</v>
+        <v>228.2668762207031</v>
       </c>
       <c r="EH3" t="n">
-        <v>79.76717376708984</v>
+        <v>228.32763671875</v>
       </c>
       <c r="EI3" t="n">
-        <v>77.71664428710938</v>
+        <v>228.4203491210938</v>
       </c>
       <c r="EJ3" t="n">
-        <v>77.70751953125</v>
+        <v>228.4400482177734</v>
       </c>
       <c r="EK3" t="n">
-        <v>74.62082672119141</v>
+        <v>228.4515686035156</v>
       </c>
       <c r="EL3" t="n">
-        <v>75.66591644287109</v>
+        <v>228.4533233642578</v>
       </c>
       <c r="EM3" t="n">
-        <v>74.70394897460938</v>
+        <v>228.5724639892578</v>
       </c>
       <c r="EN3" t="n">
-        <v>72.22504425048828</v>
+        <v>228.5829772949219</v>
       </c>
       <c r="EO3" t="n">
-        <v>68.13199615478516</v>
+        <v>228.5154571533203</v>
       </c>
       <c r="EP3" t="n">
-        <v>69.52177429199219</v>
+        <v>228.4604949951172</v>
       </c>
       <c r="EQ3" t="n">
-        <v>71.20261383056641</v>
+        <v>228.2839050292969</v>
       </c>
       <c r="ER3" t="n">
-        <v>70.87702178955078</v>
+        <v>228.1405334472656</v>
       </c>
       <c r="ES3" t="n">
-        <v>70.20050048828125</v>
+        <v>228.1163635253906</v>
       </c>
       <c r="ET3" t="n">
-        <v>69.53007507324219</v>
+        <v>228.09423828125</v>
       </c>
       <c r="EU3" t="n">
-        <v>68.55171966552734</v>
+        <v>228.08984375</v>
       </c>
       <c r="EV3" t="n">
-        <v>65.14933776855469</v>
+        <v>228.0858154296875</v>
       </c>
       <c r="EW3" t="n">
-        <v>60.28380584716797</v>
+        <v>228.067626953125</v>
       </c>
       <c r="EX3" t="n">
-        <v>56.26853561401367</v>
+        <v>228.0390167236328</v>
       </c>
       <c r="EY3" t="n">
-        <v>49.20957183837891</v>
+        <v>228.0261840820312</v>
       </c>
       <c r="EZ3" t="n">
-        <v>42.30844497680664</v>
+        <v>228.0172882080078</v>
       </c>
       <c r="FA3" t="n">
-        <v>38.56777954101562</v>
+        <v>227.9969177246094</v>
       </c>
       <c r="FB3" t="n">
-        <v>35.63232040405273</v>
+        <v>227.9876556396484</v>
       </c>
       <c r="FC3" t="n">
-        <v>38.53945922851562</v>
+        <v>227.7418365478516</v>
       </c>
       <c r="FD3" t="n">
-        <v>46.52204895019531</v>
+        <v>226.5960083007812</v>
       </c>
       <c r="FE3" t="n">
-        <v>50.63932418823242</v>
+        <v>226.213134765625</v>
       </c>
       <c r="FF3" t="n">
-        <v>59.44070053100586</v>
+        <v>225.9846496582031</v>
       </c>
       <c r="FG3" t="n">
-        <v>66.00788879394531</v>
+        <v>225.8455963134766</v>
       </c>
       <c r="FH3" t="n">
-        <v>85.61513519287109</v>
+        <v>225.8212127685547</v>
       </c>
       <c r="FI3" t="n">
-        <v>96.91310119628906</v>
+        <v>225.7584381103516</v>
       </c>
       <c r="FJ3" t="n">
-        <v>115.4125137329102</v>
+        <v>225.677978515625</v>
       </c>
       <c r="FK3" t="n">
-        <v>130.5048217773438</v>
+        <v>225.6363983154297</v>
       </c>
       <c r="FL3" t="n">
-        <v>155.8394470214844</v>
+        <v>225.5935821533203</v>
       </c>
       <c r="FM3" t="n">
-        <v>163.3061218261719</v>
+        <v>225.5614776611328</v>
       </c>
       <c r="FN3" t="n">
-        <v>169.3538665771484</v>
+        <v>226.2707214355469</v>
       </c>
       <c r="FO3" t="n">
-        <v>179.5983428955078</v>
+        <v>226.5350799560547</v>
       </c>
       <c r="FP3" t="n">
-        <v>184.2297668457031</v>
+        <v>226.8935546875</v>
       </c>
       <c r="FQ3" t="n">
-        <v>187.2734222412109</v>
+        <v>227.0172424316406</v>
       </c>
       <c r="FR3" t="n">
-        <v>186.3793792724609</v>
+        <v>227.8636016845703</v>
       </c>
       <c r="FS3" t="n">
-        <v>181.7561340332031</v>
+        <v>228.3021240234375</v>
       </c>
       <c r="FT3" t="n">
-        <v>176.4480285644531</v>
+        <v>228.5277099609375</v>
       </c>
       <c r="FU3" t="n">
-        <v>167.8655395507812</v>
+        <v>228.5035705566406</v>
       </c>
       <c r="FV3" t="n">
-        <v>166.2387084960938</v>
+        <v>228.482177734375</v>
       </c>
       <c r="FW3" t="n">
-        <v>167.5319976806641</v>
+        <v>228.4158477783203</v>
       </c>
       <c r="FX3" t="n">
-        <v>169.3280944824219</v>
+        <v>228.3722686767578</v>
       </c>
       <c r="FY3" t="n">
-        <v>170.0234069824219</v>
+        <v>228.2484588623047</v>
       </c>
       <c r="FZ3" t="n">
-        <v>170.7757873535156</v>
+        <v>228.1796875</v>
       </c>
       <c r="GA3" t="n">
-        <v>171.253173828125</v>
+        <v>228.0397338867188</v>
       </c>
       <c r="GB3" t="n">
-        <v>170.5852355957031</v>
+        <v>227.9693145751953</v>
       </c>
       <c r="GC3" t="n">
-        <v>169.0083770751953</v>
+        <v>227.8495635986328</v>
       </c>
       <c r="GD3" t="n">
-        <v>169.2216033935547</v>
+        <v>227.8025207519531</v>
       </c>
       <c r="GE3" t="n">
-        <v>170.1302032470703</v>
+        <v>227.7406311035156</v>
       </c>
       <c r="GF3" t="n">
-        <v>171.9982757568359</v>
+        <v>227.7217712402344</v>
       </c>
       <c r="GG3" t="n">
-        <v>177.1856994628906</v>
+        <v>227.5675659179688</v>
       </c>
       <c r="GH3" t="n">
-        <v>181.07568359375</v>
+        <v>226.6240386962891</v>
       </c>
       <c r="GI3" t="n">
-        <v>189.2644348144531</v>
+        <v>226.1559906005859</v>
       </c>
       <c r="GJ3" t="n">
-        <v>191.6544342041016</v>
+        <v>225.8916931152344</v>
       </c>
       <c r="GK3" t="n">
-        <v>193.98486328125</v>
+        <v>225.7293243408203</v>
       </c>
       <c r="GL3" t="n">
-        <v>193.2310638427734</v>
+        <v>225.6717987060547</v>
       </c>
       <c r="GM3" t="n">
-        <v>190.8415069580078</v>
+        <v>225.5894622802734</v>
       </c>
       <c r="GN3" t="n">
-        <v>189.2359619140625</v>
+        <v>225.5604705810547</v>
       </c>
       <c r="GO3" t="n">
-        <v>187.1167297363281</v>
+        <v>225.5254669189453</v>
       </c>
       <c r="GP3" t="n">
-        <v>179.2744140625</v>
+        <v>225.5112915039062</v>
       </c>
       <c r="GQ3" t="n">
-        <v>166.5347747802734</v>
+        <v>225.5927734375</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>226.0252075195312</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>226.6803436279297</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>226.9473419189453</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>227.0954437255859</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>227.2801208496094</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>227.4540863037109</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>227.5608520507812</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>227.6012725830078</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>227.6244506835938</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>227.6386871337891</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>227.6436767578125</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>227.6513824462891</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>227.6650390625</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>227.6846466064453</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>227.6235809326172</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>227.5040435791016</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>227.4748229980469</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>227.45361328125</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>227.4571380615234</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>227.4626007080078</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>227.4569244384766</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>227.4553985595703</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>227.4541778564453</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>227.4526977539062</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>227.4509582519531</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>227.4501953125</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>227.450439453125</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>227.4569244384766</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>227.4736633300781</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>227.4896087646484</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>227.5074310302734</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>227.5079956054688</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>227.5012359619141</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>227.0906524658203</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>226.5389251708984</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>226.0210876464844</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>225.8836364746094</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>225.6856079101562</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>225.6629638671875</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>225.6842346191406</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>225.6887969970703</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>225.6661376953125</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>225.6529693603516</v>
+      </c>
+      <c r="II3" t="n">
+        <v>225.6378021240234</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>226.7284851074219</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>227.1265716552734</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>227.3992004394531</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>227.6235809326172</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>227.6947631835938</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>227.7379608154297</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>227.7496490478516</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>227.7287902832031</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>227.6908721923828</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>227.6716156005859</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>227.6569213867188</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>227.6409606933594</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>227.6198272705078</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>227.5766143798828</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>227.1611175537109</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>226.4033355712891</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>226.0971984863281</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>225.8732604980469</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>225.6873931884766</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>225.6973114013672</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>226.7011566162109</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>227.018798828125</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>227.1508636474609</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>227.7020874023438</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>227.9467620849609</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>227.9507751464844</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>227.9564666748047</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>227.9633026123047</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>227.9664154052734</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>227.9606475830078</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>227.9551391601562</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>227.9505920410156</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>227.9462890625</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>227.9116973876953</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>227.7522888183594</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>227.6292114257812</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>227.4242706298828</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>227.3662261962891</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>227.3326873779297</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>227.4013061523438</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>227.1881256103516</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>226.923828125</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>225.8185272216797</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>225.0637359619141</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>224.6879425048828</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>224.0122680664062</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>223.2153472900391</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>222.8321685791016</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>222.2705535888672</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>221.578125</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>220.6464996337891</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>219.1819763183594</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>216.4187927246094</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>214.9605865478516</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>213.5475616455078</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>212.8479309082031</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>209.3282928466797</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>195.3354187011719</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>189.9060668945312</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>184.4938049316406</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>177.9015960693359</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>163.8625793457031</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>156.6761474609375</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>147.6460876464844</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>142.9785766601562</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>137.2324371337891</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>123.8562469482422</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>110.5311431884766</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>96.91082763671875</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>82.38047790527344</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>76.18743133544922</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>71.63986206054688</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>66.39739990234375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1186.658325195312</v>
+        <v>874.0528564453125</v>
       </c>
       <c r="B4" t="n">
-        <v>1176.66162109375</v>
+        <v>891.657958984375</v>
       </c>
       <c r="C4" t="n">
-        <v>1170.684814453125</v>
+        <v>915.6185302734375</v>
       </c>
       <c r="D4" t="n">
-        <v>1167.5244140625</v>
+        <v>944.598388671875</v>
       </c>
       <c r="E4" t="n">
-        <v>1164.031372070312</v>
+        <v>979.9937744140625</v>
       </c>
       <c r="F4" t="n">
-        <v>1159.304321289062</v>
+        <v>1016.919799804688</v>
       </c>
       <c r="G4" t="n">
-        <v>1154.851196289062</v>
+        <v>1056.6630859375</v>
       </c>
       <c r="H4" t="n">
-        <v>1152.61181640625</v>
+        <v>1097.854614257812</v>
       </c>
       <c r="I4" t="n">
-        <v>1151.393188476562</v>
+        <v>1139.813110351562</v>
       </c>
       <c r="J4" t="n">
-        <v>1150.650512695312</v>
+        <v>1182.946533203125</v>
       </c>
       <c r="K4" t="n">
-        <v>1154.203247070312</v>
+        <v>1226.625</v>
       </c>
       <c r="L4" t="n">
-        <v>1163.842041015625</v>
+        <v>1269.66943359375</v>
       </c>
       <c r="M4" t="n">
-        <v>1180.106811523438</v>
+        <v>1310.937744140625</v>
       </c>
       <c r="N4" t="n">
-        <v>1200.892211914062</v>
+        <v>1350.280517578125</v>
       </c>
       <c r="O4" t="n">
-        <v>1218.564697265625</v>
+        <v>1389.65771484375</v>
       </c>
       <c r="P4" t="n">
-        <v>1232.003173828125</v>
+        <v>1426.930541992188</v>
       </c>
       <c r="Q4" t="n">
-        <v>1248.839233398438</v>
+        <v>1460.754638671875</v>
       </c>
       <c r="R4" t="n">
-        <v>1262.990112304688</v>
+        <v>1493.3984375</v>
       </c>
       <c r="S4" t="n">
-        <v>1274.779296875</v>
+        <v>1525.809326171875</v>
       </c>
       <c r="T4" t="n">
-        <v>1286.334228515625</v>
+        <v>1555.808837890625</v>
       </c>
       <c r="U4" t="n">
-        <v>1301.187255859375</v>
+        <v>1587.643676757812</v>
       </c>
       <c r="V4" t="n">
-        <v>1316.473999023438</v>
+        <v>1621.197875976562</v>
       </c>
       <c r="W4" t="n">
-        <v>1329.100463867188</v>
+        <v>1652.595092773438</v>
       </c>
       <c r="X4" t="n">
-        <v>1337.968383789062</v>
+        <v>1684.089233398438</v>
       </c>
       <c r="Y4" t="n">
-        <v>1344.951049804688</v>
+        <v>1719.103637695312</v>
       </c>
       <c r="Z4" t="n">
-        <v>1351.086669921875</v>
+        <v>1753.2880859375</v>
       </c>
       <c r="AA4" t="n">
-        <v>1356.47119140625</v>
+        <v>1782.01513671875</v>
       </c>
       <c r="AB4" t="n">
-        <v>1360.191650390625</v>
+        <v>1810.222900390625</v>
       </c>
       <c r="AC4" t="n">
-        <v>1362.105102539062</v>
+        <v>1841.834106445312</v>
       </c>
       <c r="AD4" t="n">
-        <v>1362.946655273438</v>
+        <v>1874.169555664062</v>
       </c>
       <c r="AE4" t="n">
-        <v>1363.327026367188</v>
+        <v>1900.284301757812</v>
       </c>
       <c r="AF4" t="n">
-        <v>1363.38330078125</v>
+        <v>1919.357666015625</v>
       </c>
       <c r="AG4" t="n">
-        <v>1363.31103515625</v>
+        <v>1941.915771484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1363.053588867188</v>
+        <v>1970.401977539062</v>
       </c>
       <c r="AI4" t="n">
-        <v>1360.732421875</v>
+        <v>2005.386596679688</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1355.038452148438</v>
+        <v>2035.838256835938</v>
       </c>
       <c r="AK4" t="n">
-        <v>1345.662353515625</v>
+        <v>2054.070068359375</v>
       </c>
       <c r="AL4" t="n">
-        <v>1334.640991210938</v>
+        <v>2064.71826171875</v>
       </c>
       <c r="AM4" t="n">
-        <v>1324.990600585938</v>
+        <v>2072.0830078125</v>
       </c>
       <c r="AN4" t="n">
-        <v>1316.232421875</v>
+        <v>2076.782470703125</v>
       </c>
       <c r="AO4" t="n">
-        <v>1310.289428710938</v>
+        <v>2081.920166015625</v>
       </c>
       <c r="AP4" t="n">
-        <v>1307.33447265625</v>
+        <v>2089.67578125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1305.430297851562</v>
+        <v>2100.8388671875</v>
       </c>
       <c r="AR4" t="n">
-        <v>1304.125610351562</v>
+        <v>2114.197021484375</v>
       </c>
       <c r="AS4" t="n">
-        <v>1303.006713867188</v>
+        <v>2124.492919921875</v>
       </c>
       <c r="AT4" t="n">
-        <v>1302.239868164062</v>
+        <v>2131.656494140625</v>
       </c>
       <c r="AU4" t="n">
-        <v>1301.778198242188</v>
+        <v>2137.08837890625</v>
       </c>
       <c r="AV4" t="n">
-        <v>1301.530517578125</v>
+        <v>2145.55078125</v>
       </c>
       <c r="AW4" t="n">
-        <v>1301.33837890625</v>
+        <v>2154.274658203125</v>
       </c>
       <c r="AX4" t="n">
-        <v>1302.601318359375</v>
+        <v>2164.33642578125</v>
       </c>
       <c r="AY4" t="n">
-        <v>1305.26708984375</v>
+        <v>2176.01904296875</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1309.183715820312</v>
+        <v>2183.463134765625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1313.526611328125</v>
+        <v>2188.62841796875</v>
       </c>
       <c r="BB4" t="n">
-        <v>1318.459106445312</v>
+        <v>2191.771728515625</v>
       </c>
       <c r="BC4" t="n">
-        <v>1325.200073242188</v>
+        <v>2195.0029296875</v>
       </c>
       <c r="BD4" t="n">
-        <v>1331.667724609375</v>
+        <v>2196.706298828125</v>
       </c>
       <c r="BE4" t="n">
-        <v>1338.391845703125</v>
+        <v>2197.39892578125</v>
       </c>
       <c r="BF4" t="n">
-        <v>1343.592163085938</v>
+        <v>2198.6171875</v>
       </c>
       <c r="BG4" t="n">
-        <v>1348.669067382812</v>
+        <v>2200.4091796875</v>
       </c>
       <c r="BH4" t="n">
-        <v>1353.308471679688</v>
+        <v>2204.204345703125</v>
       </c>
       <c r="BI4" t="n">
-        <v>1356.553466796875</v>
+        <v>2209.119873046875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1358.51318359375</v>
+        <v>2213.44677734375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1360.812866210938</v>
+        <v>2217.426513671875</v>
       </c>
       <c r="BL4" t="n">
-        <v>1362.504760742188</v>
+        <v>2220.534423828125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1364.40380859375</v>
+        <v>2220.965087890625</v>
       </c>
       <c r="BN4" t="n">
-        <v>1366.890380859375</v>
+        <v>2221.035888671875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1369.327270507812</v>
+        <v>2221.090087890625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1372.013671875</v>
+        <v>2221.005859375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1375.36865234375</v>
+        <v>2220.894287109375</v>
       </c>
       <c r="BR4" t="n">
-        <v>1379.730590820312</v>
+        <v>2220.799560546875</v>
       </c>
       <c r="BS4" t="n">
-        <v>1383.128051757812</v>
+        <v>2220.71044921875</v>
       </c>
       <c r="BT4" t="n">
-        <v>1385.034790039062</v>
+        <v>2220.64794921875</v>
       </c>
       <c r="BU4" t="n">
-        <v>1385.924682617188</v>
+        <v>2221.83740234375</v>
       </c>
       <c r="BV4" t="n">
-        <v>1386.243530273438</v>
+        <v>2222.780029296875</v>
       </c>
       <c r="BW4" t="n">
-        <v>1386.471557617188</v>
+        <v>2223.4951171875</v>
       </c>
       <c r="BX4" t="n">
-        <v>1386.664672851562</v>
+        <v>2224.052001953125</v>
       </c>
       <c r="BY4" t="n">
-        <v>1386.913696289062</v>
+        <v>2224.468994140625</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1387.21533203125</v>
+        <v>2224.775390625</v>
       </c>
       <c r="CA4" t="n">
-        <v>1387.519165039062</v>
+        <v>2223.229736328125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1387.808959960938</v>
+        <v>2222.20361328125</v>
       </c>
       <c r="CC4" t="n">
-        <v>1388.164916992188</v>
+        <v>2221.100830078125</v>
       </c>
       <c r="CD4" t="n">
-        <v>1388.543334960938</v>
+        <v>2220.489501953125</v>
       </c>
       <c r="CE4" t="n">
-        <v>1388.959350585938</v>
+        <v>2220.00341796875</v>
       </c>
       <c r="CF4" t="n">
-        <v>1389.427001953125</v>
+        <v>2219.653564453125</v>
       </c>
       <c r="CG4" t="n">
-        <v>1389.246704101562</v>
+        <v>2219.30322265625</v>
       </c>
       <c r="CH4" t="n">
-        <v>1389.1787109375</v>
+        <v>2219.07421875</v>
       </c>
       <c r="CI4" t="n">
-        <v>1389.222290039062</v>
+        <v>2217.478271484375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1390.89599609375</v>
+        <v>2216.0478515625</v>
       </c>
       <c r="CK4" t="n">
-        <v>1393.322631835938</v>
+        <v>2215.027099609375</v>
       </c>
       <c r="CL4" t="n">
-        <v>1399.881713867188</v>
+        <v>2214.283935546875</v>
       </c>
       <c r="CM4" t="n">
-        <v>1402.199462890625</v>
+        <v>2213.697265625</v>
       </c>
       <c r="CN4" t="n">
-        <v>1403.578369140625</v>
+        <v>2213.1552734375</v>
       </c>
       <c r="CO4" t="n">
-        <v>1404.21923828125</v>
+        <v>2212.695556640625</v>
       </c>
       <c r="CP4" t="n">
-        <v>1404.58349609375</v>
+        <v>2212.307861328125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1404.81787109375</v>
+        <v>2212.172119140625</v>
       </c>
       <c r="CR4" t="n">
-        <v>1405.088500976562</v>
+        <v>2212.18310546875</v>
       </c>
       <c r="CS4" t="n">
-        <v>1405.188354492188</v>
+        <v>2213.904296875</v>
       </c>
       <c r="CT4" t="n">
-        <v>1405.264404296875</v>
+        <v>2215.7705078125</v>
       </c>
       <c r="CU4" t="n">
-        <v>1405.315795898438</v>
+        <v>2217.157470703125</v>
       </c>
       <c r="CV4" t="n">
-        <v>1405.312622070312</v>
+        <v>2218.458251953125</v>
       </c>
       <c r="CW4" t="n">
-        <v>1405.3203125</v>
+        <v>2220.47265625</v>
       </c>
       <c r="CX4" t="n">
-        <v>1405.321044921875</v>
+        <v>2222.17626953125</v>
       </c>
       <c r="CY4" t="n">
-        <v>1405.323120117188</v>
+        <v>2223.6943359375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1405.325561523438</v>
+        <v>2223.970947265625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1405.323852539062</v>
+        <v>2224.15576171875</v>
       </c>
       <c r="DB4" t="n">
-        <v>1405.3193359375</v>
+        <v>2224.391357421875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1405.305786132812</v>
+        <v>2224.1845703125</v>
       </c>
       <c r="DD4" t="n">
-        <v>1405.26708984375</v>
+        <v>2223.91357421875</v>
       </c>
       <c r="DE4" t="n">
-        <v>1405.2177734375</v>
+        <v>2223.81640625</v>
       </c>
       <c r="DF4" t="n">
-        <v>1405.109619140625</v>
+        <v>2223.73779296875</v>
       </c>
       <c r="DG4" t="n">
-        <v>1404.951416015625</v>
+        <v>2223.649658203125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1404.759887695312</v>
+        <v>2223.560791015625</v>
       </c>
       <c r="DI4" t="n">
-        <v>1404.52734375</v>
+        <v>2223.552001953125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1404.127807617188</v>
+        <v>2223.5478515625</v>
       </c>
       <c r="DK4" t="n">
-        <v>1402.176025390625</v>
+        <v>2223.503173828125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1397.631225585938</v>
+        <v>2218.519775390625</v>
       </c>
       <c r="DM4" t="n">
-        <v>1395.678466796875</v>
+        <v>2214.119384765625</v>
       </c>
       <c r="DN4" t="n">
-        <v>1391.513061523438</v>
+        <v>2209.03466796875</v>
       </c>
       <c r="DO4" t="n">
-        <v>1386.954956054688</v>
+        <v>2208.65478515625</v>
       </c>
       <c r="DP4" t="n">
-        <v>1375.715942382812</v>
+        <v>2208.61767578125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1367.182983398438</v>
+        <v>2208.697509765625</v>
       </c>
       <c r="DR4" t="n">
-        <v>1359.163208007812</v>
+        <v>2208.79833984375</v>
       </c>
       <c r="DS4" t="n">
-        <v>1339.645751953125</v>
+        <v>2208.896728515625</v>
       </c>
       <c r="DT4" t="n">
-        <v>1331.322631835938</v>
+        <v>2209.089111328125</v>
       </c>
       <c r="DU4" t="n">
-        <v>1323.65771484375</v>
+        <v>2209.147705078125</v>
       </c>
       <c r="DV4" t="n">
-        <v>1313.92431640625</v>
+        <v>2209.21533203125</v>
       </c>
       <c r="DW4" t="n">
-        <v>1305.940307617188</v>
+        <v>2209.224609375</v>
       </c>
       <c r="DX4" t="n">
-        <v>1302.466186523438</v>
+        <v>2209.308837890625</v>
       </c>
       <c r="DY4" t="n">
-        <v>1297.928344726562</v>
+        <v>2209.7373046875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1285.09130859375</v>
+        <v>2210.793212890625</v>
       </c>
       <c r="EA4" t="n">
-        <v>1277.573852539062</v>
+        <v>2212.7880859375</v>
       </c>
       <c r="EB4" t="n">
-        <v>1259.365844726562</v>
+        <v>2213.778076171875</v>
       </c>
       <c r="EC4" t="n">
-        <v>1252.282836914062</v>
+        <v>2214.281982421875</v>
       </c>
       <c r="ED4" t="n">
-        <v>1224.876342773438</v>
+        <v>2213.8642578125</v>
       </c>
       <c r="EE4" t="n">
-        <v>1204.687622070312</v>
+        <v>2213.555908203125</v>
       </c>
       <c r="EF4" t="n">
-        <v>1183.160522460938</v>
+        <v>2212.87109375</v>
       </c>
       <c r="EG4" t="n">
-        <v>1139.444091796875</v>
+        <v>2212.51611328125</v>
       </c>
       <c r="EH4" t="n">
-        <v>1123.315795898438</v>
+        <v>2212.47900390625</v>
       </c>
       <c r="EI4" t="n">
-        <v>1087.980102539062</v>
+        <v>2212.2138671875</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1067.762451171875</v>
+        <v>2212.170166015625</v>
       </c>
       <c r="EK4" t="n">
-        <v>1023.609008789062</v>
+        <v>2212.158203125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1001.924926757812</v>
+        <v>2212.162841796875</v>
       </c>
       <c r="EM4" t="n">
-        <v>958.0365600585938</v>
+        <v>2213.767822265625</v>
       </c>
       <c r="EN4" t="n">
-        <v>938.045166015625</v>
+        <v>2214.35400390625</v>
       </c>
       <c r="EO4" t="n">
-        <v>903.95458984375</v>
+        <v>2215.275634765625</v>
       </c>
       <c r="EP4" t="n">
-        <v>893.568359375</v>
+        <v>2215.67431640625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>868.2183227539062</v>
+        <v>2216.654541015625</v>
       </c>
       <c r="ER4" t="n">
-        <v>856.6612548828125</v>
+        <v>2217.3193359375</v>
       </c>
       <c r="ES4" t="n">
-        <v>838.46484375</v>
+        <v>2217.40673828125</v>
       </c>
       <c r="ET4" t="n">
-        <v>830.2225952148438</v>
+        <v>2217.435546875</v>
       </c>
       <c r="EU4" t="n">
-        <v>821.1295776367188</v>
+        <v>2217.44091796875</v>
       </c>
       <c r="EV4" t="n">
-        <v>800.0963745117188</v>
+        <v>2217.445556640625</v>
       </c>
       <c r="EW4" t="n">
-        <v>779.2843627929688</v>
+        <v>2217.498291015625</v>
       </c>
       <c r="EX4" t="n">
-        <v>767.58203125</v>
+        <v>2217.59912109375</v>
       </c>
       <c r="EY4" t="n">
-        <v>742.3867797851562</v>
+        <v>2217.64404296875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>720.6575317382812</v>
+        <v>2217.66845703125</v>
       </c>
       <c r="FA4" t="n">
-        <v>709.8375244140625</v>
+        <v>2217.716796875</v>
       </c>
       <c r="FB4" t="n">
-        <v>700.7979736328125</v>
+        <v>2217.684326171875</v>
       </c>
       <c r="FC4" t="n">
-        <v>692.345947265625</v>
+        <v>2215.6640625</v>
       </c>
       <c r="FD4" t="n">
-        <v>690.3524780273438</v>
+        <v>2208.552001953125</v>
       </c>
       <c r="FE4" t="n">
-        <v>691.9934692382812</v>
+        <v>2207.076416015625</v>
       </c>
       <c r="FF4" t="n">
-        <v>694.3145141601562</v>
+        <v>2206.427001953125</v>
       </c>
       <c r="FG4" t="n">
-        <v>698.4906005859375</v>
+        <v>2205.8125</v>
       </c>
       <c r="FH4" t="n">
-        <v>723.227294921875</v>
+        <v>2205.699462890625</v>
       </c>
       <c r="FI4" t="n">
-        <v>738.2047119140625</v>
+        <v>2205.717041015625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>748.037353515625</v>
+        <v>2205.890380859375</v>
       </c>
       <c r="FK4" t="n">
-        <v>748.2505493164062</v>
+        <v>2205.99755859375</v>
       </c>
       <c r="FL4" t="n">
-        <v>751.6085815429688</v>
+        <v>2206.517822265625</v>
       </c>
       <c r="FM4" t="n">
-        <v>758.6222534179688</v>
+        <v>2206.79638671875</v>
       </c>
       <c r="FN4" t="n">
-        <v>770.515380859375</v>
+        <v>2205.203369140625</v>
       </c>
       <c r="FO4" t="n">
-        <v>803.2723388671875</v>
+        <v>2204.650146484375</v>
       </c>
       <c r="FP4" t="n">
-        <v>809.9200439453125</v>
+        <v>2203.991943359375</v>
       </c>
       <c r="FQ4" t="n">
-        <v>813.84814453125</v>
+        <v>2203.752197265625</v>
       </c>
       <c r="FR4" t="n">
-        <v>834.6779174804688</v>
+        <v>2209.006591796875</v>
       </c>
       <c r="FS4" t="n">
-        <v>842.0138549804688</v>
+        <v>2211.91943359375</v>
       </c>
       <c r="FT4" t="n">
-        <v>852.9528198242188</v>
+        <v>2213.21533203125</v>
       </c>
       <c r="FU4" t="n">
-        <v>875.06787109375</v>
+        <v>2212.990234375</v>
       </c>
       <c r="FV4" t="n">
-        <v>882.027099609375</v>
+        <v>2212.9111328125</v>
       </c>
       <c r="FW4" t="n">
-        <v>891.3091430664062</v>
+        <v>2212.75927734375</v>
       </c>
       <c r="FX4" t="n">
-        <v>894.912353515625</v>
+        <v>2212.746826171875</v>
       </c>
       <c r="FY4" t="n">
-        <v>895.336669921875</v>
+        <v>2212.7392578125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>895.9253540039062</v>
+        <v>2212.69091796875</v>
       </c>
       <c r="GA4" t="n">
-        <v>896.2296142578125</v>
+        <v>2212.50732421875</v>
       </c>
       <c r="GB4" t="n">
-        <v>896.619140625</v>
+        <v>2212.3955078125</v>
       </c>
       <c r="GC4" t="n">
-        <v>886.7771606445312</v>
+        <v>2212.4296875</v>
       </c>
       <c r="GD4" t="n">
-        <v>866.6434326171875</v>
+        <v>2212.609130859375</v>
       </c>
       <c r="GE4" t="n">
-        <v>855.7048950195312</v>
+        <v>2212.7841796875</v>
       </c>
       <c r="GF4" t="n">
-        <v>845.7191772460938</v>
+        <v>2212.732421875</v>
       </c>
       <c r="GG4" t="n">
-        <v>836.143310546875</v>
+        <v>2211.425537109375</v>
       </c>
       <c r="GH4" t="n">
-        <v>829.8629150390625</v>
+        <v>2211.061767578125</v>
       </c>
       <c r="GI4" t="n">
-        <v>811.4657592773438</v>
+        <v>2211.639892578125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>800.5006103515625</v>
+        <v>2212.224853515625</v>
       </c>
       <c r="GK4" t="n">
-        <v>780.45166015625</v>
+        <v>2212.653564453125</v>
       </c>
       <c r="GL4" t="n">
-        <v>770.9147338867188</v>
+        <v>2212.80908203125</v>
       </c>
       <c r="GM4" t="n">
-        <v>760.21875</v>
+        <v>2213.036865234375</v>
       </c>
       <c r="GN4" t="n">
-        <v>751.534912109375</v>
+        <v>2213.1181640625</v>
       </c>
       <c r="GO4" t="n">
-        <v>748.04833984375</v>
+        <v>2213.215576171875</v>
       </c>
       <c r="GP4" t="n">
-        <v>744.56494140625</v>
+        <v>2213.254638671875</v>
       </c>
       <c r="GQ4" t="n">
-        <v>743.1886596679688</v>
+        <v>2213.011474609375</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2211.72705078125</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2209.689208984375</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2206.994384765625</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2205.226806640625</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2204.393310546875</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2203.712158203125</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2203.308349609375</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2203.17578125</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2203.102783203125</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2203.060302734375</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2203.046142578125</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>2203.0244140625</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>2203.08154296875</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>2203.21826171875</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>2203.660400390625</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>2204.438720703125</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>2204.739013671875</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>2205.09765625</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>2205.265625</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>2205.39501953125</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>2205.37451171875</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>2205.37158203125</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>2205.384521484375</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>2205.39794921875</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>2205.41650390625</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>2205.44921875</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>2205.49072265625</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>2205.527099609375</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>2205.64404296875</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>2205.754150390625</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2205.877685546875</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2205.85205078125</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2205.76611328125</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2206.73095703125</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2208.2265625</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2208.6767578125</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2208.20556640625</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2206.62744140625</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2205.878662109375</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2205.666748046875</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2205.61474609375</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2205.673095703125</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2205.903076171875</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2206.042236328125</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2208.063720703125</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2206.8525390625</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2206.22412109375</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2205.6083984375</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2205.41455078125</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2205.277099609375</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2205.256103515625</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2205.350830078125</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2205.51318359375</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2205.592041015625</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2205.62841796875</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2205.6748046875</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2205.74072265625</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2205.86181640625</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2207.15966796875</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2209.552001953125</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2210.181640625</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2210.079345703125</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2209.08984375</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2206.784423828125</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2200.657470703125</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2194.4306640625</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2191.179931640625</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2193.601806640625</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2194.02294921875</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2193.613525390625</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2193.442138671875</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2193.404296875</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2193.353515625</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2193.3271484375</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2193.290771484375</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2193.281494140625</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2193.27685546875</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2193.415771484375</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2194.00244140625</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2194.489501953125</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2195.10546875</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2195.027099609375</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2194.72998046875</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2191.285400390625</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2179.61865234375</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2168.173095703125</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2159.76708984375</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2149.2958984375</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2141.4404296875</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2129.78369140625</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2115.051513671875</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2109.102783203125</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2096.600830078125</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2072.971923828125</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2044.671630859375</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2018.052978515625</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>1976.149047851562</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1922.82666015625</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1871.542602539062</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1819.734497070312</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1751.924438476562</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1674.794555664062</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1615.11181640625</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1554.64306640625</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1498.863891601562</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1404.917358398438</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>1329.38134765625</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>1204.492919921875</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>1125.31982421875</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>1039.7177734375</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>921.72509765625</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>856.9436645507812</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>801.9802856445312</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>746.7991333007812</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>715.0225219726562</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>694.1524658203125</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>679.2091674804688</v>
       </c>
     </row>
   </sheetData>

--- a/Head_Data.xlsx
+++ b/Head_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LD4"/>
+  <dimension ref="A1:MF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,2855 +1382,3191 @@
       <c r="LD1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>342.9869079589844</v>
+        <v>311.9114990234375</v>
       </c>
       <c r="B2" t="n">
-        <v>340.6692504882812</v>
+        <v>310.4651184082031</v>
       </c>
       <c r="C2" t="n">
-        <v>338.8975524902344</v>
+        <v>309.0246276855469</v>
       </c>
       <c r="D2" t="n">
-        <v>337.0722961425781</v>
+        <v>306.504638671875</v>
       </c>
       <c r="E2" t="n">
-        <v>335.5108337402344</v>
+        <v>304.1791381835938</v>
       </c>
       <c r="F2" t="n">
-        <v>334.2109985351562</v>
+        <v>301.2131042480469</v>
       </c>
       <c r="G2" t="n">
-        <v>333.2754821777344</v>
+        <v>297.9597473144531</v>
       </c>
       <c r="H2" t="n">
-        <v>332.5780639648438</v>
+        <v>295.7908630371094</v>
       </c>
       <c r="I2" t="n">
-        <v>332.1136169433594</v>
+        <v>293.4476013183594</v>
       </c>
       <c r="J2" t="n">
-        <v>331.6885986328125</v>
+        <v>291.8898315429688</v>
       </c>
       <c r="K2" t="n">
-        <v>331.3760681152344</v>
+        <v>291.0413818359375</v>
       </c>
       <c r="L2" t="n">
-        <v>331.5186157226562</v>
+        <v>290.7654724121094</v>
       </c>
       <c r="M2" t="n">
-        <v>331.8395385742188</v>
+        <v>290.761962890625</v>
       </c>
       <c r="N2" t="n">
-        <v>332.4026184082031</v>
+        <v>290.8874206542969</v>
       </c>
       <c r="O2" t="n">
-        <v>332.7378845214844</v>
+        <v>291.2119445800781</v>
       </c>
       <c r="P2" t="n">
-        <v>332.8644409179688</v>
+        <v>290.7580871582031</v>
       </c>
       <c r="Q2" t="n">
-        <v>332.7959594726562</v>
+        <v>290.7101135253906</v>
       </c>
       <c r="R2" t="n">
-        <v>332.6648559570312</v>
+        <v>291.0715942382812</v>
       </c>
       <c r="S2" t="n">
-        <v>332.4687194824219</v>
+        <v>291.6449584960938</v>
       </c>
       <c r="T2" t="n">
-        <v>332.2619018554688</v>
+        <v>292.2756652832031</v>
       </c>
       <c r="U2" t="n">
-        <v>331.9107360839844</v>
+        <v>293.5841979980469</v>
       </c>
       <c r="V2" t="n">
-        <v>331.171875</v>
+        <v>295.6293334960938</v>
       </c>
       <c r="W2" t="n">
-        <v>330.3442993164062</v>
+        <v>297.4907531738281</v>
       </c>
       <c r="X2" t="n">
-        <v>328.814208984375</v>
+        <v>300.3628845214844</v>
       </c>
       <c r="Y2" t="n">
-        <v>326.965087890625</v>
+        <v>302.7236022949219</v>
       </c>
       <c r="Z2" t="n">
-        <v>325.6289978027344</v>
+        <v>304.6199645996094</v>
       </c>
       <c r="AA2" t="n">
-        <v>324.3695678710938</v>
+        <v>306.3349609375</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.84521484375</v>
+        <v>307.5835876464844</v>
       </c>
       <c r="AC2" t="n">
-        <v>321.78515625</v>
+        <v>308.5054321289062</v>
       </c>
       <c r="AD2" t="n">
-        <v>320.734619140625</v>
+        <v>309.3317565917969</v>
       </c>
       <c r="AE2" t="n">
-        <v>319.749755859375</v>
+        <v>310.1722106933594</v>
       </c>
       <c r="AF2" t="n">
-        <v>319.1754760742188</v>
+        <v>311.2891845703125</v>
       </c>
       <c r="AG2" t="n">
-        <v>318.6684265136719</v>
+        <v>312.192626953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>318.1837768554688</v>
+        <v>312.9089965820312</v>
       </c>
       <c r="AI2" t="n">
-        <v>317.8186340332031</v>
+        <v>313.4124450683594</v>
       </c>
       <c r="AJ2" t="n">
-        <v>317.4379272460938</v>
+        <v>313.7489318847656</v>
       </c>
       <c r="AK2" t="n">
-        <v>317.2493591308594</v>
+        <v>314.0186462402344</v>
       </c>
       <c r="AL2" t="n">
-        <v>317.1732482910156</v>
+        <v>314.1594543457031</v>
       </c>
       <c r="AM2" t="n">
-        <v>317.1395874023438</v>
+        <v>314.1795043945312</v>
       </c>
       <c r="AN2" t="n">
-        <v>317.5563659667969</v>
+        <v>314.1701354980469</v>
       </c>
       <c r="AO2" t="n">
-        <v>318.2806396484375</v>
+        <v>313.37548828125</v>
       </c>
       <c r="AP2" t="n">
-        <v>319.1936340332031</v>
+        <v>311.8108520507812</v>
       </c>
       <c r="AQ2" t="n">
-        <v>320.434814453125</v>
+        <v>310.6499328613281</v>
       </c>
       <c r="AR2" t="n">
-        <v>321.6860656738281</v>
+        <v>309.5191650390625</v>
       </c>
       <c r="AS2" t="n">
-        <v>322.7557678222656</v>
+        <v>308.5509033203125</v>
       </c>
       <c r="AT2" t="n">
-        <v>323.9935302734375</v>
+        <v>307.3813781738281</v>
       </c>
       <c r="AU2" t="n">
-        <v>324.8996276855469</v>
+        <v>306.1053771972656</v>
       </c>
       <c r="AV2" t="n">
-        <v>325.6494750976562</v>
+        <v>305.3714294433594</v>
       </c>
       <c r="AW2" t="n">
-        <v>326.5308227539062</v>
+        <v>304.9323425292969</v>
       </c>
       <c r="AX2" t="n">
-        <v>327.0197143554688</v>
+        <v>304.4092712402344</v>
       </c>
       <c r="AY2" t="n">
-        <v>327.2445678710938</v>
+        <v>303.8460693359375</v>
       </c>
       <c r="AZ2" t="n">
-        <v>327.3704833984375</v>
+        <v>303.314208984375</v>
       </c>
       <c r="BA2" t="n">
-        <v>327.368408203125</v>
+        <v>303.0908203125</v>
       </c>
       <c r="BB2" t="n">
-        <v>327.3307800292969</v>
+        <v>302.6602783203125</v>
       </c>
       <c r="BC2" t="n">
-        <v>327.28271484375</v>
+        <v>302.4010620117188</v>
       </c>
       <c r="BD2" t="n">
-        <v>327.2494506835938</v>
+        <v>302.2689514160156</v>
       </c>
       <c r="BE2" t="n">
-        <v>327.1808471679688</v>
+        <v>302.1519165039062</v>
       </c>
       <c r="BF2" t="n">
-        <v>327.0518798828125</v>
+        <v>302.1552734375</v>
       </c>
       <c r="BG2" t="n">
-        <v>326.3978576660156</v>
+        <v>302.2101745605469</v>
       </c>
       <c r="BH2" t="n">
-        <v>325.345703125</v>
+        <v>302.2831420898438</v>
       </c>
       <c r="BI2" t="n">
-        <v>324.3110961914062</v>
+        <v>302.6555786132812</v>
       </c>
       <c r="BJ2" t="n">
-        <v>323.8250427246094</v>
+        <v>303.2094116210938</v>
       </c>
       <c r="BK2" t="n">
-        <v>323.5542297363281</v>
+        <v>304.3681640625</v>
       </c>
       <c r="BL2" t="n">
-        <v>323.3987426757812</v>
+        <v>306.1614379882812</v>
       </c>
       <c r="BM2" t="n">
-        <v>323.3210754394531</v>
+        <v>308.1802368164062</v>
       </c>
       <c r="BN2" t="n">
-        <v>323.2554931640625</v>
+        <v>309.7740173339844</v>
       </c>
       <c r="BO2" t="n">
-        <v>323.1769409179688</v>
+        <v>310.5562438964844</v>
       </c>
       <c r="BP2" t="n">
-        <v>323.100341796875</v>
+        <v>311.0583190917969</v>
       </c>
       <c r="BQ2" t="n">
-        <v>323.0244445800781</v>
+        <v>311.4143981933594</v>
       </c>
       <c r="BR2" t="n">
-        <v>322.95849609375</v>
+        <v>311.7955322265625</v>
       </c>
       <c r="BS2" t="n">
-        <v>322.894287109375</v>
+        <v>312.2595520019531</v>
       </c>
       <c r="BT2" t="n">
-        <v>322.8140869140625</v>
+        <v>312.4984130859375</v>
       </c>
       <c r="BU2" t="n">
-        <v>322.7463989257812</v>
+        <v>312.7011108398438</v>
       </c>
       <c r="BV2" t="n">
-        <v>322.6788330078125</v>
+        <v>312.7163696289062</v>
       </c>
       <c r="BW2" t="n">
-        <v>322.6146850585938</v>
+        <v>312.7008666992188</v>
       </c>
       <c r="BX2" t="n">
-        <v>322.5422668457031</v>
+        <v>312.698486328125</v>
       </c>
       <c r="BY2" t="n">
-        <v>322.4759521484375</v>
+        <v>312.7003173828125</v>
       </c>
       <c r="BZ2" t="n">
-        <v>322.3911743164062</v>
+        <v>312.693359375</v>
       </c>
       <c r="CA2" t="n">
-        <v>322.2155151367188</v>
+        <v>312.647705078125</v>
       </c>
       <c r="CB2" t="n">
-        <v>322.1210327148438</v>
+        <v>312.1751403808594</v>
       </c>
       <c r="CC2" t="n">
-        <v>322.0355834960938</v>
+        <v>311.1438293457031</v>
       </c>
       <c r="CD2" t="n">
-        <v>321.9270629882812</v>
+        <v>308.7863159179688</v>
       </c>
       <c r="CE2" t="n">
-        <v>321.8155517578125</v>
+        <v>308.0220031738281</v>
       </c>
       <c r="CF2" t="n">
-        <v>321.7113952636719</v>
+        <v>307.6566162109375</v>
       </c>
       <c r="CG2" t="n">
-        <v>321.6029052734375</v>
+        <v>307.478515625</v>
       </c>
       <c r="CH2" t="n">
-        <v>321.5049743652344</v>
+        <v>307.3199157714844</v>
       </c>
       <c r="CI2" t="n">
-        <v>321.4097595214844</v>
+        <v>307.2235107421875</v>
       </c>
       <c r="CJ2" t="n">
-        <v>321.3076477050781</v>
+        <v>307.0978698730469</v>
       </c>
       <c r="CK2" t="n">
-        <v>321.2049560546875</v>
+        <v>306.9866638183594</v>
       </c>
       <c r="CL2" t="n">
-        <v>321.1127319335938</v>
+        <v>306.9385375976562</v>
       </c>
       <c r="CM2" t="n">
-        <v>321.0010986328125</v>
+        <v>306.8909606933594</v>
       </c>
       <c r="CN2" t="n">
-        <v>320.8857727050781</v>
+        <v>306.8384399414062</v>
       </c>
       <c r="CO2" t="n">
-        <v>320.7597351074219</v>
+        <v>306.7883605957031</v>
       </c>
       <c r="CP2" t="n">
-        <v>320.6376953125</v>
+        <v>306.6644287109375</v>
       </c>
       <c r="CQ2" t="n">
-        <v>320.512451171875</v>
+        <v>306.6039123535156</v>
       </c>
       <c r="CR2" t="n">
-        <v>320.3903198242188</v>
+        <v>306.5435180664062</v>
       </c>
       <c r="CS2" t="n">
-        <v>320.284912109375</v>
+        <v>306.4145812988281</v>
       </c>
       <c r="CT2" t="n">
-        <v>320.2301635742188</v>
+        <v>306.3472900390625</v>
       </c>
       <c r="CU2" t="n">
-        <v>320.1801147460938</v>
+        <v>306.2056579589844</v>
       </c>
       <c r="CV2" t="n">
-        <v>320.1316833496094</v>
+        <v>306.1370849609375</v>
       </c>
       <c r="CW2" t="n">
-        <v>320.0718383789062</v>
+        <v>306</v>
       </c>
       <c r="CX2" t="n">
-        <v>320.0384216308594</v>
+        <v>305.9328918457031</v>
       </c>
       <c r="CY2" t="n">
-        <v>320.0100402832031</v>
+        <v>305.8671569824219</v>
       </c>
       <c r="CZ2" t="n">
-        <v>319.9952392578125</v>
+        <v>305.8308410644531</v>
       </c>
       <c r="DA2" t="n">
-        <v>319.9872741699219</v>
+        <v>305.8202514648438</v>
       </c>
       <c r="DB2" t="n">
-        <v>319.9713134765625</v>
+        <v>305.8402404785156</v>
       </c>
       <c r="DC2" t="n">
-        <v>319.9622192382812</v>
+        <v>305.8404541015625</v>
       </c>
       <c r="DD2" t="n">
-        <v>319.9525756835938</v>
+        <v>305.842041015625</v>
       </c>
       <c r="DE2" t="n">
-        <v>319.9433288574219</v>
+        <v>305.8458862304688</v>
       </c>
       <c r="DF2" t="n">
-        <v>319.9339904785156</v>
+        <v>305.8497924804688</v>
       </c>
       <c r="DG2" t="n">
-        <v>319.9244689941406</v>
+        <v>305.8553161621094</v>
       </c>
       <c r="DH2" t="n">
-        <v>319.9095764160156</v>
+        <v>305.8566284179688</v>
       </c>
       <c r="DI2" t="n">
-        <v>319.8905944824219</v>
+        <v>305.8587036132812</v>
       </c>
       <c r="DJ2" t="n">
-        <v>319.871337890625</v>
+        <v>305.8596496582031</v>
       </c>
       <c r="DK2" t="n">
-        <v>319.833740234375</v>
+        <v>305.8607788085938</v>
       </c>
       <c r="DL2" t="n">
-        <v>319.7579040527344</v>
+        <v>305.8611145019531</v>
       </c>
       <c r="DM2" t="n">
-        <v>319.7252807617188</v>
+        <v>305.8613891601562</v>
       </c>
       <c r="DN2" t="n">
-        <v>319.6682739257812</v>
+        <v>305.8614196777344</v>
       </c>
       <c r="DO2" t="n">
-        <v>319.6409912109375</v>
+        <v>305.8614807128906</v>
       </c>
       <c r="DP2" t="n">
-        <v>319.4842529296875</v>
+        <v>305.8616027832031</v>
       </c>
       <c r="DQ2" t="n">
-        <v>319.3150024414062</v>
+        <v>305.8617248535156</v>
       </c>
       <c r="DR2" t="n">
-        <v>319.1445007324219</v>
+        <v>305.8617553710938</v>
       </c>
       <c r="DS2" t="n">
-        <v>318.9511108398438</v>
+        <v>305.8610229492188</v>
       </c>
       <c r="DT2" t="n">
-        <v>318.5691223144531</v>
+        <v>305.8608093261719</v>
       </c>
       <c r="DU2" t="n">
-        <v>318.3961486816406</v>
+        <v>305.8606872558594</v>
       </c>
       <c r="DV2" t="n">
-        <v>318.0259399414062</v>
+        <v>305.8604736328125</v>
       </c>
       <c r="DW2" t="n">
-        <v>317.8526306152344</v>
+        <v>305.8603820800781</v>
       </c>
       <c r="DX2" t="n">
-        <v>317.6507568359375</v>
+        <v>305.8603515625</v>
       </c>
       <c r="DY2" t="n">
-        <v>317.5048217773438</v>
+        <v>305.8604125976562</v>
       </c>
       <c r="DZ2" t="n">
-        <v>317.4650268554688</v>
+        <v>305.8604736328125</v>
       </c>
       <c r="EA2" t="n">
-        <v>317.3558044433594</v>
+        <v>305.8610229492188</v>
       </c>
       <c r="EB2" t="n">
-        <v>317.3114013671875</v>
+        <v>305.9290771484375</v>
       </c>
       <c r="EC2" t="n">
-        <v>317.1292114257812</v>
+        <v>305.9512023925781</v>
       </c>
       <c r="ED2" t="n">
-        <v>316.7623596191406</v>
+        <v>305.9715576171875</v>
       </c>
       <c r="EE2" t="n">
-        <v>316.5978088378906</v>
+        <v>305.9923095703125</v>
       </c>
       <c r="EF2" t="n">
-        <v>316.51806640625</v>
+        <v>305.9646911621094</v>
       </c>
       <c r="EG2" t="n">
-        <v>316.5612487792969</v>
+        <v>305.956787109375</v>
       </c>
       <c r="EH2" t="n">
-        <v>316.6152038574219</v>
+        <v>305.961669921875</v>
       </c>
       <c r="EI2" t="n">
-        <v>316.7579345703125</v>
+        <v>305.9936828613281</v>
       </c>
       <c r="EJ2" t="n">
-        <v>316.8343200683594</v>
+        <v>306.0159606933594</v>
       </c>
       <c r="EK2" t="n">
-        <v>316.8763122558594</v>
+        <v>306.0050354003906</v>
       </c>
       <c r="EL2" t="n">
-        <v>316.8821105957031</v>
+        <v>305.9898376464844</v>
       </c>
       <c r="EM2" t="n">
-        <v>316.8993225097656</v>
+        <v>305.9853515625</v>
       </c>
       <c r="EN2" t="n">
-        <v>316.9078369140625</v>
+        <v>305.9824829101562</v>
       </c>
       <c r="EO2" t="n">
-        <v>316.9163818359375</v>
+        <v>305.9782409667969</v>
       </c>
       <c r="EP2" t="n">
-        <v>316.9209899902344</v>
+        <v>305.9736328125</v>
       </c>
       <c r="EQ2" t="n">
-        <v>316.9312744140625</v>
+        <v>305.9727172851562</v>
       </c>
       <c r="ER2" t="n">
-        <v>316.9418640136719</v>
+        <v>305.9722595214844</v>
       </c>
       <c r="ES2" t="n">
-        <v>316.9469299316406</v>
+        <v>305.9724731445312</v>
       </c>
       <c r="ET2" t="n">
-        <v>316.9571838378906</v>
+        <v>305.9759216308594</v>
       </c>
       <c r="EU2" t="n">
-        <v>316.9627075195312</v>
+        <v>305.9775390625</v>
       </c>
       <c r="EV2" t="n">
-        <v>316.9652404785156</v>
+        <v>306.0208740234375</v>
       </c>
       <c r="EW2" t="n">
-        <v>316.9681091308594</v>
+        <v>306.0348205566406</v>
       </c>
       <c r="EX2" t="n">
-        <v>316.9721069335938</v>
+        <v>306.0521850585938</v>
       </c>
       <c r="EY2" t="n">
-        <v>316.9745788574219</v>
+        <v>306.0507507324219</v>
       </c>
       <c r="EZ2" t="n">
-        <v>316.9753723144531</v>
+        <v>306.0475463867188</v>
       </c>
       <c r="FA2" t="n">
-        <v>316.9759216308594</v>
+        <v>306.0438537597656</v>
       </c>
       <c r="FB2" t="n">
-        <v>316.975830078125</v>
+        <v>306.0447082519531</v>
       </c>
       <c r="FC2" t="n">
-        <v>316.9706420898438</v>
+        <v>306.0454711914062</v>
       </c>
       <c r="FD2" t="n">
-        <v>316.9498901367188</v>
+        <v>306.0456237792969</v>
       </c>
       <c r="FE2" t="n">
-        <v>316.9429016113281</v>
+        <v>306.0456237792969</v>
       </c>
       <c r="FF2" t="n">
-        <v>316.9383544921875</v>
+        <v>306.0455627441406</v>
       </c>
       <c r="FG2" t="n">
-        <v>316.9326171875</v>
+        <v>306.0455322265625</v>
       </c>
       <c r="FH2" t="n">
-        <v>316.9225463867188</v>
+        <v>306.0533752441406</v>
       </c>
       <c r="FI2" t="n">
-        <v>316.6132507324219</v>
+        <v>306.0654602050781</v>
       </c>
       <c r="FJ2" t="n">
-        <v>316.2671508789062</v>
+        <v>306.0888366699219</v>
       </c>
       <c r="FK2" t="n">
-        <v>316.0748291015625</v>
+        <v>306.1111145019531</v>
       </c>
       <c r="FL2" t="n">
-        <v>315.6952209472656</v>
+        <v>306.1184997558594</v>
       </c>
       <c r="FM2" t="n">
-        <v>315.5079345703125</v>
+        <v>306.1192321777344</v>
       </c>
       <c r="FN2" t="n">
-        <v>315.1443786621094</v>
+        <v>306.117919921875</v>
       </c>
       <c r="FO2" t="n">
-        <v>314.9784240722656</v>
+        <v>306.1166687011719</v>
       </c>
       <c r="FP2" t="n">
-        <v>314.8718872070312</v>
+        <v>306.115966796875</v>
       </c>
       <c r="FQ2" t="n">
-        <v>314.8394775390625</v>
+        <v>306.1071166992188</v>
       </c>
       <c r="FR2" t="n">
-        <v>314.7909851074219</v>
+        <v>306.100341796875</v>
       </c>
       <c r="FS2" t="n">
-        <v>314.7799072265625</v>
+        <v>306.0918579101562</v>
       </c>
       <c r="FT2" t="n">
-        <v>314.640869140625</v>
+        <v>306.0779724121094</v>
       </c>
       <c r="FU2" t="n">
-        <v>314.486328125</v>
+        <v>306.0018615722656</v>
       </c>
       <c r="FV2" t="n">
-        <v>314.4175720214844</v>
+        <v>305.9724426269531</v>
       </c>
       <c r="FW2" t="n">
-        <v>314.298583984375</v>
+        <v>305.9485473632812</v>
       </c>
       <c r="FX2" t="n">
-        <v>314.2798767089844</v>
+        <v>305.9429931640625</v>
       </c>
       <c r="FY2" t="n">
-        <v>314.2655639648438</v>
+        <v>305.9328308105469</v>
       </c>
       <c r="FZ2" t="n">
-        <v>314.2608947753906</v>
+        <v>305.9190979003906</v>
       </c>
       <c r="GA2" t="n">
-        <v>314.259521484375</v>
+        <v>305.8996887207031</v>
       </c>
       <c r="GB2" t="n">
-        <v>314.2582397460938</v>
+        <v>305.8871154785156</v>
       </c>
       <c r="GC2" t="n">
-        <v>314.2561950683594</v>
+        <v>305.8711547851562</v>
       </c>
       <c r="GD2" t="n">
-        <v>314.2557067871094</v>
+        <v>305.8545227050781</v>
       </c>
       <c r="GE2" t="n">
-        <v>314.2549133300781</v>
+        <v>305.8454284667969</v>
       </c>
       <c r="GF2" t="n">
-        <v>314.2544250488281</v>
+        <v>305.6232299804688</v>
       </c>
       <c r="GG2" t="n">
-        <v>314.2451782226562</v>
+        <v>305.2803649902344</v>
       </c>
       <c r="GH2" t="n">
-        <v>314.21826171875</v>
+        <v>305.1169738769531</v>
       </c>
       <c r="GI2" t="n">
-        <v>314.2070617675781</v>
+        <v>305.0518188476562</v>
       </c>
       <c r="GJ2" t="n">
-        <v>314.2009887695312</v>
+        <v>305.0332336425781</v>
       </c>
       <c r="GK2" t="n">
-        <v>314.197265625</v>
+        <v>305.0342102050781</v>
       </c>
       <c r="GL2" t="n">
-        <v>314.1961364746094</v>
+        <v>305.0506286621094</v>
       </c>
       <c r="GM2" t="n">
-        <v>314.1947631835938</v>
+        <v>305.0649108886719</v>
       </c>
       <c r="GN2" t="n">
-        <v>314.1941223144531</v>
+        <v>305.096923828125</v>
       </c>
       <c r="GO2" t="n">
-        <v>314.1930236816406</v>
+        <v>305.095703125</v>
       </c>
       <c r="GP2" t="n">
-        <v>314.1923828125</v>
+        <v>305.0935363769531</v>
       </c>
       <c r="GQ2" t="n">
-        <v>314.1933898925781</v>
+        <v>305.0923461914062</v>
       </c>
       <c r="GR2" t="n">
-        <v>314.1992797851562</v>
+        <v>305.092041015625</v>
       </c>
       <c r="GS2" t="n">
-        <v>314.2079467773438</v>
+        <v>305.0931701660156</v>
       </c>
       <c r="GT2" t="n">
-        <v>314.2041015625</v>
+        <v>305.0903625488281</v>
       </c>
       <c r="GU2" t="n">
-        <v>314.201171875</v>
+        <v>305.0860900878906</v>
       </c>
       <c r="GV2" t="n">
-        <v>314.2004089355469</v>
+        <v>305.0871276855469</v>
       </c>
       <c r="GW2" t="n">
-        <v>314.2000732421875</v>
+        <v>305.120849609375</v>
       </c>
       <c r="GX2" t="n">
-        <v>314.1979064941406</v>
+        <v>305.1673278808594</v>
       </c>
       <c r="GY2" t="n">
-        <v>314.1950378417969</v>
+        <v>305.1899108886719</v>
       </c>
       <c r="GZ2" t="n">
-        <v>314.1904296875</v>
+        <v>305.2120361328125</v>
       </c>
       <c r="HA2" t="n">
-        <v>314.1852722167969</v>
+        <v>305.234375</v>
       </c>
       <c r="HB2" t="n">
-        <v>314.1831359863281</v>
+        <v>305.2696838378906</v>
       </c>
       <c r="HC2" t="n">
-        <v>314.1598510742188</v>
+        <v>305.29443359375</v>
       </c>
       <c r="HD2" t="n">
-        <v>314.1358032226562</v>
+        <v>305.3133239746094</v>
       </c>
       <c r="HE2" t="n">
-        <v>314.1087951660156</v>
+        <v>305.3233337402344</v>
       </c>
       <c r="HF2" t="n">
-        <v>314.0916137695312</v>
+        <v>305.3367919921875</v>
       </c>
       <c r="HG2" t="n">
-        <v>314.0554809570312</v>
+        <v>305.3502807617188</v>
       </c>
       <c r="HH2" t="n">
-        <v>314.0245056152344</v>
+        <v>305.3554382324219</v>
       </c>
       <c r="HI2" t="n">
-        <v>313.9791564941406</v>
+        <v>305.3569946289062</v>
       </c>
       <c r="HJ2" t="n">
-        <v>313.9664306640625</v>
+        <v>305.3591918945312</v>
       </c>
       <c r="HK2" t="n">
-        <v>313.9748229980469</v>
+        <v>305.3653259277344</v>
       </c>
       <c r="HL2" t="n">
-        <v>313.9738464355469</v>
+        <v>305.3751220703125</v>
       </c>
       <c r="HM2" t="n">
-        <v>313.9737548828125</v>
+        <v>305.3798828125</v>
       </c>
       <c r="HN2" t="n">
-        <v>313.973388671875</v>
+        <v>305.3880004882812</v>
       </c>
       <c r="HO2" t="n">
-        <v>313.9730834960938</v>
+        <v>305.4015808105469</v>
       </c>
       <c r="HP2" t="n">
-        <v>313.9728088378906</v>
+        <v>305.4043273925781</v>
       </c>
       <c r="HQ2" t="n">
-        <v>313.9725646972656</v>
+        <v>305.4094848632812</v>
       </c>
       <c r="HR2" t="n">
-        <v>313.9723510742188</v>
+        <v>305.4366455078125</v>
       </c>
       <c r="HS2" t="n">
-        <v>313.9722900390625</v>
+        <v>305.5386047363281</v>
       </c>
       <c r="HT2" t="n">
-        <v>313.9727478027344</v>
+        <v>305.6729125976562</v>
       </c>
       <c r="HU2" t="n">
-        <v>313.9730834960938</v>
+        <v>305.7468566894531</v>
       </c>
       <c r="HV2" t="n">
-        <v>313.9734191894531</v>
+        <v>305.7711791992188</v>
       </c>
       <c r="HW2" t="n">
-        <v>313.9728393554688</v>
+        <v>305.7720336914062</v>
       </c>
       <c r="HX2" t="n">
-        <v>313.9254760742188</v>
+        <v>305.76708984375</v>
       </c>
       <c r="HY2" t="n">
-        <v>313.8788146972656</v>
+        <v>305.7653198242188</v>
       </c>
       <c r="HZ2" t="n">
-        <v>313.8360900878906</v>
+        <v>305.7609558105469</v>
       </c>
       <c r="IA2" t="n">
-        <v>313.6988525390625</v>
+        <v>305.7405700683594</v>
       </c>
       <c r="IB2" t="n">
-        <v>313.6056213378906</v>
+        <v>305.6877136230469</v>
       </c>
       <c r="IC2" t="n">
-        <v>313.4142456054688</v>
+        <v>305.7203369140625</v>
       </c>
       <c r="ID2" t="n">
-        <v>313.335693359375</v>
+        <v>306.0103759765625</v>
       </c>
       <c r="IE2" t="n">
-        <v>313.3024597167969</v>
+        <v>306.1820678710938</v>
       </c>
       <c r="IF2" t="n">
-        <v>313.30078125</v>
+        <v>306.2908020019531</v>
       </c>
       <c r="IG2" t="n">
-        <v>313.2994079589844</v>
+        <v>306.3348999023438</v>
       </c>
       <c r="IH2" t="n">
-        <v>313.2986145019531</v>
+        <v>306.3679504394531</v>
       </c>
       <c r="II2" t="n">
-        <v>313.2978820800781</v>
+        <v>306.3584899902344</v>
       </c>
       <c r="IJ2" t="n">
-        <v>313.361083984375</v>
+        <v>306.3572082519531</v>
       </c>
       <c r="IK2" t="n">
-        <v>313.3773498535156</v>
+        <v>306.3646545410156</v>
       </c>
       <c r="IL2" t="n">
-        <v>313.3880004882812</v>
+        <v>306.4061279296875</v>
       </c>
       <c r="IM2" t="n">
-        <v>313.3954162597656</v>
+        <v>306.3654479980469</v>
       </c>
       <c r="IN2" t="n">
-        <v>313.3967895507812</v>
+        <v>306.3174133300781</v>
       </c>
       <c r="IO2" t="n">
-        <v>313.3970336914062</v>
+        <v>306.2064208984375</v>
       </c>
       <c r="IP2" t="n">
-        <v>313.397216796875</v>
+        <v>306.0698547363281</v>
       </c>
       <c r="IQ2" t="n">
-        <v>313.3976135253906</v>
+        <v>305.9728393554688</v>
       </c>
       <c r="IR2" t="n">
-        <v>313.3976135253906</v>
+        <v>305.8468017578125</v>
       </c>
       <c r="IS2" t="n">
-        <v>313.3984375</v>
+        <v>305.8194885253906</v>
       </c>
       <c r="IT2" t="n">
-        <v>313.3995666503906</v>
+        <v>305.7905883789062</v>
       </c>
       <c r="IU2" t="n">
-        <v>313.4011840820312</v>
+        <v>305.7847900390625</v>
       </c>
       <c r="IV2" t="n">
-        <v>313.4765930175781</v>
+        <v>305.7500915527344</v>
       </c>
       <c r="IW2" t="n">
-        <v>313.6076354980469</v>
+        <v>305.60009765625</v>
       </c>
       <c r="IX2" t="n">
-        <v>313.7308654785156</v>
+        <v>305.5220031738281</v>
       </c>
       <c r="IY2" t="n">
-        <v>313.90771484375</v>
+        <v>305.4606018066406</v>
       </c>
       <c r="IZ2" t="n">
-        <v>313.9440612792969</v>
+        <v>305.3625793457031</v>
       </c>
       <c r="JA2" t="n">
-        <v>313.9329528808594</v>
+        <v>305.1839599609375</v>
       </c>
       <c r="JB2" t="n">
-        <v>313.9112854003906</v>
+        <v>305.0483093261719</v>
       </c>
       <c r="JC2" t="n">
-        <v>313.889892578125</v>
+        <v>304.80908203125</v>
       </c>
       <c r="JD2" t="n">
-        <v>313.87744140625</v>
+        <v>304.6061401367188</v>
       </c>
       <c r="JE2" t="n">
-        <v>313.84814453125</v>
+        <v>304.5570983886719</v>
       </c>
       <c r="JF2" t="n">
-        <v>313.8158874511719</v>
+        <v>304.5970458984375</v>
       </c>
       <c r="JG2" t="n">
-        <v>313.792236328125</v>
+        <v>304.698974609375</v>
       </c>
       <c r="JH2" t="n">
-        <v>313.7091369628906</v>
+        <v>304.8021850585938</v>
       </c>
       <c r="JI2" t="n">
-        <v>313.5155334472656</v>
+        <v>304.8374938964844</v>
       </c>
       <c r="JJ2" t="n">
-        <v>313.2970275878906</v>
+        <v>304.8838500976562</v>
       </c>
       <c r="JK2" t="n">
-        <v>313.0655822753906</v>
+        <v>304.9317016601562</v>
       </c>
       <c r="JL2" t="n">
-        <v>312.8392028808594</v>
+        <v>304.9746398925781</v>
       </c>
       <c r="JM2" t="n">
-        <v>312.6358337402344</v>
+        <v>305.0309448242188</v>
       </c>
       <c r="JN2" t="n">
-        <v>312.4431762695312</v>
+        <v>305.0841674804688</v>
       </c>
       <c r="JO2" t="n">
-        <v>312.2351379394531</v>
+        <v>305.1121520996094</v>
       </c>
       <c r="JP2" t="n">
-        <v>312.0581665039062</v>
+        <v>305.0393676757812</v>
       </c>
       <c r="JQ2" t="n">
-        <v>312.0266418457031</v>
+        <v>305.0429382324219</v>
       </c>
       <c r="JR2" t="n">
-        <v>312.0271911621094</v>
+        <v>305.18798828125</v>
       </c>
       <c r="JS2" t="n">
-        <v>312.0297546386719</v>
+        <v>305.4085693359375</v>
       </c>
       <c r="JT2" t="n">
-        <v>312.0333251953125</v>
+        <v>305.4653625488281</v>
       </c>
       <c r="JU2" t="n">
-        <v>312.0332946777344</v>
+        <v>305.5350952148438</v>
       </c>
       <c r="JV2" t="n">
-        <v>312.0322570800781</v>
+        <v>305.5603942871094</v>
       </c>
       <c r="JW2" t="n">
-        <v>312.0185852050781</v>
+        <v>305.5650634765625</v>
       </c>
       <c r="JX2" t="n">
-        <v>311.76220703125</v>
+        <v>305.5654602050781</v>
       </c>
       <c r="JY2" t="n">
-        <v>311.6110229492188</v>
+        <v>305.5650634765625</v>
       </c>
       <c r="JZ2" t="n">
-        <v>311.48095703125</v>
+        <v>305.5648803710938</v>
       </c>
       <c r="KA2" t="n">
-        <v>310.4369201660156</v>
+        <v>305.6077270507812</v>
       </c>
       <c r="KB2" t="n">
-        <v>308.8287658691406</v>
+        <v>306.5881652832031</v>
       </c>
       <c r="KC2" t="n">
-        <v>307.7015380859375</v>
+        <v>310.0272521972656</v>
       </c>
       <c r="KD2" t="n">
-        <v>307.0714111328125</v>
+        <v>310.6695861816406</v>
       </c>
       <c r="KE2" t="n">
-        <v>306.9611206054688</v>
+        <v>310.5680236816406</v>
       </c>
       <c r="KF2" t="n">
-        <v>306.77099609375</v>
+        <v>310.5433349609375</v>
       </c>
       <c r="KG2" t="n">
-        <v>306.47900390625</v>
+        <v>310.5438232421875</v>
       </c>
       <c r="KH2" t="n">
-        <v>306.2027893066406</v>
+        <v>310.5451354980469</v>
       </c>
       <c r="KI2" t="n">
-        <v>305.9277954101562</v>
+        <v>310.5567016601562</v>
       </c>
       <c r="KJ2" t="n">
-        <v>305.4887084960938</v>
+        <v>310.5889282226562</v>
       </c>
       <c r="KK2" t="n">
-        <v>305.6442260742188</v>
+        <v>310.6246643066406</v>
       </c>
       <c r="KL2" t="n">
-        <v>307.32958984375</v>
+        <v>310.6118774414062</v>
       </c>
       <c r="KM2" t="n">
-        <v>309.8599548339844</v>
+        <v>310.6068115234375</v>
       </c>
       <c r="KN2" t="n">
-        <v>314.6449279785156</v>
+        <v>310.6030578613281</v>
       </c>
       <c r="KO2" t="n">
-        <v>320.306640625</v>
+        <v>310.6348571777344</v>
       </c>
       <c r="KP2" t="n">
-        <v>323.5821228027344</v>
+        <v>314.5972290039062</v>
       </c>
       <c r="KQ2" t="n">
-        <v>325.7445678710938</v>
+        <v>316.6190490722656</v>
       </c>
       <c r="KR2" t="n">
-        <v>327.3391418457031</v>
+        <v>317.7555236816406</v>
       </c>
       <c r="KS2" t="n">
-        <v>328.5416259765625</v>
+        <v>319.5603637695312</v>
       </c>
       <c r="KT2" t="n">
-        <v>328.4407043457031</v>
+        <v>321.6920166015625</v>
       </c>
       <c r="KU2" t="n">
-        <v>325.888671875</v>
+        <v>321.9708557128906</v>
       </c>
       <c r="KV2" t="n">
-        <v>322.5793762207031</v>
+        <v>320.3481750488281</v>
       </c>
       <c r="KW2" t="n">
-        <v>321.0073852539062</v>
+        <v>317.5392761230469</v>
       </c>
       <c r="KX2" t="n">
-        <v>319.4770202636719</v>
+        <v>313.5843505859375</v>
       </c>
       <c r="KY2" t="n">
-        <v>317.7430114746094</v>
+        <v>312.2777404785156</v>
       </c>
       <c r="KZ2" t="n">
-        <v>316.0067138671875</v>
+        <v>311.2610778808594</v>
       </c>
       <c r="LA2" t="n">
-        <v>313.98828125</v>
+        <v>310.9210510253906</v>
       </c>
       <c r="LB2" t="n">
-        <v>313.436767578125</v>
+        <v>312.2937622070312</v>
       </c>
       <c r="LC2" t="n">
-        <v>313.4649658203125</v>
+        <v>314.2681274414062</v>
       </c>
       <c r="LD2" t="n">
-        <v>314.1763305664062</v>
+        <v>317.4601745605469</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>321.1090087890625</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>323.6443481445312</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>323.9020385742188</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>322.3477172851562</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>316.5824279785156</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>313.14111328125</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>313.6780700683594</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>324.915771484375</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>355.1236267089844</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>374.1934204101562</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>353.9163208007812</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>240.8019104003906</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>227.4389343261719</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>362.948974609375</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>375.1925048828125</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>223.3336791992188</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>300.3085632324219</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>317.6240234375</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>276.0826110839844</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>280.4297790527344</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>270.0616455078125</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>258.2482604980469</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>264.6730346679688</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>281.9570922851562</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>278.51806640625</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>275.2763671875</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>272.1735534667969</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>268.3049621582031</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>120.5993804931641</v>
+        <v>76.73399353027344</v>
       </c>
       <c r="B3" t="n">
-        <v>118.1131057739258</v>
+        <v>82.77153015136719</v>
       </c>
       <c r="C3" t="n">
-        <v>119.0209884643555</v>
+        <v>88.02021026611328</v>
       </c>
       <c r="D3" t="n">
-        <v>122.0051879882812</v>
+        <v>92.93373107910156</v>
       </c>
       <c r="E3" t="n">
-        <v>126.7593536376953</v>
+        <v>97.20398712158203</v>
       </c>
       <c r="F3" t="n">
-        <v>132.1723022460938</v>
+        <v>100.4538269042969</v>
       </c>
       <c r="G3" t="n">
-        <v>137.1122283935547</v>
+        <v>103.7257232666016</v>
       </c>
       <c r="H3" t="n">
-        <v>141.4455108642578</v>
+        <v>106.990608215332</v>
       </c>
       <c r="I3" t="n">
-        <v>145.8650970458984</v>
+        <v>110.2716674804688</v>
       </c>
       <c r="J3" t="n">
-        <v>150.6102752685547</v>
+        <v>113.5141754150391</v>
       </c>
       <c r="K3" t="n">
-        <v>156.9753723144531</v>
+        <v>116.5787811279297</v>
       </c>
       <c r="L3" t="n">
-        <v>163.0794372558594</v>
+        <v>118.8903198242188</v>
       </c>
       <c r="M3" t="n">
-        <v>168.6825408935547</v>
+        <v>119.6818084716797</v>
       </c>
       <c r="N3" t="n">
-        <v>172.4683685302734</v>
+        <v>118.6615600585938</v>
       </c>
       <c r="O3" t="n">
-        <v>175.1172637939453</v>
+        <v>118.2871170043945</v>
       </c>
       <c r="P3" t="n">
-        <v>176.9880218505859</v>
+        <v>118.2745590209961</v>
       </c>
       <c r="Q3" t="n">
-        <v>177.3208923339844</v>
+        <v>119.3929443359375</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5726776123047</v>
+        <v>121.5779113769531</v>
       </c>
       <c r="S3" t="n">
-        <v>176.8003234863281</v>
+        <v>124.2425079345703</v>
       </c>
       <c r="T3" t="n">
-        <v>177.3730316162109</v>
+        <v>127.4905853271484</v>
       </c>
       <c r="U3" t="n">
-        <v>178.2806549072266</v>
+        <v>130.4185180664062</v>
       </c>
       <c r="V3" t="n">
-        <v>180.0537109375</v>
+        <v>133.6164245605469</v>
       </c>
       <c r="W3" t="n">
-        <v>183.6933441162109</v>
+        <v>136.8854827880859</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4503173828125</v>
+        <v>140.2203826904297</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.6656646728516</v>
+        <v>143.2461242675781</v>
       </c>
       <c r="Z3" t="n">
-        <v>194.6427459716797</v>
+        <v>146.2471771240234</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.4813385009766</v>
+        <v>149.2508239746094</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.5086822509766</v>
+        <v>151.7495422363281</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.8124542236328</v>
+        <v>153.8856658935547</v>
       </c>
       <c r="AD3" t="n">
-        <v>209.4687347412109</v>
+        <v>155.4095764160156</v>
       </c>
       <c r="AE3" t="n">
-        <v>211.3644866943359</v>
+        <v>156.2527770996094</v>
       </c>
       <c r="AF3" t="n">
-        <v>212.9278259277344</v>
+        <v>155.4092864990234</v>
       </c>
       <c r="AG3" t="n">
-        <v>214.5090026855469</v>
+        <v>154.427978515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>216.0171661376953</v>
+        <v>153.5412445068359</v>
       </c>
       <c r="AI3" t="n">
-        <v>217.3064117431641</v>
+        <v>153.3360748291016</v>
       </c>
       <c r="AJ3" t="n">
-        <v>217.9846801757812</v>
+        <v>153.5667419433594</v>
       </c>
       <c r="AK3" t="n">
-        <v>218.5011596679688</v>
+        <v>154.0972442626953</v>
       </c>
       <c r="AL3" t="n">
-        <v>218.2793426513672</v>
+        <v>154.501953125</v>
       </c>
       <c r="AM3" t="n">
-        <v>218.1606140136719</v>
+        <v>154.7292938232422</v>
       </c>
       <c r="AN3" t="n">
-        <v>217.9702911376953</v>
+        <v>155.1420135498047</v>
       </c>
       <c r="AO3" t="n">
-        <v>217.9988403320312</v>
+        <v>155.6886444091797</v>
       </c>
       <c r="AP3" t="n">
-        <v>218.1969146728516</v>
+        <v>156.67919921875</v>
       </c>
       <c r="AQ3" t="n">
-        <v>219.1097869873047</v>
+        <v>158.1614532470703</v>
       </c>
       <c r="AR3" t="n">
-        <v>220.2040405273438</v>
+        <v>159.3930053710938</v>
       </c>
       <c r="AS3" t="n">
-        <v>220.9417572021484</v>
+        <v>160.3289794921875</v>
       </c>
       <c r="AT3" t="n">
-        <v>221.1632080078125</v>
+        <v>160.8032989501953</v>
       </c>
       <c r="AU3" t="n">
-        <v>221.4333801269531</v>
+        <v>161.7752838134766</v>
       </c>
       <c r="AV3" t="n">
-        <v>222.4191741943359</v>
+        <v>163.1021118164062</v>
       </c>
       <c r="AW3" t="n">
-        <v>223.7901153564453</v>
+        <v>164.5071716308594</v>
       </c>
       <c r="AX3" t="n">
-        <v>225.0713958740234</v>
+        <v>165.3859100341797</v>
       </c>
       <c r="AY3" t="n">
-        <v>226.0343322753906</v>
+        <v>165.7344512939453</v>
       </c>
       <c r="AZ3" t="n">
-        <v>226.6209259033203</v>
+        <v>166.0823974609375</v>
       </c>
       <c r="BA3" t="n">
-        <v>226.9095458984375</v>
+        <v>166.1860504150391</v>
       </c>
       <c r="BB3" t="n">
-        <v>227.0369873046875</v>
+        <v>166.3712463378906</v>
       </c>
       <c r="BC3" t="n">
-        <v>227.0743408203125</v>
+        <v>166.3726806640625</v>
       </c>
       <c r="BD3" t="n">
-        <v>226.8427276611328</v>
+        <v>166.6204986572266</v>
       </c>
       <c r="BE3" t="n">
-        <v>226.6519317626953</v>
+        <v>166.5001678466797</v>
       </c>
       <c r="BF3" t="n">
-        <v>226.3822631835938</v>
+        <v>166.3744506835938</v>
       </c>
       <c r="BG3" t="n">
-        <v>225.9857788085938</v>
+        <v>166.6435699462891</v>
       </c>
       <c r="BH3" t="n">
-        <v>225.5004730224609</v>
+        <v>167.1369934082031</v>
       </c>
       <c r="BI3" t="n">
-        <v>225.28662109375</v>
+        <v>167.3828277587891</v>
       </c>
       <c r="BJ3" t="n">
-        <v>225.4815673828125</v>
+        <v>167.5626068115234</v>
       </c>
       <c r="BK3" t="n">
-        <v>225.5915222167969</v>
+        <v>167.6082916259766</v>
       </c>
       <c r="BL3" t="n">
-        <v>225.3091430664062</v>
+        <v>167.5624237060547</v>
       </c>
       <c r="BM3" t="n">
-        <v>225.4940948486328</v>
+        <v>167.6056823730469</v>
       </c>
       <c r="BN3" t="n">
-        <v>225.6278839111328</v>
+        <v>167.8395843505859</v>
       </c>
       <c r="BO3" t="n">
-        <v>225.7402954101562</v>
+        <v>168.1761169433594</v>
       </c>
       <c r="BP3" t="n">
-        <v>225.8150787353516</v>
+        <v>168.287353515625</v>
       </c>
       <c r="BQ3" t="n">
-        <v>225.8675689697266</v>
+        <v>168.2772216796875</v>
       </c>
       <c r="BR3" t="n">
-        <v>225.9034729003906</v>
+        <v>168.3299560546875</v>
       </c>
       <c r="BS3" t="n">
-        <v>225.9256591796875</v>
+        <v>168.4475402832031</v>
       </c>
       <c r="BT3" t="n">
-        <v>225.940185546875</v>
+        <v>168.7422943115234</v>
       </c>
       <c r="BU3" t="n">
-        <v>225.5729217529297</v>
+        <v>168.9691162109375</v>
       </c>
       <c r="BV3" t="n">
-        <v>225.2805633544922</v>
+        <v>168.6970977783203</v>
       </c>
       <c r="BW3" t="n">
-        <v>225.0443420410156</v>
+        <v>169.0874176025391</v>
       </c>
       <c r="BX3" t="n">
-        <v>224.8556976318359</v>
+        <v>169.6725006103516</v>
       </c>
       <c r="BY3" t="n">
-        <v>224.7075042724609</v>
+        <v>170.2246856689453</v>
       </c>
       <c r="BZ3" t="n">
-        <v>224.5891265869141</v>
+        <v>170.4903564453125</v>
       </c>
       <c r="CA3" t="n">
-        <v>224.2651824951172</v>
+        <v>170.4751281738281</v>
       </c>
       <c r="CB3" t="n">
-        <v>224.1843872070312</v>
+        <v>170.4544677734375</v>
       </c>
       <c r="CC3" t="n">
-        <v>224.1196746826172</v>
+        <v>170.3493194580078</v>
       </c>
       <c r="CD3" t="n">
-        <v>224.1123046875</v>
+        <v>170.2630615234375</v>
       </c>
       <c r="CE3" t="n">
-        <v>224.1656799316406</v>
+        <v>170.2729644775391</v>
       </c>
       <c r="CF3" t="n">
-        <v>224.2244110107422</v>
+        <v>170.3340148925781</v>
       </c>
       <c r="CG3" t="n">
-        <v>224.273681640625</v>
+        <v>170.3803558349609</v>
       </c>
       <c r="CH3" t="n">
-        <v>224.3126220703125</v>
+        <v>170.3776245117188</v>
       </c>
       <c r="CI3" t="n">
-        <v>224.7442474365234</v>
+        <v>170.23828125</v>
       </c>
       <c r="CJ3" t="n">
-        <v>225.1170196533203</v>
+        <v>170.0251159667969</v>
       </c>
       <c r="CK3" t="n">
-        <v>225.3754119873047</v>
+        <v>170.0096588134766</v>
       </c>
       <c r="CL3" t="n">
-        <v>225.5713195800781</v>
+        <v>170.0891418457031</v>
       </c>
       <c r="CM3" t="n">
-        <v>225.7267456054688</v>
+        <v>170.1588592529297</v>
       </c>
       <c r="CN3" t="n">
-        <v>225.8751068115234</v>
+        <v>170.2210083007812</v>
       </c>
       <c r="CO3" t="n">
-        <v>226.0131683349609</v>
+        <v>170.2781677246094</v>
       </c>
       <c r="CP3" t="n">
-        <v>226.13134765625</v>
+        <v>170.3351898193359</v>
       </c>
       <c r="CQ3" t="n">
-        <v>226.2703704833984</v>
+        <v>170.4000549316406</v>
       </c>
       <c r="CR3" t="n">
-        <v>226.3879241943359</v>
+        <v>170.4515838623047</v>
       </c>
       <c r="CS3" t="n">
-        <v>226.3595123291016</v>
+        <v>170.5417938232422</v>
       </c>
       <c r="CT3" t="n">
-        <v>226.2825012207031</v>
+        <v>170.5396575927734</v>
       </c>
       <c r="CU3" t="n">
-        <v>226.28173828125</v>
+        <v>170.5078430175781</v>
       </c>
       <c r="CV3" t="n">
-        <v>226.2951354980469</v>
+        <v>170.4957580566406</v>
       </c>
       <c r="CW3" t="n">
-        <v>226.2286376953125</v>
+        <v>170.4776000976562</v>
       </c>
       <c r="CX3" t="n">
-        <v>226.1956481933594</v>
+        <v>170.4706115722656</v>
       </c>
       <c r="CY3" t="n">
-        <v>226.2263031005859</v>
+        <v>170.4638366699219</v>
       </c>
       <c r="CZ3" t="n">
-        <v>226.2597351074219</v>
+        <v>170.4419555664062</v>
       </c>
       <c r="DA3" t="n">
-        <v>226.3341064453125</v>
+        <v>170.4228210449219</v>
       </c>
       <c r="DB3" t="n">
-        <v>226.4266815185547</v>
+        <v>170.3912506103516</v>
       </c>
       <c r="DC3" t="n">
-        <v>226.4454040527344</v>
+        <v>170.379638671875</v>
       </c>
       <c r="DD3" t="n">
-        <v>226.4645690917969</v>
+        <v>170.3591766357422</v>
       </c>
       <c r="DE3" t="n">
-        <v>226.5119171142578</v>
+        <v>170.3879852294922</v>
       </c>
       <c r="DF3" t="n">
-        <v>226.54541015625</v>
+        <v>170.3927001953125</v>
       </c>
       <c r="DG3" t="n">
-        <v>226.585205078125</v>
+        <v>170.3991394042969</v>
       </c>
       <c r="DH3" t="n">
-        <v>226.6234283447266</v>
+        <v>170.4189758300781</v>
       </c>
       <c r="DI3" t="n">
-        <v>226.62939453125</v>
+        <v>170.4341278076172</v>
       </c>
       <c r="DJ3" t="n">
-        <v>226.6380615234375</v>
+        <v>170.4326782226562</v>
       </c>
       <c r="DK3" t="n">
-        <v>226.6772003173828</v>
+        <v>170.4173889160156</v>
       </c>
       <c r="DL3" t="n">
-        <v>227.0136108398438</v>
+        <v>170.4127502441406</v>
       </c>
       <c r="DM3" t="n">
-        <v>226.9486083984375</v>
+        <v>170.4058380126953</v>
       </c>
       <c r="DN3" t="n">
-        <v>226.9486541748047</v>
+        <v>170.4004821777344</v>
       </c>
       <c r="DO3" t="n">
-        <v>226.9929351806641</v>
+        <v>170.396728515625</v>
       </c>
       <c r="DP3" t="n">
-        <v>227.0346832275391</v>
+        <v>170.3917999267578</v>
       </c>
       <c r="DQ3" t="n">
-        <v>227.0795288085938</v>
+        <v>170.3800354003906</v>
       </c>
       <c r="DR3" t="n">
-        <v>227.1157989501953</v>
+        <v>170.3743743896484</v>
       </c>
       <c r="DS3" t="n">
-        <v>227.1598205566406</v>
+        <v>170.366455078125</v>
       </c>
       <c r="DT3" t="n">
-        <v>227.2577819824219</v>
+        <v>170.3654327392578</v>
       </c>
       <c r="DU3" t="n">
-        <v>227.3261413574219</v>
+        <v>170.3647308349609</v>
       </c>
       <c r="DV3" t="n">
-        <v>227.4498138427734</v>
+        <v>170.3628692626953</v>
       </c>
       <c r="DW3" t="n">
-        <v>227.5084075927734</v>
+        <v>170.3622436523438</v>
       </c>
       <c r="DX3" t="n">
-        <v>227.5832977294922</v>
+        <v>170.3621673583984</v>
       </c>
       <c r="DY3" t="n">
-        <v>227.6755523681641</v>
+        <v>170.3613128662109</v>
       </c>
       <c r="DZ3" t="n">
-        <v>227.81982421875</v>
+        <v>170.3590087890625</v>
       </c>
       <c r="EA3" t="n">
-        <v>228.1015167236328</v>
+        <v>170.3569030761719</v>
       </c>
       <c r="EB3" t="n">
-        <v>228.2402954101562</v>
+        <v>170.3880615234375</v>
       </c>
       <c r="EC3" t="n">
-        <v>228.3175506591797</v>
+        <v>170.4119262695312</v>
       </c>
       <c r="ED3" t="n">
-        <v>228.2783813476562</v>
+        <v>170.4383239746094</v>
       </c>
       <c r="EE3" t="n">
-        <v>228.2593841552734</v>
+        <v>170.4959564208984</v>
       </c>
       <c r="EF3" t="n">
-        <v>228.2467956542969</v>
+        <v>170.5220947265625</v>
       </c>
       <c r="EG3" t="n">
-        <v>228.2668762207031</v>
+        <v>170.5734252929688</v>
       </c>
       <c r="EH3" t="n">
-        <v>228.32763671875</v>
+        <v>170.5797729492188</v>
       </c>
       <c r="EI3" t="n">
-        <v>228.4203491210938</v>
+        <v>170.8523864746094</v>
       </c>
       <c r="EJ3" t="n">
-        <v>228.4400482177734</v>
+        <v>171.0362548828125</v>
       </c>
       <c r="EK3" t="n">
-        <v>228.4515686035156</v>
+        <v>170.9040985107422</v>
       </c>
       <c r="EL3" t="n">
-        <v>228.4533233642578</v>
+        <v>170.7537078857422</v>
       </c>
       <c r="EM3" t="n">
-        <v>228.5724639892578</v>
+        <v>170.7166900634766</v>
       </c>
       <c r="EN3" t="n">
-        <v>228.5829772949219</v>
+        <v>170.6949462890625</v>
       </c>
       <c r="EO3" t="n">
-        <v>228.5154571533203</v>
+        <v>170.6591186523438</v>
       </c>
       <c r="EP3" t="n">
-        <v>228.4604949951172</v>
+        <v>170.6242980957031</v>
       </c>
       <c r="EQ3" t="n">
-        <v>228.2839050292969</v>
+        <v>170.6209411621094</v>
       </c>
       <c r="ER3" t="n">
-        <v>228.1405334472656</v>
+        <v>170.6233978271484</v>
       </c>
       <c r="ES3" t="n">
-        <v>228.1163635253906</v>
+        <v>170.6390991210938</v>
       </c>
       <c r="ET3" t="n">
-        <v>228.09423828125</v>
+        <v>170.7979888916016</v>
       </c>
       <c r="EU3" t="n">
-        <v>228.08984375</v>
+        <v>170.9118804931641</v>
       </c>
       <c r="EV3" t="n">
-        <v>228.0858154296875</v>
+        <v>170.7922668457031</v>
       </c>
       <c r="EW3" t="n">
-        <v>228.067626953125</v>
+        <v>170.7247161865234</v>
       </c>
       <c r="EX3" t="n">
-        <v>228.0390167236328</v>
+        <v>170.6026763916016</v>
       </c>
       <c r="EY3" t="n">
-        <v>228.0261840820312</v>
+        <v>170.5134124755859</v>
       </c>
       <c r="EZ3" t="n">
-        <v>228.0172882080078</v>
+        <v>170.4698638916016</v>
       </c>
       <c r="FA3" t="n">
-        <v>227.9969177246094</v>
+        <v>170.4421539306641</v>
       </c>
       <c r="FB3" t="n">
-        <v>227.9876556396484</v>
+        <v>170.46875</v>
       </c>
       <c r="FC3" t="n">
-        <v>227.7418365478516</v>
+        <v>170.4846496582031</v>
       </c>
       <c r="FD3" t="n">
-        <v>226.5960083007812</v>
+        <v>170.4880523681641</v>
       </c>
       <c r="FE3" t="n">
-        <v>226.213134765625</v>
+        <v>170.4892272949219</v>
       </c>
       <c r="FF3" t="n">
-        <v>225.9846496582031</v>
+        <v>170.4886474609375</v>
       </c>
       <c r="FG3" t="n">
-        <v>225.8455963134766</v>
+        <v>170.4881439208984</v>
       </c>
       <c r="FH3" t="n">
-        <v>225.8212127685547</v>
+        <v>170.4201049804688</v>
       </c>
       <c r="FI3" t="n">
-        <v>225.7584381103516</v>
+        <v>170.3628845214844</v>
       </c>
       <c r="FJ3" t="n">
-        <v>225.677978515625</v>
+        <v>170.5950469970703</v>
       </c>
       <c r="FK3" t="n">
-        <v>225.6363983154297</v>
+        <v>170.8029632568359</v>
       </c>
       <c r="FL3" t="n">
-        <v>225.5935821533203</v>
+        <v>171.0018157958984</v>
       </c>
       <c r="FM3" t="n">
-        <v>225.5614776611328</v>
+        <v>171.0852203369141</v>
       </c>
       <c r="FN3" t="n">
-        <v>226.2707214355469</v>
+        <v>171.0474090576172</v>
       </c>
       <c r="FO3" t="n">
-        <v>226.5350799560547</v>
+        <v>170.9959411621094</v>
       </c>
       <c r="FP3" t="n">
-        <v>226.8935546875</v>
+        <v>170.9610443115234</v>
       </c>
       <c r="FQ3" t="n">
-        <v>227.0172424316406</v>
+        <v>170.8706817626953</v>
       </c>
       <c r="FR3" t="n">
-        <v>227.8636016845703</v>
+        <v>170.8090057373047</v>
       </c>
       <c r="FS3" t="n">
-        <v>228.3021240234375</v>
+        <v>170.7419128417969</v>
       </c>
       <c r="FT3" t="n">
-        <v>228.5277099609375</v>
+        <v>170.6493530273438</v>
       </c>
       <c r="FU3" t="n">
-        <v>228.5035705566406</v>
+        <v>170.3310546875</v>
       </c>
       <c r="FV3" t="n">
-        <v>228.482177734375</v>
+        <v>170.1536560058594</v>
       </c>
       <c r="FW3" t="n">
-        <v>228.4158477783203</v>
+        <v>170.0862884521484</v>
       </c>
       <c r="FX3" t="n">
-        <v>228.3722686767578</v>
+        <v>170.1440277099609</v>
       </c>
       <c r="FY3" t="n">
-        <v>228.2484588623047</v>
+        <v>170.1708831787109</v>
       </c>
       <c r="FZ3" t="n">
-        <v>228.1796875</v>
+        <v>170.1693267822266</v>
       </c>
       <c r="GA3" t="n">
-        <v>228.0397338867188</v>
+        <v>170.2610321044922</v>
       </c>
       <c r="GB3" t="n">
-        <v>227.9693145751953</v>
+        <v>170.35009765625</v>
       </c>
       <c r="GC3" t="n">
-        <v>227.8495635986328</v>
+        <v>170.3756408691406</v>
       </c>
       <c r="GD3" t="n">
-        <v>227.8025207519531</v>
+        <v>170.3843536376953</v>
       </c>
       <c r="GE3" t="n">
-        <v>227.7406311035156</v>
+        <v>170.3849182128906</v>
       </c>
       <c r="GF3" t="n">
-        <v>227.7217712402344</v>
+        <v>170.3946380615234</v>
       </c>
       <c r="GG3" t="n">
-        <v>227.5675659179688</v>
+        <v>170.4190063476562</v>
       </c>
       <c r="GH3" t="n">
-        <v>226.6240386962891</v>
+        <v>170.4521942138672</v>
       </c>
       <c r="GI3" t="n">
-        <v>226.1559906005859</v>
+        <v>170.5050811767578</v>
       </c>
       <c r="GJ3" t="n">
-        <v>225.8916931152344</v>
+        <v>170.5597076416016</v>
       </c>
       <c r="GK3" t="n">
-        <v>225.7293243408203</v>
+        <v>170.6431427001953</v>
       </c>
       <c r="GL3" t="n">
-        <v>225.6717987060547</v>
+        <v>170.75830078125</v>
       </c>
       <c r="GM3" t="n">
-        <v>225.5894622802734</v>
+        <v>170.8482208251953</v>
       </c>
       <c r="GN3" t="n">
-        <v>225.5604705810547</v>
+        <v>170.9933319091797</v>
       </c>
       <c r="GO3" t="n">
-        <v>225.5254669189453</v>
+        <v>170.9373626708984</v>
       </c>
       <c r="GP3" t="n">
-        <v>225.5112915039062</v>
+        <v>170.8876953125</v>
       </c>
       <c r="GQ3" t="n">
-        <v>225.5927734375</v>
+        <v>170.8558502197266</v>
       </c>
       <c r="GR3" t="n">
-        <v>226.0252075195312</v>
+        <v>170.8451385498047</v>
       </c>
       <c r="GS3" t="n">
-        <v>226.6803436279297</v>
+        <v>170.8308258056641</v>
       </c>
       <c r="GT3" t="n">
-        <v>226.9473419189453</v>
+        <v>170.7039184570312</v>
       </c>
       <c r="GU3" t="n">
-        <v>227.0954437255859</v>
+        <v>170.5509185791016</v>
       </c>
       <c r="GV3" t="n">
-        <v>227.2801208496094</v>
+        <v>170.5608673095703</v>
       </c>
       <c r="GW3" t="n">
-        <v>227.4540863037109</v>
+        <v>170.7100830078125</v>
       </c>
       <c r="GX3" t="n">
-        <v>227.5608520507812</v>
+        <v>170.7290649414062</v>
       </c>
       <c r="GY3" t="n">
-        <v>227.6012725830078</v>
+        <v>170.7055511474609</v>
       </c>
       <c r="GZ3" t="n">
-        <v>227.6244506835938</v>
+        <v>170.6799011230469</v>
       </c>
       <c r="HA3" t="n">
-        <v>227.6386871337891</v>
+        <v>170.6551666259766</v>
       </c>
       <c r="HB3" t="n">
-        <v>227.6436767578125</v>
+        <v>170.6144256591797</v>
       </c>
       <c r="HC3" t="n">
-        <v>227.6513824462891</v>
+        <v>170.5917205810547</v>
       </c>
       <c r="HD3" t="n">
-        <v>227.6650390625</v>
+        <v>170.5713348388672</v>
       </c>
       <c r="HE3" t="n">
-        <v>227.6846466064453</v>
+        <v>170.5437927246094</v>
       </c>
       <c r="HF3" t="n">
-        <v>227.6235809326172</v>
+        <v>170.5244903564453</v>
       </c>
       <c r="HG3" t="n">
-        <v>227.5040435791016</v>
+        <v>170.5264434814453</v>
       </c>
       <c r="HH3" t="n">
-        <v>227.4748229980469</v>
+        <v>170.5338592529297</v>
       </c>
       <c r="HI3" t="n">
-        <v>227.45361328125</v>
+        <v>170.5417633056641</v>
       </c>
       <c r="HJ3" t="n">
-        <v>227.4571380615234</v>
+        <v>170.5483551025391</v>
       </c>
       <c r="HK3" t="n">
-        <v>227.4626007080078</v>
+        <v>170.5992889404297</v>
       </c>
       <c r="HL3" t="n">
-        <v>227.4569244384766</v>
+        <v>170.6856842041016</v>
       </c>
       <c r="HM3" t="n">
-        <v>227.4553985595703</v>
+        <v>170.7241668701172</v>
       </c>
       <c r="HN3" t="n">
-        <v>227.4541778564453</v>
+        <v>170.7158050537109</v>
       </c>
       <c r="HO3" t="n">
-        <v>227.4526977539062</v>
+        <v>170.7078704833984</v>
       </c>
       <c r="HP3" t="n">
-        <v>227.4509582519531</v>
+        <v>170.7340545654297</v>
       </c>
       <c r="HQ3" t="n">
-        <v>227.4501953125</v>
+        <v>170.77783203125</v>
       </c>
       <c r="HR3" t="n">
-        <v>227.450439453125</v>
+        <v>171.0157470703125</v>
       </c>
       <c r="HS3" t="n">
-        <v>227.4569244384766</v>
+        <v>171.0494995117188</v>
       </c>
       <c r="HT3" t="n">
-        <v>227.4736633300781</v>
+        <v>171.0801391601562</v>
       </c>
       <c r="HU3" t="n">
-        <v>227.4896087646484</v>
+        <v>171.1522216796875</v>
       </c>
       <c r="HV3" t="n">
-        <v>227.5074310302734</v>
+        <v>171.1263427734375</v>
       </c>
       <c r="HW3" t="n">
-        <v>227.5079956054688</v>
+        <v>170.9966430664062</v>
       </c>
       <c r="HX3" t="n">
-        <v>227.5012359619141</v>
+        <v>170.9617614746094</v>
       </c>
       <c r="HY3" t="n">
-        <v>227.0906524658203</v>
+        <v>170.9247131347656</v>
       </c>
       <c r="HZ3" t="n">
-        <v>226.5389251708984</v>
+        <v>170.8765411376953</v>
       </c>
       <c r="IA3" t="n">
-        <v>226.0210876464844</v>
+        <v>170.6714935302734</v>
       </c>
       <c r="IB3" t="n">
-        <v>225.8836364746094</v>
+        <v>170.5179901123047</v>
       </c>
       <c r="IC3" t="n">
-        <v>225.6856079101562</v>
+        <v>170.7900085449219</v>
       </c>
       <c r="ID3" t="n">
-        <v>225.6629638671875</v>
+        <v>171.3654022216797</v>
       </c>
       <c r="IE3" t="n">
-        <v>225.6842346191406</v>
+        <v>171.4983825683594</v>
       </c>
       <c r="IF3" t="n">
-        <v>225.6887969970703</v>
+        <v>171.4779968261719</v>
       </c>
       <c r="IG3" t="n">
-        <v>225.6661376953125</v>
+        <v>171.5022888183594</v>
       </c>
       <c r="IH3" t="n">
-        <v>225.6529693603516</v>
+        <v>171.4891052246094</v>
       </c>
       <c r="II3" t="n">
-        <v>225.6378021240234</v>
+        <v>171.3811187744141</v>
       </c>
       <c r="IJ3" t="n">
-        <v>226.7284851074219</v>
+        <v>171.3520202636719</v>
       </c>
       <c r="IK3" t="n">
-        <v>227.1265716552734</v>
+        <v>171.575439453125</v>
       </c>
       <c r="IL3" t="n">
-        <v>227.3992004394531</v>
+        <v>172.0489959716797</v>
       </c>
       <c r="IM3" t="n">
-        <v>227.6235809326172</v>
+        <v>171.5806884765625</v>
       </c>
       <c r="IN3" t="n">
-        <v>227.6947631835938</v>
+        <v>171.4708404541016</v>
       </c>
       <c r="IO3" t="n">
-        <v>227.7379608154297</v>
+        <v>171.4010009765625</v>
       </c>
       <c r="IP3" t="n">
-        <v>227.7496490478516</v>
+        <v>171.3797760009766</v>
       </c>
       <c r="IQ3" t="n">
-        <v>227.7287902832031</v>
+        <v>171.3988494873047</v>
       </c>
       <c r="IR3" t="n">
-        <v>227.6908721923828</v>
+        <v>171.419189453125</v>
       </c>
       <c r="IS3" t="n">
-        <v>227.6716156005859</v>
+        <v>171.4351043701172</v>
       </c>
       <c r="IT3" t="n">
-        <v>227.6569213867188</v>
+        <v>171.4614715576172</v>
       </c>
       <c r="IU3" t="n">
-        <v>227.6409606933594</v>
+        <v>171.6043243408203</v>
       </c>
       <c r="IV3" t="n">
-        <v>227.6198272705078</v>
+        <v>171.5158538818359</v>
       </c>
       <c r="IW3" t="n">
-        <v>227.5766143798828</v>
+        <v>170.424072265625</v>
       </c>
       <c r="IX3" t="n">
-        <v>227.1611175537109</v>
+        <v>170.3699645996094</v>
       </c>
       <c r="IY3" t="n">
-        <v>226.4033355712891</v>
+        <v>170.6210327148438</v>
       </c>
       <c r="IZ3" t="n">
-        <v>226.0971984863281</v>
+        <v>170.6703643798828</v>
       </c>
       <c r="JA3" t="n">
-        <v>225.8732604980469</v>
+        <v>170.6479034423828</v>
       </c>
       <c r="JB3" t="n">
-        <v>225.6873931884766</v>
+        <v>170.6316680908203</v>
       </c>
       <c r="JC3" t="n">
-        <v>225.6973114013672</v>
+        <v>170.60107421875</v>
       </c>
       <c r="JD3" t="n">
-        <v>226.7011566162109</v>
+        <v>170.4568176269531</v>
       </c>
       <c r="JE3" t="n">
-        <v>227.018798828125</v>
+        <v>170.3712921142578</v>
       </c>
       <c r="JF3" t="n">
-        <v>227.1508636474609</v>
+        <v>170.4954681396484</v>
       </c>
       <c r="JG3" t="n">
-        <v>227.7020874023438</v>
+        <v>170.8694763183594</v>
       </c>
       <c r="JH3" t="n">
-        <v>227.9467620849609</v>
+        <v>171.2691802978516</v>
       </c>
       <c r="JI3" t="n">
-        <v>227.9507751464844</v>
+        <v>171.1851043701172</v>
       </c>
       <c r="JJ3" t="n">
-        <v>227.9564666748047</v>
+        <v>171.2675170898438</v>
       </c>
       <c r="JK3" t="n">
-        <v>227.9633026123047</v>
+        <v>171.4049682617188</v>
       </c>
       <c r="JL3" t="n">
-        <v>227.9664154052734</v>
+        <v>171.4110260009766</v>
       </c>
       <c r="JM3" t="n">
-        <v>227.9606475830078</v>
+        <v>171.3727416992188</v>
       </c>
       <c r="JN3" t="n">
-        <v>227.9551391601562</v>
+        <v>171.4090881347656</v>
       </c>
       <c r="JO3" t="n">
-        <v>227.9505920410156</v>
+        <v>171.3567047119141</v>
       </c>
       <c r="JP3" t="n">
-        <v>227.9462890625</v>
+        <v>170.3760375976562</v>
       </c>
       <c r="JQ3" t="n">
-        <v>227.9116973876953</v>
+        <v>170.0054626464844</v>
       </c>
       <c r="JR3" t="n">
-        <v>227.7522888183594</v>
+        <v>170.1462554931641</v>
       </c>
       <c r="JS3" t="n">
-        <v>227.6292114257812</v>
+        <v>170.1533660888672</v>
       </c>
       <c r="JT3" t="n">
-        <v>227.4242706298828</v>
+        <v>170.1172180175781</v>
       </c>
       <c r="JU3" t="n">
-        <v>227.3662261962891</v>
+        <v>170.0242004394531</v>
       </c>
       <c r="JV3" t="n">
-        <v>227.3326873779297</v>
+        <v>169.9514007568359</v>
       </c>
       <c r="JW3" t="n">
-        <v>227.4013061523438</v>
+        <v>169.8650970458984</v>
       </c>
       <c r="JX3" t="n">
-        <v>227.1881256103516</v>
+        <v>169.7750396728516</v>
       </c>
       <c r="JY3" t="n">
-        <v>226.923828125</v>
+        <v>169.7213134765625</v>
       </c>
       <c r="JZ3" t="n">
-        <v>225.8185272216797</v>
+        <v>169.7350921630859</v>
       </c>
       <c r="KA3" t="n">
-        <v>225.0637359619141</v>
+        <v>169.8621978759766</v>
       </c>
       <c r="KB3" t="n">
-        <v>224.6879425048828</v>
+        <v>169.8155975341797</v>
       </c>
       <c r="KC3" t="n">
-        <v>224.0122680664062</v>
+        <v>169.23486328125</v>
       </c>
       <c r="KD3" t="n">
-        <v>223.2153472900391</v>
+        <v>168.9009552001953</v>
       </c>
       <c r="KE3" t="n">
-        <v>222.8321685791016</v>
+        <v>168.8805236816406</v>
       </c>
       <c r="KF3" t="n">
-        <v>222.2705535888672</v>
+        <v>168.9195404052734</v>
       </c>
       <c r="KG3" t="n">
-        <v>221.578125</v>
+        <v>168.9366455078125</v>
       </c>
       <c r="KH3" t="n">
-        <v>220.6464996337891</v>
+        <v>168.9458923339844</v>
       </c>
       <c r="KI3" t="n">
-        <v>219.1819763183594</v>
+        <v>169.0866546630859</v>
       </c>
       <c r="KJ3" t="n">
-        <v>216.4187927246094</v>
+        <v>169.4843139648438</v>
       </c>
       <c r="KK3" t="n">
-        <v>214.9605865478516</v>
+        <v>169.8218841552734</v>
       </c>
       <c r="KL3" t="n">
-        <v>213.5475616455078</v>
+        <v>169.5353546142578</v>
       </c>
       <c r="KM3" t="n">
-        <v>212.8479309082031</v>
+        <v>169.4270782470703</v>
       </c>
       <c r="KN3" t="n">
-        <v>209.3282928466797</v>
+        <v>169.3654327392578</v>
       </c>
       <c r="KO3" t="n">
-        <v>195.3354187011719</v>
+        <v>168.8791046142578</v>
       </c>
       <c r="KP3" t="n">
-        <v>189.9060668945312</v>
+        <v>167.1417999267578</v>
       </c>
       <c r="KQ3" t="n">
-        <v>184.4938049316406</v>
+        <v>166.78271484375</v>
       </c>
       <c r="KR3" t="n">
-        <v>177.9015960693359</v>
+        <v>168.6581726074219</v>
       </c>
       <c r="KS3" t="n">
-        <v>163.8625793457031</v>
+        <v>166.5224914550781</v>
       </c>
       <c r="KT3" t="n">
-        <v>156.6761474609375</v>
+        <v>166.1253662109375</v>
       </c>
       <c r="KU3" t="n">
-        <v>147.6460876464844</v>
+        <v>167.1403198242188</v>
       </c>
       <c r="KV3" t="n">
-        <v>142.9785766601562</v>
+        <v>169.3351135253906</v>
       </c>
       <c r="KW3" t="n">
-        <v>137.2324371337891</v>
+        <v>168.7045593261719</v>
       </c>
       <c r="KX3" t="n">
-        <v>123.8562469482422</v>
+        <v>160.9068145751953</v>
       </c>
       <c r="KY3" t="n">
-        <v>110.5311431884766</v>
+        <v>153.3262786865234</v>
       </c>
       <c r="KZ3" t="n">
-        <v>96.91082763671875</v>
+        <v>142.6710968017578</v>
       </c>
       <c r="LA3" t="n">
-        <v>82.38047790527344</v>
+        <v>134.58349609375</v>
       </c>
       <c r="LB3" t="n">
-        <v>76.18743133544922</v>
+        <v>130.4486541748047</v>
       </c>
       <c r="LC3" t="n">
-        <v>71.63986206054688</v>
+        <v>128.8061370849609</v>
       </c>
       <c r="LD3" t="n">
-        <v>66.39739990234375</v>
+        <v>119.8992385864258</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>103.0819931030273</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>84.45298767089844</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>73.75984954833984</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>62.09996795654297</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>54.44411468505859</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>43.13419723510742</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>36.47859573364258</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>54.80501556396484</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>65.47866821289062</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>51.72833251953125</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>61.97201156616211</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>87.94728088378906</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>89.03662109375</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>47.40155792236328</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>17.23437881469727</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>85.49134063720703</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>77.98952484130859</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>68.79645538330078</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>60.4710693359375</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>57.05243301391602</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>61.46654510498047</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>67.55380249023438</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>65.94036865234375</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>61.18610763549805</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>63.62097549438477</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>65.99624633789062</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>69.42647552490234</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>72.86380767822266</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>874.0528564453125</v>
+        <v>832.07958984375</v>
       </c>
       <c r="B4" t="n">
-        <v>891.657958984375</v>
+        <v>858.6119384765625</v>
       </c>
       <c r="C4" t="n">
-        <v>915.6185302734375</v>
+        <v>886.6265258789062</v>
       </c>
       <c r="D4" t="n">
-        <v>944.598388671875</v>
+        <v>914.5733032226562</v>
       </c>
       <c r="E4" t="n">
-        <v>979.9937744140625</v>
+        <v>940.4852905273438</v>
       </c>
       <c r="F4" t="n">
-        <v>1016.919799804688</v>
+        <v>968.3458862304688</v>
       </c>
       <c r="G4" t="n">
-        <v>1056.6630859375</v>
+        <v>996.55615234375</v>
       </c>
       <c r="H4" t="n">
-        <v>1097.854614257812</v>
+        <v>1023.506225585938</v>
       </c>
       <c r="I4" t="n">
-        <v>1139.813110351562</v>
+        <v>1049.967407226562</v>
       </c>
       <c r="J4" t="n">
-        <v>1182.946533203125</v>
+        <v>1076.4013671875</v>
       </c>
       <c r="K4" t="n">
-        <v>1226.625</v>
+        <v>1102.636962890625</v>
       </c>
       <c r="L4" t="n">
-        <v>1269.66943359375</v>
+        <v>1127.573364257812</v>
       </c>
       <c r="M4" t="n">
-        <v>1310.937744140625</v>
+        <v>1153.3994140625</v>
       </c>
       <c r="N4" t="n">
-        <v>1350.280517578125</v>
+        <v>1181.168090820312</v>
       </c>
       <c r="O4" t="n">
-        <v>1389.65771484375</v>
+        <v>1208.809326171875</v>
       </c>
       <c r="P4" t="n">
-        <v>1426.930541992188</v>
+        <v>1236.029907226562</v>
       </c>
       <c r="Q4" t="n">
-        <v>1460.754638671875</v>
+        <v>1264.7841796875</v>
       </c>
       <c r="R4" t="n">
-        <v>1493.3984375</v>
+        <v>1296.200805664062</v>
       </c>
       <c r="S4" t="n">
-        <v>1525.809326171875</v>
+        <v>1327.983154296875</v>
       </c>
       <c r="T4" t="n">
-        <v>1555.808837890625</v>
+        <v>1359.866577148438</v>
       </c>
       <c r="U4" t="n">
-        <v>1587.643676757812</v>
+        <v>1392.147094726562</v>
       </c>
       <c r="V4" t="n">
-        <v>1621.197875976562</v>
+        <v>1426.634765625</v>
       </c>
       <c r="W4" t="n">
-        <v>1652.595092773438</v>
+        <v>1461.826904296875</v>
       </c>
       <c r="X4" t="n">
-        <v>1684.089233398438</v>
+        <v>1496.3408203125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1719.103637695312</v>
+        <v>1526.656616210938</v>
       </c>
       <c r="Z4" t="n">
-        <v>1753.2880859375</v>
+        <v>1554.841186523438</v>
       </c>
       <c r="AA4" t="n">
-        <v>1782.01513671875</v>
+        <v>1585.122192382812</v>
       </c>
       <c r="AB4" t="n">
-        <v>1810.222900390625</v>
+        <v>1614.688110351562</v>
       </c>
       <c r="AC4" t="n">
-        <v>1841.834106445312</v>
+        <v>1646.211791992188</v>
       </c>
       <c r="AD4" t="n">
-        <v>1874.169555664062</v>
+        <v>1676.9150390625</v>
       </c>
       <c r="AE4" t="n">
-        <v>1900.284301757812</v>
+        <v>1705.826171875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1919.357666015625</v>
+        <v>1726.626342773438</v>
       </c>
       <c r="AG4" t="n">
-        <v>1941.915771484375</v>
+        <v>1750.643676757812</v>
       </c>
       <c r="AH4" t="n">
-        <v>1970.401977539062</v>
+        <v>1775.712524414062</v>
       </c>
       <c r="AI4" t="n">
-        <v>2005.386596679688</v>
+        <v>1802.498413085938</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2035.838256835938</v>
+        <v>1830.550903320312</v>
       </c>
       <c r="AK4" t="n">
-        <v>2054.070068359375</v>
+        <v>1855.375732421875</v>
       </c>
       <c r="AL4" t="n">
-        <v>2064.71826171875</v>
+        <v>1875.98291015625</v>
       </c>
       <c r="AM4" t="n">
-        <v>2072.0830078125</v>
+        <v>1891.991088867188</v>
       </c>
       <c r="AN4" t="n">
-        <v>2076.782470703125</v>
+        <v>1906.216430664062</v>
       </c>
       <c r="AO4" t="n">
-        <v>2081.920166015625</v>
+        <v>1922.422485351562</v>
       </c>
       <c r="AP4" t="n">
-        <v>2089.67578125</v>
+        <v>1947.340698242188</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2100.8388671875</v>
+        <v>1980.070678710938</v>
       </c>
       <c r="AR4" t="n">
-        <v>2114.197021484375</v>
+        <v>2008.9853515625</v>
       </c>
       <c r="AS4" t="n">
-        <v>2124.492919921875</v>
+        <v>2026.054321289062</v>
       </c>
       <c r="AT4" t="n">
-        <v>2131.656494140625</v>
+        <v>2036.082397460938</v>
       </c>
       <c r="AU4" t="n">
-        <v>2137.08837890625</v>
+        <v>2046.849975585938</v>
       </c>
       <c r="AV4" t="n">
-        <v>2145.55078125</v>
+        <v>2060.1318359375</v>
       </c>
       <c r="AW4" t="n">
-        <v>2154.274658203125</v>
+        <v>2075.2158203125</v>
       </c>
       <c r="AX4" t="n">
-        <v>2164.33642578125</v>
+        <v>2092.274169921875</v>
       </c>
       <c r="AY4" t="n">
-        <v>2176.01904296875</v>
+        <v>2107.783447265625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2183.463134765625</v>
+        <v>2132.864013671875</v>
       </c>
       <c r="BA4" t="n">
-        <v>2188.62841796875</v>
+        <v>2159.103271484375</v>
       </c>
       <c r="BB4" t="n">
-        <v>2191.771728515625</v>
+        <v>2178.552490234375</v>
       </c>
       <c r="BC4" t="n">
-        <v>2195.0029296875</v>
+        <v>2192.52734375</v>
       </c>
       <c r="BD4" t="n">
-        <v>2196.706298828125</v>
+        <v>2205.92626953125</v>
       </c>
       <c r="BE4" t="n">
-        <v>2197.39892578125</v>
+        <v>2215.6923828125</v>
       </c>
       <c r="BF4" t="n">
-        <v>2198.6171875</v>
+        <v>2227.00927734375</v>
       </c>
       <c r="BG4" t="n">
-        <v>2200.4091796875</v>
+        <v>2239.89501953125</v>
       </c>
       <c r="BH4" t="n">
-        <v>2204.204345703125</v>
+        <v>2251.950439453125</v>
       </c>
       <c r="BI4" t="n">
-        <v>2209.119873046875</v>
+        <v>2259.169677734375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2213.44677734375</v>
+        <v>2264.654541015625</v>
       </c>
       <c r="BK4" t="n">
-        <v>2217.426513671875</v>
+        <v>2268.081298828125</v>
       </c>
       <c r="BL4" t="n">
-        <v>2220.534423828125</v>
+        <v>2270.302001953125</v>
       </c>
       <c r="BM4" t="n">
-        <v>2220.965087890625</v>
+        <v>2273.1533203125</v>
       </c>
       <c r="BN4" t="n">
-        <v>2221.035888671875</v>
+        <v>2279.504150390625</v>
       </c>
       <c r="BO4" t="n">
-        <v>2221.090087890625</v>
+        <v>2287.249267578125</v>
       </c>
       <c r="BP4" t="n">
-        <v>2221.005859375</v>
+        <v>2291.84912109375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2220.894287109375</v>
+        <v>2293.531494140625</v>
       </c>
       <c r="BR4" t="n">
-        <v>2220.799560546875</v>
+        <v>2295.581298828125</v>
       </c>
       <c r="BS4" t="n">
-        <v>2220.71044921875</v>
+        <v>2299.04736328125</v>
       </c>
       <c r="BT4" t="n">
-        <v>2220.64794921875</v>
+        <v>2305.014404296875</v>
       </c>
       <c r="BU4" t="n">
-        <v>2221.83740234375</v>
+        <v>2310.06494140625</v>
       </c>
       <c r="BV4" t="n">
-        <v>2222.780029296875</v>
+        <v>2311.770751953125</v>
       </c>
       <c r="BW4" t="n">
-        <v>2223.4951171875</v>
+        <v>2311.982177734375</v>
       </c>
       <c r="BX4" t="n">
-        <v>2224.052001953125</v>
+        <v>2310.873046875</v>
       </c>
       <c r="BY4" t="n">
-        <v>2224.468994140625</v>
+        <v>2310.22998046875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2224.775390625</v>
+        <v>2309.561767578125</v>
       </c>
       <c r="CA4" t="n">
-        <v>2223.229736328125</v>
+        <v>2309.1552734375</v>
       </c>
       <c r="CB4" t="n">
-        <v>2222.20361328125</v>
+        <v>2308.2626953125</v>
       </c>
       <c r="CC4" t="n">
-        <v>2221.100830078125</v>
+        <v>2307.745849609375</v>
       </c>
       <c r="CD4" t="n">
-        <v>2220.489501953125</v>
+        <v>2307.052001953125</v>
       </c>
       <c r="CE4" t="n">
-        <v>2220.00341796875</v>
+        <v>2306.683349609375</v>
       </c>
       <c r="CF4" t="n">
-        <v>2219.653564453125</v>
+        <v>2306.105712890625</v>
       </c>
       <c r="CG4" t="n">
-        <v>2219.30322265625</v>
+        <v>2305.50634765625</v>
       </c>
       <c r="CH4" t="n">
-        <v>2219.07421875</v>
+        <v>2303.482666015625</v>
       </c>
       <c r="CI4" t="n">
-        <v>2217.478271484375</v>
+        <v>2301.084228515625</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2216.0478515625</v>
+        <v>2297.440185546875</v>
       </c>
       <c r="CK4" t="n">
-        <v>2215.027099609375</v>
+        <v>2294.90625</v>
       </c>
       <c r="CL4" t="n">
-        <v>2214.283935546875</v>
+        <v>2295.04345703125</v>
       </c>
       <c r="CM4" t="n">
-        <v>2213.697265625</v>
+        <v>2295.22705078125</v>
       </c>
       <c r="CN4" t="n">
-        <v>2213.1552734375</v>
+        <v>2295.466796875</v>
       </c>
       <c r="CO4" t="n">
-        <v>2212.695556640625</v>
+        <v>2295.73779296875</v>
       </c>
       <c r="CP4" t="n">
-        <v>2212.307861328125</v>
+        <v>2295.876953125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2212.172119140625</v>
+        <v>2296.52734375</v>
       </c>
       <c r="CR4" t="n">
-        <v>2212.18310546875</v>
+        <v>2297.138427734375</v>
       </c>
       <c r="CS4" t="n">
-        <v>2213.904296875</v>
+        <v>2298.46875</v>
       </c>
       <c r="CT4" t="n">
-        <v>2215.7705078125</v>
+        <v>2298.655029296875</v>
       </c>
       <c r="CU4" t="n">
-        <v>2217.157470703125</v>
+        <v>2298.791259765625</v>
       </c>
       <c r="CV4" t="n">
-        <v>2218.458251953125</v>
+        <v>2298.821044921875</v>
       </c>
       <c r="CW4" t="n">
-        <v>2220.47265625</v>
+        <v>2298.863525390625</v>
       </c>
       <c r="CX4" t="n">
-        <v>2222.17626953125</v>
+        <v>2298.8779296875</v>
       </c>
       <c r="CY4" t="n">
-        <v>2223.6943359375</v>
+        <v>2298.89111328125</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2223.970947265625</v>
+        <v>2298.933349609375</v>
       </c>
       <c r="DA4" t="n">
-        <v>2224.15576171875</v>
+        <v>2298.968994140625</v>
       </c>
       <c r="DB4" t="n">
-        <v>2224.391357421875</v>
+        <v>2299.0244140625</v>
       </c>
       <c r="DC4" t="n">
-        <v>2224.1845703125</v>
+        <v>2299.044189453125</v>
       </c>
       <c r="DD4" t="n">
-        <v>2223.91357421875</v>
+        <v>2299.07470703125</v>
       </c>
       <c r="DE4" t="n">
-        <v>2223.81640625</v>
+        <v>2299.567138671875</v>
       </c>
       <c r="DF4" t="n">
-        <v>2223.73779296875</v>
+        <v>2300.149169921875</v>
       </c>
       <c r="DG4" t="n">
-        <v>2223.649658203125</v>
+        <v>2300.892578125</v>
       </c>
       <c r="DH4" t="n">
-        <v>2223.560791015625</v>
+        <v>2300.923828125</v>
       </c>
       <c r="DI4" t="n">
-        <v>2223.552001953125</v>
+        <v>2300.9052734375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2223.5478515625</v>
+        <v>2300.882568359375</v>
       </c>
       <c r="DK4" t="n">
-        <v>2223.503173828125</v>
+        <v>2300.84326171875</v>
       </c>
       <c r="DL4" t="n">
-        <v>2218.519775390625</v>
+        <v>2300.83251953125</v>
       </c>
       <c r="DM4" t="n">
-        <v>2214.119384765625</v>
+        <v>2300.820068359375</v>
       </c>
       <c r="DN4" t="n">
-        <v>2209.03466796875</v>
+        <v>2300.81689453125</v>
       </c>
       <c r="DO4" t="n">
-        <v>2208.65478515625</v>
+        <v>2300.812744140625</v>
       </c>
       <c r="DP4" t="n">
-        <v>2208.61767578125</v>
+        <v>2300.80712890625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2208.697509765625</v>
+        <v>2300.7998046875</v>
       </c>
       <c r="DR4" t="n">
-        <v>2208.79833984375</v>
+        <v>2300.7978515625</v>
       </c>
       <c r="DS4" t="n">
-        <v>2208.896728515625</v>
+        <v>2300.763916015625</v>
       </c>
       <c r="DT4" t="n">
-        <v>2209.089111328125</v>
+        <v>2300.757568359375</v>
       </c>
       <c r="DU4" t="n">
-        <v>2209.147705078125</v>
+        <v>2300.74853515625</v>
       </c>
       <c r="DV4" t="n">
-        <v>2209.21533203125</v>
+        <v>2300.720703125</v>
       </c>
       <c r="DW4" t="n">
-        <v>2209.224609375</v>
+        <v>2300.70849609375</v>
       </c>
       <c r="DX4" t="n">
-        <v>2209.308837890625</v>
+        <v>2300.705322265625</v>
       </c>
       <c r="DY4" t="n">
-        <v>2209.7373046875</v>
+        <v>2300.700927734375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2210.793212890625</v>
+        <v>2300.697265625</v>
       </c>
       <c r="EA4" t="n">
-        <v>2212.7880859375</v>
+        <v>2300.73974609375</v>
       </c>
       <c r="EB4" t="n">
-        <v>2213.778076171875</v>
+        <v>2301.333251953125</v>
       </c>
       <c r="EC4" t="n">
-        <v>2214.281982421875</v>
+        <v>2301.7587890625</v>
       </c>
       <c r="ED4" t="n">
-        <v>2213.8642578125</v>
+        <v>2302.250244140625</v>
       </c>
       <c r="EE4" t="n">
-        <v>2213.555908203125</v>
+        <v>2303.504150390625</v>
       </c>
       <c r="EF4" t="n">
-        <v>2212.87109375</v>
+        <v>2304.289306640625</v>
       </c>
       <c r="EG4" t="n">
-        <v>2212.51611328125</v>
+        <v>2305.878173828125</v>
       </c>
       <c r="EH4" t="n">
-        <v>2212.47900390625</v>
+        <v>2307.943115234375</v>
       </c>
       <c r="EI4" t="n">
-        <v>2212.2138671875</v>
+        <v>2313.578369140625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2212.170166015625</v>
+        <v>2318.698974609375</v>
       </c>
       <c r="EK4" t="n">
-        <v>2212.158203125</v>
+        <v>2318.3388671875</v>
       </c>
       <c r="EL4" t="n">
-        <v>2212.162841796875</v>
+        <v>2316.803955078125</v>
       </c>
       <c r="EM4" t="n">
-        <v>2213.767822265625</v>
+        <v>2316.2509765625</v>
       </c>
       <c r="EN4" t="n">
-        <v>2214.35400390625</v>
+        <v>2315.9521484375</v>
       </c>
       <c r="EO4" t="n">
-        <v>2215.275634765625</v>
+        <v>2315.38671875</v>
       </c>
       <c r="EP4" t="n">
-        <v>2215.67431640625</v>
+        <v>2314.765380859375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2216.654541015625</v>
+        <v>2314.620361328125</v>
       </c>
       <c r="ER4" t="n">
-        <v>2217.3193359375</v>
+        <v>2314.51904296875</v>
       </c>
       <c r="ES4" t="n">
-        <v>2217.40673828125</v>
+        <v>2314.456787109375</v>
       </c>
       <c r="ET4" t="n">
-        <v>2217.435546875</v>
+        <v>2314.08251953125</v>
       </c>
       <c r="EU4" t="n">
-        <v>2217.44091796875</v>
+        <v>2313.6494140625</v>
       </c>
       <c r="EV4" t="n">
-        <v>2217.445556640625</v>
+        <v>2313.500244140625</v>
       </c>
       <c r="EW4" t="n">
-        <v>2217.498291015625</v>
+        <v>2313.23828125</v>
       </c>
       <c r="EX4" t="n">
-        <v>2217.59912109375</v>
+        <v>2312.407470703125</v>
       </c>
       <c r="EY4" t="n">
-        <v>2217.64404296875</v>
+        <v>2311.526611328125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2217.66845703125</v>
+        <v>2310.87890625</v>
       </c>
       <c r="FA4" t="n">
-        <v>2217.716796875</v>
+        <v>2310.25390625</v>
       </c>
       <c r="FB4" t="n">
-        <v>2217.684326171875</v>
+        <v>2310.260498046875</v>
       </c>
       <c r="FC4" t="n">
-        <v>2215.6640625</v>
+        <v>2310.360595703125</v>
       </c>
       <c r="FD4" t="n">
-        <v>2208.552001953125</v>
+        <v>2310.38427734375</v>
       </c>
       <c r="FE4" t="n">
-        <v>2207.076416015625</v>
+        <v>2310.406005859375</v>
       </c>
       <c r="FF4" t="n">
-        <v>2206.427001953125</v>
+        <v>2310.419921875</v>
       </c>
       <c r="FG4" t="n">
-        <v>2205.8125</v>
+        <v>2310.4267578125</v>
       </c>
       <c r="FH4" t="n">
-        <v>2205.699462890625</v>
+        <v>2311.841552734375</v>
       </c>
       <c r="FI4" t="n">
-        <v>2205.717041015625</v>
+        <v>2314.669921875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2205.890380859375</v>
+        <v>2317.996337890625</v>
       </c>
       <c r="FK4" t="n">
-        <v>2205.99755859375</v>
+        <v>2321.193603515625</v>
       </c>
       <c r="FL4" t="n">
-        <v>2206.517822265625</v>
+        <v>2321.70556640625</v>
       </c>
       <c r="FM4" t="n">
-        <v>2206.79638671875</v>
+        <v>2321.5751953125</v>
       </c>
       <c r="FN4" t="n">
-        <v>2205.203369140625</v>
+        <v>2321.59765625</v>
       </c>
       <c r="FO4" t="n">
-        <v>2204.650146484375</v>
+        <v>2321.658203125</v>
       </c>
       <c r="FP4" t="n">
-        <v>2203.991943359375</v>
+        <v>2321.71630859375</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2203.752197265625</v>
+        <v>2320.5009765625</v>
       </c>
       <c r="FR4" t="n">
-        <v>2209.006591796875</v>
+        <v>2319.529541015625</v>
       </c>
       <c r="FS4" t="n">
-        <v>2211.91943359375</v>
+        <v>2318.248291015625</v>
       </c>
       <c r="FT4" t="n">
-        <v>2213.21533203125</v>
+        <v>2316.084716796875</v>
       </c>
       <c r="FU4" t="n">
-        <v>2212.990234375</v>
+        <v>2306.924072265625</v>
       </c>
       <c r="FV4" t="n">
-        <v>2212.9111328125</v>
+        <v>2302.306884765625</v>
       </c>
       <c r="FW4" t="n">
-        <v>2212.75927734375</v>
+        <v>2298.783447265625</v>
       </c>
       <c r="FX4" t="n">
-        <v>2212.746826171875</v>
+        <v>2298.96533203125</v>
       </c>
       <c r="FY4" t="n">
-        <v>2212.7392578125</v>
+        <v>2299.11279296875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2212.69091796875</v>
+        <v>2299.3681640625</v>
       </c>
       <c r="GA4" t="n">
-        <v>2212.50732421875</v>
+        <v>2299.988525390625</v>
       </c>
       <c r="GB4" t="n">
-        <v>2212.3955078125</v>
+        <v>2300.0771484375</v>
       </c>
       <c r="GC4" t="n">
-        <v>2212.4296875</v>
+        <v>2300.11083984375</v>
       </c>
       <c r="GD4" t="n">
-        <v>2212.609130859375</v>
+        <v>2300.18603515625</v>
       </c>
       <c r="GE4" t="n">
-        <v>2212.7841796875</v>
+        <v>2300.228271484375</v>
       </c>
       <c r="GF4" t="n">
-        <v>2212.732421875</v>
+        <v>2300.37744140625</v>
       </c>
       <c r="GG4" t="n">
-        <v>2211.425537109375</v>
+        <v>2300.80517578125</v>
       </c>
       <c r="GH4" t="n">
-        <v>2211.061767578125</v>
+        <v>2301.46875</v>
       </c>
       <c r="GI4" t="n">
-        <v>2211.639892578125</v>
+        <v>2302.59765625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2212.224853515625</v>
+        <v>2304.16650390625</v>
       </c>
       <c r="GK4" t="n">
-        <v>2212.653564453125</v>
+        <v>2306.12939453125</v>
       </c>
       <c r="GL4" t="n">
-        <v>2212.80908203125</v>
+        <v>2309.270751953125</v>
       </c>
       <c r="GM4" t="n">
-        <v>2213.036865234375</v>
+        <v>2311.355712890625</v>
       </c>
       <c r="GN4" t="n">
-        <v>2213.1181640625</v>
+        <v>2315.970703125</v>
       </c>
       <c r="GO4" t="n">
-        <v>2213.215576171875</v>
+        <v>2316.371826171875</v>
       </c>
       <c r="GP4" t="n">
-        <v>2213.254638671875</v>
+        <v>2316.53173828125</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2213.011474609375</v>
+        <v>2316.626708984375</v>
       </c>
       <c r="GR4" t="n">
-        <v>2211.72705078125</v>
+        <v>2316.66259765625</v>
       </c>
       <c r="GS4" t="n">
-        <v>2209.689208984375</v>
+        <v>2316.75146484375</v>
       </c>
       <c r="GT4" t="n">
-        <v>2206.994384765625</v>
+        <v>2317.078369140625</v>
       </c>
       <c r="GU4" t="n">
-        <v>2205.226806640625</v>
+        <v>2317.341064453125</v>
       </c>
       <c r="GV4" t="n">
-        <v>2204.393310546875</v>
+        <v>2317.349609375</v>
       </c>
       <c r="GW4" t="n">
-        <v>2203.712158203125</v>
+        <v>2318.9248046875</v>
       </c>
       <c r="GX4" t="n">
-        <v>2203.308349609375</v>
+        <v>2319.733642578125</v>
       </c>
       <c r="GY4" t="n">
-        <v>2203.17578125</v>
+        <v>2319.973388671875</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2203.102783203125</v>
+        <v>2320.04345703125</v>
       </c>
       <c r="HA4" t="n">
-        <v>2203.060302734375</v>
+        <v>2320.072021484375</v>
       </c>
       <c r="HB4" t="n">
-        <v>2203.046142578125</v>
+        <v>2320.076171875</v>
       </c>
       <c r="HC4" t="n">
-        <v>2203.0244140625</v>
+        <v>2320.090576171875</v>
       </c>
       <c r="HD4" t="n">
-        <v>2203.08154296875</v>
+        <v>2320.109619140625</v>
       </c>
       <c r="HE4" t="n">
-        <v>2203.21826171875</v>
+        <v>2320.146240234375</v>
       </c>
       <c r="HF4" t="n">
-        <v>2203.660400390625</v>
+        <v>2320.175537109375</v>
       </c>
       <c r="HG4" t="n">
-        <v>2204.438720703125</v>
+        <v>2320.17919921875</v>
       </c>
       <c r="HH4" t="n">
-        <v>2204.739013671875</v>
+        <v>2320.17724609375</v>
       </c>
       <c r="HI4" t="n">
-        <v>2205.09765625</v>
+        <v>2320.17822265625</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2205.265625</v>
+        <v>2320.176025390625</v>
       </c>
       <c r="HK4" t="n">
-        <v>2205.39501953125</v>
+        <v>2320.87939453125</v>
       </c>
       <c r="HL4" t="n">
-        <v>2205.37451171875</v>
+        <v>2322.2861328125</v>
       </c>
       <c r="HM4" t="n">
-        <v>2205.37158203125</v>
+        <v>2323.088623046875</v>
       </c>
       <c r="HN4" t="n">
-        <v>2205.384521484375</v>
+        <v>2324.748291015625</v>
       </c>
       <c r="HO4" t="n">
-        <v>2205.39794921875</v>
+        <v>2327.3642578125</v>
       </c>
       <c r="HP4" t="n">
-        <v>2205.41650390625</v>
+        <v>2327.7265625</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2205.44921875</v>
+        <v>2328.43310546875</v>
       </c>
       <c r="HR4" t="n">
-        <v>2205.49072265625</v>
+        <v>2332.078125</v>
       </c>
       <c r="HS4" t="n">
-        <v>2205.527099609375</v>
+        <v>2333.38427734375</v>
       </c>
       <c r="HT4" t="n">
-        <v>2205.64404296875</v>
+        <v>2334.7353515625</v>
       </c>
       <c r="HU4" t="n">
-        <v>2205.754150390625</v>
+        <v>2336.4541015625</v>
       </c>
       <c r="HV4" t="n">
-        <v>2205.877685546875</v>
+        <v>2337.84912109375</v>
       </c>
       <c r="HW4" t="n">
-        <v>2205.85205078125</v>
+        <v>2338.24853515625</v>
       </c>
       <c r="HX4" t="n">
-        <v>2205.76611328125</v>
+        <v>2338.285888671875</v>
       </c>
       <c r="HY4" t="n">
-        <v>2206.73095703125</v>
+        <v>2338.220458984375</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2208.2265625</v>
+        <v>2337.595947265625</v>
       </c>
       <c r="IA4" t="n">
-        <v>2208.6767578125</v>
+        <v>2334.6455078125</v>
       </c>
       <c r="IB4" t="n">
-        <v>2208.20556640625</v>
+        <v>2323.001953125</v>
       </c>
       <c r="IC4" t="n">
-        <v>2206.62744140625</v>
+        <v>2321.341796875</v>
       </c>
       <c r="ID4" t="n">
-        <v>2205.878662109375</v>
+        <v>2327.310302734375</v>
       </c>
       <c r="IE4" t="n">
-        <v>2205.666748046875</v>
+        <v>2327.35986328125</v>
       </c>
       <c r="IF4" t="n">
-        <v>2205.61474609375</v>
+        <v>2325.748046875</v>
       </c>
       <c r="IG4" t="n">
-        <v>2205.673095703125</v>
+        <v>2324.83740234375</v>
       </c>
       <c r="IH4" t="n">
-        <v>2205.903076171875</v>
+        <v>2323.364990234375</v>
       </c>
       <c r="II4" t="n">
-        <v>2206.042236328125</v>
+        <v>2321.353271484375</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2208.063720703125</v>
+        <v>2321.11474609375</v>
       </c>
       <c r="IK4" t="n">
-        <v>2206.8525390625</v>
+        <v>2326.48046875</v>
       </c>
       <c r="IL4" t="n">
-        <v>2206.22412109375</v>
+        <v>2336.194580078125</v>
       </c>
       <c r="IM4" t="n">
-        <v>2205.6083984375</v>
+        <v>2332.602294921875</v>
       </c>
       <c r="IN4" t="n">
-        <v>2205.41455078125</v>
+        <v>2331.94287109375</v>
       </c>
       <c r="IO4" t="n">
-        <v>2205.277099609375</v>
+        <v>2330.5361328125</v>
       </c>
       <c r="IP4" t="n">
-        <v>2205.256103515625</v>
+        <v>2329.543701171875</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2205.350830078125</v>
+        <v>2329.472412109375</v>
       </c>
       <c r="IR4" t="n">
-        <v>2205.51318359375</v>
+        <v>2329.432373046875</v>
       </c>
       <c r="IS4" t="n">
-        <v>2205.592041015625</v>
+        <v>2329.4052734375</v>
       </c>
       <c r="IT4" t="n">
-        <v>2205.62841796875</v>
+        <v>2329.35791015625</v>
       </c>
       <c r="IU4" t="n">
-        <v>2205.6748046875</v>
+        <v>2328.753173828125</v>
       </c>
       <c r="IV4" t="n">
-        <v>2205.74072265625</v>
+        <v>2323.85400390625</v>
       </c>
       <c r="IW4" t="n">
-        <v>2205.86181640625</v>
+        <v>2304.947998046875</v>
       </c>
       <c r="IX4" t="n">
-        <v>2207.15966796875</v>
+        <v>2301.17578125</v>
       </c>
       <c r="IY4" t="n">
-        <v>2209.552001953125</v>
+        <v>2303.7548828125</v>
       </c>
       <c r="IZ4" t="n">
-        <v>2210.181640625</v>
+        <v>2304.63671875</v>
       </c>
       <c r="JA4" t="n">
-        <v>2210.079345703125</v>
+        <v>2305.20263671875</v>
       </c>
       <c r="JB4" t="n">
-        <v>2209.08984375</v>
+        <v>2305.8447265625</v>
       </c>
       <c r="JC4" t="n">
-        <v>2206.784423828125</v>
+        <v>2306.385009765625</v>
       </c>
       <c r="JD4" t="n">
-        <v>2200.657470703125</v>
+        <v>2305.2080078125</v>
       </c>
       <c r="JE4" t="n">
-        <v>2194.4306640625</v>
+        <v>2304.832275390625</v>
       </c>
       <c r="JF4" t="n">
-        <v>2191.179931640625</v>
+        <v>2307.74853515625</v>
       </c>
       <c r="JG4" t="n">
-        <v>2193.601806640625</v>
+        <v>2314.136962890625</v>
       </c>
       <c r="JH4" t="n">
-        <v>2194.02294921875</v>
+        <v>2321.236572265625</v>
       </c>
       <c r="JI4" t="n">
-        <v>2193.613525390625</v>
+        <v>2323.129150390625</v>
       </c>
       <c r="JJ4" t="n">
-        <v>2193.442138671875</v>
+        <v>2324.529541015625</v>
       </c>
       <c r="JK4" t="n">
-        <v>2193.404296875</v>
+        <v>2325.508544921875</v>
       </c>
       <c r="JL4" t="n">
-        <v>2193.353515625</v>
+        <v>2326.40869140625</v>
       </c>
       <c r="JM4" t="n">
-        <v>2193.3271484375</v>
+        <v>2326.438720703125</v>
       </c>
       <c r="JN4" t="n">
-        <v>2193.290771484375</v>
+        <v>2326.03076171875</v>
       </c>
       <c r="JO4" t="n">
-        <v>2193.281494140625</v>
+        <v>2324.5673828125</v>
       </c>
       <c r="JP4" t="n">
-        <v>2193.27685546875</v>
+        <v>2306.322265625</v>
       </c>
       <c r="JQ4" t="n">
-        <v>2193.415771484375</v>
+        <v>2293.8642578125</v>
       </c>
       <c r="JR4" t="n">
-        <v>2194.00244140625</v>
+        <v>2293.6689453125</v>
       </c>
       <c r="JS4" t="n">
-        <v>2194.489501953125</v>
+        <v>2294.619140625</v>
       </c>
       <c r="JT4" t="n">
-        <v>2195.10546875</v>
+        <v>2295.441650390625</v>
       </c>
       <c r="JU4" t="n">
-        <v>2195.027099609375</v>
+        <v>2297.6220703125</v>
       </c>
       <c r="JV4" t="n">
-        <v>2194.72998046875</v>
+        <v>2299.436279296875</v>
       </c>
       <c r="JW4" t="n">
-        <v>2191.285400390625</v>
+        <v>2299.950927734375</v>
       </c>
       <c r="JX4" t="n">
-        <v>2179.61865234375</v>
+        <v>2299.91552734375</v>
       </c>
       <c r="JY4" t="n">
-        <v>2168.173095703125</v>
+        <v>2299.73046875</v>
       </c>
       <c r="JZ4" t="n">
-        <v>2159.76708984375</v>
+        <v>2299.503173828125</v>
       </c>
       <c r="KA4" t="n">
-        <v>2149.2958984375</v>
+        <v>2297.95947265625</v>
       </c>
       <c r="KB4" t="n">
-        <v>2141.4404296875</v>
+        <v>2294.384765625</v>
       </c>
       <c r="KC4" t="n">
-        <v>2129.78369140625</v>
+        <v>2287.7666015625</v>
       </c>
       <c r="KD4" t="n">
-        <v>2115.051513671875</v>
+        <v>2282.8076171875</v>
       </c>
       <c r="KE4" t="n">
-        <v>2109.102783203125</v>
+        <v>2281.196533203125</v>
       </c>
       <c r="KF4" t="n">
-        <v>2096.600830078125</v>
+        <v>2280.9892578125</v>
       </c>
       <c r="KG4" t="n">
-        <v>2072.971923828125</v>
+        <v>2280.968017578125</v>
       </c>
       <c r="KH4" t="n">
-        <v>2044.671630859375</v>
+        <v>2281.090576171875</v>
       </c>
       <c r="KI4" t="n">
-        <v>2018.052978515625</v>
+        <v>2283.276611328125</v>
       </c>
       <c r="KJ4" t="n">
-        <v>1976.149047851562</v>
+        <v>2289.649169921875</v>
       </c>
       <c r="KK4" t="n">
-        <v>1922.82666015625</v>
+        <v>2297.265869140625</v>
       </c>
       <c r="KL4" t="n">
-        <v>1871.542602539062</v>
+        <v>2296.110107421875</v>
       </c>
       <c r="KM4" t="n">
-        <v>1819.734497070312</v>
+        <v>2295.57470703125</v>
       </c>
       <c r="KN4" t="n">
-        <v>1751.924438476562</v>
+        <v>2294.969970703125</v>
       </c>
       <c r="KO4" t="n">
-        <v>1674.794555664062</v>
+        <v>2288.21044921875</v>
       </c>
       <c r="KP4" t="n">
-        <v>1615.11181640625</v>
+        <v>2245.084716796875</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1554.64306640625</v>
+        <v>2224.931396484375</v>
       </c>
       <c r="KR4" t="n">
-        <v>1498.863891601562</v>
+        <v>2185.20849609375</v>
       </c>
       <c r="KS4" t="n">
-        <v>1404.917358398438</v>
+        <v>2093.507080078125</v>
       </c>
       <c r="KT4" t="n">
-        <v>1329.38134765625</v>
+        <v>2050.95556640625</v>
       </c>
       <c r="KU4" t="n">
-        <v>1204.492919921875</v>
+        <v>1997.7001953125</v>
       </c>
       <c r="KV4" t="n">
-        <v>1125.31982421875</v>
+        <v>1877.521728515625</v>
       </c>
       <c r="KW4" t="n">
-        <v>1039.7177734375</v>
+        <v>1816.727294921875</v>
       </c>
       <c r="KX4" t="n">
-        <v>921.72509765625</v>
+        <v>1698.115844726562</v>
       </c>
       <c r="KY4" t="n">
-        <v>856.9436645507812</v>
+        <v>1625.593627929688</v>
       </c>
       <c r="KZ4" t="n">
-        <v>801.9802856445312</v>
+        <v>1534.687133789062</v>
       </c>
       <c r="LA4" t="n">
-        <v>746.7991333007812</v>
+        <v>1438.232177734375</v>
       </c>
       <c r="LB4" t="n">
-        <v>715.0225219726562</v>
+        <v>1328.281616210938</v>
       </c>
       <c r="LC4" t="n">
-        <v>694.1524658203125</v>
+        <v>1221.297973632812</v>
       </c>
       <c r="LD4" t="n">
-        <v>679.2091674804688</v>
+        <v>1113.522338867188</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>1009.347473144531</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>910.700927734375</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>852.5001220703125</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>769.9976806640625</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>695.56591796875</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>617.6188354492188</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>573.2684326171875</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>553.808349609375</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>501.0162048339844</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>440.3747863769531</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>467.3227233886719</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>469.4628295898438</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>440.71044921875</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>453.2509155273438</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>424.4609069824219</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>399.3081665039062</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>453.3221435546875</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>451.93994140625</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>420.151611328125</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>417.42041015625</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>412.1758728027344</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>405.3369750976562</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>409.9308471679688</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>420.7184143066406</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>419.5864868164062</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>418.5103759765625</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>418.1384582519531</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>417.558837890625</v>
       </c>
     </row>
   </sheetData>
